--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\operation-model-add-treatment-to-completions-arc-melody\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PARETO - dev\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2082DF02-1D44-481C-BCA6-29895472D724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A859316-FABE-43D1-93EF-2A407DE401D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" firstSheet="11" activeTab="11" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" activeTab="64" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -77,6 +77,7 @@
     <sheet name="PipelineExpansionCost" sheetId="89" r:id="rId62"/>
     <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId63"/>
     <sheet name="Hydraulics" sheetId="95" r:id="rId64"/>
+    <sheet name="Economics" sheetId="99" r:id="rId65"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="62" hidden="1">#REF!</definedName>
@@ -128,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="262">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -906,6 +907,15 @@
   <si>
     <t>Pipeline Network Distances (distances are reported in pixels, use adequate conversion value)</t>
   </si>
+  <si>
+    <t>Economic Settings</t>
+  </si>
+  <si>
+    <t>discount_rate</t>
+  </si>
+  <si>
+    <t>CAPEX_lifetime</t>
+  </si>
 </sst>
 </file>
 
@@ -1207,7 +1217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1331,6 +1341,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1769,15 +1782,15 @@
       <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.21875" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -1789,7 +1802,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
         <v>7</v>
@@ -1803,7 +1816,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1815,7 +1828,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="20" t="s">
         <v>13</v>
@@ -1829,7 +1842,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="20" t="s">
         <v>11</v>
@@ -1843,7 +1856,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="20" t="s">
         <v>8</v>
@@ -1857,7 +1870,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="20" t="s">
         <v>9</v>
@@ -1871,7 +1884,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="20" t="s">
         <v>10</v>
@@ -1885,7 +1898,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="20" t="s">
         <v>49</v>
@@ -1899,7 +1912,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -1911,7 +1924,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="20" t="s">
         <v>14</v>
@@ -1925,7 +1938,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="20" t="s">
         <v>12</v>
@@ -1939,7 +1952,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -1951,7 +1964,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="20" t="s">
         <v>15</v>
@@ -1965,7 +1978,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="20" t="s">
         <v>16</v>
@@ -1979,7 +1992,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="20" t="s">
         <v>17</v>
@@ -1993,7 +2006,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="20" t="s">
         <v>18</v>
@@ -2007,7 +2020,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2019,7 +2032,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2031,7 +2044,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="22" t="s">
         <v>19</v>
@@ -2047,7 +2060,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2059,7 +2072,7 @@
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="23" t="s">
         <v>21</v>
@@ -2075,7 +2088,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="23" t="s">
         <v>22</v>
@@ -2091,7 +2104,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="23" t="s">
         <v>23</v>
@@ -2107,7 +2120,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="23" t="s">
         <v>27</v>
@@ -2123,7 +2136,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="23" t="s">
         <v>29</v>
@@ -2139,7 +2152,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="23" t="s">
         <v>31</v>
@@ -2155,7 +2168,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="23" t="s">
         <v>32</v>
@@ -2171,7 +2184,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="C30" s="23" t="s">
         <v>35</v>
@@ -2187,7 +2200,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="23" t="s">
         <v>37</v>
@@ -2206,7 +2219,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="23" t="s">
         <v>40</v>
@@ -2222,7 +2235,7 @@
       <c r="J32" s="20"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="23" t="s">
         <v>39</v>
@@ -2238,7 +2251,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="18"/>
       <c r="C34" s="23" t="s">
         <v>43</v>
@@ -2254,7 +2267,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="18"/>
       <c r="C35" s="23" t="s">
         <v>45</v>
@@ -2270,7 +2283,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="18"/>
       <c r="C36" s="23" t="s">
         <v>46</v>
@@ -2286,7 +2299,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -2328,30 +2341,30 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2372,7 +2385,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2392,7 +2405,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2412,7 +2425,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2432,7 +2445,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2452,7 +2465,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2472,7 +2485,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2502,34 +2515,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F8A809-1347-42CB-A460-105FB2B000F6}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>83</v>
       </c>
@@ -2552,7 +2565,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>84</v>
       </c>
@@ -2575,7 +2588,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
@@ -2598,7 +2611,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>86</v>
       </c>
@@ -2621,7 +2634,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>87</v>
       </c>
@@ -2644,7 +2657,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>88</v>
       </c>
@@ -2667,7 +2680,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
@@ -2690,107 +2703,107 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>166</v>
       </c>
@@ -2806,34 +2819,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E58F52A-57D4-400C-9B2D-0CDF39E9349F}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2868,25 +2881,25 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -2905,25 +2918,25 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>229</v>
       </c>
@@ -2946,7 +2959,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2967,7 +2980,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2988,7 +3001,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3022,30 +3035,30 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3066,7 +3079,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3087,7 +3100,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3124,24 +3137,24 @@
       <selection pane="bottomRight" activeCell="AH23" sqref="AH23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="30" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="30" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="37" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="42" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.33203125" style="1"/>
+    <col min="32" max="37" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="42" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -3269,7 +3282,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -3317,7 +3330,7 @@
       <c r="AO3" s="46"/>
       <c r="AP3" s="32"/>
     </row>
-    <row r="4" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -3365,7 +3378,7 @@
       <c r="AO4" s="46"/>
       <c r="AP4" s="32"/>
     </row>
-    <row r="5" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -3413,7 +3426,7 @@
       <c r="AO5" s="46"/>
       <c r="AP5" s="32"/>
     </row>
-    <row r="6" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -3461,7 +3474,7 @@
       <c r="AO6" s="46"/>
       <c r="AP6" s="32"/>
     </row>
-    <row r="7" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -3511,7 +3524,7 @@
       <c r="AO7" s="46"/>
       <c r="AP7" s="32"/>
     </row>
-    <row r="8" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -3559,7 +3572,7 @@
       <c r="AO8" s="46"/>
       <c r="AP8" s="32"/>
     </row>
-    <row r="9" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -3607,7 +3620,7 @@
       <c r="AO9" s="46"/>
       <c r="AP9" s="32"/>
     </row>
-    <row r="10" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -3655,7 +3668,7 @@
       <c r="AO10" s="46"/>
       <c r="AP10" s="32"/>
     </row>
-    <row r="11" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -3703,7 +3716,7 @@
       <c r="AO11" s="46"/>
       <c r="AP11" s="32"/>
     </row>
-    <row r="12" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -3751,7 +3764,7 @@
       <c r="AO12" s="46"/>
       <c r="AP12" s="32"/>
     </row>
-    <row r="13" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -3800,7 +3813,7 @@
       <c r="AO13" s="46"/>
       <c r="AP13" s="32"/>
     </row>
-    <row r="14" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -3848,7 +3861,7 @@
       <c r="AO14" s="46"/>
       <c r="AP14" s="32"/>
     </row>
-    <row r="15" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -3896,7 +3909,7 @@
       <c r="AO15" s="46"/>
       <c r="AP15" s="32"/>
     </row>
-    <row r="16" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -3944,7 +3957,7 @@
       <c r="AO16" s="46"/>
       <c r="AP16" s="32"/>
     </row>
-    <row r="17" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>129</v>
       </c>
@@ -3993,7 +4006,7 @@
       <c r="AO17" s="11"/>
       <c r="AP17" s="12"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -4044,7 +4057,7 @@
       <c r="AO18" s="47"/>
       <c r="AP18" s="35"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>130</v>
       </c>
@@ -4096,7 +4109,7 @@
       <c r="AO19" s="47"/>
       <c r="AP19" s="35"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>131</v>
       </c>
@@ -4147,7 +4160,7 @@
       <c r="AO20" s="47"/>
       <c r="AP20" s="35"/>
     </row>
-    <row r="21" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>132</v>
       </c>
@@ -4198,7 +4211,7 @@
       <c r="AO21" s="34"/>
       <c r="AP21" s="36"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>145</v>
       </c>
@@ -4249,7 +4262,7 @@
       <c r="AO22" s="46"/>
       <c r="AP22" s="32"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>83</v>
       </c>
@@ -4301,7 +4314,7 @@
       <c r="AO23" s="46"/>
       <c r="AP23" s="32"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>84</v>
       </c>
@@ -4353,7 +4366,7 @@
       <c r="AO24" s="46"/>
       <c r="AP24" s="32"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>85</v>
       </c>
@@ -4405,7 +4418,7 @@
       <c r="AO25" s="46"/>
       <c r="AP25" s="32"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>86</v>
       </c>
@@ -4455,7 +4468,7 @@
       <c r="AO26" s="46"/>
       <c r="AP26" s="32"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>87</v>
       </c>
@@ -4505,7 +4518,7 @@
       <c r="AO27" s="46"/>
       <c r="AP27" s="32"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>88</v>
       </c>
@@ -4558,7 +4571,7 @@
       <c r="AO28" s="46"/>
       <c r="AP28" s="32"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>89</v>
       </c>
@@ -4610,7 +4623,7 @@
       <c r="AO29" s="46"/>
       <c r="AP29" s="32"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>146</v>
       </c>
@@ -4663,7 +4676,7 @@
       <c r="AO30" s="46"/>
       <c r="AP30" s="32"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>147</v>
       </c>
@@ -4716,7 +4729,7 @@
       <c r="AO31" s="46"/>
       <c r="AP31" s="32"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>148</v>
       </c>
@@ -4766,7 +4779,7 @@
       <c r="AO32" s="46"/>
       <c r="AP32" s="32"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>149</v>
       </c>
@@ -4818,7 +4831,7 @@
       <c r="AO33" s="46"/>
       <c r="AP33" s="32"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>150</v>
       </c>
@@ -4870,7 +4883,7 @@
       <c r="AO34" s="46"/>
       <c r="AP34" s="32"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>151</v>
       </c>
@@ -4922,7 +4935,7 @@
       <c r="AO35" s="46"/>
       <c r="AP35" s="32"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>152</v>
       </c>
@@ -4972,7 +4985,7 @@
       <c r="AO36" s="46"/>
       <c r="AP36" s="32"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>153</v>
       </c>
@@ -5022,7 +5035,7 @@
       <c r="AO37" s="46"/>
       <c r="AP37" s="32"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>154</v>
       </c>
@@ -5074,7 +5087,7 @@
       </c>
       <c r="AP38" s="32"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>155</v>
       </c>
@@ -5124,7 +5137,7 @@
       <c r="AO39" s="46"/>
       <c r="AP39" s="32"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>156</v>
       </c>
@@ -5175,7 +5188,7 @@
       <c r="AO40" s="46"/>
       <c r="AP40" s="32"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>157</v>
       </c>
@@ -5227,7 +5240,7 @@
       <c r="AO41" s="46"/>
       <c r="AP41" s="32"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>158</v>
       </c>
@@ -5277,7 +5290,7 @@
       <c r="AO42" s="46"/>
       <c r="AP42" s="32"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>159</v>
       </c>
@@ -5333,7 +5346,7 @@
       <c r="AO43" s="46"/>
       <c r="AP43" s="32"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>160</v>
       </c>
@@ -5387,7 +5400,7 @@
         <v>220.95</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>161</v>
       </c>
@@ -5438,7 +5451,7 @@
       <c r="AO45" s="46"/>
       <c r="AP45" s="32"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>162</v>
       </c>
@@ -5488,7 +5501,7 @@
       <c r="AO46" s="46"/>
       <c r="AP46" s="32"/>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>163</v>
       </c>
@@ -5541,7 +5554,7 @@
       <c r="AO47" s="46"/>
       <c r="AP47" s="32"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>164</v>
       </c>
@@ -5589,7 +5602,7 @@
       <c r="AO48" s="46"/>
       <c r="AP48" s="32"/>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>165</v>
       </c>
@@ -5640,7 +5653,7 @@
       <c r="AO49" s="46"/>
       <c r="AP49" s="32"/>
     </row>
-    <row r="50" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
         <v>166</v>
       </c>
@@ -5692,7 +5705,7 @@
       <c r="AO50" s="11"/>
       <c r="AP50" s="12"/>
     </row>
-    <row r="51" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
         <v>81</v>
       </c>
@@ -5740,7 +5753,7 @@
       <c r="AO51" s="11"/>
       <c r="AP51" s="12"/>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>67</v>
       </c>
@@ -5788,7 +5801,7 @@
       <c r="AO52" s="46"/>
       <c r="AP52" s="32"/>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>68</v>
       </c>
@@ -5836,7 +5849,7 @@
       <c r="AO53" s="46"/>
       <c r="AP53" s="32"/>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>137</v>
       </c>
@@ -5884,7 +5897,7 @@
       <c r="AO54" s="46"/>
       <c r="AP54" s="32"/>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>138</v>
       </c>
@@ -5932,7 +5945,7 @@
       <c r="AO55" s="46"/>
       <c r="AP55" s="32"/>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>139</v>
       </c>
@@ -5980,7 +5993,7 @@
       </c>
       <c r="AP56" s="32"/>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>140</v>
       </c>
@@ -6028,7 +6041,7 @@
       </c>
       <c r="AP57" s="32"/>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>141</v>
       </c>
@@ -6076,7 +6089,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="s">
         <v>142</v>
       </c>
@@ -6124,7 +6137,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>82</v>
       </c>
@@ -6178,7 +6191,7 @@
       <c r="AO60" s="46"/>
       <c r="AP60" s="32"/>
     </row>
-    <row r="61" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="30" t="s">
         <v>143</v>
       </c>
@@ -6243,21 +6256,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EADE56A-3552-4283-86E6-D2B76E77A8C0}">
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -6349,7 +6362,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -6385,7 +6398,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -6421,7 +6434,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -6457,7 +6470,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -6493,7 +6506,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -6531,7 +6544,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -6567,7 +6580,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -6603,7 +6616,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -6639,7 +6652,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -6675,7 +6688,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -6711,7 +6724,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -6747,7 +6760,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -6783,7 +6796,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -6819,7 +6832,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -6855,7 +6868,7 @@
       <c r="AC16" s="10"/>
       <c r="AD16" s="32"/>
     </row>
-    <row r="17" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>129</v>
       </c>
@@ -6906,17 +6919,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -7008,7 +7021,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -7044,7 +7057,7 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="35"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -7080,7 +7093,7 @@
       <c r="AC4" s="33"/>
       <c r="AD4" s="35"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -7116,7 +7129,7 @@
       <c r="AC5" s="33"/>
       <c r="AD5" s="35"/>
     </row>
-    <row r="6" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -7165,17 +7178,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -7192,7 +7205,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -7201,7 +7214,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -7210,7 +7223,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -7219,7 +7232,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -7242,61 +7255,61 @@
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.21875" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="41"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="42"/>
       <c r="F21" s="42"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="43"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="43"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="43"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="43"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="43"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="43"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="43"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="43"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="43"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="43"/>
     </row>
   </sheetData>
@@ -7313,17 +7326,17 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -7340,7 +7353,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -7353,7 +7366,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
@@ -7380,17 +7393,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>243</v>
       </c>
@@ -7407,7 +7420,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>145</v>
       </c>
@@ -7416,7 +7429,7 @@
       <c r="D3" s="46"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -7425,7 +7438,7 @@
       <c r="D4" s="46"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -7434,7 +7447,7 @@
       <c r="D5" s="46"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -7443,7 +7456,7 @@
       <c r="D6" s="46"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -7452,7 +7465,7 @@
       <c r="D7" s="46"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -7461,7 +7474,7 @@
       <c r="D8" s="46"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -7470,7 +7483,7 @@
       <c r="D9" s="46"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -7479,7 +7492,7 @@
       <c r="D10" s="46"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>146</v>
       </c>
@@ -7488,7 +7501,7 @@
       <c r="D11" s="46"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>147</v>
       </c>
@@ -7497,7 +7510,7 @@
       <c r="D12" s="46"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>148</v>
       </c>
@@ -7506,7 +7519,7 @@
       <c r="D13" s="46"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>149</v>
       </c>
@@ -7515,7 +7528,7 @@
       <c r="D14" s="46"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>150</v>
       </c>
@@ -7524,7 +7537,7 @@
       <c r="D15" s="46"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>151</v>
       </c>
@@ -7533,7 +7546,7 @@
       <c r="D16" s="46"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>152</v>
       </c>
@@ -7542,7 +7555,7 @@
       <c r="D17" s="46"/>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>153</v>
       </c>
@@ -7551,7 +7564,7 @@
       <c r="D18" s="46"/>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>154</v>
       </c>
@@ -7560,7 +7573,7 @@
       <c r="D19" s="46"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>155</v>
       </c>
@@ -7569,7 +7582,7 @@
       <c r="D20" s="46"/>
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>156</v>
       </c>
@@ -7578,7 +7591,7 @@
       <c r="D21" s="46"/>
       <c r="E21" s="32"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>157</v>
       </c>
@@ -7587,7 +7600,7 @@
       <c r="D22" s="46"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>158</v>
       </c>
@@ -7596,7 +7609,7 @@
       <c r="D23" s="46"/>
       <c r="E23" s="32"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>159</v>
       </c>
@@ -7605,7 +7618,7 @@
       <c r="D24" s="46"/>
       <c r="E24" s="32"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>160</v>
       </c>
@@ -7614,7 +7627,7 @@
       <c r="D25" s="46"/>
       <c r="E25" s="32"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>161</v>
       </c>
@@ -7623,7 +7636,7 @@
       <c r="D26" s="46"/>
       <c r="E26" s="32"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>162</v>
       </c>
@@ -7632,7 +7645,7 @@
       <c r="D27" s="46"/>
       <c r="E27" s="32"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>163</v>
       </c>
@@ -7641,7 +7654,7 @@
       <c r="D28" s="46"/>
       <c r="E28" s="32"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>164</v>
       </c>
@@ -7650,7 +7663,7 @@
       <c r="D29" s="46"/>
       <c r="E29" s="32"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>165</v>
       </c>
@@ -7659,7 +7672,7 @@
       <c r="D30" s="46"/>
       <c r="E30" s="32"/>
     </row>
-    <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>166</v>
       </c>
@@ -7682,17 +7695,17 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>243</v>
       </c>
@@ -7712,7 +7725,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>145</v>
       </c>
@@ -7722,7 +7735,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -7732,7 +7745,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -7742,7 +7755,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -7754,7 +7767,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="32"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -7764,7 +7777,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="32"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -7774,7 +7787,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="32"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -7784,7 +7797,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="32"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -7794,7 +7807,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="32"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>146</v>
       </c>
@@ -7804,7 +7817,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="32"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>147</v>
       </c>
@@ -7814,7 +7827,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>148</v>
       </c>
@@ -7824,7 +7837,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>149</v>
       </c>
@@ -7834,7 +7847,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="32"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>150</v>
       </c>
@@ -7844,7 +7857,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="32"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>151</v>
       </c>
@@ -7854,7 +7867,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="32"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>152</v>
       </c>
@@ -7864,7 +7877,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>153</v>
       </c>
@@ -7874,7 +7887,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>154</v>
       </c>
@@ -7886,7 +7899,7 @@
       </c>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>155</v>
       </c>
@@ -7898,7 +7911,7 @@
       </c>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>156</v>
       </c>
@@ -7908,7 +7921,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>157</v>
       </c>
@@ -7918,7 +7931,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>158</v>
       </c>
@@ -7928,7 +7941,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="32"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>159</v>
       </c>
@@ -7938,7 +7951,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="32"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>160</v>
       </c>
@@ -7948,7 +7961,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="32"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>161</v>
       </c>
@@ -7958,7 +7971,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="32"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>162</v>
       </c>
@@ -7968,7 +7981,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="32"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>163</v>
       </c>
@@ -7978,7 +7991,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="32"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>164</v>
       </c>
@@ -7988,7 +8001,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="32"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>165</v>
       </c>
@@ -7998,7 +8011,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="32"/>
     </row>
-    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>166</v>
       </c>
@@ -8023,17 +8036,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>243</v>
       </c>
@@ -8044,56 +8057,56 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="32"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="32"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="32"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="32"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="32"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="32"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -8102,84 +8115,84 @@
       </c>
       <c r="C10" s="32"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>146</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>147</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="32"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>148</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="32"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="32"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>150</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="32"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>151</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="32"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>152</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="32"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>153</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="32"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="32"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>155</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="32"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>156</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="32"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>157</v>
       </c>
@@ -8188,63 +8201,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>158</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="32"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>159</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="32"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>160</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="32"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="32"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>162</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="32"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>163</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="32"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>164</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="32"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>165</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="32"/>
     </row>
-    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>166</v>
       </c>
@@ -8266,17 +8279,17 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>243</v>
       </c>
@@ -8368,7 +8381,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>145</v>
       </c>
@@ -8404,7 +8417,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -8444,7 +8457,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -8482,7 +8495,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -8520,7 +8533,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -8558,7 +8571,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -8596,7 +8609,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -8636,7 +8649,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -8674,7 +8687,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>146</v>
       </c>
@@ -8714,7 +8727,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>147</v>
       </c>
@@ -8752,7 +8765,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>148</v>
       </c>
@@ -8790,7 +8803,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>149</v>
       </c>
@@ -8828,7 +8841,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>150</v>
       </c>
@@ -8866,7 +8879,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>151</v>
       </c>
@@ -8906,7 +8919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>152</v>
       </c>
@@ -8944,7 +8957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>153</v>
       </c>
@@ -8982,7 +8995,7 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="32"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>154</v>
       </c>
@@ -9018,7 +9031,7 @@
       <c r="AC19" s="10"/>
       <c r="AD19" s="32"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>155</v>
       </c>
@@ -9054,7 +9067,7 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="32"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>156</v>
       </c>
@@ -9092,7 +9105,7 @@
       <c r="AC21" s="10"/>
       <c r="AD21" s="32"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>157</v>
       </c>
@@ -9130,7 +9143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>158</v>
       </c>
@@ -9168,7 +9181,7 @@
       <c r="AC23" s="10"/>
       <c r="AD23" s="32"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>159</v>
       </c>
@@ -9206,7 +9219,7 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="32"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>160</v>
       </c>
@@ -9244,7 +9257,7 @@
       <c r="AC25" s="10"/>
       <c r="AD25" s="32"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>161</v>
       </c>
@@ -9282,7 +9295,7 @@
       <c r="AC26" s="10"/>
       <c r="AD26" s="32"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>162</v>
       </c>
@@ -9320,7 +9333,7 @@
       <c r="AC27" s="10"/>
       <c r="AD27" s="32"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>163</v>
       </c>
@@ -9360,7 +9373,7 @@
       </c>
       <c r="AD28" s="32"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>164</v>
       </c>
@@ -9396,7 +9409,7 @@
       <c r="AC29" s="10"/>
       <c r="AD29" s="32"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>165</v>
       </c>
@@ -9430,7 +9443,7 @@
       <c r="AC30" s="10"/>
       <c r="AD30" s="32"/>
     </row>
-    <row r="31" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>166</v>
       </c>
@@ -9485,17 +9498,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>243</v>
       </c>
@@ -9503,7 +9516,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>149</v>
       </c>
@@ -9525,17 +9538,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>241</v>
       </c>
@@ -9543,7 +9556,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
@@ -9565,17 +9578,17 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>240</v>
       </c>
@@ -9592,7 +9605,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -9601,7 +9614,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -9610,7 +9623,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>137</v>
       </c>
@@ -9619,7 +9632,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>138</v>
       </c>
@@ -9628,7 +9641,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>139</v>
       </c>
@@ -9637,7 +9650,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>140</v>
       </c>
@@ -9646,7 +9659,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>141</v>
       </c>
@@ -9655,7 +9668,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>142</v>
       </c>
@@ -9679,17 +9692,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -9700,14 +9713,14 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
@@ -9728,17 +9741,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -9755,7 +9768,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -9764,7 +9777,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -9773,7 +9786,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -9782,7 +9795,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -9791,7 +9804,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -9800,7 +9813,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -9809,7 +9822,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -9818,7 +9831,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -9827,7 +9840,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -9836,7 +9849,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -9845,7 +9858,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -9854,7 +9867,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -9863,7 +9876,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -9872,7 +9885,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -9881,7 +9894,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>129</v>
       </c>
@@ -9905,24 +9918,24 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.21875" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.21875" style="1"/>
-    <col min="13" max="13" width="11.21875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>125</v>
       </c>
@@ -9943,7 +9956,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -9964,67 +9977,67 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>129</v>
       </c>
@@ -10044,17 +10057,17 @@
       <selection activeCell="B3" sqref="B3:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>240</v>
       </c>
@@ -10071,7 +10084,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -10082,7 +10095,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -10093,7 +10106,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>137</v>
       </c>
@@ -10104,7 +10117,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>138</v>
       </c>
@@ -10115,7 +10128,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>139</v>
       </c>
@@ -10126,7 +10139,7 @@
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>140</v>
       </c>
@@ -10137,7 +10150,7 @@
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>141</v>
       </c>
@@ -10148,7 +10161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>142</v>
       </c>
@@ -10173,17 +10186,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -10203,7 +10216,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -10223,7 +10236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -10243,7 +10256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -10263,7 +10276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -10283,7 +10296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -10303,7 +10316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -10323,7 +10336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -10343,7 +10356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -10363,7 +10376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -10383,7 +10396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -10403,7 +10416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -10423,7 +10436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -10443,7 +10456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -10463,7 +10476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -10483,7 +10496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>129</v>
       </c>
@@ -10517,17 +10530,17 @@
       <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -10547,7 +10560,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -10567,7 +10580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -10587,7 +10600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -10607,7 +10620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -10641,17 +10654,17 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -10668,7 +10681,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -10677,7 +10690,7 @@
       <c r="D3" s="33"/>
       <c r="E3" s="35"/>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -10686,7 +10699,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="35"/>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -10695,7 +10708,7 @@
       <c r="D5" s="33"/>
       <c r="E5" s="35"/>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -10718,17 +10731,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -10736,7 +10749,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -10756,15 +10769,15 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -10772,7 +10785,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>82</v>
       </c>
@@ -10780,7 +10793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>143</v>
       </c>
@@ -10801,14 +10814,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>241</v>
       </c>
@@ -10825,7 +10838,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
@@ -10842,7 +10855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
     </row>
   </sheetData>
@@ -10855,20 +10868,20 @@
   <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -11029,7 +11042,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -11106,7 +11119,7 @@
       <c r="AZ3" s="44"/>
       <c r="BA3" s="38"/>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -11191,7 +11204,7 @@
       <c r="AZ4" s="44"/>
       <c r="BA4" s="38"/>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -11264,7 +11277,7 @@
       <c r="AZ5" s="44"/>
       <c r="BA5" s="38"/>
     </row>
-    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -11355,47 +11368,47 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -11415,21 +11428,21 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="9"/>
-    <col min="2" max="2" width="9.21875" style="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="9"/>
+    <col min="2" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -11590,7 +11603,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -11803,7 +11816,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -12016,7 +12029,7 @@
         <v>22826.547097429568</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -12229,7 +12242,7 @@
         <v>20853.895411663008</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -12442,7 +12455,7 @@
         <v>12936.237157458605</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -12655,7 +12668,7 @@
         <v>10093.208985005042</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -12868,7 +12881,7 @@
         <v>25030.845039782169</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -13081,7 +13094,7 @@
         <v>21394.248548185435</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -13294,7 +13307,7 @@
         <v>19620.846059435706</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -13507,7 +13520,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -13720,7 +13733,7 @@
         <v>19056.740567787925</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -13933,7 +13946,7 @@
         <v>10459.139487125793</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -14146,7 +14159,7 @@
         <v>11226.398478579069</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -14359,7 +14372,7 @@
         <v>9948.0491512241751</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -14572,7 +14585,7 @@
         <v>13401.937357783543</v>
       </c>
     </row>
-    <row r="17" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>129</v>
       </c>
@@ -14785,12 +14798,12 @@
         <v>8411.007487504201</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -14810,21 +14823,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="9"/>
-    <col min="2" max="13" width="9.21875" style="1"/>
-    <col min="14" max="15" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="9"/>
+    <col min="2" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -14985,7 +14998,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -15162,7 +15175,7 @@
         <v>38495.240630664819</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -15267,7 +15280,7 @@
         <v>63660.095793436725</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -15417,7 +15430,7 @@
         <v>56817.904350212186</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -15474,42 +15487,42 @@
       <c r="AZ6" s="39"/>
       <c r="BA6" s="40"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -15529,24 +15542,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.21875" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.21875" style="1"/>
-    <col min="13" max="13" width="11.21875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
@@ -15567,7 +15580,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -15588,7 +15601,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -15609,7 +15622,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -15630,7 +15643,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -15651,47 +15664,47 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -15711,12 +15724,12 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>105</v>
       </c>
@@ -15757,7 +15770,7 @@
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -15870,7 +15883,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -15913,7 +15926,7 @@
       <c r="AJ3" s="37"/>
       <c r="AK3" s="38"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -15956,7 +15969,7 @@
       <c r="AJ4" s="37"/>
       <c r="AK4" s="38"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -15999,7 +16012,7 @@
       <c r="AJ5" s="37"/>
       <c r="AK5" s="38"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>82</v>
       </c>
@@ -16044,7 +16057,7 @@
       <c r="AJ6" s="37"/>
       <c r="AK6" s="38"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>143</v>
       </c>
@@ -16089,7 +16102,7 @@
       <c r="AJ7" s="37"/>
       <c r="AK7" s="38"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>145</v>
       </c>
@@ -16132,7 +16145,7 @@
       <c r="AJ8" s="37"/>
       <c r="AK8" s="38"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>83</v>
       </c>
@@ -16179,7 +16192,7 @@
       <c r="AJ9" s="37"/>
       <c r="AK9" s="38"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>84</v>
       </c>
@@ -16226,7 +16239,7 @@
       <c r="AJ10" s="37"/>
       <c r="AK10" s="38"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>85</v>
       </c>
@@ -16273,7 +16286,7 @@
       <c r="AJ11" s="37"/>
       <c r="AK11" s="38"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>86</v>
       </c>
@@ -16318,7 +16331,7 @@
       <c r="AJ12" s="37"/>
       <c r="AK12" s="38"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>87</v>
       </c>
@@ -16363,7 +16376,7 @@
       <c r="AJ13" s="37"/>
       <c r="AK13" s="38"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>88</v>
       </c>
@@ -16410,7 +16423,7 @@
       <c r="AJ14" s="37"/>
       <c r="AK14" s="38"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>89</v>
       </c>
@@ -16457,7 +16470,7 @@
       <c r="AJ15" s="37"/>
       <c r="AK15" s="38"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>146</v>
       </c>
@@ -16504,7 +16517,7 @@
       <c r="AJ16" s="37"/>
       <c r="AK16" s="38"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>147</v>
       </c>
@@ -16549,7 +16562,7 @@
       <c r="AJ17" s="37"/>
       <c r="AK17" s="38"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>148</v>
       </c>
@@ -16594,7 +16607,7 @@
       <c r="AJ18" s="37"/>
       <c r="AK18" s="38"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>149</v>
       </c>
@@ -16639,7 +16652,7 @@
       <c r="AJ19" s="37"/>
       <c r="AK19" s="38"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>150</v>
       </c>
@@ -16684,7 +16697,7 @@
       <c r="AJ20" s="37"/>
       <c r="AK20" s="38"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>151</v>
       </c>
@@ -16731,7 +16744,7 @@
       <c r="AJ21" s="37"/>
       <c r="AK21" s="38"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>152</v>
       </c>
@@ -16776,7 +16789,7 @@
       <c r="AJ22" s="44"/>
       <c r="AK22" s="38"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>153</v>
       </c>
@@ -16821,7 +16834,7 @@
       <c r="AJ23" s="44"/>
       <c r="AK23" s="38"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>154</v>
       </c>
@@ -16866,7 +16879,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>155</v>
       </c>
@@ -16911,7 +16924,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>156</v>
       </c>
@@ -16956,7 +16969,7 @@
       <c r="AJ26" s="44"/>
       <c r="AK26" s="38"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>157</v>
       </c>
@@ -17003,7 +17016,7 @@
       </c>
       <c r="AK27" s="38"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>158</v>
       </c>
@@ -17048,7 +17061,7 @@
       <c r="AJ28" s="44"/>
       <c r="AK28" s="38"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>159</v>
       </c>
@@ -17093,7 +17106,7 @@
       <c r="AJ29" s="44"/>
       <c r="AK29" s="38"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>160</v>
       </c>
@@ -17138,7 +17151,7 @@
       <c r="AJ30" s="44"/>
       <c r="AK30" s="38"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>161</v>
       </c>
@@ -17183,7 +17196,7 @@
       <c r="AJ31" s="44"/>
       <c r="AK31" s="38"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>162</v>
       </c>
@@ -17228,7 +17241,7 @@
       <c r="AJ32" s="44"/>
       <c r="AK32" s="38"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>163</v>
       </c>
@@ -17273,7 +17286,7 @@
       <c r="AJ33" s="44"/>
       <c r="AK33" s="38"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>164</v>
       </c>
@@ -17316,7 +17329,7 @@
       <c r="AJ34" s="44"/>
       <c r="AK34" s="38"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>166</v>
       </c>
@@ -17363,7 +17376,7 @@
       <c r="AJ35" s="44"/>
       <c r="AK35" s="38"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>125</v>
       </c>
@@ -17406,7 +17419,7 @@
       <c r="AJ36" s="37"/>
       <c r="AK36" s="38"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>3</v>
       </c>
@@ -17449,7 +17462,7 @@
       <c r="AJ37" s="37"/>
       <c r="AK37" s="38"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>4</v>
       </c>
@@ -17492,7 +17505,7 @@
       <c r="AJ38" s="37"/>
       <c r="AK38" s="38"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>117</v>
       </c>
@@ -17535,7 +17548,7 @@
       <c r="AJ39" s="37"/>
       <c r="AK39" s="38"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>118</v>
       </c>
@@ -17580,7 +17593,7 @@
       <c r="AJ40" s="37"/>
       <c r="AK40" s="38"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>119</v>
       </c>
@@ -17623,7 +17636,7 @@
       <c r="AJ41" s="44"/>
       <c r="AK41" s="38"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>120</v>
       </c>
@@ -17666,7 +17679,7 @@
       <c r="AJ42" s="44"/>
       <c r="AK42" s="38"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>121</v>
       </c>
@@ -17709,7 +17722,7 @@
       <c r="AJ43" s="44"/>
       <c r="AK43" s="38"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>122</v>
       </c>
@@ -17752,7 +17765,7 @@
       <c r="AJ44" s="44"/>
       <c r="AK44" s="38"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>123</v>
       </c>
@@ -17795,7 +17808,7 @@
       <c r="AJ45" s="44"/>
       <c r="AK45" s="38"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>124</v>
       </c>
@@ -17838,7 +17851,7 @@
       <c r="AJ46" s="44"/>
       <c r="AK46" s="38"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>126</v>
       </c>
@@ -17881,7 +17894,7 @@
       <c r="AJ47" s="44"/>
       <c r="AK47" s="38"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>127</v>
       </c>
@@ -17924,7 +17937,7 @@
       <c r="AJ48" s="44"/>
       <c r="AK48" s="38"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>128</v>
       </c>
@@ -17967,7 +17980,7 @@
       <c r="AJ49" s="44"/>
       <c r="AK49" s="38"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>129</v>
       </c>
@@ -18010,7 +18023,7 @@
       <c r="AJ50" s="44"/>
       <c r="AK50" s="38"/>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>134</v>
       </c>
@@ -18068,17 +18081,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>239</v>
       </c>
@@ -18086,7 +18099,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -18094,7 +18107,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -18102,7 +18115,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>133</v>
       </c>
@@ -18110,7 +18123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>134</v>
       </c>
@@ -18118,7 +18131,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>135</v>
       </c>
@@ -18140,19 +18153,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>241</v>
       </c>
@@ -18160,7 +18173,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>81</v>
       </c>
@@ -18182,17 +18195,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -18200,7 +18213,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -18208,7 +18221,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
@@ -18230,17 +18243,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>240</v>
       </c>
@@ -18401,7 +18414,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>67</v>
       </c>
@@ -18562,7 +18575,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
@@ -18723,7 +18736,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>137</v>
       </c>
@@ -18884,7 +18897,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>138</v>
       </c>
@@ -19045,7 +19058,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>139</v>
       </c>
@@ -19206,7 +19219,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>140</v>
       </c>
@@ -19367,7 +19380,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>141</v>
       </c>
@@ -19528,7 +19541,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>142</v>
       </c>
@@ -19689,47 +19702,47 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -19749,19 +19762,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -19769,7 +19782,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -19777,7 +19790,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -19785,7 +19798,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -19793,7 +19806,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -19815,17 +19828,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -19833,7 +19846,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -19855,17 +19868,17 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>235</v>
       </c>
@@ -19885,7 +19898,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>125</v>
       </c>
@@ -19905,7 +19918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -19925,7 +19938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -19945,7 +19958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -19965,7 +19978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>130</v>
       </c>
@@ -19985,7 +19998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>131</v>
       </c>
@@ -20005,7 +20018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>132</v>
       </c>
@@ -20025,34 +20038,34 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
   </sheetData>
@@ -20069,17 +20082,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>239</v>
       </c>
@@ -20087,7 +20100,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -20095,7 +20108,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -20103,7 +20116,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>133</v>
       </c>
@@ -20111,7 +20124,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>134</v>
       </c>
@@ -20119,7 +20132,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>135</v>
       </c>
@@ -20142,17 +20155,17 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -20160,7 +20173,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -20168,7 +20181,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
@@ -20190,30 +20203,30 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
@@ -20236,7 +20249,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>131</v>
       </c>
@@ -20259,7 +20272,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>132</v>
       </c>
@@ -20282,7 +20295,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -20302,7 +20315,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -20322,7 +20335,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -20342,7 +20355,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -20377,17 +20390,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -20395,7 +20408,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -20403,7 +20416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -20411,7 +20424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -20419,7 +20432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -20441,19 +20454,19 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>235</v>
       </c>
@@ -20476,7 +20489,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -20489,7 +20502,7 @@
       <c r="F3" s="47"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>130</v>
       </c>
@@ -20502,7 +20515,7 @@
       <c r="F4" s="47"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>131</v>
       </c>
@@ -20515,7 +20528,7 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -20528,7 +20541,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -20539,7 +20552,7 @@
       <c r="F7" s="46"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -20550,7 +20563,7 @@
       <c r="F8" s="46"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>67</v>
       </c>
@@ -20561,7 +20574,7 @@
       <c r="F9" s="46"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>68</v>
       </c>
@@ -20587,17 +20600,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>240</v>
       </c>
@@ -20605,7 +20618,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>67</v>
       </c>
@@ -20613,7 +20626,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
@@ -20621,7 +20634,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>137</v>
       </c>
@@ -20629,7 +20642,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>138</v>
       </c>
@@ -20637,7 +20650,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>139</v>
       </c>
@@ -20645,7 +20658,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>140</v>
       </c>
@@ -20653,7 +20666,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>141</v>
       </c>
@@ -20661,7 +20674,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>142</v>
       </c>
@@ -20683,17 +20696,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -20701,7 +20714,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -20709,7 +20722,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -20717,7 +20730,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -20725,7 +20738,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -20733,7 +20746,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -20741,7 +20754,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -20749,7 +20762,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -20757,7 +20770,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -20765,7 +20778,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -20773,7 +20786,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -20781,7 +20794,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -20789,7 +20802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -20797,7 +20810,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -20805,7 +20818,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -20813,7 +20826,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>129</v>
       </c>
@@ -20821,7 +20834,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -20829,7 +20842,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>130</v>
       </c>
@@ -20837,7 +20850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>131</v>
       </c>
@@ -20845,7 +20858,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>132</v>
       </c>
@@ -20853,7 +20866,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>67</v>
       </c>
@@ -20861,7 +20874,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>68</v>
       </c>
@@ -20884,17 +20897,17 @@
       <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>244</v>
       </c>
@@ -20902,7 +20915,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>90</v>
       </c>
@@ -20910,7 +20923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
       <c r="B4" s="58"/>
     </row>
@@ -20928,17 +20941,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>246</v>
       </c>
@@ -20946,7 +20959,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>95</v>
       </c>
@@ -20968,17 +20981,17 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>245</v>
       </c>
@@ -20986,7 +20999,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>92</v>
       </c>
@@ -21008,17 +21021,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>247</v>
       </c>
@@ -21026,7 +21039,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>229</v>
       </c>
@@ -21048,17 +21061,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -21066,7 +21079,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -21074,7 +21087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
@@ -21096,17 +21109,17 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>239</v>
       </c>
@@ -21114,7 +21127,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -21122,7 +21135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -21130,7 +21143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>133</v>
       </c>
@@ -21138,7 +21151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>134</v>
       </c>
@@ -21146,7 +21159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>135</v>
       </c>
@@ -21169,23 +21182,23 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.21875" style="1"/>
-    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.28515625" style="1"/>
+    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>136</v>
       </c>
@@ -21206,7 +21219,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -21227,7 +21240,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>133</v>
       </c>
@@ -21248,7 +21261,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>134</v>
       </c>
@@ -21269,7 +21282,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>135</v>
       </c>
@@ -21305,17 +21318,17 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>241</v>
       </c>
@@ -21323,7 +21336,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>81</v>
       </c>
@@ -21345,17 +21358,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -21363,7 +21376,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -21371,7 +21384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
@@ -21379,31 +21392,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
@@ -21420,16 +21433,16 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -21437,7 +21450,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>255</v>
       </c>
@@ -21458,16 +21471,16 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>235</v>
       </c>
@@ -21595,7 +21608,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>125</v>
       </c>
@@ -21723,7 +21736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
@@ -21851,7 +21864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>4</v>
       </c>
@@ -21979,7 +21992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>117</v>
       </c>
@@ -22107,7 +22120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>118</v>
       </c>
@@ -22235,7 +22248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>119</v>
       </c>
@@ -22363,7 +22376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>120</v>
       </c>
@@ -22491,7 +22504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>121</v>
       </c>
@@ -22619,7 +22632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>122</v>
       </c>
@@ -22747,7 +22760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>123</v>
       </c>
@@ -22875,7 +22888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>124</v>
       </c>
@@ -23003,7 +23016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>126</v>
       </c>
@@ -23131,7 +23144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>127</v>
       </c>
@@ -23259,7 +23272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>128</v>
       </c>
@@ -23387,7 +23400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>129</v>
       </c>
@@ -23515,7 +23528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>5</v>
       </c>
@@ -23643,7 +23656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>130</v>
       </c>
@@ -23771,7 +23784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>131</v>
       </c>
@@ -23899,7 +23912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>132</v>
       </c>
@@ -24027,7 +24040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>67</v>
       </c>
@@ -24155,7 +24168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>68</v>
       </c>
@@ -24283,7 +24296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>137</v>
       </c>
@@ -24411,7 +24424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>138</v>
       </c>
@@ -24539,7 +24552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
         <v>139</v>
       </c>
@@ -24667,7 +24680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>140</v>
       </c>
@@ -24795,7 +24808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>141</v>
       </c>
@@ -24923,7 +24936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>142</v>
       </c>
@@ -25051,7 +25064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
         <v>81</v>
       </c>
@@ -25179,7 +25192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>82</v>
       </c>
@@ -25307,7 +25320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>143</v>
       </c>
@@ -25435,7 +25448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>145</v>
       </c>
@@ -25563,7 +25576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>83</v>
       </c>
@@ -25691,7 +25704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
         <v>84</v>
       </c>
@@ -25819,7 +25832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="49" t="s">
         <v>85</v>
       </c>
@@ -25947,7 +25960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
         <v>86</v>
       </c>
@@ -26075,7 +26088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
         <v>87</v>
       </c>
@@ -26203,7 +26216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="49" t="s">
         <v>88</v>
       </c>
@@ -26331,7 +26344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="49" t="s">
         <v>89</v>
       </c>
@@ -26459,7 +26472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
         <v>146</v>
       </c>
@@ -26587,7 +26600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="49" t="s">
         <v>147</v>
       </c>
@@ -26715,7 +26728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="49" t="s">
         <v>148</v>
       </c>
@@ -26843,7 +26856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="49" t="s">
         <v>149</v>
       </c>
@@ -26971,7 +26984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
         <v>150</v>
       </c>
@@ -27099,7 +27112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="49" t="s">
         <v>151</v>
       </c>
@@ -27227,7 +27240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
         <v>152</v>
       </c>
@@ -27355,7 +27368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="49" t="s">
         <v>153</v>
       </c>
@@ -27483,7 +27496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
         <v>154</v>
       </c>
@@ -27611,7 +27624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
         <v>155</v>
       </c>
@@ -27739,7 +27752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
         <v>156</v>
       </c>
@@ -27867,7 +27880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="49" t="s">
         <v>157</v>
       </c>
@@ -27995,7 +28008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>158</v>
       </c>
@@ -28123,7 +28136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
         <v>159</v>
       </c>
@@ -28251,7 +28264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
         <v>160</v>
       </c>
@@ -28379,7 +28392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
         <v>161</v>
       </c>
@@ -28507,7 +28520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
         <v>162</v>
       </c>
@@ -28635,7 +28648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="49" t="s">
         <v>163</v>
       </c>
@@ -28763,7 +28776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="49" t="s">
         <v>164</v>
       </c>
@@ -28891,7 +28904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
         <v>165</v>
       </c>
@@ -29019,7 +29032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="49" t="s">
         <v>166</v>
       </c>
@@ -29157,20 +29170,20 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -29178,7 +29191,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>253</v>
       </c>
@@ -29186,12 +29199,59 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>254</v>
       </c>
       <c r="B4" s="53">
         <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB07E06-ED03-4572-9B3E-05DAA3F2CF42}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="59">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="40">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -29207,30 +29267,30 @@
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -29253,7 +29313,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
@@ -29276,7 +29336,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
@@ -29299,7 +29359,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>139</v>
       </c>
@@ -29322,7 +29382,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>140</v>
       </c>
@@ -29345,7 +29405,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>141</v>
       </c>
@@ -29368,7 +29428,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>142</v>
       </c>
@@ -29406,30 +29466,30 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -29450,7 +29510,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -29470,7 +29530,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -29490,7 +29550,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -29510,7 +29570,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -29530,7 +29590,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -29550,7 +29610,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -29584,30 +29644,30 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>143</v>
       </c>
@@ -29630,7 +29690,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -29650,7 +29710,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -29670,7 +29730,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -29690,7 +29750,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -29710,7 +29770,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -29730,7 +29790,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PARETO - dev\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A859316-FABE-43D1-93EF-2A407DE401D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD209554-100D-4951-A0B9-B17115EE6659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" activeTab="64" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="58" activeTab="66" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -78,6 +78,8 @@
     <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId63"/>
     <sheet name="Hydraulics" sheetId="95" r:id="rId64"/>
     <sheet name="Economics" sheetId="99" r:id="rId65"/>
+    <sheet name="PadWaterQuality" sheetId="100" r:id="rId66"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="101" r:id="rId67"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="62" hidden="1">#REF!</definedName>
@@ -129,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="266">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -916,16 +918,29 @@
   <si>
     <t>CAPEX_lifetime</t>
   </si>
+  <si>
+    <t>Water Quality at Production Pads (mg/L)</t>
+  </si>
+  <si>
+    <t>Pads</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>Initial Water Quality at Storage (mg/L)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -984,6 +999,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1011,7 +1033,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1212,12 +1234,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1346,8 +1451,30 @@
     <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -9915,7 +10042,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20200,7 +20327,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29216,7 +29343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB07E06-ED03-4572-9B3E-05DAA3F2CF42}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -29252,6 +29379,229 @@
       </c>
       <c r="B4" s="40">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F892B295-3D7D-40A8-87F5-B160CEC1BB02}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="62">
+        <v>142277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="63">
+        <v>140998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="63">
+        <v>172490.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="63">
+        <v>257547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="63">
+        <v>241833.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="63">
+        <v>188503.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="63">
+        <v>146716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="63">
+        <v>216563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="63">
+        <v>150626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="63">
+        <v>247061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="63">
+        <v>180968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="63">
+        <v>195584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="63">
+        <v>148655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="63">
+        <v>185369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="63">
+        <v>222724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="63">
+        <v>165376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="63">
+        <v>240977</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="63">
+        <v>192794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="64">
+        <v>216769</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA869B1E-00E6-4DCA-8F85-295EB0728F7B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="66">
+        <v>150000</v>
       </c>
     </row>
   </sheetData>
@@ -29463,7 +29813,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PARETO - dev\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD209554-100D-4951-A0B9-B17115EE6659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A281873C-FBDA-465B-B9FC-C78D5FCEECB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="58" activeTab="66" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="50" activeTab="57" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -21184,8 +21184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21203,7 +21203,7 @@
         <v>242</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -29391,7 +29391,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29574,7 +29574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA869B1E-00E6-4DCA-8F85-295EB0728F7B}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9546EB8-1A0A-4966-A634-AB1191626E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7B7934-CC24-44AF-842F-F1496756F6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12120" yWindow="-18345" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="59" activeTab="61" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="16680" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="59" activeTab="61" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <sheet name="Hydraulics" sheetId="95" r:id="rId66"/>
     <sheet name="Economics" sheetId="99" r:id="rId67"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId68"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="61" hidden="1">#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="61">PipelineExpansionDistance!$O$3</definedName>
@@ -136,11 +133,11 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E932A0AB-C395-40D1-8B7D-42D35C131B39}</author>
-    <author>tc={1CF0CB79-47AB-40DB-AC45-90C04C20CA26}</author>
+    <author>tc={99739EB0-1974-49B9-A055-C1E651E7168D}</author>
+    <author>tc={E346A958-2330-45FE-ADDC-512F99F83A5F}</author>
   </authors>
   <commentList>
-    <comment ref="AJ18" authorId="0" shapeId="0" xr:uid="{E932A0AB-C395-40D1-8B7D-42D35C131B39}">
+    <comment ref="AJ18" authorId="0" shapeId="0" xr:uid="{99739EB0-1974-49B9-A055-C1E651E7168D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -148,7 +145,7 @@
     Distances between completion pads and treatment facilities (layflat lines) are calculated as a straight distance times 1.3 (tortuosity factor)</t>
       </text>
     </comment>
-    <comment ref="AM52" authorId="1" shapeId="0" xr:uid="{1CF0CB79-47AB-40DB-AC45-90C04C20CA26}">
+    <comment ref="AM52" authorId="1" shapeId="0" xr:uid="{E346A958-2330-45FE-ADDC-512F99F83A5F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1535,145 +1532,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Overview"/>
-      <sheetName val="Schematic"/>
-      <sheetName val="ProductionPads"/>
-      <sheetName val="ProductionTanks"/>
-      <sheetName val="CompletionsPads"/>
-      <sheetName val="SWDSites"/>
-      <sheetName val="FreshwaterSources"/>
-      <sheetName val="StorageSites"/>
-      <sheetName val="TreatmentSites"/>
-      <sheetName val="ReuseOptions"/>
-      <sheetName val="NetworkNodes"/>
-      <sheetName val="PipelineDiameters"/>
-      <sheetName val="StorageCapacities"/>
-      <sheetName val="TreatmentCapacities"/>
-      <sheetName val="InjectionCapacities"/>
-      <sheetName val="PNA"/>
-      <sheetName val="CNA"/>
-      <sheetName val="CCA"/>
-      <sheetName val="NNA"/>
-      <sheetName val="NCA"/>
-      <sheetName val="NKA"/>
-      <sheetName val="NRA"/>
-      <sheetName val="NSA"/>
-      <sheetName val="SNA"/>
-      <sheetName val="FCA"/>
-      <sheetName val="RCA"/>
-      <sheetName val="RNA"/>
-      <sheetName val="PCT"/>
-      <sheetName val="FCT"/>
-      <sheetName val="PKT"/>
-      <sheetName val="CKT"/>
-      <sheetName val="CCT"/>
-      <sheetName val="CST"/>
-      <sheetName val="CompletionsDemand"/>
-      <sheetName val="PadRates"/>
-      <sheetName val="FlowbackRates"/>
-      <sheetName val="InitialPipelineCapacity"/>
-      <sheetName val="InitialDisposalCapacity"/>
-      <sheetName val="InitialStorageCapacity"/>
-      <sheetName val="InitialTreatmentCapacity"/>
-      <sheetName val="FreshwaterSourcingAvailability"/>
-      <sheetName val="CompletionsPadStorage"/>
-      <sheetName val="PadOffloadingCapacity"/>
-      <sheetName val="TruckingTime"/>
-      <sheetName val="DisposalOperationalCost"/>
-      <sheetName val="TreatmentOperationalCost"/>
-      <sheetName val="ReuseOperationalCost"/>
-      <sheetName val="PipelineOperationalCost"/>
-      <sheetName val="FreshSourcingCost"/>
-      <sheetName val="TruckingHourlyCost"/>
-      <sheetName val="PipelineDiameterValues"/>
-      <sheetName val="DisposalCapacityIncrements"/>
-      <sheetName val="StorageCapacityIncrements"/>
-      <sheetName val="TreatmentCapacityIncrements"/>
-      <sheetName val="TreatmentEfficiency"/>
-      <sheetName val="DisposalExpansionCost"/>
-      <sheetName val="StorageExpansionCost"/>
-      <sheetName val="TreatmentExpansionCost"/>
-      <sheetName val="PipelineCapexDistanceBased"/>
-      <sheetName val="PipelineExpansionDistance"/>
-      <sheetName val="PipelineCapacityIncrements"/>
-      <sheetName val="PipelineCapexCapacityBased"/>
-      <sheetName val="Hydraulics"/>
-      <sheetName val="Economics"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Andres Joaquin Calderon" id="{A27FE360-11C9-41C0-8DD1-3D48792D63D9}" userId="54325818ffabb65a" providerId="Windows Live"/>
@@ -1988,10 +1846,10 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AJ18" dT="2021-10-28T19:21:23.79" personId="{A27FE360-11C9-41C0-8DD1-3D48792D63D9}" id="{E932A0AB-C395-40D1-8B7D-42D35C131B39}">
+  <threadedComment ref="AJ18" dT="2021-10-28T19:21:23.79" personId="{A27FE360-11C9-41C0-8DD1-3D48792D63D9}" id="{99739EB0-1974-49B9-A055-C1E651E7168D}">
     <text>Distances between completion pads and treatment facilities (layflat lines) are calculated as a straight distance times 1.3 (tortuosity factor)</text>
   </threadedComment>
-  <threadedComment ref="AM52" dT="2021-10-28T19:18:35.38" personId="{A27FE360-11C9-41C0-8DD1-3D48792D63D9}" id="{1CF0CB79-47AB-40DB-AC45-90C04C20CA26}">
+  <threadedComment ref="AM52" dT="2021-10-28T19:18:35.38" personId="{A27FE360-11C9-41C0-8DD1-3D48792D63D9}" id="{E346A958-2330-45FE-ADDC-512F99F83A5F}">
     <text>Distances between fresh water sources and completion pads are assumed, not measured from the diagram</text>
   </threadedComment>
 </ThreadedComments>
@@ -21652,8 +21510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBA4E88-E142-4CAA-9941-4EFBE822A9B8}">
   <dimension ref="A1:AP61"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AT13" sqref="AT13"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21798,7 +21656,7 @@
         <v>125</v>
       </c>
       <c r="B3" s="46">
-        <v>5.7039999999999997</v>
+        <v>1.0969230769230769</v>
       </c>
       <c r="C3" s="46">
         <v>0</v>
@@ -21938,7 +21796,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="46">
-        <v>6.7388000000000003</v>
+        <v>1.295923076923077</v>
       </c>
       <c r="G4" s="46">
         <v>0</v>
@@ -22069,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="46">
-        <v>5.0251999999999999</v>
+        <v>0.9663846153846154</v>
       </c>
       <c r="H5" s="46">
         <v>0</v>
@@ -22212,7 +22070,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="46">
-        <v>10.0296</v>
+        <v>1.9287692307692308</v>
       </c>
       <c r="M6" s="46">
         <v>0</v>
@@ -22337,13 +22195,13 @@
         <v>0</v>
       </c>
       <c r="K7" s="46">
-        <v>23.6739469471283</v>
+        <v>4.5526821052169808</v>
       </c>
       <c r="L7" s="46">
         <v>0</v>
       </c>
       <c r="M7" s="46">
-        <v>5.9484000000000004</v>
+        <v>1.143923076923077</v>
       </c>
       <c r="N7" s="46">
         <v>0</v>
@@ -22483,7 +22341,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="46">
-        <v>9.9032</v>
+        <v>1.9044615384615386</v>
       </c>
       <c r="R8" s="46">
         <v>0</v>
@@ -22608,7 +22466,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="46">
-        <v>12.288903996290491</v>
+        <v>2.3632507685174025</v>
       </c>
       <c r="Q9" s="46">
         <v>0</v>
@@ -22745,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="46">
-        <v>3.9807999999999999</v>
+        <v>0.7655384615384615</v>
       </c>
       <c r="T10" s="46">
         <v>0</v>
@@ -22882,7 +22740,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="46">
-        <v>9.6988000000000003</v>
+        <v>1.8651538461538462</v>
       </c>
       <c r="W11" s="46">
         <v>0</v>
@@ -23004,7 +22862,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="46">
-        <v>9.6148000000000007</v>
+        <v>1.849</v>
       </c>
       <c r="U12" s="46">
         <v>0</v>
@@ -23150,7 +23008,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="46">
-        <v>15.318800000000001</v>
+        <v>2.9459230769230773</v>
       </c>
       <c r="AA13" s="46">
         <v>0</v>
@@ -23284,7 +23142,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="46">
-        <v>3.4019999999999997</v>
+        <v>0.65423076923076917</v>
       </c>
       <c r="AC14" s="46">
         <v>0</v>
@@ -23412,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="46">
-        <v>3.5811999999999999</v>
+        <v>0.68869230769230771</v>
       </c>
       <c r="AC15" s="46">
         <v>0</v>
@@ -23540,7 +23398,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="46">
-        <v>4.97</v>
+        <v>0.95576923076923082</v>
       </c>
       <c r="AC16" s="46">
         <v>0</v>
@@ -23659,7 +23517,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="11">
-        <v>9.6996000000000002</v>
+        <v>1.8653076923076923</v>
       </c>
       <c r="Z17" s="11">
         <v>0</v>
@@ -23724,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="46">
-        <v>4.484</v>
+        <v>0.86230769230769222</v>
       </c>
       <c r="E18" s="46">
         <v>0</v>
@@ -23820,7 +23678,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="46">
-        <v>28.063880000000005</v>
+        <v>5.3969000000000005</v>
       </c>
       <c r="AK18" s="32">
         <v>0</v>
@@ -23873,7 +23731,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="46">
-        <v>8.5172000000000008</v>
+        <v>1.637923076923077</v>
       </c>
       <c r="L19" s="46">
         <v>0</v>
@@ -23948,7 +23806,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="46">
-        <v>24.708839999999999</v>
+        <v>4.7516999999999996</v>
       </c>
       <c r="AK19" s="32">
         <v>0</v>
@@ -24022,7 +23880,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="46">
-        <v>8.2788000000000004</v>
+        <v>1.5920769230769232</v>
       </c>
       <c r="S20" s="46">
         <v>0</v>
@@ -24079,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="32">
-        <v>37.559080000000002</v>
+        <v>7.222900000000001</v>
       </c>
       <c r="AL20" s="35">
         <v>0</v>
@@ -24168,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="11">
-        <v>8.8379999999999992</v>
+        <v>1.6996153846153845</v>
       </c>
       <c r="Y21" s="11">
         <v>0</v>
@@ -24207,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="12">
-        <v>37.183640000000004</v>
+        <v>7.1507000000000005</v>
       </c>
       <c r="AL21" s="36">
         <v>0</v>
@@ -24233,7 +24091,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="56">
-        <v>16.300963910394145</v>
+        <v>3.1348007519988741</v>
       </c>
       <c r="D22" s="46">
         <v>0</v>
@@ -24317,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="56">
-        <v>16.686799999999998</v>
+        <v>3.2089999999999996</v>
       </c>
       <c r="AF22" s="46">
         <v>0</v>
@@ -24358,19 +24216,19 @@
         <v>83</v>
       </c>
       <c r="B23" s="56">
-        <v>16.300963910394145</v>
+        <v>3.1348007519988741</v>
       </c>
       <c r="C23" s="56">
         <v>0</v>
       </c>
       <c r="D23" s="46">
-        <v>3.3188</v>
+        <v>0.63823076923076927</v>
       </c>
       <c r="E23" s="46">
         <v>0</v>
       </c>
       <c r="F23" s="46">
-        <v>7.2567999999999993</v>
+        <v>1.3955384615384614</v>
       </c>
       <c r="G23" s="46">
         <v>0</v>
@@ -24489,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="46">
-        <v>3.3188</v>
+        <v>0.63823076923076927</v>
       </c>
       <c r="D24" s="46">
         <v>0</v>
       </c>
       <c r="E24" s="46">
-        <v>3.3251999999999997</v>
+        <v>0.63946153846153841</v>
       </c>
       <c r="F24" s="46">
         <v>0</v>
@@ -24597,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="AM24" s="46">
-        <v>4.484</v>
+        <v>0.86230769230769222</v>
       </c>
       <c r="AN24" s="46">
         <v>0</v>
@@ -24620,7 +24478,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="46">
-        <v>3.3251999999999997</v>
+        <v>0.63946153846153841</v>
       </c>
       <c r="E25" s="46">
         <v>0</v>
@@ -24629,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="46">
-        <v>5.0132000000000003</v>
+        <v>0.96407692307692316</v>
       </c>
       <c r="H25" s="46">
         <v>0</v>
@@ -24704,7 +24562,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="46">
-        <v>5.2652000000000001</v>
+        <v>1.0125384615384616</v>
       </c>
       <c r="AG25" s="46">
         <v>0</v>
@@ -24745,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="56">
-        <v>7.2567999999999993</v>
+        <v>1.3955384615384614</v>
       </c>
       <c r="D26" s="46">
         <v>0</v>
@@ -24763,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="46">
-        <v>5.7724000000000002</v>
+        <v>1.1100769230769232</v>
       </c>
       <c r="J26" s="46">
         <v>0</v>
@@ -24879,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="46">
-        <v>5.0132000000000003</v>
+        <v>0.96407692307692316</v>
       </c>
       <c r="F27" s="46">
         <v>0</v>
@@ -24888,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="46">
-        <v>4.6120000000000001</v>
+        <v>0.88692307692307693</v>
       </c>
       <c r="I27" s="46">
         <v>0</v>
@@ -25013,16 +24871,16 @@
         <v>0</v>
       </c>
       <c r="G28" s="46">
-        <v>4.6120000000000001</v>
+        <v>0.88692307692307693</v>
       </c>
       <c r="H28" s="46">
         <v>0</v>
       </c>
       <c r="I28" s="46">
-        <v>2.4312</v>
+        <v>0.46753846153846157</v>
       </c>
       <c r="J28" s="46">
-        <v>9.7796000000000003</v>
+        <v>1.8806923076923077</v>
       </c>
       <c r="K28" s="46">
         <v>0</v>
@@ -25138,13 +24996,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="46">
-        <v>5.7724000000000002</v>
+        <v>1.1100769230769232</v>
       </c>
       <c r="G29" s="46">
         <v>0</v>
       </c>
       <c r="H29" s="46">
-        <v>2.4312</v>
+        <v>0.46753846153846157</v>
       </c>
       <c r="I29" s="46">
         <v>0</v>
@@ -25228,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="46">
-        <v>7.0396000000000001</v>
+        <v>1.3537692307692308</v>
       </c>
       <c r="AK29" s="32">
         <v>0</v>
@@ -25272,7 +25130,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="46">
-        <v>9.7796000000000003</v>
+        <v>1.8806923076923077</v>
       </c>
       <c r="I30" s="46">
         <v>0</v>
@@ -25281,10 +25139,10 @@
         <v>0</v>
       </c>
       <c r="K30" s="46">
-        <v>3.9751999999999996</v>
+        <v>0.76446153846153841</v>
       </c>
       <c r="L30" s="46">
-        <v>15.5404</v>
+        <v>2.9885384615384614</v>
       </c>
       <c r="M30" s="46">
         <v>0</v>
@@ -25406,7 +25264,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="46">
-        <v>3.9751999999999996</v>
+        <v>0.76446153846153841</v>
       </c>
       <c r="K31" s="46">
         <v>0</v>
@@ -25415,7 +25273,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="46">
-        <v>29.622346947128303</v>
+        <v>5.6966051821400585</v>
       </c>
       <c r="N31" s="46">
         <v>0</v>
@@ -25496,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="46">
-        <v>8.5172000000000008</v>
+        <v>1.637923076923077</v>
       </c>
       <c r="AO31" s="46">
         <v>0</v>
@@ -25534,7 +25392,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="46">
-        <v>15.5404</v>
+        <v>2.9885384615384614</v>
       </c>
       <c r="K32" s="46">
         <v>0</v>
@@ -25546,7 +25404,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="46">
-        <v>10.572000000000001</v>
+        <v>2.0330769230769232</v>
       </c>
       <c r="O32" s="46">
         <v>0</v>
@@ -25665,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="46">
-        <v>29.622346947128303</v>
+        <v>5.6966051821400585</v>
       </c>
       <c r="L33" s="46">
         <v>0</v>
@@ -25677,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="46">
-        <v>19.539442440750435</v>
+        <v>3.757585084759699</v>
       </c>
       <c r="P33" s="46">
         <v>0</v>
@@ -25746,7 +25604,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="32">
-        <v>4.34</v>
+        <v>0.83461538461538465</v>
       </c>
       <c r="AM33" s="46">
         <v>0</v>
@@ -25796,7 +25654,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="46">
-        <v>10.572000000000001</v>
+        <v>2.0330769230769232</v>
       </c>
       <c r="M34" s="46">
         <v>0</v>
@@ -25805,7 +25663,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="46">
-        <v>12.435062680670844</v>
+        <v>2.391358207821316</v>
       </c>
       <c r="P34" s="46">
         <v>0</v>
@@ -25859,7 +25717,7 @@
         <v>0</v>
       </c>
       <c r="AG34" s="46">
-        <v>12.073599999999999</v>
+        <v>2.3218461538461534</v>
       </c>
       <c r="AH34" s="46">
         <v>0</v>
@@ -25927,10 +25785,10 @@
         <v>0</v>
       </c>
       <c r="M35" s="46">
-        <v>19.539442440750435</v>
+        <v>3.757585084759699</v>
       </c>
       <c r="N35" s="46">
-        <v>12.435062680670844</v>
+        <v>2.391358207821316</v>
       </c>
       <c r="O35" s="46">
         <v>0</v>
@@ -25978,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="32">
-        <v>5.5836000000000006</v>
+        <v>1.0737692307692308</v>
       </c>
       <c r="AE35" s="46">
         <v>0</v>
@@ -26067,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="46">
-        <v>5.4215999999999998</v>
+        <v>1.0426153846153845</v>
       </c>
       <c r="R36" s="46">
         <v>0</v>
@@ -26106,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="AD36" s="32">
-        <v>2.8575999999999997</v>
+        <v>0.54953846153846153</v>
       </c>
       <c r="AE36" s="46">
         <v>0</v>
@@ -26192,13 +26050,13 @@
         <v>0</v>
       </c>
       <c r="P37" s="46">
-        <v>5.4215999999999998</v>
+        <v>1.0426153846153845</v>
       </c>
       <c r="Q37" s="46">
         <v>0</v>
       </c>
       <c r="R37" s="46">
-        <v>12.8013468273532</v>
+        <v>2.4617974667986924</v>
       </c>
       <c r="S37" s="46">
         <v>0</v>
@@ -26323,7 +26181,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="46">
-        <v>12.8013468273532</v>
+        <v>2.4617974667986924</v>
       </c>
       <c r="R38" s="46">
         <v>0</v>
@@ -26374,7 +26232,7 @@
         <v>0</v>
       </c>
       <c r="AH38" s="46">
-        <v>25.943965577156415</v>
+        <v>4.9892241494531566</v>
       </c>
       <c r="AI38" s="32">
         <v>0</v>
@@ -26395,7 +26253,7 @@
         <v>0</v>
       </c>
       <c r="AO38" s="46">
-        <v>8.2788000000000004</v>
+        <v>1.5920769230769232</v>
       </c>
       <c r="AP38" s="32">
         <v>0</v>
@@ -26460,7 +26318,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="46">
-        <v>3.6275999999999997</v>
+        <v>0.69761538461538464</v>
       </c>
       <c r="U39" s="46">
         <v>0</v>
@@ -26502,7 +26360,7 @@
         <v>0</v>
       </c>
       <c r="AH39" s="46">
-        <v>13.675999999999998</v>
+        <v>2.63</v>
       </c>
       <c r="AI39" s="32">
         <v>0</v>
@@ -26585,7 +26443,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="46">
-        <v>3.6275999999999997</v>
+        <v>0.69761538461538464</v>
       </c>
       <c r="T40" s="46">
         <v>0</v>
@@ -26597,7 +26455,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="46">
-        <v>21.991199999999999</v>
+        <v>4.2290769230769225</v>
       </c>
       <c r="X40" s="46">
         <v>0</v>
@@ -26722,7 +26580,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="46">
-        <v>2.9739999999999998</v>
+        <v>0.57192307692307687</v>
       </c>
       <c r="W41" s="46">
         <v>0</v>
@@ -26746,7 +26604,7 @@
         <v>0</v>
       </c>
       <c r="AD41" s="32">
-        <v>3.8188</v>
+        <v>0.73438461538461541</v>
       </c>
       <c r="AE41" s="46">
         <v>0</v>
@@ -26767,7 +26625,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="32">
-        <v>9.0667999999999989</v>
+        <v>1.7436153846153843</v>
       </c>
       <c r="AL41" s="32">
         <v>0</v>
@@ -26847,13 +26705,13 @@
         <v>0</v>
       </c>
       <c r="U42" s="46">
-        <v>2.9739999999999998</v>
+        <v>0.57192307692307687</v>
       </c>
       <c r="V42" s="46">
         <v>0</v>
       </c>
       <c r="W42" s="46">
-        <v>2.9560000000000004</v>
+        <v>0.56846153846153846</v>
       </c>
       <c r="X42" s="46">
         <v>0</v>
@@ -26972,19 +26830,19 @@
         <v>0</v>
       </c>
       <c r="T43" s="46">
-        <v>21.991199999999999</v>
+        <v>4.2290769230769225</v>
       </c>
       <c r="U43" s="46">
         <v>0</v>
       </c>
       <c r="V43" s="46">
-        <v>2.9560000000000004</v>
+        <v>0.56846153846153846</v>
       </c>
       <c r="W43" s="46">
         <v>0</v>
       </c>
       <c r="X43" s="46">
-        <v>11.505599999999999</v>
+        <v>2.2126153846153844</v>
       </c>
       <c r="Y43" s="46">
         <v>0</v>
@@ -27011,7 +26869,7 @@
         <v>0</v>
       </c>
       <c r="AG43" s="46">
-        <v>15.523199999999999</v>
+        <v>2.9852307692307689</v>
       </c>
       <c r="AH43" s="46">
         <v>0</v>
@@ -27109,13 +26967,13 @@
         <v>0</v>
       </c>
       <c r="W44" s="46">
-        <v>11.505599999999999</v>
+        <v>2.2126153846153844</v>
       </c>
       <c r="X44" s="46">
         <v>0</v>
       </c>
       <c r="Y44" s="46">
-        <v>11.4428</v>
+        <v>2.2005384615384616</v>
       </c>
       <c r="Z44" s="46">
         <v>0</v>
@@ -27166,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="32">
-        <v>8.8379999999999992</v>
+        <v>1.6996153846153845</v>
       </c>
     </row>
     <row r="45" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
@@ -27240,13 +27098,13 @@
         <v>0</v>
       </c>
       <c r="X45" s="46">
-        <v>11.4428</v>
+        <v>2.2005384615384616</v>
       </c>
       <c r="Y45" s="46">
         <v>0</v>
       </c>
       <c r="Z45" s="46">
-        <v>5.0924000000000005</v>
+        <v>0.97930769230769243</v>
       </c>
       <c r="AA45" s="46">
         <v>0</v>
@@ -27371,13 +27229,13 @@
         <v>0</v>
       </c>
       <c r="Y46" s="46">
-        <v>5.0924000000000005</v>
+        <v>0.97930769230769243</v>
       </c>
       <c r="Z46" s="46">
         <v>0</v>
       </c>
       <c r="AA46" s="46">
-        <v>6.3364000000000003</v>
+        <v>1.2185384615384616</v>
       </c>
       <c r="AB46" s="46">
         <v>0</v>
@@ -27502,16 +27360,16 @@
         <v>0</v>
       </c>
       <c r="Z47" s="46">
-        <v>6.3364000000000003</v>
+        <v>1.2185384615384616</v>
       </c>
       <c r="AA47" s="46">
         <v>0</v>
       </c>
       <c r="AB47" s="46">
-        <v>6.6024000000000003</v>
+        <v>1.2696923076923077</v>
       </c>
       <c r="AC47" s="46">
-        <v>7.1392000000000007</v>
+        <v>1.3729230769230771</v>
       </c>
       <c r="AD47" s="32">
         <v>0</v>
@@ -27633,7 +27491,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="46">
-        <v>6.6024000000000003</v>
+        <v>1.2696923076923077</v>
       </c>
       <c r="AB48" s="46">
         <v>0</v>
@@ -27761,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="46">
-        <v>7.1392000000000007</v>
+        <v>1.3729230769230771</v>
       </c>
       <c r="AB49" s="46">
         <v>0</v>
@@ -27785,7 +27643,7 @@
         <v>0</v>
       </c>
       <c r="AI49" s="32">
-        <v>8.9832000000000001</v>
+        <v>1.7275384615384617</v>
       </c>
       <c r="AJ49" s="46">
         <v>0</v>
@@ -27853,10 +27711,10 @@
         <v>0</v>
       </c>
       <c r="O50" s="11">
-        <v>5.5836000000000006</v>
+        <v>1.0737692307692308</v>
       </c>
       <c r="P50" s="11">
-        <v>2.8575999999999997</v>
+        <v>0.54953846153846153</v>
       </c>
       <c r="Q50" s="11">
         <v>0</v>
@@ -27871,7 +27729,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="11">
-        <v>3.8188</v>
+        <v>0.73438461538461541</v>
       </c>
       <c r="V50" s="11">
         <v>0</v>
@@ -27975,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="11">
-        <v>4.34</v>
+        <v>0.83461538461538465</v>
       </c>
       <c r="N51" s="11">
         <v>0</v>
@@ -28181,7 +28039,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="46">
-        <v>10.4</v>
+        <v>2</v>
       </c>
       <c r="AN52" s="46">
         <v>0</v>
@@ -28309,7 +28167,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="46">
-        <v>10.8</v>
+        <v>2.0769230769230771</v>
       </c>
       <c r="AN53" s="46">
         <v>0</v>
@@ -28440,7 +28298,7 @@
         <v>0</v>
       </c>
       <c r="AN54" s="46">
-        <v>10.4</v>
+        <v>2</v>
       </c>
       <c r="AO54" s="46">
         <v>0</v>
@@ -28568,7 +28426,7 @@
         <v>0</v>
       </c>
       <c r="AN55" s="46">
-        <v>10.8</v>
+        <v>2.0769230769230771</v>
       </c>
       <c r="AO55" s="46">
         <v>0</v>
@@ -28699,7 +28557,7 @@
         <v>0</v>
       </c>
       <c r="AO56" s="46">
-        <v>12</v>
+        <v>2.3076923076923075</v>
       </c>
       <c r="AP56" s="32">
         <v>0</v>
@@ -28827,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="AO57" s="46">
-        <v>11.2</v>
+        <v>2.1538461538461537</v>
       </c>
       <c r="AP57" s="32">
         <v>0</v>
@@ -28958,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="AP58" s="32">
-        <v>8.8000000000000007</v>
+        <v>1.6923076923076925</v>
       </c>
     </row>
     <row r="59" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -29086,7 +28944,7 @@
         <v>0</v>
       </c>
       <c r="AP59" s="12">
-        <v>8.4</v>
+        <v>1.6153846153846154</v>
       </c>
     </row>
     <row r="60" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
@@ -29115,7 +28973,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="46">
-        <v>7.0396000000000001</v>
+        <v>1.3537692307692308</v>
       </c>
       <c r="J60" s="46">
         <v>0</v>
@@ -29205,10 +29063,10 @@
         <v>0</v>
       </c>
       <c r="AM60" s="46">
-        <v>28.063880000000005</v>
+        <v>5.3969000000000005</v>
       </c>
       <c r="AN60" s="46">
-        <v>24.708839999999999</v>
+        <v>4.7516999999999996</v>
       </c>
       <c r="AO60" s="46">
         <v>0</v>
@@ -29279,7 +29137,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="11">
-        <v>9.0667999999999989</v>
+        <v>1.7436153846153843</v>
       </c>
       <c r="V61" s="11">
         <v>0</v>
@@ -29339,10 +29197,10 @@
         <v>0</v>
       </c>
       <c r="AO61" s="11">
-        <v>37.559080000000002</v>
+        <v>7.222900000000001</v>
       </c>
       <c r="AP61" s="12">
-        <v>37.183640000000004</v>
+        <v>7.1507000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PARETO - dev\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A281873C-FBDA-465B-B9FC-C78D5FCEECB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647AA6F5-EC4D-46B1-A7A5-A6AC06728AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="50" activeTab="57" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" firstSheet="61" activeTab="67" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -80,6 +80,7 @@
     <sheet name="Economics" sheetId="99" r:id="rId65"/>
     <sheet name="PadWaterQuality" sheetId="100" r:id="rId66"/>
     <sheet name="StorageInitialWaterQuality" sheetId="101" r:id="rId67"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="103" r:id="rId68"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="62" hidden="1">#REF!</definedName>
@@ -131,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="267">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -929,6 +930,9 @@
   </si>
   <si>
     <t>Initial Water Quality at Storage (mg/L)</t>
+  </si>
+  <si>
+    <t>Initial Water Quality at Completiond Pad Storage (mg/L)</t>
   </si>
 </sst>
 </file>
@@ -1909,15 +1913,15 @@
       <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -1929,7 +1933,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
         <v>7</v>
@@ -1943,7 +1947,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1955,7 +1959,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="18"/>
       <c r="C5" s="20" t="s">
         <v>13</v>
@@ -1969,7 +1973,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="20" t="s">
         <v>11</v>
@@ -1983,7 +1987,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="20" t="s">
         <v>8</v>
@@ -1997,7 +2001,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="18"/>
       <c r="C8" s="20" t="s">
         <v>9</v>
@@ -2011,7 +2015,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="18"/>
       <c r="C9" s="20" t="s">
         <v>10</v>
@@ -2025,7 +2029,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
       <c r="C10" s="20" t="s">
         <v>49</v>
@@ -2039,7 +2043,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="18"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -2051,7 +2055,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
       <c r="C12" s="20" t="s">
         <v>14</v>
@@ -2065,7 +2069,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
       <c r="C13" s="20" t="s">
         <v>12</v>
@@ -2079,7 +2083,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="18"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -2091,7 +2095,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="18"/>
       <c r="C15" s="20" t="s">
         <v>15</v>
@@ -2105,7 +2109,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="18"/>
       <c r="C16" s="20" t="s">
         <v>16</v>
@@ -2119,7 +2123,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="18"/>
       <c r="C17" s="20" t="s">
         <v>17</v>
@@ -2133,7 +2137,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="18"/>
       <c r="C18" s="20" t="s">
         <v>18</v>
@@ -2147,7 +2151,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="18"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2159,7 +2163,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2171,7 +2175,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
       <c r="C21" s="22" t="s">
         <v>19</v>
@@ -2187,7 +2191,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2199,7 +2203,7 @@
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="23" t="s">
         <v>21</v>
@@ -2215,7 +2219,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
       <c r="C24" s="23" t="s">
         <v>22</v>
@@ -2231,7 +2235,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="18"/>
       <c r="C25" s="23" t="s">
         <v>23</v>
@@ -2247,7 +2251,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
       <c r="C26" s="23" t="s">
         <v>27</v>
@@ -2263,7 +2267,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="23" t="s">
         <v>29</v>
@@ -2279,7 +2283,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
       <c r="C28" s="23" t="s">
         <v>31</v>
@@ -2295,7 +2299,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
       <c r="C29" s="23" t="s">
         <v>32</v>
@@ -2311,7 +2315,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
       <c r="C30" s="23" t="s">
         <v>35</v>
@@ -2327,7 +2331,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
       <c r="C31" s="23" t="s">
         <v>37</v>
@@ -2346,7 +2350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="C32" s="23" t="s">
         <v>40</v>
@@ -2362,7 +2366,7 @@
       <c r="J32" s="20"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="C33" s="23" t="s">
         <v>39</v>
@@ -2378,7 +2382,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
       <c r="C34" s="23" t="s">
         <v>43</v>
@@ -2394,7 +2398,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="23" t="s">
         <v>45</v>
@@ -2410,7 +2414,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="C36" s="23" t="s">
         <v>46</v>
@@ -2426,7 +2430,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -2468,30 +2472,30 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2512,7 +2516,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2532,7 +2536,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2552,7 +2556,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2572,7 +2576,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2592,7 +2596,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2612,7 +2616,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2646,30 +2650,30 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>83</v>
       </c>
@@ -2692,7 +2696,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>84</v>
       </c>
@@ -2715,7 +2719,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
@@ -2738,7 +2742,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>86</v>
       </c>
@@ -2761,7 +2765,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>87</v>
       </c>
@@ -2784,7 +2788,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>88</v>
       </c>
@@ -2807,7 +2811,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
@@ -2830,107 +2834,107 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>166</v>
       </c>
@@ -2950,30 +2954,30 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3008,25 +3012,25 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -3045,25 +3049,25 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>229</v>
       </c>
@@ -3086,7 +3090,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3107,7 +3111,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3128,7 +3132,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3162,30 +3166,30 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3206,7 +3210,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3227,7 +3231,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3264,24 +3268,24 @@
       <selection pane="bottomRight" activeCell="AH23" sqref="AH23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="30" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="30" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="37" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="42" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.28515625" style="1"/>
+    <col min="32" max="37" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="42" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -3409,7 +3413,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -3457,7 +3461,7 @@
       <c r="AO3" s="46"/>
       <c r="AP3" s="32"/>
     </row>
-    <row r="4" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -3505,7 +3509,7 @@
       <c r="AO4" s="46"/>
       <c r="AP4" s="32"/>
     </row>
-    <row r="5" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -3553,7 +3557,7 @@
       <c r="AO5" s="46"/>
       <c r="AP5" s="32"/>
     </row>
-    <row r="6" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -3601,7 +3605,7 @@
       <c r="AO6" s="46"/>
       <c r="AP6" s="32"/>
     </row>
-    <row r="7" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -3651,7 +3655,7 @@
       <c r="AO7" s="46"/>
       <c r="AP7" s="32"/>
     </row>
-    <row r="8" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -3699,7 +3703,7 @@
       <c r="AO8" s="46"/>
       <c r="AP8" s="32"/>
     </row>
-    <row r="9" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -3747,7 +3751,7 @@
       <c r="AO9" s="46"/>
       <c r="AP9" s="32"/>
     </row>
-    <row r="10" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -3795,7 +3799,7 @@
       <c r="AO10" s="46"/>
       <c r="AP10" s="32"/>
     </row>
-    <row r="11" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -3843,7 +3847,7 @@
       <c r="AO11" s="46"/>
       <c r="AP11" s="32"/>
     </row>
-    <row r="12" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -3891,7 +3895,7 @@
       <c r="AO12" s="46"/>
       <c r="AP12" s="32"/>
     </row>
-    <row r="13" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -3940,7 +3944,7 @@
       <c r="AO13" s="46"/>
       <c r="AP13" s="32"/>
     </row>
-    <row r="14" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -3988,7 +3992,7 @@
       <c r="AO14" s="46"/>
       <c r="AP14" s="32"/>
     </row>
-    <row r="15" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -4036,7 +4040,7 @@
       <c r="AO15" s="46"/>
       <c r="AP15" s="32"/>
     </row>
-    <row r="16" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -4084,7 +4088,7 @@
       <c r="AO16" s="46"/>
       <c r="AP16" s="32"/>
     </row>
-    <row r="17" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>129</v>
       </c>
@@ -4133,7 +4137,7 @@
       <c r="AO17" s="11"/>
       <c r="AP17" s="12"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -4184,7 +4188,7 @@
       <c r="AO18" s="47"/>
       <c r="AP18" s="35"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>130</v>
       </c>
@@ -4236,7 +4240,7 @@
       <c r="AO19" s="47"/>
       <c r="AP19" s="35"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>131</v>
       </c>
@@ -4287,7 +4291,7 @@
       <c r="AO20" s="47"/>
       <c r="AP20" s="35"/>
     </row>
-    <row r="21" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
         <v>132</v>
       </c>
@@ -4338,7 +4342,7 @@
       <c r="AO21" s="34"/>
       <c r="AP21" s="36"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>145</v>
       </c>
@@ -4389,7 +4393,7 @@
       <c r="AO22" s="46"/>
       <c r="AP22" s="32"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>83</v>
       </c>
@@ -4441,7 +4445,7 @@
       <c r="AO23" s="46"/>
       <c r="AP23" s="32"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>84</v>
       </c>
@@ -4493,7 +4497,7 @@
       <c r="AO24" s="46"/>
       <c r="AP24" s="32"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>85</v>
       </c>
@@ -4545,7 +4549,7 @@
       <c r="AO25" s="46"/>
       <c r="AP25" s="32"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>86</v>
       </c>
@@ -4595,7 +4599,7 @@
       <c r="AO26" s="46"/>
       <c r="AP26" s="32"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>87</v>
       </c>
@@ -4645,7 +4649,7 @@
       <c r="AO27" s="46"/>
       <c r="AP27" s="32"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>88</v>
       </c>
@@ -4698,7 +4702,7 @@
       <c r="AO28" s="46"/>
       <c r="AP28" s="32"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>89</v>
       </c>
@@ -4750,7 +4754,7 @@
       <c r="AO29" s="46"/>
       <c r="AP29" s="32"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>146</v>
       </c>
@@ -4803,7 +4807,7 @@
       <c r="AO30" s="46"/>
       <c r="AP30" s="32"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>147</v>
       </c>
@@ -4856,7 +4860,7 @@
       <c r="AO31" s="46"/>
       <c r="AP31" s="32"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>148</v>
       </c>
@@ -4906,7 +4910,7 @@
       <c r="AO32" s="46"/>
       <c r="AP32" s="32"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>149</v>
       </c>
@@ -4958,7 +4962,7 @@
       <c r="AO33" s="46"/>
       <c r="AP33" s="32"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>150</v>
       </c>
@@ -5010,7 +5014,7 @@
       <c r="AO34" s="46"/>
       <c r="AP34" s="32"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>151</v>
       </c>
@@ -5062,7 +5066,7 @@
       <c r="AO35" s="46"/>
       <c r="AP35" s="32"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>152</v>
       </c>
@@ -5112,7 +5116,7 @@
       <c r="AO36" s="46"/>
       <c r="AP36" s="32"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>153</v>
       </c>
@@ -5162,7 +5166,7 @@
       <c r="AO37" s="46"/>
       <c r="AP37" s="32"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
         <v>154</v>
       </c>
@@ -5214,7 +5218,7 @@
       </c>
       <c r="AP38" s="32"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
         <v>155</v>
       </c>
@@ -5264,7 +5268,7 @@
       <c r="AO39" s="46"/>
       <c r="AP39" s="32"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
         <v>156</v>
       </c>
@@ -5315,7 +5319,7 @@
       <c r="AO40" s="46"/>
       <c r="AP40" s="32"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
         <v>157</v>
       </c>
@@ -5367,7 +5371,7 @@
       <c r="AO41" s="46"/>
       <c r="AP41" s="32"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
         <v>158</v>
       </c>
@@ -5417,7 +5421,7 @@
       <c r="AO42" s="46"/>
       <c r="AP42" s="32"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
         <v>159</v>
       </c>
@@ -5473,7 +5477,7 @@
       <c r="AO43" s="46"/>
       <c r="AP43" s="32"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>160</v>
       </c>
@@ -5527,7 +5531,7 @@
         <v>220.95</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>161</v>
       </c>
@@ -5578,7 +5582,7 @@
       <c r="AO45" s="46"/>
       <c r="AP45" s="32"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
         <v>162</v>
       </c>
@@ -5628,7 +5632,7 @@
       <c r="AO46" s="46"/>
       <c r="AP46" s="32"/>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
         <v>163</v>
       </c>
@@ -5681,7 +5685,7 @@
       <c r="AO47" s="46"/>
       <c r="AP47" s="32"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>164</v>
       </c>
@@ -5729,7 +5733,7 @@
       <c r="AO48" s="46"/>
       <c r="AP48" s="32"/>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>165</v>
       </c>
@@ -5780,7 +5784,7 @@
       <c r="AO49" s="46"/>
       <c r="AP49" s="32"/>
     </row>
-    <row r="50" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="30" t="s">
         <v>166</v>
       </c>
@@ -5832,7 +5836,7 @@
       <c r="AO50" s="11"/>
       <c r="AP50" s="12"/>
     </row>
-    <row r="51" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="30" t="s">
         <v>81</v>
       </c>
@@ -5880,7 +5884,7 @@
       <c r="AO51" s="11"/>
       <c r="AP51" s="12"/>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>67</v>
       </c>
@@ -5928,7 +5932,7 @@
       <c r="AO52" s="46"/>
       <c r="AP52" s="32"/>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
         <v>68</v>
       </c>
@@ -5976,7 +5980,7 @@
       <c r="AO53" s="46"/>
       <c r="AP53" s="32"/>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
         <v>137</v>
       </c>
@@ -6024,7 +6028,7 @@
       <c r="AO54" s="46"/>
       <c r="AP54" s="32"/>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
         <v>138</v>
       </c>
@@ -6072,7 +6076,7 @@
       <c r="AO55" s="46"/>
       <c r="AP55" s="32"/>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>139</v>
       </c>
@@ -6120,7 +6124,7 @@
       </c>
       <c r="AP56" s="32"/>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
         <v>140</v>
       </c>
@@ -6168,7 +6172,7 @@
       </c>
       <c r="AP57" s="32"/>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
         <v>141</v>
       </c>
@@ -6216,7 +6220,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="30" t="s">
         <v>142</v>
       </c>
@@ -6264,7 +6268,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A60" s="29" t="s">
         <v>82</v>
       </c>
@@ -6318,7 +6322,7 @@
       <c r="AO60" s="46"/>
       <c r="AP60" s="32"/>
     </row>
-    <row r="61" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="30" t="s">
         <v>143</v>
       </c>
@@ -6387,17 +6391,17 @@
       <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -6489,7 +6493,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -6525,7 +6529,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -6561,7 +6565,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -6597,7 +6601,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -6633,7 +6637,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -6671,7 +6675,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -6707,7 +6711,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -6743,7 +6747,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -6779,7 +6783,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -6815,7 +6819,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -6851,7 +6855,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -6887,7 +6891,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -6923,7 +6927,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -6959,7 +6963,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -6995,7 +6999,7 @@
       <c r="AC16" s="10"/>
       <c r="AD16" s="32"/>
     </row>
-    <row r="17" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>129</v>
       </c>
@@ -7046,17 +7050,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -7148,7 +7152,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -7184,7 +7188,7 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="35"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -7220,7 +7224,7 @@
       <c r="AC4" s="33"/>
       <c r="AD4" s="35"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -7256,7 +7260,7 @@
       <c r="AC5" s="33"/>
       <c r="AD5" s="35"/>
     </row>
-    <row r="6" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -7305,17 +7309,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -7332,7 +7336,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -7341,7 +7345,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -7350,7 +7354,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -7359,7 +7363,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -7382,61 +7386,61 @@
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" s="41"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="42"/>
       <c r="F21" s="42"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="43"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="43"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="43"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="43"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="43"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="43"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="43"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="43"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="43"/>
     </row>
   </sheetData>
@@ -7453,17 +7457,17 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -7480,7 +7484,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -7493,7 +7497,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
@@ -7520,17 +7524,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>243</v>
       </c>
@@ -7547,7 +7551,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>145</v>
       </c>
@@ -7556,7 +7560,7 @@
       <c r="D3" s="46"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -7565,7 +7569,7 @@
       <c r="D4" s="46"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -7574,7 +7578,7 @@
       <c r="D5" s="46"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -7583,7 +7587,7 @@
       <c r="D6" s="46"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -7592,7 +7596,7 @@
       <c r="D7" s="46"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -7601,7 +7605,7 @@
       <c r="D8" s="46"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -7610,7 +7614,7 @@
       <c r="D9" s="46"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -7619,7 +7623,7 @@
       <c r="D10" s="46"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>146</v>
       </c>
@@ -7628,7 +7632,7 @@
       <c r="D11" s="46"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>147</v>
       </c>
@@ -7637,7 +7641,7 @@
       <c r="D12" s="46"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>148</v>
       </c>
@@ -7646,7 +7650,7 @@
       <c r="D13" s="46"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>149</v>
       </c>
@@ -7655,7 +7659,7 @@
       <c r="D14" s="46"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>150</v>
       </c>
@@ -7664,7 +7668,7 @@
       <c r="D15" s="46"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>151</v>
       </c>
@@ -7673,7 +7677,7 @@
       <c r="D16" s="46"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>152</v>
       </c>
@@ -7682,7 +7686,7 @@
       <c r="D17" s="46"/>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>153</v>
       </c>
@@ -7691,7 +7695,7 @@
       <c r="D18" s="46"/>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>154</v>
       </c>
@@ -7700,7 +7704,7 @@
       <c r="D19" s="46"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>155</v>
       </c>
@@ -7709,7 +7713,7 @@
       <c r="D20" s="46"/>
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>156</v>
       </c>
@@ -7718,7 +7722,7 @@
       <c r="D21" s="46"/>
       <c r="E21" s="32"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>157</v>
       </c>
@@ -7727,7 +7731,7 @@
       <c r="D22" s="46"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>158</v>
       </c>
@@ -7736,7 +7740,7 @@
       <c r="D23" s="46"/>
       <c r="E23" s="32"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>159</v>
       </c>
@@ -7745,7 +7749,7 @@
       <c r="D24" s="46"/>
       <c r="E24" s="32"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>160</v>
       </c>
@@ -7754,7 +7758,7 @@
       <c r="D25" s="46"/>
       <c r="E25" s="32"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>161</v>
       </c>
@@ -7763,7 +7767,7 @@
       <c r="D26" s="46"/>
       <c r="E26" s="32"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>162</v>
       </c>
@@ -7772,7 +7776,7 @@
       <c r="D27" s="46"/>
       <c r="E27" s="32"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>163</v>
       </c>
@@ -7781,7 +7785,7 @@
       <c r="D28" s="46"/>
       <c r="E28" s="32"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>164</v>
       </c>
@@ -7790,7 +7794,7 @@
       <c r="D29" s="46"/>
       <c r="E29" s="32"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>165</v>
       </c>
@@ -7799,7 +7803,7 @@
       <c r="D30" s="46"/>
       <c r="E30" s="32"/>
     </row>
-    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>166</v>
       </c>
@@ -7822,17 +7826,17 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>243</v>
       </c>
@@ -7852,7 +7856,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>145</v>
       </c>
@@ -7862,7 +7866,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -7872,7 +7876,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -7882,7 +7886,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -7894,7 +7898,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="32"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -7904,7 +7908,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="32"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -7914,7 +7918,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="32"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -7924,7 +7928,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="32"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -7934,7 +7938,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="32"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>146</v>
       </c>
@@ -7944,7 +7948,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="32"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>147</v>
       </c>
@@ -7954,7 +7958,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>148</v>
       </c>
@@ -7964,7 +7968,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>149</v>
       </c>
@@ -7974,7 +7978,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="32"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>150</v>
       </c>
@@ -7984,7 +7988,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="32"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>151</v>
       </c>
@@ -7994,7 +7998,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="32"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>152</v>
       </c>
@@ -8004,7 +8008,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>153</v>
       </c>
@@ -8014,7 +8018,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>154</v>
       </c>
@@ -8026,7 +8030,7 @@
       </c>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>155</v>
       </c>
@@ -8038,7 +8042,7 @@
       </c>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>156</v>
       </c>
@@ -8048,7 +8052,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>157</v>
       </c>
@@ -8058,7 +8062,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>158</v>
       </c>
@@ -8068,7 +8072,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="32"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>159</v>
       </c>
@@ -8078,7 +8082,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="32"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>160</v>
       </c>
@@ -8088,7 +8092,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="32"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>161</v>
       </c>
@@ -8098,7 +8102,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="32"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>162</v>
       </c>
@@ -8108,7 +8112,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="32"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>163</v>
       </c>
@@ -8118,7 +8122,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="32"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>164</v>
       </c>
@@ -8128,7 +8132,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="32"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>165</v>
       </c>
@@ -8138,7 +8142,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="32"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>166</v>
       </c>
@@ -8163,17 +8167,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>243</v>
       </c>
@@ -8184,56 +8188,56 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="32"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="32"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="32"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="32"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="32"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="32"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -8242,84 +8246,84 @@
       </c>
       <c r="C10" s="32"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>146</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>147</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="32"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>148</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="32"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="32"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>150</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="32"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>151</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="32"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>152</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="32"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>153</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="32"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="32"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>155</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="32"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>156</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="32"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>157</v>
       </c>
@@ -8328,63 +8332,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>158</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="32"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>159</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="32"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>160</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="32"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="32"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>162</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="32"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>163</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="32"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>164</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="32"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>165</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="32"/>
     </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>166</v>
       </c>
@@ -8406,17 +8410,17 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>243</v>
       </c>
@@ -8508,7 +8512,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>145</v>
       </c>
@@ -8544,7 +8548,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -8584,7 +8588,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -8622,7 +8626,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -8660,7 +8664,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -8698,7 +8702,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -8736,7 +8740,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -8776,7 +8780,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -8814,7 +8818,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>146</v>
       </c>
@@ -8854,7 +8858,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>147</v>
       </c>
@@ -8892,7 +8896,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>148</v>
       </c>
@@ -8930,7 +8934,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>149</v>
       </c>
@@ -8968,7 +8972,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>150</v>
       </c>
@@ -9006,7 +9010,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>151</v>
       </c>
@@ -9046,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>152</v>
       </c>
@@ -9084,7 +9088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>153</v>
       </c>
@@ -9122,7 +9126,7 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="32"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>154</v>
       </c>
@@ -9158,7 +9162,7 @@
       <c r="AC19" s="10"/>
       <c r="AD19" s="32"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>155</v>
       </c>
@@ -9194,7 +9198,7 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="32"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>156</v>
       </c>
@@ -9232,7 +9236,7 @@
       <c r="AC21" s="10"/>
       <c r="AD21" s="32"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>157</v>
       </c>
@@ -9270,7 +9274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>158</v>
       </c>
@@ -9308,7 +9312,7 @@
       <c r="AC23" s="10"/>
       <c r="AD23" s="32"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>159</v>
       </c>
@@ -9346,7 +9350,7 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="32"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>160</v>
       </c>
@@ -9384,7 +9388,7 @@
       <c r="AC25" s="10"/>
       <c r="AD25" s="32"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>161</v>
       </c>
@@ -9422,7 +9426,7 @@
       <c r="AC26" s="10"/>
       <c r="AD26" s="32"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>162</v>
       </c>
@@ -9460,7 +9464,7 @@
       <c r="AC27" s="10"/>
       <c r="AD27" s="32"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>163</v>
       </c>
@@ -9500,7 +9504,7 @@
       </c>
       <c r="AD28" s="32"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>164</v>
       </c>
@@ -9536,7 +9540,7 @@
       <c r="AC29" s="10"/>
       <c r="AD29" s="32"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>165</v>
       </c>
@@ -9570,7 +9574,7 @@
       <c r="AC30" s="10"/>
       <c r="AD30" s="32"/>
     </row>
-    <row r="31" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>166</v>
       </c>
@@ -9625,17 +9629,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>243</v>
       </c>
@@ -9643,7 +9647,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>149</v>
       </c>
@@ -9665,17 +9669,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>241</v>
       </c>
@@ -9683,7 +9687,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
@@ -9705,17 +9709,17 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>240</v>
       </c>
@@ -9732,7 +9736,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -9741,7 +9745,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -9750,7 +9754,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>137</v>
       </c>
@@ -9759,7 +9763,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>138</v>
       </c>
@@ -9768,7 +9772,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>139</v>
       </c>
@@ -9777,7 +9781,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>140</v>
       </c>
@@ -9786,7 +9790,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>141</v>
       </c>
@@ -9795,7 +9799,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>142</v>
       </c>
@@ -9819,17 +9823,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -9840,14 +9844,14 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
@@ -9868,17 +9872,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -9895,7 +9899,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -9904,7 +9908,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -9913,7 +9917,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -9922,7 +9926,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -9931,7 +9935,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -9940,7 +9944,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -9949,7 +9953,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -9958,7 +9962,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -9967,7 +9971,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -9976,7 +9980,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -9985,7 +9989,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -9994,7 +9998,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -10003,7 +10007,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -10012,7 +10016,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -10021,7 +10025,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>129</v>
       </c>
@@ -10045,24 +10049,24 @@
       <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>125</v>
       </c>
@@ -10083,7 +10087,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -10104,67 +10108,67 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>129</v>
       </c>
@@ -10184,17 +10188,17 @@
       <selection activeCell="B3" sqref="B3:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>240</v>
       </c>
@@ -10211,7 +10215,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -10222,7 +10226,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -10233,7 +10237,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>137</v>
       </c>
@@ -10244,7 +10248,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>138</v>
       </c>
@@ -10255,7 +10259,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>139</v>
       </c>
@@ -10266,7 +10270,7 @@
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>140</v>
       </c>
@@ -10277,7 +10281,7 @@
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>141</v>
       </c>
@@ -10288,7 +10292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>142</v>
       </c>
@@ -10313,17 +10317,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -10343,7 +10347,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -10363,7 +10367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -10383,7 +10387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -10403,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -10423,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -10443,7 +10447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -10463,7 +10467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -10483,7 +10487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -10503,7 +10507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -10523,7 +10527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -10543,7 +10547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -10563,7 +10567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -10583,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -10603,7 +10607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -10623,7 +10627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>129</v>
       </c>
@@ -10657,17 +10661,17 @@
       <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -10687,7 +10691,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -10707,7 +10711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -10727,7 +10731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -10747,7 +10751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -10781,17 +10785,17 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -10808,7 +10812,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -10817,7 +10821,7 @@
       <c r="D3" s="33"/>
       <c r="E3" s="35"/>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -10826,7 +10830,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="35"/>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -10835,7 +10839,7 @@
       <c r="D5" s="33"/>
       <c r="E5" s="35"/>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -10858,17 +10862,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -10876,7 +10880,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -10896,15 +10900,15 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -10912,7 +10916,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>82</v>
       </c>
@@ -10920,7 +10924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>143</v>
       </c>
@@ -10941,14 +10945,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>241</v>
       </c>
@@ -10965,7 +10969,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
@@ -10982,7 +10986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
     </row>
   </sheetData>
@@ -10998,17 +11002,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -11169,7 +11173,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -11246,7 +11250,7 @@
       <c r="AZ3" s="44"/>
       <c r="BA3" s="38"/>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -11331,7 +11335,7 @@
       <c r="AZ4" s="44"/>
       <c r="BA4" s="38"/>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -11404,7 +11408,7 @@
       <c r="AZ5" s="44"/>
       <c r="BA5" s="38"/>
     </row>
-    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -11495,47 +11499,47 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -11555,21 +11559,21 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="9"/>
-    <col min="2" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="9"/>
+    <col min="2" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -11730,7 +11734,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -11943,7 +11947,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -12156,7 +12160,7 @@
         <v>22826.547097429568</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -12369,7 +12373,7 @@
         <v>20853.895411663008</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -12582,7 +12586,7 @@
         <v>12936.237157458605</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -12795,7 +12799,7 @@
         <v>10093.208985005042</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -13008,7 +13012,7 @@
         <v>25030.845039782169</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -13221,7 +13225,7 @@
         <v>21394.248548185435</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -13434,7 +13438,7 @@
         <v>19620.846059435706</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -13647,7 +13651,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -13860,7 +13864,7 @@
         <v>19056.740567787925</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -14073,7 +14077,7 @@
         <v>10459.139487125793</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -14286,7 +14290,7 @@
         <v>11226.398478579069</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -14499,7 +14503,7 @@
         <v>9948.0491512241751</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -14712,7 +14716,7 @@
         <v>13401.937357783543</v>
       </c>
     </row>
-    <row r="17" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>129</v>
       </c>
@@ -14925,12 +14929,12 @@
         <v>8411.007487504201</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -14950,21 +14954,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="9"/>
-    <col min="2" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="9"/>
+    <col min="2" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -15125,7 +15129,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -15302,7 +15306,7 @@
         <v>38495.240630664819</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -15407,7 +15411,7 @@
         <v>63660.095793436725</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -15557,7 +15561,7 @@
         <v>56817.904350212186</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -15614,42 +15618,42 @@
       <c r="AZ6" s="39"/>
       <c r="BA6" s="40"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -15669,24 +15673,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
@@ -15707,7 +15711,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -15728,7 +15732,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -15749,7 +15753,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -15770,7 +15774,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -15791,47 +15795,47 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -15851,12 +15855,12 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>105</v>
       </c>
@@ -15897,7 +15901,7 @@
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -16010,7 +16014,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -16053,7 +16057,7 @@
       <c r="AJ3" s="37"/>
       <c r="AK3" s="38"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -16096,7 +16100,7 @@
       <c r="AJ4" s="37"/>
       <c r="AK4" s="38"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -16139,7 +16143,7 @@
       <c r="AJ5" s="37"/>
       <c r="AK5" s="38"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>82</v>
       </c>
@@ -16184,7 +16188,7 @@
       <c r="AJ6" s="37"/>
       <c r="AK6" s="38"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>143</v>
       </c>
@@ -16229,7 +16233,7 @@
       <c r="AJ7" s="37"/>
       <c r="AK7" s="38"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>145</v>
       </c>
@@ -16272,7 +16276,7 @@
       <c r="AJ8" s="37"/>
       <c r="AK8" s="38"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>83</v>
       </c>
@@ -16319,7 +16323,7 @@
       <c r="AJ9" s="37"/>
       <c r="AK9" s="38"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>84</v>
       </c>
@@ -16366,7 +16370,7 @@
       <c r="AJ10" s="37"/>
       <c r="AK10" s="38"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>85</v>
       </c>
@@ -16413,7 +16417,7 @@
       <c r="AJ11" s="37"/>
       <c r="AK11" s="38"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>86</v>
       </c>
@@ -16458,7 +16462,7 @@
       <c r="AJ12" s="37"/>
       <c r="AK12" s="38"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>87</v>
       </c>
@@ -16503,7 +16507,7 @@
       <c r="AJ13" s="37"/>
       <c r="AK13" s="38"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>88</v>
       </c>
@@ -16550,7 +16554,7 @@
       <c r="AJ14" s="37"/>
       <c r="AK14" s="38"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>89</v>
       </c>
@@ -16597,7 +16601,7 @@
       <c r="AJ15" s="37"/>
       <c r="AK15" s="38"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>146</v>
       </c>
@@ -16644,7 +16648,7 @@
       <c r="AJ16" s="37"/>
       <c r="AK16" s="38"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>147</v>
       </c>
@@ -16689,7 +16693,7 @@
       <c r="AJ17" s="37"/>
       <c r="AK17" s="38"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>148</v>
       </c>
@@ -16734,7 +16738,7 @@
       <c r="AJ18" s="37"/>
       <c r="AK18" s="38"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>149</v>
       </c>
@@ -16779,7 +16783,7 @@
       <c r="AJ19" s="37"/>
       <c r="AK19" s="38"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>150</v>
       </c>
@@ -16824,7 +16828,7 @@
       <c r="AJ20" s="37"/>
       <c r="AK20" s="38"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>151</v>
       </c>
@@ -16871,7 +16875,7 @@
       <c r="AJ21" s="37"/>
       <c r="AK21" s="38"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>152</v>
       </c>
@@ -16916,7 +16920,7 @@
       <c r="AJ22" s="44"/>
       <c r="AK22" s="38"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>153</v>
       </c>
@@ -16961,7 +16965,7 @@
       <c r="AJ23" s="44"/>
       <c r="AK23" s="38"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>154</v>
       </c>
@@ -17006,7 +17010,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>155</v>
       </c>
@@ -17051,7 +17055,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>156</v>
       </c>
@@ -17096,7 +17100,7 @@
       <c r="AJ26" s="44"/>
       <c r="AK26" s="38"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>157</v>
       </c>
@@ -17143,7 +17147,7 @@
       </c>
       <c r="AK27" s="38"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>158</v>
       </c>
@@ -17188,7 +17192,7 @@
       <c r="AJ28" s="44"/>
       <c r="AK28" s="38"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>159</v>
       </c>
@@ -17233,7 +17237,7 @@
       <c r="AJ29" s="44"/>
       <c r="AK29" s="38"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>160</v>
       </c>
@@ -17278,7 +17282,7 @@
       <c r="AJ30" s="44"/>
       <c r="AK30" s="38"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>161</v>
       </c>
@@ -17323,7 +17327,7 @@
       <c r="AJ31" s="44"/>
       <c r="AK31" s="38"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>162</v>
       </c>
@@ -17368,7 +17372,7 @@
       <c r="AJ32" s="44"/>
       <c r="AK32" s="38"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>163</v>
       </c>
@@ -17413,7 +17417,7 @@
       <c r="AJ33" s="44"/>
       <c r="AK33" s="38"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>164</v>
       </c>
@@ -17456,7 +17460,7 @@
       <c r="AJ34" s="44"/>
       <c r="AK34" s="38"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>166</v>
       </c>
@@ -17503,7 +17507,7 @@
       <c r="AJ35" s="44"/>
       <c r="AK35" s="38"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>125</v>
       </c>
@@ -17546,7 +17550,7 @@
       <c r="AJ36" s="37"/>
       <c r="AK36" s="38"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>3</v>
       </c>
@@ -17589,7 +17593,7 @@
       <c r="AJ37" s="37"/>
       <c r="AK37" s="38"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
         <v>4</v>
       </c>
@@ -17632,7 +17636,7 @@
       <c r="AJ38" s="37"/>
       <c r="AK38" s="38"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
         <v>117</v>
       </c>
@@ -17675,7 +17679,7 @@
       <c r="AJ39" s="37"/>
       <c r="AK39" s="38"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
         <v>118</v>
       </c>
@@ -17720,7 +17724,7 @@
       <c r="AJ40" s="37"/>
       <c r="AK40" s="38"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
         <v>119</v>
       </c>
@@ -17763,7 +17767,7 @@
       <c r="AJ41" s="44"/>
       <c r="AK41" s="38"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
         <v>120</v>
       </c>
@@ -17806,7 +17810,7 @@
       <c r="AJ42" s="44"/>
       <c r="AK42" s="38"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
         <v>121</v>
       </c>
@@ -17849,7 +17853,7 @@
       <c r="AJ43" s="44"/>
       <c r="AK43" s="38"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>122</v>
       </c>
@@ -17892,7 +17896,7 @@
       <c r="AJ44" s="44"/>
       <c r="AK44" s="38"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>123</v>
       </c>
@@ -17935,7 +17939,7 @@
       <c r="AJ45" s="44"/>
       <c r="AK45" s="38"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
         <v>124</v>
       </c>
@@ -17978,7 +17982,7 @@
       <c r="AJ46" s="44"/>
       <c r="AK46" s="38"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
         <v>126</v>
       </c>
@@ -18021,7 +18025,7 @@
       <c r="AJ47" s="44"/>
       <c r="AK47" s="38"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>127</v>
       </c>
@@ -18064,7 +18068,7 @@
       <c r="AJ48" s="44"/>
       <c r="AK48" s="38"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>128</v>
       </c>
@@ -18107,7 +18111,7 @@
       <c r="AJ49" s="44"/>
       <c r="AK49" s="38"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>129</v>
       </c>
@@ -18150,7 +18154,7 @@
       <c r="AJ50" s="44"/>
       <c r="AK50" s="38"/>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>134</v>
       </c>
@@ -18208,17 +18212,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>239</v>
       </c>
@@ -18226,7 +18230,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -18234,7 +18238,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -18242,7 +18246,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>133</v>
       </c>
@@ -18250,7 +18254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>134</v>
       </c>
@@ -18258,7 +18262,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>135</v>
       </c>
@@ -18280,19 +18284,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>241</v>
       </c>
@@ -18300,7 +18304,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>81</v>
       </c>
@@ -18322,17 +18326,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -18340,7 +18344,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -18348,7 +18352,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
@@ -18370,17 +18374,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>240</v>
       </c>
@@ -18541,7 +18545,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>67</v>
       </c>
@@ -18702,7 +18706,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
@@ -18863,7 +18867,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>137</v>
       </c>
@@ -19024,7 +19028,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>138</v>
       </c>
@@ -19185,7 +19189,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>139</v>
       </c>
@@ -19346,7 +19350,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>140</v>
       </c>
@@ -19507,7 +19511,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>141</v>
       </c>
@@ -19668,7 +19672,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>142</v>
       </c>
@@ -19829,47 +19833,47 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -19889,19 +19893,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -19909,7 +19913,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -19917,7 +19921,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -19925,7 +19929,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -19933,7 +19937,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -19955,17 +19959,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -19973,7 +19977,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -19995,17 +19999,17 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>235</v>
       </c>
@@ -20025,7 +20029,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>125</v>
       </c>
@@ -20045,7 +20049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -20065,7 +20069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -20085,7 +20089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -20105,7 +20109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>130</v>
       </c>
@@ -20125,7 +20129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>131</v>
       </c>
@@ -20145,7 +20149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>132</v>
       </c>
@@ -20165,34 +20169,34 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
     </row>
   </sheetData>
@@ -20209,17 +20213,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>239</v>
       </c>
@@ -20227,7 +20231,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -20235,7 +20239,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -20243,7 +20247,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>133</v>
       </c>
@@ -20251,7 +20255,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>134</v>
       </c>
@@ -20259,7 +20263,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>135</v>
       </c>
@@ -20282,17 +20286,17 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -20300,7 +20304,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -20308,7 +20312,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
@@ -20330,30 +20334,30 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
@@ -20376,7 +20380,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>131</v>
       </c>
@@ -20399,7 +20403,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>132</v>
       </c>
@@ -20422,7 +20426,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -20442,7 +20446,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -20462,7 +20466,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -20482,7 +20486,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -20517,17 +20521,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -20535,7 +20539,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -20543,7 +20547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -20551,7 +20555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -20559,7 +20563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -20581,19 +20585,19 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>235</v>
       </c>
@@ -20616,7 +20620,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -20629,7 +20633,7 @@
       <c r="F3" s="47"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>130</v>
       </c>
@@ -20642,7 +20646,7 @@
       <c r="F4" s="47"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>131</v>
       </c>
@@ -20655,7 +20659,7 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -20668,7 +20672,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -20679,7 +20683,7 @@
       <c r="F7" s="46"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -20690,7 +20694,7 @@
       <c r="F8" s="46"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>67</v>
       </c>
@@ -20701,7 +20705,7 @@
       <c r="F9" s="46"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>68</v>
       </c>
@@ -20727,17 +20731,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>240</v>
       </c>
@@ -20745,7 +20749,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>67</v>
       </c>
@@ -20753,7 +20757,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
@@ -20761,7 +20765,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>137</v>
       </c>
@@ -20769,7 +20773,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>138</v>
       </c>
@@ -20777,7 +20781,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>139</v>
       </c>
@@ -20785,7 +20789,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>140</v>
       </c>
@@ -20793,7 +20797,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>141</v>
       </c>
@@ -20801,7 +20805,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>142</v>
       </c>
@@ -20823,17 +20827,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -20841,7 +20845,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -20849,7 +20853,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -20857,7 +20861,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -20865,7 +20869,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -20873,7 +20877,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -20881,7 +20885,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -20889,7 +20893,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -20897,7 +20901,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -20905,7 +20909,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -20913,7 +20917,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -20921,7 +20925,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -20929,7 +20933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -20937,7 +20941,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -20945,7 +20949,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -20953,7 +20957,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>129</v>
       </c>
@@ -20961,7 +20965,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -20969,7 +20973,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>130</v>
       </c>
@@ -20977,7 +20981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>131</v>
       </c>
@@ -20985,7 +20989,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>132</v>
       </c>
@@ -20993,7 +20997,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>67</v>
       </c>
@@ -21001,7 +21005,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">
         <v>68</v>
       </c>
@@ -21024,17 +21028,17 @@
       <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>244</v>
       </c>
@@ -21042,7 +21046,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>90</v>
       </c>
@@ -21050,7 +21054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="57"/>
       <c r="B4" s="58"/>
     </row>
@@ -21068,17 +21072,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>246</v>
       </c>
@@ -21086,7 +21090,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>95</v>
       </c>
@@ -21108,17 +21112,17 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>245</v>
       </c>
@@ -21126,7 +21130,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>92</v>
       </c>
@@ -21148,17 +21152,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>247</v>
       </c>
@@ -21166,7 +21170,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>229</v>
       </c>
@@ -21184,21 +21188,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -21206,7 +21210,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -21214,7 +21218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
@@ -21236,17 +21240,17 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>239</v>
       </c>
@@ -21254,7 +21258,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -21262,7 +21266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -21270,7 +21274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>133</v>
       </c>
@@ -21278,7 +21282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>134</v>
       </c>
@@ -21286,7 +21290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>135</v>
       </c>
@@ -21309,23 +21313,23 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.28515625" style="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.33203125" style="1"/>
+    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>136</v>
       </c>
@@ -21346,7 +21350,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -21367,7 +21371,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>133</v>
       </c>
@@ -21388,7 +21392,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>134</v>
       </c>
@@ -21409,7 +21413,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>135</v>
       </c>
@@ -21445,17 +21449,17 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>241</v>
       </c>
@@ -21463,7 +21467,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>81</v>
       </c>
@@ -21485,17 +21489,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -21503,7 +21507,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -21511,7 +21515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
@@ -21519,31 +21523,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
@@ -21560,16 +21564,16 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -21577,7 +21581,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>255</v>
       </c>
@@ -21598,16 +21602,16 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>235</v>
       </c>
@@ -21735,7 +21739,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>125</v>
       </c>
@@ -21863,7 +21867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
@@ -21991,7 +21995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>4</v>
       </c>
@@ -22119,7 +22123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>117</v>
       </c>
@@ -22247,7 +22251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>118</v>
       </c>
@@ -22375,7 +22379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>119</v>
       </c>
@@ -22503,7 +22507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>120</v>
       </c>
@@ -22631,7 +22635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>121</v>
       </c>
@@ -22759,7 +22763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
         <v>122</v>
       </c>
@@ -22887,7 +22891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>123</v>
       </c>
@@ -23015,7 +23019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
         <v>124</v>
       </c>
@@ -23143,7 +23147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>126</v>
       </c>
@@ -23271,7 +23275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>127</v>
       </c>
@@ -23399,7 +23403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>128</v>
       </c>
@@ -23527,7 +23531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
         <v>129</v>
       </c>
@@ -23655,7 +23659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
         <v>5</v>
       </c>
@@ -23783,7 +23787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
         <v>130</v>
       </c>
@@ -23911,7 +23915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
         <v>131</v>
       </c>
@@ -24039,7 +24043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
         <v>132</v>
       </c>
@@ -24167,7 +24171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="49" t="s">
         <v>67</v>
       </c>
@@ -24295,7 +24299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
         <v>68</v>
       </c>
@@ -24423,7 +24427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>137</v>
       </c>
@@ -24551,7 +24555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
         <v>138</v>
       </c>
@@ -24679,7 +24683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="49" t="s">
         <v>139</v>
       </c>
@@ -24807,7 +24811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="49" t="s">
         <v>140</v>
       </c>
@@ -24935,7 +24939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
         <v>141</v>
       </c>
@@ -25063,7 +25067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="49" t="s">
         <v>142</v>
       </c>
@@ -25191,7 +25195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="49" t="s">
         <v>81</v>
       </c>
@@ -25319,7 +25323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="49" t="s">
         <v>82</v>
       </c>
@@ -25447,7 +25451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="49" t="s">
         <v>143</v>
       </c>
@@ -25575,7 +25579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="49" t="s">
         <v>145</v>
       </c>
@@ -25703,7 +25707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="49" t="s">
         <v>83</v>
       </c>
@@ -25831,7 +25835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="49" t="s">
         <v>84</v>
       </c>
@@ -25959,7 +25963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="49" t="s">
         <v>85</v>
       </c>
@@ -26087,7 +26091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="49" t="s">
         <v>86</v>
       </c>
@@ -26215,7 +26219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="49" t="s">
         <v>87</v>
       </c>
@@ -26343,7 +26347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="49" t="s">
         <v>88</v>
       </c>
@@ -26471,7 +26475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="49" t="s">
         <v>89</v>
       </c>
@@ -26599,7 +26603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="49" t="s">
         <v>146</v>
       </c>
@@ -26727,7 +26731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="49" t="s">
         <v>147</v>
       </c>
@@ -26855,7 +26859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="49" t="s">
         <v>148</v>
       </c>
@@ -26983,7 +26987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="49" t="s">
         <v>149</v>
       </c>
@@ -27111,7 +27115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="49" t="s">
         <v>150</v>
       </c>
@@ -27239,7 +27243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="49" t="s">
         <v>151</v>
       </c>
@@ -27367,7 +27371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="49" t="s">
         <v>152</v>
       </c>
@@ -27495,7 +27499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="49" t="s">
         <v>153</v>
       </c>
@@ -27623,7 +27627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="49" t="s">
         <v>154</v>
       </c>
@@ -27751,7 +27755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="49" t="s">
         <v>155</v>
       </c>
@@ -27879,7 +27883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="49" t="s">
         <v>156</v>
       </c>
@@ -28007,7 +28011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="49" t="s">
         <v>157</v>
       </c>
@@ -28135,7 +28139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="49" t="s">
         <v>158</v>
       </c>
@@ -28263,7 +28267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="49" t="s">
         <v>159</v>
       </c>
@@ -28391,7 +28395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="49" t="s">
         <v>160</v>
       </c>
@@ -28519,7 +28523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="49" t="s">
         <v>161</v>
       </c>
@@ -28647,7 +28651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="49" t="s">
         <v>162</v>
       </c>
@@ -28775,7 +28779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="49" t="s">
         <v>163</v>
       </c>
@@ -28903,7 +28907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="49" t="s">
         <v>164</v>
       </c>
@@ -29031,7 +29035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="49" t="s">
         <v>165</v>
       </c>
@@ -29159,7 +29163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="49" t="s">
         <v>166</v>
       </c>
@@ -29300,17 +29304,17 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -29318,7 +29322,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>253</v>
       </c>
@@ -29326,7 +29330,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>254</v>
       </c>
@@ -29347,17 +29351,17 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -29365,7 +29369,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>260</v>
       </c>
@@ -29373,7 +29377,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>261</v>
       </c>
@@ -29394,17 +29398,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>263</v>
       </c>
@@ -29412,7 +29416,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>125</v>
       </c>
@@ -29420,7 +29424,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -29428,7 +29432,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -29436,7 +29440,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -29444,7 +29448,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -29452,7 +29456,7 @@
         <v>241833.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -29460,7 +29464,7 @@
         <v>188503.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -29468,7 +29472,7 @@
         <v>146716</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -29476,7 +29480,7 @@
         <v>216563</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -29484,7 +29488,7 @@
         <v>150626</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -29492,7 +29496,7 @@
         <v>247061</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -29500,7 +29504,7 @@
         <v>180968</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -29508,7 +29512,7 @@
         <v>195584</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -29516,7 +29520,7 @@
         <v>148655</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -29524,7 +29528,7 @@
         <v>185369</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>129</v>
       </c>
@@ -29532,7 +29536,7 @@
         <v>222724</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -29540,7 +29544,7 @@
         <v>165376</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>130</v>
       </c>
@@ -29548,7 +29552,7 @@
         <v>240977</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>131</v>
       </c>
@@ -29556,7 +29560,7 @@
         <v>192794</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
         <v>132</v>
       </c>
@@ -29578,17 +29582,17 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>263</v>
       </c>
@@ -29596,11 +29600,74 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="65" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="66">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2894767C-5F80-40D5-8E40-9377EFE8C493}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="63">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="63">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="63">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="64">
         <v>150000</v>
       </c>
     </row>
@@ -29617,30 +29684,30 @@
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -29663,7 +29730,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
@@ -29686,7 +29753,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
@@ -29709,7 +29776,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>139</v>
       </c>
@@ -29732,7 +29799,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>140</v>
       </c>
@@ -29755,7 +29822,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>141</v>
       </c>
@@ -29778,7 +29845,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>142</v>
       </c>
@@ -29816,30 +29883,30 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -29860,7 +29927,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -29880,7 +29947,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -29900,7 +29967,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -29920,7 +29987,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -29940,7 +30007,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -29960,7 +30027,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -29994,30 +30061,30 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>143</v>
       </c>
@@ -30040,7 +30107,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -30060,7 +30127,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -30080,7 +30147,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -30100,7 +30167,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -30120,7 +30187,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -30140,7 +30207,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PARETO - dev\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A859316-FABE-43D1-93EF-2A407DE401D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A937A82C-B72D-48F9-B49C-9D7D4886A7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" activeTab="64" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -52,36 +52,37 @@
     <sheet name="CompletionsDemand" sheetId="8" r:id="rId37"/>
     <sheet name="PadRates" sheetId="65" r:id="rId38"/>
     <sheet name="FlowbackRates" sheetId="75" r:id="rId39"/>
-    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId40"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId41"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId42"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId43"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId44"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId45"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId46"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId47"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId48"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId49"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId50"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId51"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId52"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId53"/>
-    <sheet name="PipelineDiameterValues" sheetId="93" r:id="rId54"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId55"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId56"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId57"/>
-    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId58"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId59"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId60"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId61"/>
-    <sheet name="PipelineExpansionCost" sheetId="89" r:id="rId62"/>
-    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId63"/>
-    <sheet name="Hydraulics" sheetId="95" r:id="rId64"/>
-    <sheet name="Economics" sheetId="99" r:id="rId65"/>
+    <sheet name="NodeCapacities" sheetId="100" r:id="rId40"/>
+    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId41"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId42"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId43"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId44"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId45"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId46"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId47"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId48"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId49"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId50"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId51"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId52"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId53"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId54"/>
+    <sheet name="PipelineDiameterValues" sheetId="93" r:id="rId55"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId56"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId57"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId58"/>
+    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId59"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId60"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId61"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId62"/>
+    <sheet name="PipelineExpansionCost" sheetId="89" r:id="rId63"/>
+    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId64"/>
+    <sheet name="Hydraulics" sheetId="95" r:id="rId65"/>
+    <sheet name="Economics" sheetId="99" r:id="rId66"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="62" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="62">PipelineExpansionDistance!$O$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="63">PipelineExpansionDistance!$O$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -129,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="263">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -915,6 +916,9 @@
   </si>
   <si>
     <t>CAPEX_lifetime</t>
+  </si>
+  <si>
+    <t>Table of Node Capacity Capacity  [bbl/week]</t>
   </si>
 </sst>
 </file>
@@ -1778,9 +1782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E5E074-61D5-4D82-B0DB-255C2595EBED}">
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2516,7 +2518,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15717,6 +15719,272 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C13DAB-1800-4B74-8752-3DB3B6392BCA}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="40">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
   <dimension ref="A1:AK51"/>
   <sheetViews>
@@ -18073,7 +18341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -18145,7 +18413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -18187,7 +18455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -18235,7 +18503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <dimension ref="A1:BA21"/>
   <sheetViews>
@@ -19754,7 +20022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -19820,7 +20088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -19860,7 +20128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -20074,7 +20342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -20142,54 +20410,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="32">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20383,6 +20603,54 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -20446,7 +20714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -20592,7 +20860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -20688,7 +20956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -20889,7 +21157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451B8273-C388-463D-8494-0D66D9ED9BA0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -20933,7 +21201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -20973,7 +21241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -21013,7 +21281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -21053,7 +21321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -21096,79 +21364,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="39">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -21311,6 +21506,79 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="39">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -21350,7 +21618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -21425,7 +21693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -21463,7 +21731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD6C1F8-A751-4C25-8134-E01587FF203F}">
   <dimension ref="A1:AP61"/>
   <sheetViews>
@@ -29165,7 +29433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A568C-E2FB-4ADF-84D0-ABF3E0446F9A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -29212,11 +29480,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB07E06-ED03-4572-9B3E-05DAA3F2CF42}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PARETO - dev\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7B7934-CC24-44AF-842F-F1496756F6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD69D59-3B5B-45FB-BE0D-5FF3D67C8C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="59" activeTab="61" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="30810" yWindow="1620" windowWidth="21600" windowHeight="12735" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -52,38 +52,39 @@
     <sheet name="CompletionsDemand" sheetId="8" r:id="rId37"/>
     <sheet name="PadRates" sheetId="65" r:id="rId38"/>
     <sheet name="FlowbackRates" sheetId="75" r:id="rId39"/>
-    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId40"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId41"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId42"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId43"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId44"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId45"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId46"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId47"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId48"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId49"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId50"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId51"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId52"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId53"/>
-    <sheet name="PipelineDiameterValues" sheetId="93" r:id="rId54"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId55"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId56"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId57"/>
-    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId58"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId59"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId60"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId61"/>
-    <sheet name="PipelineExpansionDistance" sheetId="103" r:id="rId62"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId63"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="100" r:id="rId64"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="101" r:id="rId65"/>
-    <sheet name="Hydraulics" sheetId="95" r:id="rId66"/>
-    <sheet name="Economics" sheetId="99" r:id="rId67"/>
+    <sheet name="NodeCapacities" sheetId="104" r:id="rId40"/>
+    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId41"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId42"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId43"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId44"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId45"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId46"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId47"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId48"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId49"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId50"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId51"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId52"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId53"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId54"/>
+    <sheet name="PipelineDiameterValues" sheetId="93" r:id="rId55"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId56"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId57"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId58"/>
+    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId59"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId60"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId61"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId62"/>
+    <sheet name="PipelineExpansionDistance" sheetId="103" r:id="rId63"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId64"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="100" r:id="rId65"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="101" r:id="rId66"/>
+    <sheet name="Hydraulics" sheetId="95" r:id="rId67"/>
+    <sheet name="Economics" sheetId="99" r:id="rId68"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="61" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="61">PipelineExpansionDistance!$O$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="62" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="62">PipelineExpansionDistance!$O$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="264">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -948,6 +949,9 @@
   <si>
     <t>Table of Pipeline Capacity Expansion Increments [bbl/week]</t>
   </si>
+  <si>
+    <t>Table of Node Capacity Capacity  [bbl/week]</t>
+  </si>
 </sst>
 </file>
 
@@ -957,7 +961,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,12 +1019,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1859,19 +1857,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E5E074-61D5-4D82-B0DB-255C2595EBED}">
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -1883,7 +1879,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
         <v>7</v>
@@ -1897,7 +1893,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1909,7 +1905,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="20" t="s">
         <v>13</v>
@@ -1923,7 +1919,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="20" t="s">
         <v>11</v>
@@ -1937,7 +1933,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="20" t="s">
         <v>8</v>
@@ -1951,7 +1947,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="20" t="s">
         <v>9</v>
@@ -1965,7 +1961,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="20" t="s">
         <v>10</v>
@@ -1979,7 +1975,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="20" t="s">
         <v>49</v>
@@ -1993,7 +1989,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -2005,7 +2001,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="20" t="s">
         <v>14</v>
@@ -2019,7 +2015,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="20" t="s">
         <v>12</v>
@@ -2033,7 +2029,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -2045,7 +2041,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="20" t="s">
         <v>15</v>
@@ -2059,7 +2055,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="20" t="s">
         <v>16</v>
@@ -2073,7 +2069,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="20" t="s">
         <v>17</v>
@@ -2087,7 +2083,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="20" t="s">
         <v>18</v>
@@ -2101,7 +2097,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2113,7 +2109,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2125,7 +2121,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="22" t="s">
         <v>19</v>
@@ -2141,7 +2137,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2153,7 +2149,7 @@
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="23" t="s">
         <v>21</v>
@@ -2169,7 +2165,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="23" t="s">
         <v>22</v>
@@ -2185,7 +2181,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="23" t="s">
         <v>23</v>
@@ -2201,7 +2197,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="23" t="s">
         <v>27</v>
@@ -2217,7 +2213,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="23" t="s">
         <v>29</v>
@@ -2233,7 +2229,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="23" t="s">
         <v>31</v>
@@ -2249,7 +2245,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="23" t="s">
         <v>32</v>
@@ -2265,7 +2261,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="C30" s="23" t="s">
         <v>35</v>
@@ -2281,7 +2277,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="23" t="s">
         <v>37</v>
@@ -2300,7 +2296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="23" t="s">
         <v>40</v>
@@ -2316,7 +2312,7 @@
       <c r="J32" s="20"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="23" t="s">
         <v>39</v>
@@ -2332,7 +2328,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="18"/>
       <c r="C34" s="23" t="s">
         <v>43</v>
@@ -2348,7 +2344,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="18"/>
       <c r="C35" s="23" t="s">
         <v>45</v>
@@ -2364,7 +2360,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="18"/>
       <c r="C36" s="23" t="s">
         <v>46</v>
@@ -2380,7 +2376,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -2422,30 +2418,30 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2466,7 +2462,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2486,7 +2482,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2506,7 +2502,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2526,7 +2522,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2546,7 +2542,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2566,7 +2562,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2600,30 +2596,30 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>83</v>
       </c>
@@ -2646,7 +2642,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>84</v>
       </c>
@@ -2669,7 +2665,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
@@ -2692,7 +2688,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>86</v>
       </c>
@@ -2715,7 +2711,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>87</v>
       </c>
@@ -2738,7 +2734,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>88</v>
       </c>
@@ -2761,7 +2757,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
@@ -2784,107 +2780,107 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>166</v>
       </c>
@@ -2904,30 +2900,30 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2962,25 +2958,25 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -2999,25 +2995,25 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>229</v>
       </c>
@@ -3040,7 +3036,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3061,7 +3057,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3082,7 +3078,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3116,30 +3112,30 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3160,7 +3156,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3181,7 +3177,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3218,24 +3214,24 @@
       <selection pane="bottomRight" activeCell="AH23" sqref="AH23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="30" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="30" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="37" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="42" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.33203125" style="1"/>
+    <col min="32" max="37" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="42" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -3363,7 +3359,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -3411,7 +3407,7 @@
       <c r="AO3" s="46"/>
       <c r="AP3" s="32"/>
     </row>
-    <row r="4" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -3459,7 +3455,7 @@
       <c r="AO4" s="46"/>
       <c r="AP4" s="32"/>
     </row>
-    <row r="5" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -3507,7 +3503,7 @@
       <c r="AO5" s="46"/>
       <c r="AP5" s="32"/>
     </row>
-    <row r="6" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -3555,7 +3551,7 @@
       <c r="AO6" s="46"/>
       <c r="AP6" s="32"/>
     </row>
-    <row r="7" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -3605,7 +3601,7 @@
       <c r="AO7" s="46"/>
       <c r="AP7" s="32"/>
     </row>
-    <row r="8" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -3653,7 +3649,7 @@
       <c r="AO8" s="46"/>
       <c r="AP8" s="32"/>
     </row>
-    <row r="9" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -3701,7 +3697,7 @@
       <c r="AO9" s="46"/>
       <c r="AP9" s="32"/>
     </row>
-    <row r="10" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -3749,7 +3745,7 @@
       <c r="AO10" s="46"/>
       <c r="AP10" s="32"/>
     </row>
-    <row r="11" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -3797,7 +3793,7 @@
       <c r="AO11" s="46"/>
       <c r="AP11" s="32"/>
     </row>
-    <row r="12" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -3845,7 +3841,7 @@
       <c r="AO12" s="46"/>
       <c r="AP12" s="32"/>
     </row>
-    <row r="13" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -3894,7 +3890,7 @@
       <c r="AO13" s="46"/>
       <c r="AP13" s="32"/>
     </row>
-    <row r="14" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -3942,7 +3938,7 @@
       <c r="AO14" s="46"/>
       <c r="AP14" s="32"/>
     </row>
-    <row r="15" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -3990,7 +3986,7 @@
       <c r="AO15" s="46"/>
       <c r="AP15" s="32"/>
     </row>
-    <row r="16" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -4038,7 +4034,7 @@
       <c r="AO16" s="46"/>
       <c r="AP16" s="32"/>
     </row>
-    <row r="17" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>129</v>
       </c>
@@ -4087,7 +4083,7 @@
       <c r="AO17" s="11"/>
       <c r="AP17" s="12"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -4138,7 +4134,7 @@
       <c r="AO18" s="47"/>
       <c r="AP18" s="35"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>130</v>
       </c>
@@ -4190,7 +4186,7 @@
       <c r="AO19" s="47"/>
       <c r="AP19" s="35"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>131</v>
       </c>
@@ -4241,7 +4237,7 @@
       <c r="AO20" s="47"/>
       <c r="AP20" s="35"/>
     </row>
-    <row r="21" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>132</v>
       </c>
@@ -4292,7 +4288,7 @@
       <c r="AO21" s="34"/>
       <c r="AP21" s="36"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>145</v>
       </c>
@@ -4343,7 +4339,7 @@
       <c r="AO22" s="46"/>
       <c r="AP22" s="32"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>83</v>
       </c>
@@ -4395,7 +4391,7 @@
       <c r="AO23" s="46"/>
       <c r="AP23" s="32"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>84</v>
       </c>
@@ -4447,7 +4443,7 @@
       <c r="AO24" s="46"/>
       <c r="AP24" s="32"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>85</v>
       </c>
@@ -4499,7 +4495,7 @@
       <c r="AO25" s="46"/>
       <c r="AP25" s="32"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>86</v>
       </c>
@@ -4549,7 +4545,7 @@
       <c r="AO26" s="46"/>
       <c r="AP26" s="32"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>87</v>
       </c>
@@ -4599,7 +4595,7 @@
       <c r="AO27" s="46"/>
       <c r="AP27" s="32"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>88</v>
       </c>
@@ -4652,7 +4648,7 @@
       <c r="AO28" s="46"/>
       <c r="AP28" s="32"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>89</v>
       </c>
@@ -4704,7 +4700,7 @@
       <c r="AO29" s="46"/>
       <c r="AP29" s="32"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>146</v>
       </c>
@@ -4757,7 +4753,7 @@
       <c r="AO30" s="46"/>
       <c r="AP30" s="32"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>147</v>
       </c>
@@ -4810,7 +4806,7 @@
       <c r="AO31" s="46"/>
       <c r="AP31" s="32"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>148</v>
       </c>
@@ -4860,7 +4856,7 @@
       <c r="AO32" s="46"/>
       <c r="AP32" s="32"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>149</v>
       </c>
@@ -4912,7 +4908,7 @@
       <c r="AO33" s="46"/>
       <c r="AP33" s="32"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>150</v>
       </c>
@@ -4964,7 +4960,7 @@
       <c r="AO34" s="46"/>
       <c r="AP34" s="32"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>151</v>
       </c>
@@ -5016,7 +5012,7 @@
       <c r="AO35" s="46"/>
       <c r="AP35" s="32"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>152</v>
       </c>
@@ -5066,7 +5062,7 @@
       <c r="AO36" s="46"/>
       <c r="AP36" s="32"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>153</v>
       </c>
@@ -5116,7 +5112,7 @@
       <c r="AO37" s="46"/>
       <c r="AP37" s="32"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>154</v>
       </c>
@@ -5168,7 +5164,7 @@
       </c>
       <c r="AP38" s="32"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>155</v>
       </c>
@@ -5218,7 +5214,7 @@
       <c r="AO39" s="46"/>
       <c r="AP39" s="32"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>156</v>
       </c>
@@ -5269,7 +5265,7 @@
       <c r="AO40" s="46"/>
       <c r="AP40" s="32"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>157</v>
       </c>
@@ -5321,7 +5317,7 @@
       <c r="AO41" s="46"/>
       <c r="AP41" s="32"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>158</v>
       </c>
@@ -5371,7 +5367,7 @@
       <c r="AO42" s="46"/>
       <c r="AP42" s="32"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>159</v>
       </c>
@@ -5427,7 +5423,7 @@
       <c r="AO43" s="46"/>
       <c r="AP43" s="32"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>160</v>
       </c>
@@ -5481,7 +5477,7 @@
         <v>220.95</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>161</v>
       </c>
@@ -5532,7 +5528,7 @@
       <c r="AO45" s="46"/>
       <c r="AP45" s="32"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>162</v>
       </c>
@@ -5582,7 +5578,7 @@
       <c r="AO46" s="46"/>
       <c r="AP46" s="32"/>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>163</v>
       </c>
@@ -5635,7 +5631,7 @@
       <c r="AO47" s="46"/>
       <c r="AP47" s="32"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>164</v>
       </c>
@@ -5683,7 +5679,7 @@
       <c r="AO48" s="46"/>
       <c r="AP48" s="32"/>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>165</v>
       </c>
@@ -5734,7 +5730,7 @@
       <c r="AO49" s="46"/>
       <c r="AP49" s="32"/>
     </row>
-    <row r="50" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
         <v>166</v>
       </c>
@@ -5786,7 +5782,7 @@
       <c r="AO50" s="11"/>
       <c r="AP50" s="12"/>
     </row>
-    <row r="51" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
         <v>81</v>
       </c>
@@ -5834,7 +5830,7 @@
       <c r="AO51" s="11"/>
       <c r="AP51" s="12"/>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>67</v>
       </c>
@@ -5882,7 +5878,7 @@
       <c r="AO52" s="46"/>
       <c r="AP52" s="32"/>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>68</v>
       </c>
@@ -5930,7 +5926,7 @@
       <c r="AO53" s="46"/>
       <c r="AP53" s="32"/>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>137</v>
       </c>
@@ -5978,7 +5974,7 @@
       <c r="AO54" s="46"/>
       <c r="AP54" s="32"/>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>138</v>
       </c>
@@ -6026,7 +6022,7 @@
       <c r="AO55" s="46"/>
       <c r="AP55" s="32"/>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>139</v>
       </c>
@@ -6074,7 +6070,7 @@
       </c>
       <c r="AP56" s="32"/>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>140</v>
       </c>
@@ -6122,7 +6118,7 @@
       </c>
       <c r="AP57" s="32"/>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>141</v>
       </c>
@@ -6170,7 +6166,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="s">
         <v>142</v>
       </c>
@@ -6218,7 +6214,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>82</v>
       </c>
@@ -6272,7 +6268,7 @@
       <c r="AO60" s="46"/>
       <c r="AP60" s="32"/>
     </row>
-    <row r="61" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="30" t="s">
         <v>143</v>
       </c>
@@ -6341,17 +6337,17 @@
       <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -6443,7 +6439,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -6479,7 +6475,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -6515,7 +6511,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -6551,7 +6547,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -6587,7 +6583,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -6625,7 +6621,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -6661,7 +6657,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -6697,7 +6693,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -6733,7 +6729,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -6769,7 +6765,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -6805,7 +6801,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -6841,7 +6837,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -6877,7 +6873,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -6913,7 +6909,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -6949,7 +6945,7 @@
       <c r="AC16" s="10"/>
       <c r="AD16" s="32"/>
     </row>
-    <row r="17" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>129</v>
       </c>
@@ -7000,17 +6996,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -7102,7 +7098,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -7138,7 +7134,7 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="35"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -7174,7 +7170,7 @@
       <c r="AC4" s="33"/>
       <c r="AD4" s="35"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -7210,7 +7206,7 @@
       <c r="AC5" s="33"/>
       <c r="AD5" s="35"/>
     </row>
-    <row r="6" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -7259,17 +7255,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -7286,7 +7282,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -7295,7 +7291,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -7304,7 +7300,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -7313,7 +7309,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -7336,61 +7332,61 @@
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="41"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="42"/>
       <c r="F21" s="42"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="43"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="43"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="43"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="43"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="43"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="43"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="43"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="43"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="43"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="43"/>
     </row>
   </sheetData>
@@ -7407,17 +7403,17 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -7434,7 +7430,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -7447,7 +7443,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
@@ -7474,17 +7470,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>243</v>
       </c>
@@ -7501,7 +7497,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>145</v>
       </c>
@@ -7510,7 +7506,7 @@
       <c r="D3" s="46"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -7519,7 +7515,7 @@
       <c r="D4" s="46"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -7528,7 +7524,7 @@
       <c r="D5" s="46"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -7537,7 +7533,7 @@
       <c r="D6" s="46"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -7546,7 +7542,7 @@
       <c r="D7" s="46"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -7555,7 +7551,7 @@
       <c r="D8" s="46"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -7564,7 +7560,7 @@
       <c r="D9" s="46"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -7573,7 +7569,7 @@
       <c r="D10" s="46"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>146</v>
       </c>
@@ -7582,7 +7578,7 @@
       <c r="D11" s="46"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>147</v>
       </c>
@@ -7591,7 +7587,7 @@
       <c r="D12" s="46"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>148</v>
       </c>
@@ -7600,7 +7596,7 @@
       <c r="D13" s="46"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>149</v>
       </c>
@@ -7609,7 +7605,7 @@
       <c r="D14" s="46"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>150</v>
       </c>
@@ -7618,7 +7614,7 @@
       <c r="D15" s="46"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>151</v>
       </c>
@@ -7627,7 +7623,7 @@
       <c r="D16" s="46"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>152</v>
       </c>
@@ -7636,7 +7632,7 @@
       <c r="D17" s="46"/>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>153</v>
       </c>
@@ -7645,7 +7641,7 @@
       <c r="D18" s="46"/>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>154</v>
       </c>
@@ -7654,7 +7650,7 @@
       <c r="D19" s="46"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>155</v>
       </c>
@@ -7663,7 +7659,7 @@
       <c r="D20" s="46"/>
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>156</v>
       </c>
@@ -7672,7 +7668,7 @@
       <c r="D21" s="46"/>
       <c r="E21" s="32"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>157</v>
       </c>
@@ -7681,7 +7677,7 @@
       <c r="D22" s="46"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>158</v>
       </c>
@@ -7690,7 +7686,7 @@
       <c r="D23" s="46"/>
       <c r="E23" s="32"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>159</v>
       </c>
@@ -7699,7 +7695,7 @@
       <c r="D24" s="46"/>
       <c r="E24" s="32"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>160</v>
       </c>
@@ -7708,7 +7704,7 @@
       <c r="D25" s="46"/>
       <c r="E25" s="32"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>161</v>
       </c>
@@ -7717,7 +7713,7 @@
       <c r="D26" s="46"/>
       <c r="E26" s="32"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>162</v>
       </c>
@@ -7726,7 +7722,7 @@
       <c r="D27" s="46"/>
       <c r="E27" s="32"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>163</v>
       </c>
@@ -7735,7 +7731,7 @@
       <c r="D28" s="46"/>
       <c r="E28" s="32"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>164</v>
       </c>
@@ -7744,7 +7740,7 @@
       <c r="D29" s="46"/>
       <c r="E29" s="32"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>165</v>
       </c>
@@ -7753,7 +7749,7 @@
       <c r="D30" s="46"/>
       <c r="E30" s="32"/>
     </row>
-    <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>166</v>
       </c>
@@ -7776,17 +7772,17 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>243</v>
       </c>
@@ -7806,7 +7802,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>145</v>
       </c>
@@ -7816,7 +7812,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -7826,7 +7822,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -7836,7 +7832,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -7848,7 +7844,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="32"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -7858,7 +7854,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="32"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -7868,7 +7864,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="32"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -7878,7 +7874,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="32"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -7888,7 +7884,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="32"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>146</v>
       </c>
@@ -7898,7 +7894,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="32"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>147</v>
       </c>
@@ -7908,7 +7904,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>148</v>
       </c>
@@ -7918,7 +7914,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>149</v>
       </c>
@@ -7928,7 +7924,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="32"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>150</v>
       </c>
@@ -7938,7 +7934,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="32"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>151</v>
       </c>
@@ -7948,7 +7944,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="32"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>152</v>
       </c>
@@ -7958,7 +7954,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>153</v>
       </c>
@@ -7968,7 +7964,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>154</v>
       </c>
@@ -7980,7 +7976,7 @@
       </c>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>155</v>
       </c>
@@ -7992,7 +7988,7 @@
       </c>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>156</v>
       </c>
@@ -8002,7 +7998,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>157</v>
       </c>
@@ -8012,7 +8008,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>158</v>
       </c>
@@ -8022,7 +8018,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="32"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>159</v>
       </c>
@@ -8032,7 +8028,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="32"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>160</v>
       </c>
@@ -8042,7 +8038,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="32"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>161</v>
       </c>
@@ -8052,7 +8048,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="32"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>162</v>
       </c>
@@ -8062,7 +8058,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="32"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>163</v>
       </c>
@@ -8072,7 +8068,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="32"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>164</v>
       </c>
@@ -8082,7 +8078,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="32"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>165</v>
       </c>
@@ -8092,7 +8088,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="32"/>
     </row>
-    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>166</v>
       </c>
@@ -8117,17 +8113,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>243</v>
       </c>
@@ -8138,56 +8134,56 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="32"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="32"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="32"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="32"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="32"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="32"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -8196,84 +8192,84 @@
       </c>
       <c r="C10" s="32"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>146</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>147</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="32"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>148</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="32"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="32"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>150</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="32"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>151</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="32"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>152</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="32"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>153</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="32"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="32"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>155</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="32"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>156</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="32"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>157</v>
       </c>
@@ -8282,63 +8278,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>158</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="32"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>159</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="32"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>160</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="32"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="32"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>162</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="32"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>163</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="32"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>164</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="32"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>165</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="32"/>
     </row>
-    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>166</v>
       </c>
@@ -8360,17 +8356,17 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>243</v>
       </c>
@@ -8462,7 +8458,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>145</v>
       </c>
@@ -8498,7 +8494,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -8538,7 +8534,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -8576,7 +8572,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -8614,7 +8610,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -8652,7 +8648,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -8690,7 +8686,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -8730,7 +8726,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -8768,7 +8764,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>146</v>
       </c>
@@ -8808,7 +8804,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>147</v>
       </c>
@@ -8846,7 +8842,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>148</v>
       </c>
@@ -8884,7 +8880,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>149</v>
       </c>
@@ -8922,7 +8918,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>150</v>
       </c>
@@ -8960,7 +8956,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>151</v>
       </c>
@@ -9000,7 +8996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>152</v>
       </c>
@@ -9038,7 +9034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>153</v>
       </c>
@@ -9076,7 +9072,7 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="32"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>154</v>
       </c>
@@ -9112,7 +9108,7 @@
       <c r="AC19" s="10"/>
       <c r="AD19" s="32"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>155</v>
       </c>
@@ -9148,7 +9144,7 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="32"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>156</v>
       </c>
@@ -9186,7 +9182,7 @@
       <c r="AC21" s="10"/>
       <c r="AD21" s="32"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>157</v>
       </c>
@@ -9224,7 +9220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>158</v>
       </c>
@@ -9262,7 +9258,7 @@
       <c r="AC23" s="10"/>
       <c r="AD23" s="32"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>159</v>
       </c>
@@ -9300,7 +9296,7 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="32"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>160</v>
       </c>
@@ -9338,7 +9334,7 @@
       <c r="AC25" s="10"/>
       <c r="AD25" s="32"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>161</v>
       </c>
@@ -9376,7 +9372,7 @@
       <c r="AC26" s="10"/>
       <c r="AD26" s="32"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>162</v>
       </c>
@@ -9414,7 +9410,7 @@
       <c r="AC27" s="10"/>
       <c r="AD27" s="32"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>163</v>
       </c>
@@ -9454,7 +9450,7 @@
       </c>
       <c r="AD28" s="32"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>164</v>
       </c>
@@ -9490,7 +9486,7 @@
       <c r="AC29" s="10"/>
       <c r="AD29" s="32"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>165</v>
       </c>
@@ -9524,7 +9520,7 @@
       <c r="AC30" s="10"/>
       <c r="AD30" s="32"/>
     </row>
-    <row r="31" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>166</v>
       </c>
@@ -9579,17 +9575,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>243</v>
       </c>
@@ -9597,7 +9593,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>149</v>
       </c>
@@ -9619,17 +9615,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>241</v>
       </c>
@@ -9637,7 +9633,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
@@ -9659,17 +9655,17 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>240</v>
       </c>
@@ -9686,7 +9682,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -9695,7 +9691,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -9704,7 +9700,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>137</v>
       </c>
@@ -9713,7 +9709,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>138</v>
       </c>
@@ -9722,7 +9718,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>139</v>
       </c>
@@ -9731,7 +9727,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>140</v>
       </c>
@@ -9740,7 +9736,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>141</v>
       </c>
@@ -9749,7 +9745,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>142</v>
       </c>
@@ -9773,17 +9769,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -9794,14 +9790,14 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
@@ -9822,17 +9818,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -9849,7 +9845,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -9858,7 +9854,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -9867,7 +9863,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -9876,7 +9872,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -9885,7 +9881,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -9894,7 +9890,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -9903,7 +9899,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -9912,7 +9908,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -9921,7 +9917,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -9930,7 +9926,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -9939,7 +9935,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -9948,7 +9944,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -9957,7 +9953,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -9966,7 +9962,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -9975,7 +9971,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>129</v>
       </c>
@@ -9999,24 +9995,24 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>125</v>
       </c>
@@ -10037,7 +10033,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -10058,67 +10054,67 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>129</v>
       </c>
@@ -10138,17 +10134,17 @@
       <selection activeCell="B3" sqref="B3:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>240</v>
       </c>
@@ -10165,7 +10161,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -10176,7 +10172,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -10187,7 +10183,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>137</v>
       </c>
@@ -10198,7 +10194,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>138</v>
       </c>
@@ -10209,7 +10205,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>139</v>
       </c>
@@ -10220,7 +10216,7 @@
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>140</v>
       </c>
@@ -10231,7 +10227,7 @@
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>141</v>
       </c>
@@ -10242,7 +10238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>142</v>
       </c>
@@ -10267,17 +10263,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -10297,7 +10293,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -10317,7 +10313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -10337,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -10357,7 +10353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -10377,7 +10373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -10397,7 +10393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -10417,7 +10413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -10437,7 +10433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -10457,7 +10453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -10477,7 +10473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -10497,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -10517,7 +10513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -10537,7 +10533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -10557,7 +10553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -10577,7 +10573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>129</v>
       </c>
@@ -10611,17 +10607,17 @@
       <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -10641,7 +10637,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -10661,7 +10657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -10681,7 +10677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -10701,7 +10697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -10735,17 +10731,17 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -10762,7 +10758,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -10771,7 +10767,7 @@
       <c r="D3" s="33"/>
       <c r="E3" s="35"/>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -10780,7 +10776,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="35"/>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -10789,7 +10785,7 @@
       <c r="D5" s="33"/>
       <c r="E5" s="35"/>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -10812,17 +10808,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -10830,7 +10826,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -10850,15 +10846,15 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -10866,7 +10862,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>82</v>
       </c>
@@ -10874,7 +10870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>143</v>
       </c>
@@ -10895,14 +10891,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>241</v>
       </c>
@@ -10919,7 +10915,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
@@ -10936,7 +10932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
     </row>
   </sheetData>
@@ -10952,17 +10948,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -11123,7 +11119,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -11200,7 +11196,7 @@
       <c r="AZ3" s="44"/>
       <c r="BA3" s="38"/>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -11285,7 +11281,7 @@
       <c r="AZ4" s="44"/>
       <c r="BA4" s="38"/>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -11358,7 +11354,7 @@
       <c r="AZ5" s="44"/>
       <c r="BA5" s="38"/>
     </row>
-    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -11449,47 +11445,47 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -11509,21 +11505,21 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="9"/>
-    <col min="2" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="9"/>
+    <col min="2" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -11684,7 +11680,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -11897,7 +11893,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -12110,7 +12106,7 @@
         <v>22826.547097429568</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -12323,7 +12319,7 @@
         <v>20853.895411663008</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -12536,7 +12532,7 @@
         <v>12936.237157458605</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -12749,7 +12745,7 @@
         <v>10093.208985005042</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -12962,7 +12958,7 @@
         <v>25030.845039782169</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -13175,7 +13171,7 @@
         <v>21394.248548185435</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -13388,7 +13384,7 @@
         <v>19620.846059435706</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -13601,7 +13597,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -13814,7 +13810,7 @@
         <v>19056.740567787925</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -14027,7 +14023,7 @@
         <v>10459.139487125793</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -14240,7 +14236,7 @@
         <v>11226.398478579069</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -14453,7 +14449,7 @@
         <v>9948.0491512241751</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -14666,7 +14662,7 @@
         <v>13401.937357783543</v>
       </c>
     </row>
-    <row r="17" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>129</v>
       </c>
@@ -14879,12 +14875,12 @@
         <v>8411.007487504201</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -14904,21 +14900,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="9"/>
-    <col min="2" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="9"/>
+    <col min="2" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -15079,7 +15075,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -15256,7 +15252,7 @@
         <v>38495.240630664819</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -15361,7 +15357,7 @@
         <v>63660.095793436725</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -15511,7 +15507,7 @@
         <v>56817.904350212186</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -15568,42 +15564,42 @@
       <c r="AZ6" s="39"/>
       <c r="BA6" s="40"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -15623,24 +15619,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
@@ -15661,7 +15657,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -15682,7 +15678,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -15703,7 +15699,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -15724,7 +15720,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -15745,47 +15741,47 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -15798,6 +15794,270 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45598CB-0080-4D01-957F-B73255668C68}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="40">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
   <dimension ref="A1:AK51"/>
   <sheetViews>
@@ -15805,12 +16065,12 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>105</v>
       </c>
@@ -15851,7 +16111,7 @@
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -15964,7 +16224,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -16007,7 +16267,7 @@
       <c r="AJ3" s="37"/>
       <c r="AK3" s="38"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -16050,7 +16310,7 @@
       <c r="AJ4" s="37"/>
       <c r="AK4" s="38"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -16093,7 +16353,7 @@
       <c r="AJ5" s="37"/>
       <c r="AK5" s="38"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>82</v>
       </c>
@@ -16138,7 +16398,7 @@
       <c r="AJ6" s="37"/>
       <c r="AK6" s="38"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>143</v>
       </c>
@@ -16183,7 +16443,7 @@
       <c r="AJ7" s="37"/>
       <c r="AK7" s="38"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>145</v>
       </c>
@@ -16226,7 +16486,7 @@
       <c r="AJ8" s="37"/>
       <c r="AK8" s="38"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>83</v>
       </c>
@@ -16273,7 +16533,7 @@
       <c r="AJ9" s="37"/>
       <c r="AK9" s="38"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>84</v>
       </c>
@@ -16320,7 +16580,7 @@
       <c r="AJ10" s="37"/>
       <c r="AK10" s="38"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>85</v>
       </c>
@@ -16367,7 +16627,7 @@
       <c r="AJ11" s="37"/>
       <c r="AK11" s="38"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>86</v>
       </c>
@@ -16412,7 +16672,7 @@
       <c r="AJ12" s="37"/>
       <c r="AK12" s="38"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>87</v>
       </c>
@@ -16457,7 +16717,7 @@
       <c r="AJ13" s="37"/>
       <c r="AK13" s="38"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>88</v>
       </c>
@@ -16504,7 +16764,7 @@
       <c r="AJ14" s="37"/>
       <c r="AK14" s="38"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>89</v>
       </c>
@@ -16551,7 +16811,7 @@
       <c r="AJ15" s="37"/>
       <c r="AK15" s="38"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>146</v>
       </c>
@@ -16598,7 +16858,7 @@
       <c r="AJ16" s="37"/>
       <c r="AK16" s="38"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>147</v>
       </c>
@@ -16643,7 +16903,7 @@
       <c r="AJ17" s="37"/>
       <c r="AK17" s="38"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>148</v>
       </c>
@@ -16688,7 +16948,7 @@
       <c r="AJ18" s="37"/>
       <c r="AK18" s="38"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>149</v>
       </c>
@@ -16733,7 +16993,7 @@
       <c r="AJ19" s="37"/>
       <c r="AK19" s="38"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>150</v>
       </c>
@@ -16778,7 +17038,7 @@
       <c r="AJ20" s="37"/>
       <c r="AK20" s="38"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>151</v>
       </c>
@@ -16825,7 +17085,7 @@
       <c r="AJ21" s="37"/>
       <c r="AK21" s="38"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>152</v>
       </c>
@@ -16870,7 +17130,7 @@
       <c r="AJ22" s="44"/>
       <c r="AK22" s="38"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>153</v>
       </c>
@@ -16915,7 +17175,7 @@
       <c r="AJ23" s="44"/>
       <c r="AK23" s="38"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>154</v>
       </c>
@@ -16960,7 +17220,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>155</v>
       </c>
@@ -17005,7 +17265,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>156</v>
       </c>
@@ -17050,7 +17310,7 @@
       <c r="AJ26" s="44"/>
       <c r="AK26" s="38"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>157</v>
       </c>
@@ -17097,7 +17357,7 @@
       </c>
       <c r="AK27" s="38"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>158</v>
       </c>
@@ -17142,7 +17402,7 @@
       <c r="AJ28" s="44"/>
       <c r="AK28" s="38"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>159</v>
       </c>
@@ -17187,7 +17447,7 @@
       <c r="AJ29" s="44"/>
       <c r="AK29" s="38"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>160</v>
       </c>
@@ -17232,7 +17492,7 @@
       <c r="AJ30" s="44"/>
       <c r="AK30" s="38"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>161</v>
       </c>
@@ -17277,7 +17537,7 @@
       <c r="AJ31" s="44"/>
       <c r="AK31" s="38"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>162</v>
       </c>
@@ -17322,7 +17582,7 @@
       <c r="AJ32" s="44"/>
       <c r="AK32" s="38"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>163</v>
       </c>
@@ -17367,7 +17627,7 @@
       <c r="AJ33" s="44"/>
       <c r="AK33" s="38"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>164</v>
       </c>
@@ -17410,7 +17670,7 @@
       <c r="AJ34" s="44"/>
       <c r="AK34" s="38"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>166</v>
       </c>
@@ -17457,7 +17717,7 @@
       <c r="AJ35" s="44"/>
       <c r="AK35" s="38"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>125</v>
       </c>
@@ -17500,7 +17760,7 @@
       <c r="AJ36" s="37"/>
       <c r="AK36" s="38"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>3</v>
       </c>
@@ -17543,7 +17803,7 @@
       <c r="AJ37" s="37"/>
       <c r="AK37" s="38"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>4</v>
       </c>
@@ -17586,7 +17846,7 @@
       <c r="AJ38" s="37"/>
       <c r="AK38" s="38"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>117</v>
       </c>
@@ -17629,7 +17889,7 @@
       <c r="AJ39" s="37"/>
       <c r="AK39" s="38"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>118</v>
       </c>
@@ -17674,7 +17934,7 @@
       <c r="AJ40" s="37"/>
       <c r="AK40" s="38"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>119</v>
       </c>
@@ -17717,7 +17977,7 @@
       <c r="AJ41" s="44"/>
       <c r="AK41" s="38"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>120</v>
       </c>
@@ -17760,7 +18020,7 @@
       <c r="AJ42" s="44"/>
       <c r="AK42" s="38"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>121</v>
       </c>
@@ -17803,7 +18063,7 @@
       <c r="AJ43" s="44"/>
       <c r="AK43" s="38"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>122</v>
       </c>
@@ -17846,7 +18106,7 @@
       <c r="AJ44" s="44"/>
       <c r="AK44" s="38"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>123</v>
       </c>
@@ -17889,7 +18149,7 @@
       <c r="AJ45" s="44"/>
       <c r="AK45" s="38"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>124</v>
       </c>
@@ -17932,7 +18192,7 @@
       <c r="AJ46" s="44"/>
       <c r="AK46" s="38"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>126</v>
       </c>
@@ -17975,7 +18235,7 @@
       <c r="AJ47" s="44"/>
       <c r="AK47" s="38"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>127</v>
       </c>
@@ -18018,7 +18278,7 @@
       <c r="AJ48" s="44"/>
       <c r="AK48" s="38"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>128</v>
       </c>
@@ -18061,7 +18321,7 @@
       <c r="AJ49" s="44"/>
       <c r="AK49" s="38"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>129</v>
       </c>
@@ -18104,7 +18364,7 @@
       <c r="AJ50" s="44"/>
       <c r="AK50" s="38"/>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>134</v>
       </c>
@@ -18154,7 +18414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -18162,17 +18422,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>239</v>
       </c>
@@ -18180,7 +18440,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -18188,7 +18448,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -18196,7 +18456,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>133</v>
       </c>
@@ -18204,7 +18464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>134</v>
       </c>
@@ -18212,7 +18472,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>135</v>
       </c>
@@ -18226,7 +18486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -18234,19 +18494,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
-    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>241</v>
       </c>
@@ -18254,7 +18514,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>81</v>
       </c>
@@ -18268,7 +18528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -18276,17 +18536,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -18294,7 +18554,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -18302,7 +18562,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
@@ -18316,7 +18576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <dimension ref="A1:BA21"/>
   <sheetViews>
@@ -18324,17 +18584,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>240</v>
       </c>
@@ -18495,7 +18755,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>67</v>
       </c>
@@ -18656,7 +18916,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
@@ -18817,7 +19077,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>137</v>
       </c>
@@ -18978,7 +19238,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>138</v>
       </c>
@@ -19139,7 +19399,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>139</v>
       </c>
@@ -19300,7 +19560,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>140</v>
       </c>
@@ -19461,7 +19721,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>141</v>
       </c>
@@ -19622,7 +19882,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>142</v>
       </c>
@@ -19783,47 +20043,47 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -19835,7 +20095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -19843,19 +20103,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -19863,7 +20123,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -19871,7 +20131,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -19879,7 +20139,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -19887,7 +20147,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -19901,7 +20161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -19909,17 +20169,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -19927,7 +20187,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -19941,7 +20201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -19949,17 +20209,17 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>235</v>
       </c>
@@ -19979,7 +20239,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>125</v>
       </c>
@@ -19999,7 +20259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -20019,7 +20279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -20039,7 +20299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -20059,7 +20319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>130</v>
       </c>
@@ -20079,7 +20339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>131</v>
       </c>
@@ -20099,7 +20359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>132</v>
       </c>
@@ -20119,34 +20379,34 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
   </sheetData>
@@ -20155,7 +20415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -20163,17 +20423,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>239</v>
       </c>
@@ -20181,7 +20441,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -20189,7 +20449,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -20197,7 +20457,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>133</v>
       </c>
@@ -20205,7 +20465,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>134</v>
       </c>
@@ -20213,7 +20473,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>135</v>
       </c>
@@ -20223,54 +20483,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="32">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20284,30 +20496,30 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
@@ -20330,7 +20542,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>131</v>
       </c>
@@ -20353,7 +20565,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>132</v>
       </c>
@@ -20376,7 +20588,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -20396,7 +20608,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -20416,7 +20628,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -20436,7 +20648,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -20464,6 +20676,54 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -20471,17 +20731,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>238</v>
       </c>
@@ -20489,7 +20749,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -20497,7 +20757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -20505,7 +20765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
@@ -20513,7 +20773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>132</v>
       </c>
@@ -20527,7 +20787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -20535,19 +20795,19 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>235</v>
       </c>
@@ -20570,7 +20830,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -20583,7 +20843,7 @@
       <c r="F3" s="47"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>130</v>
       </c>
@@ -20596,7 +20856,7 @@
       <c r="F4" s="47"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>131</v>
       </c>
@@ -20609,7 +20869,7 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -20622,7 +20882,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -20633,7 +20893,7 @@
       <c r="F7" s="46"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -20644,7 +20904,7 @@
       <c r="F8" s="46"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>67</v>
       </c>
@@ -20655,7 +20915,7 @@
       <c r="F9" s="46"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>68</v>
       </c>
@@ -20673,7 +20933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -20681,17 +20941,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>240</v>
       </c>
@@ -20699,7 +20959,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>67</v>
       </c>
@@ -20707,7 +20967,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
@@ -20715,7 +20975,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>137</v>
       </c>
@@ -20723,7 +20983,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>138</v>
       </c>
@@ -20731,7 +20991,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>139</v>
       </c>
@@ -20739,7 +20999,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>140</v>
       </c>
@@ -20747,7 +21007,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>141</v>
       </c>
@@ -20755,7 +21015,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>142</v>
       </c>
@@ -20769,7 +21029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -20777,17 +21037,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -20795,7 +21055,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -20803,7 +21063,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -20811,7 +21071,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -20819,7 +21079,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -20827,7 +21087,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -20835,7 +21095,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -20843,7 +21103,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -20851,7 +21111,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -20859,7 +21119,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -20867,7 +21127,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -20875,7 +21135,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -20883,7 +21143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -20891,7 +21151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -20899,7 +21159,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -20907,7 +21167,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>129</v>
       </c>
@@ -20915,7 +21175,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -20923,7 +21183,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>130</v>
       </c>
@@ -20931,7 +21191,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>131</v>
       </c>
@@ -20939,7 +21199,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>132</v>
       </c>
@@ -20947,7 +21207,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>67</v>
       </c>
@@ -20955,7 +21215,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>68</v>
       </c>
@@ -20970,7 +21230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451B8273-C388-463D-8494-0D66D9ED9BA0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -20978,17 +21238,17 @@
       <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>244</v>
       </c>
@@ -20996,7 +21256,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>90</v>
       </c>
@@ -21004,7 +21264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
       <c r="B4" s="58"/>
     </row>
@@ -21014,7 +21274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -21022,17 +21282,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>246</v>
       </c>
@@ -21040,7 +21300,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>95</v>
       </c>
@@ -21054,7 +21314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -21062,17 +21322,17 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>245</v>
       </c>
@@ -21080,7 +21340,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>92</v>
       </c>
@@ -21094,7 +21354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -21102,17 +21362,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>247</v>
       </c>
@@ -21120,7 +21380,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>229</v>
       </c>
@@ -21134,7 +21394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -21142,17 +21402,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -21160,7 +21420,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -21168,7 +21428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
@@ -21177,79 +21437,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="39">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -21263,23 +21450,23 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.33203125" style="1"/>
-    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.28515625" style="1"/>
+    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>136</v>
       </c>
@@ -21300,7 +21487,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -21321,7 +21508,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>133</v>
       </c>
@@ -21342,7 +21529,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>134</v>
       </c>
@@ -21363,7 +21550,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>135</v>
       </c>
@@ -21392,6 +21579,79 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="39">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -21399,17 +21659,17 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>241</v>
       </c>
@@ -21417,7 +21677,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>81</v>
       </c>
@@ -21431,7 +21691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -21439,17 +21699,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
@@ -21457,7 +21717,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -21465,7 +21725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
@@ -21473,31 +21733,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
@@ -21506,24 +21766,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBA4E88-E142-4CAA-9941-4EFBE822A9B8}">
   <dimension ref="A1:AP61"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -21651,7 +21911,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
@@ -21779,7 +22039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -21907,7 +22167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -22035,7 +22295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
@@ -22163,7 +22423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -22291,7 +22551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>119</v>
       </c>
@@ -22419,7 +22679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>120</v>
       </c>
@@ -22547,7 +22807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
@@ -22675,7 +22935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>122</v>
       </c>
@@ -22803,7 +23063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>123</v>
       </c>
@@ -22931,7 +23191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -23059,7 +23319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>126</v>
       </c>
@@ -23187,7 +23447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>127</v>
       </c>
@@ -23315,7 +23575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
@@ -23443,7 +23703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>129</v>
       </c>
@@ -23571,7 +23831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -23699,7 +23959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>130</v>
       </c>
@@ -23827,7 +24087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>131</v>
       </c>
@@ -23955,7 +24215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>132</v>
       </c>
@@ -24083,7 +24343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>145</v>
       </c>
@@ -24211,7 +24471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>83</v>
       </c>
@@ -24339,7 +24599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>84</v>
       </c>
@@ -24467,7 +24727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>85</v>
       </c>
@@ -24595,7 +24855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>86</v>
       </c>
@@ -24723,7 +24983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>87</v>
       </c>
@@ -24851,7 +25111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>88</v>
       </c>
@@ -24979,7 +25239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>89</v>
       </c>
@@ -25107,7 +25367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>146</v>
       </c>
@@ -25235,7 +25495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>147</v>
       </c>
@@ -25363,7 +25623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>148</v>
       </c>
@@ -25491,7 +25751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>149</v>
       </c>
@@ -25619,7 +25879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>150</v>
       </c>
@@ -25747,7 +26007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>151</v>
       </c>
@@ -25875,7 +26135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>152</v>
       </c>
@@ -26003,7 +26263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>153</v>
       </c>
@@ -26131,7 +26391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>154</v>
       </c>
@@ -26259,7 +26519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>155</v>
       </c>
@@ -26387,7 +26647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>156</v>
       </c>
@@ -26515,7 +26775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>157</v>
       </c>
@@ -26643,7 +26903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>158</v>
       </c>
@@ -26771,7 +27031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>159</v>
       </c>
@@ -26899,7 +27159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>160</v>
       </c>
@@ -27027,7 +27287,7 @@
         <v>1.6996153846153845</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>161</v>
       </c>
@@ -27155,7 +27415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>162</v>
       </c>
@@ -27283,7 +27543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>163</v>
       </c>
@@ -27411,7 +27671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>164</v>
       </c>
@@ -27539,7 +27799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>165</v>
       </c>
@@ -27667,7 +27927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
         <v>166</v>
       </c>
@@ -27795,7 +28055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
         <v>81</v>
       </c>
@@ -27923,7 +28183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>67</v>
       </c>
@@ -28051,7 +28311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>68</v>
       </c>
@@ -28179,7 +28439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>137</v>
       </c>
@@ -28307,7 +28567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>138</v>
       </c>
@@ -28435,7 +28695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>139</v>
       </c>
@@ -28563,7 +28823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>140</v>
       </c>
@@ -28691,7 +28951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>141</v>
       </c>
@@ -28819,7 +29079,7 @@
         <v>1.6923076923076925</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="s">
         <v>142</v>
       </c>
@@ -28947,7 +29207,7 @@
         <v>1.6153846153846154</v>
       </c>
     </row>
-    <row r="60" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>82</v>
       </c>
@@ -29075,7 +29335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="30" t="s">
         <v>143</v>
       </c>
@@ -29209,7 +29469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -29217,16 +29477,16 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -29234,7 +29494,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>255</v>
       </c>
@@ -29247,7 +29507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDE49D4-5953-41A3-9445-43C5CEE52016}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -29255,17 +29515,17 @@
       <selection activeCell="A4" sqref="A4:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>244</v>
       </c>
@@ -29273,7 +29533,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>90</v>
       </c>
@@ -29281,23 +29541,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" s="38"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="38"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="38"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
       <c r="B7" s="38"/>
     </row>
-    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="40"/>
     </row>
@@ -29307,7 +29567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB463F82-A1C0-450F-A6BA-E327D67D2CCA}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -29315,9 +29575,9 @@
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>231</v>
       </c>
@@ -29325,7 +29585,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>235</v>
       </c>
@@ -29341,7 +29601,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>147</v>
       </c>
@@ -29357,7 +29617,7 @@
       <c r="G3" s="52"/>
       <c r="H3" s="61"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>149</v>
       </c>
@@ -29373,7 +29633,7 @@
       <c r="G4" s="52"/>
       <c r="H4" s="61"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>146</v>
       </c>
@@ -29389,7 +29649,7 @@
       <c r="G5" s="52"/>
       <c r="H5" s="61"/>
     </row>
-    <row r="6" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
         <v>148</v>
       </c>
@@ -29410,7 +29670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A568C-E2FB-4ADF-84D0-ABF3E0446F9A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -29418,17 +29678,17 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -29436,7 +29696,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>253</v>
       </c>
@@ -29444,7 +29704,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>254</v>
       </c>
@@ -29457,7 +29717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB07E06-ED03-4572-9B3E-05DAA3F2CF42}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -29465,17 +29725,17 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -29483,7 +29743,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>260</v>
       </c>
@@ -29491,7 +29751,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>261</v>
       </c>
@@ -29512,30 +29772,30 @@
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -29558,7 +29818,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
@@ -29581,7 +29841,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
@@ -29604,7 +29864,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>139</v>
       </c>
@@ -29627,7 +29887,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>140</v>
       </c>
@@ -29650,7 +29910,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>141</v>
       </c>
@@ -29673,7 +29933,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>142</v>
       </c>
@@ -29711,30 +29971,30 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -29755,7 +30015,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -29775,7 +30035,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -29795,7 +30055,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -29815,7 +30075,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -29835,7 +30095,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -29855,7 +30115,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -29889,30 +30149,30 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>143</v>
       </c>
@@ -29935,7 +30195,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -29955,7 +30215,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -29975,7 +30235,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -29995,7 +30255,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -30015,7 +30275,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -30035,7 +30295,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NienkeW\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PARETO - dev\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCA4E01-C24A-4218-908F-07639E4943C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F730C8-7D0B-4CB6-8771-B7F1B2002705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" activeTab="39" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="23" activeTab="39" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3614" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="270">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -971,7 +971,7 @@
     <t/>
   </si>
   <si>
-    <t>Table of Node Capacity Capacity  [bbl/week]</t>
+    <t>Table of Node Capacity Capacity  [bbl/week] * absence of node or empty cell signifies no max capacity</t>
   </si>
 </sst>
 </file>
@@ -15931,16 +15931,14 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D80780D-32E5-452A-A6C3-3B8E431097FA}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
@@ -15969,225 +15967,13 @@
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B22" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B24" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="B25" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" s="38">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
+      <c r="B4" s="38"/>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="B31" s="40">
-        <v>1000000</v>
-      </c>
+      <c r="B5" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC1D157-7BAA-4E6F-833D-BE5677A19D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F5ADAD-09E1-491B-A03F-F82E237197C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" firstSheet="13" activeTab="37" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-15105" yWindow="-16425" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="2" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -10400,8 +10400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AE0639-D41B-42DF-BE98-6917EE00552F}">
   <dimension ref="A1:AY12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10556,7 +10556,7 @@
         <v>290</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="83"/>
@@ -11698,7 +11698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <dimension ref="A1:BA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F5ADAD-09E1-491B-A03F-F82E237197C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E14B8D-AF44-455D-8F65-9EE7F53FB404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15105" yWindow="-16425" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="2" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" firstSheet="1" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
     <sheet name="Schematic" sheetId="82" r:id="rId2"/>
-    <sheet name="Units" sheetId="108" r:id="rId3"/>
+    <sheet name="Units" sheetId="109" r:id="rId3"/>
     <sheet name="ProductionPads" sheetId="1" r:id="rId4"/>
     <sheet name="ProductionTanks" sheetId="34" state="hidden" r:id="rId5"/>
     <sheet name="CompletionsPads" sheetId="3" r:id="rId6"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="312">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -975,25 +975,13 @@
     <t>Units</t>
   </si>
   <si>
-    <t>Notes on Units</t>
-  </si>
-  <si>
     <t>volume</t>
-  </si>
-  <si>
-    <t>oil_bbl</t>
   </si>
   <si>
     <t>=</t>
   </si>
   <si>
     <t>42 gallons</t>
-  </si>
-  <si>
-    <t>koil_bbl</t>
-  </si>
-  <si>
-    <t>1000 oil_bbl</t>
   </si>
   <si>
     <t>distance</t>
@@ -1075,6 +1063,42 @@
   </si>
   <si>
     <t>Table of Completions Water Demand for Completions Sites over Weeks [bbl/week]</t>
+  </si>
+  <si>
+    <t>Unit Description</t>
+  </si>
+  <si>
+    <t>Unit Relationships</t>
+  </si>
+  <si>
+    <t>bbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume units are used to represent water flows (e.g. bbl/day), flow capacities, storage capacity, costs etc. </t>
+  </si>
+  <si>
+    <t>kbbl</t>
+  </si>
+  <si>
+    <t>1000 bbl</t>
+  </si>
+  <si>
+    <t>Distance units are used for defining lengths of pipelines and pipeline expansion costs</t>
+  </si>
+  <si>
+    <t>This unit applies to diameter of pipelines and pipeline expansion costs</t>
+  </si>
+  <si>
+    <t>Concentration unit defines water quality (e.g., TDS concentration)</t>
+  </si>
+  <si>
+    <t>Currency unit defines costs</t>
+  </si>
+  <si>
+    <t>Time units refers to input data relative to time (e.g., water flows in bbl/day)</t>
+  </si>
+  <si>
+    <t>The decision period is the amount of time in a single decision period or discretization (e.g., T01 is 1 week)</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1634,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1772,9 +1796,6 @@
     <xf numFmtId="43" fontId="1" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1815,6 +1836,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10397,11 +10424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AE0639-D41B-42DF-BE98-6917EE00552F}">
-  <dimension ref="A1:AY12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFF715F-3E15-4648-BE2E-5DDD5729CBA6}">
+  <dimension ref="A1:AZ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10409,293 +10436,318 @@
     <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="0.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="47" width="9.33203125" style="1"/>
-    <col min="48" max="48" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="16384" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.33203125" style="1"/>
+    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="90" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="75"/>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="76"/>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="B3" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="77" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="G3" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="D3" s="77" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" s="78" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="K3" s="80" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="B4" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="79" t="s">
+      <c r="D4" s="83" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="I3" s="78" t="s">
+      <c r="F4" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>276</v>
+      </c>
+      <c r="H4" s="79"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="80"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="84"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>281</v>
+      </c>
+      <c r="H6" s="83"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="84"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="G7" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="83"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="84"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>310</v>
+      </c>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="84"/>
+      <c r="AT8" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="AU8" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="J3" s="81" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="AV8" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="AW8" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX8" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="AY8" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="AZ8" s="47" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89" t="s">
+        <v>293</v>
+      </c>
+      <c r="J9" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9" s="87" t="s">
+        <v>294</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AV9" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D4" s="77" t="s">
-        <v>279</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" s="79" t="s">
+      <c r="AW9" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="81"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="85"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="AX9" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="AY9" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AT10" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AX10" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D6" s="77" t="s">
-        <v>284</v>
-      </c>
-      <c r="E6" s="78" t="s">
-        <v>273</v>
-      </c>
-      <c r="F6" s="79" t="s">
-        <v>285</v>
-      </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>288</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>273</v>
-      </c>
-      <c r="F7" s="79" t="s">
-        <v>289</v>
-      </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="85"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="AY10" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>294</v>
-      </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="85"/>
-      <c r="AS8" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="AT8" s="47" t="s">
-        <v>277</v>
-      </c>
-      <c r="AU8" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="AV8" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="AW8" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX8" s="47" t="s">
+      <c r="AZ10" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AY8" s="47" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AU11" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AU12" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>295</v>
-      </c>
-      <c r="E9" s="87" t="s">
-        <v>273</v>
-      </c>
-      <c r="F9" s="88" t="s">
-        <v>296</v>
-      </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="90" t="s">
-        <v>297</v>
-      </c>
-      <c r="I9" s="87" t="s">
-        <v>273</v>
-      </c>
-      <c r="J9" s="88" t="s">
-        <v>298</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="AS10" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AU10" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AV10" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AW10" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AX10" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AY10" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="AT11" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="AT12" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{999438DB-6E37-4EAF-A61C-3199AC058F63}">
-      <formula1>$AU$9:$AU$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{3FF08568-819F-4ABB-9A6E-B43B52B19B84}">
+      <formula1>$AV$9:$AV$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{F37C9B36-6B7D-4883-A76D-AC16A1BCAC02}">
-      <formula1>$AY$9:$AY$12</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{471E3CA3-8D62-4D72-951F-2FFCE7229865}">
+      <formula1>$AZ$9:$AZ$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{E1373C8F-5EC4-41DB-BA62-A0CB1F1E931C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{A4B92807-5A04-4CC4-BD5C-0A79A19BF113}">
+      <formula1>$AY$9:$AY$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{C43228BE-3711-4D73-9B12-2F462E0C5086}">
       <formula1>$AX$9:$AX$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{C6C3DDED-3B93-47B1-B2F3-B029CBC55248}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{80661276-613A-4E52-9170-064038A49F9E}">
       <formula1>$AW$9:$AW$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{9B53A699-4101-4420-9C7F-47EA7CF9233D}">
-      <formula1>$AV$9:$AV$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{63EDBEF4-1CEF-444E-8672-81C9E13F7104}">
+      <formula1>$AU$9:$AU$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{BA69882D-EEEC-4F02-83A7-8868548D7142}">
-      <formula1>$AT$9:$AT$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{0BA3334A-3D15-4EA3-94B8-06FF54D6CBCD}">
-      <formula1>$AS$9:$AS$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{5E472A1F-08A8-41FC-8105-D7BB07A1518A}">
+      <formula1>$AT$9:$AT$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11699,7 +11751,7 @@
   <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11709,7 +11761,7 @@
   <sheetData>
     <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E14B8D-AF44-455D-8F65-9EE7F53FB404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF27A505-14E4-4E6D-B002-6D788C50F559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" firstSheet="1" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="19080" yWindow="-15300" windowWidth="21600" windowHeight="12675" tabRatio="834" firstSheet="2" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ruudw\Documents\GitHub\ParetoAndresIPOPT\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B423893-6A80-43E1-8AEE-5FA53C947372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99193260-CD1E-41A8-ACEF-306F469A0766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="19185" windowHeight="10200" tabRatio="834" firstSheet="58" activeTab="60" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-28920" yWindow="2130" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="65" activeTab="72" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -73,24 +73,23 @@
     <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId58"/>
     <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId59"/>
     <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId60"/>
-    <sheet name="TreatmentMaxQuality" sheetId="111" r:id="rId61"/>
-    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId62"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId63"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId64"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId65"/>
-    <sheet name="PipelineExpansionDistance" sheetId="103" r:id="rId66"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId67"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="100" r:id="rId68"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="101" r:id="rId69"/>
-    <sheet name="Hydraulics" sheetId="95" r:id="rId70"/>
-    <sheet name="Economics" sheetId="99" r:id="rId71"/>
-    <sheet name="PadWaterQuality" sheetId="104" r:id="rId72"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId73"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId74"/>
+    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId61"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId62"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId63"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId64"/>
+    <sheet name="PipelineExpansionDistance" sheetId="103" r:id="rId65"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId66"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="100" r:id="rId67"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="101" r:id="rId68"/>
+    <sheet name="Hydraulics" sheetId="95" r:id="rId69"/>
+    <sheet name="Economics" sheetId="99" r:id="rId70"/>
+    <sheet name="PadWaterQuality" sheetId="104" r:id="rId71"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId72"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId73"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="65" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="65">PipelineExpansionDistance!$O$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="64" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="64">PipelineExpansionDistance!$O$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -165,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3701" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="316">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1114,9 +1113,6 @@
   <si>
     <t>F10</t>
   </si>
-  <si>
-    <t>Table of max quality for each treatment site and component [mg/L]</t>
-  </si>
 </sst>
 </file>
 
@@ -1226,7 +1222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1645,13 +1641,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1859,6 +1866,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2305,7 +2315,7 @@
   <dimension ref="B1:M37"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16804,10 +16814,10 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
-  <dimension ref="A1:AM53"/>
+  <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ30" sqref="AJ30"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI36" sqref="AI36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19262,96 +19272,6 @@
       <c r="AL51" s="38"/>
       <c r="AM51" s="38"/>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="44"/>
-      <c r="U52" s="44"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="44"/>
-      <c r="X52" s="44"/>
-      <c r="Y52" s="44"/>
-      <c r="Z52" s="44"/>
-      <c r="AA52" s="44"/>
-      <c r="AB52" s="44"/>
-      <c r="AC52" s="44"/>
-      <c r="AD52" s="44"/>
-      <c r="AE52" s="44"/>
-      <c r="AF52" s="44"/>
-      <c r="AG52" s="44"/>
-      <c r="AH52" s="44"/>
-      <c r="AI52" s="44">
-        <v>200000</v>
-      </c>
-      <c r="AJ52" s="44"/>
-      <c r="AK52" s="38"/>
-      <c r="AL52" s="38"/>
-      <c r="AM52" s="38"/>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="44"/>
-      <c r="U53" s="44"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
-      <c r="X53" s="44"/>
-      <c r="Y53" s="44"/>
-      <c r="Z53" s="44"/>
-      <c r="AA53" s="44"/>
-      <c r="AB53" s="44"/>
-      <c r="AC53" s="44"/>
-      <c r="AD53" s="44"/>
-      <c r="AE53" s="44"/>
-      <c r="AF53" s="44"/>
-      <c r="AG53" s="44"/>
-      <c r="AH53" s="44"/>
-      <c r="AI53" s="44"/>
-      <c r="AJ53" s="44">
-        <v>200000</v>
-      </c>
-      <c r="AK53" s="38"/>
-      <c r="AL53" s="38"/>
-      <c r="AM53" s="38"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19543,7 +19463,7 @@
   <dimension ref="A1:BA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20844,164 +20764,164 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="44">
         <v>150000</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="44">
         <v>150000</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="44">
         <v>150000</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="44">
         <v>150000</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="44">
         <v>150000</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="44">
         <v>150000</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="44">
         <v>150000</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="44">
         <v>150000</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="44">
         <v>150000</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="44">
         <v>150000</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="44">
         <v>150000</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="44">
         <v>150000</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="44">
         <v>150000</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="44">
         <v>150000</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="44">
         <v>150000</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="44">
         <v>150000</v>
       </c>
-      <c r="R10" s="39">
+      <c r="R10" s="44">
         <v>150000</v>
       </c>
-      <c r="S10" s="39">
+      <c r="S10" s="44">
         <v>150000</v>
       </c>
-      <c r="T10" s="39">
+      <c r="T10" s="44">
         <v>150000</v>
       </c>
-      <c r="U10" s="39">
+      <c r="U10" s="44">
         <v>150000</v>
       </c>
-      <c r="V10" s="39">
+      <c r="V10" s="44">
         <v>150000</v>
       </c>
-      <c r="W10" s="39">
+      <c r="W10" s="44">
         <v>150000</v>
       </c>
-      <c r="X10" s="39">
+      <c r="X10" s="44">
         <v>150000</v>
       </c>
-      <c r="Y10" s="39">
+      <c r="Y10" s="44">
         <v>150000</v>
       </c>
-      <c r="Z10" s="39">
+      <c r="Z10" s="44">
         <v>150000</v>
       </c>
-      <c r="AA10" s="39">
+      <c r="AA10" s="44">
         <v>150000</v>
       </c>
-      <c r="AB10" s="39">
+      <c r="AB10" s="44">
         <v>150000</v>
       </c>
-      <c r="AC10" s="39">
+      <c r="AC10" s="44">
         <v>150000</v>
       </c>
-      <c r="AD10" s="39">
+      <c r="AD10" s="44">
         <v>150000</v>
       </c>
-      <c r="AE10" s="39">
+      <c r="AE10" s="44">
         <v>150000</v>
       </c>
-      <c r="AF10" s="39">
+      <c r="AF10" s="44">
         <v>150000</v>
       </c>
-      <c r="AG10" s="39">
+      <c r="AG10" s="44">
         <v>150000</v>
       </c>
-      <c r="AH10" s="39">
+      <c r="AH10" s="44">
         <v>150000</v>
       </c>
-      <c r="AI10" s="39">
+      <c r="AI10" s="44">
         <v>150000</v>
       </c>
-      <c r="AJ10" s="39">
+      <c r="AJ10" s="44">
         <v>150000</v>
       </c>
-      <c r="AK10" s="39">
+      <c r="AK10" s="44">
         <v>150000</v>
       </c>
-      <c r="AL10" s="39">
+      <c r="AL10" s="44">
         <v>150000</v>
       </c>
-      <c r="AM10" s="39">
+      <c r="AM10" s="44">
         <v>150000</v>
       </c>
-      <c r="AN10" s="39">
+      <c r="AN10" s="44">
         <v>150000</v>
       </c>
-      <c r="AO10" s="39">
+      <c r="AO10" s="44">
         <v>150000</v>
       </c>
-      <c r="AP10" s="39">
+      <c r="AP10" s="44">
         <v>150000</v>
       </c>
-      <c r="AQ10" s="39">
+      <c r="AQ10" s="44">
         <v>150000</v>
       </c>
-      <c r="AR10" s="39">
+      <c r="AR10" s="44">
         <v>150000</v>
       </c>
-      <c r="AS10" s="39">
+      <c r="AS10" s="44">
         <v>150000</v>
       </c>
-      <c r="AT10" s="39">
+      <c r="AT10" s="44">
         <v>150000</v>
       </c>
-      <c r="AU10" s="39">
+      <c r="AU10" s="44">
         <v>150000</v>
       </c>
-      <c r="AV10" s="39">
+      <c r="AV10" s="44">
         <v>150000</v>
       </c>
-      <c r="AW10" s="39">
+      <c r="AW10" s="44">
         <v>150000</v>
       </c>
-      <c r="AX10" s="39">
+      <c r="AX10" s="44">
         <v>150000</v>
       </c>
-      <c r="AY10" s="39">
+      <c r="AY10" s="44">
         <v>150000</v>
       </c>
-      <c r="AZ10" s="39">
+      <c r="AZ10" s="44">
         <v>150000</v>
       </c>
-      <c r="BA10" s="40">
+      <c r="BA10" s="38">
         <v>150000</v>
       </c>
     </row>
@@ -21166,164 +21086,164 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="12" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="92">
         <v>250000</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="39">
         <v>250000</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="39">
         <v>250000</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="39">
         <v>250000</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="39">
         <v>250000</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="39">
         <v>250000</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="39">
         <v>250000</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="39">
         <v>250000</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="39">
         <v>250000</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="39">
         <v>250000</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="39">
         <v>250000</v>
       </c>
-      <c r="M12" s="44">
+      <c r="M12" s="39">
         <v>250000</v>
       </c>
-      <c r="N12" s="44">
+      <c r="N12" s="39">
         <v>250000</v>
       </c>
-      <c r="O12" s="44">
+      <c r="O12" s="39">
         <v>250000</v>
       </c>
-      <c r="P12" s="44">
+      <c r="P12" s="39">
         <v>250000</v>
       </c>
-      <c r="Q12" s="44">
+      <c r="Q12" s="39">
         <v>250000</v>
       </c>
-      <c r="R12" s="44">
+      <c r="R12" s="39">
         <v>250000</v>
       </c>
-      <c r="S12" s="44">
+      <c r="S12" s="39">
         <v>250000</v>
       </c>
-      <c r="T12" s="44">
+      <c r="T12" s="39">
         <v>250000</v>
       </c>
-      <c r="U12" s="44">
+      <c r="U12" s="39">
         <v>250000</v>
       </c>
-      <c r="V12" s="44">
+      <c r="V12" s="39">
         <v>250000</v>
       </c>
-      <c r="W12" s="44">
+      <c r="W12" s="39">
         <v>250000</v>
       </c>
-      <c r="X12" s="44">
+      <c r="X12" s="39">
         <v>250000</v>
       </c>
-      <c r="Y12" s="44">
+      <c r="Y12" s="39">
         <v>250000</v>
       </c>
-      <c r="Z12" s="44">
+      <c r="Z12" s="39">
         <v>250000</v>
       </c>
-      <c r="AA12" s="44">
+      <c r="AA12" s="39">
         <v>250000</v>
       </c>
-      <c r="AB12" s="44">
+      <c r="AB12" s="39">
         <v>250000</v>
       </c>
-      <c r="AC12" s="44">
+      <c r="AC12" s="39">
         <v>250000</v>
       </c>
-      <c r="AD12" s="44">
+      <c r="AD12" s="39">
         <v>250000</v>
       </c>
-      <c r="AE12" s="44">
+      <c r="AE12" s="39">
         <v>250000</v>
       </c>
-      <c r="AF12" s="44">
+      <c r="AF12" s="39">
         <v>250000</v>
       </c>
-      <c r="AG12" s="44">
+      <c r="AG12" s="39">
         <v>250000</v>
       </c>
-      <c r="AH12" s="44">
+      <c r="AH12" s="39">
         <v>250000</v>
       </c>
-      <c r="AI12" s="44">
+      <c r="AI12" s="39">
         <v>250000</v>
       </c>
-      <c r="AJ12" s="44">
+      <c r="AJ12" s="39">
         <v>250000</v>
       </c>
-      <c r="AK12" s="44">
+      <c r="AK12" s="39">
         <v>250000</v>
       </c>
-      <c r="AL12" s="44">
+      <c r="AL12" s="39">
         <v>250000</v>
       </c>
-      <c r="AM12" s="44">
+      <c r="AM12" s="39">
         <v>250000</v>
       </c>
-      <c r="AN12" s="44">
+      <c r="AN12" s="39">
         <v>250000</v>
       </c>
-      <c r="AO12" s="44">
+      <c r="AO12" s="39">
         <v>250000</v>
       </c>
-      <c r="AP12" s="44">
+      <c r="AP12" s="39">
         <v>250000</v>
       </c>
-      <c r="AQ12" s="44">
+      <c r="AQ12" s="39">
         <v>250000</v>
       </c>
-      <c r="AR12" s="44">
+      <c r="AR12" s="39">
         <v>250000</v>
       </c>
-      <c r="AS12" s="44">
+      <c r="AS12" s="39">
         <v>250000</v>
       </c>
-      <c r="AT12" s="44">
+      <c r="AT12" s="39">
         <v>250000</v>
       </c>
-      <c r="AU12" s="44">
+      <c r="AU12" s="39">
         <v>250000</v>
       </c>
-      <c r="AV12" s="44">
+      <c r="AV12" s="39">
         <v>250000</v>
       </c>
-      <c r="AW12" s="44">
+      <c r="AW12" s="39">
         <v>250000</v>
       </c>
-      <c r="AX12" s="44">
+      <c r="AX12" s="39">
         <v>250000</v>
       </c>
-      <c r="AY12" s="44">
+      <c r="AY12" s="39">
         <v>250000</v>
       </c>
-      <c r="AZ12" s="44">
+      <c r="AZ12" s="39">
         <v>250000</v>
       </c>
-      <c r="BA12" s="38">
+      <c r="BA12" s="40">
         <v>250000</v>
       </c>
     </row>
@@ -21886,7 +21806,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22894,59 +22814,11 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D571B4-FE93-48C5-ACBC-E7273DD0163A}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="48">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="48">
-        <v>120000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22989,7 +22861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -23062,7 +22934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -23102,7 +22974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -23177,7 +23049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBA4E88-E142-4CAA-9941-4EFBE822A9B8}">
   <dimension ref="A1:AR63"/>
   <sheetViews>
@@ -31110,7 +30982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -31148,7 +31020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDE49D4-5953-41A3-9445-43C5CEE52016}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -31208,7 +31080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB463F82-A1C0-450F-A6BA-E327D67D2CCA}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -31305,6 +31177,53 @@
       <c r="F6" s="64"/>
       <c r="G6" s="64"/>
       <c r="H6" s="65"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A568C-E2FB-4ADF-84D0-ABF3E0446F9A}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="38">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="53">
+        <v>0.03</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31458,53 +31377,6 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A568C-E2FB-4ADF-84D0-ABF3E0446F9A}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" s="38">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4" s="53">
-        <v>0.03</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB07E06-ED03-4572-9B3E-05DAA3F2CF42}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -31551,7 +31423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23C97C0-70AD-4A71-BE9C-0931EDC97CA5}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -31733,7 +31605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485401B3-8B00-41A4-BDC3-322B62874F13}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -31770,12 +31642,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C5F8D1-3580-447F-A30D-0D2BFC2160E3}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teera\work\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB23C72-88EC-4808-85C4-AA09BCB88541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94230B90-7360-41A7-A1D8-6086378E7F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14445" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="29" activeTab="40" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="62" activeTab="69" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -82,12 +82,13 @@
     <sheet name="PipelineDiameterValues" sheetId="93" r:id="rId67"/>
     <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId68"/>
     <sheet name="DesalinationTechnologies" sheetId="112" r:id="rId69"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId70"/>
-    <sheet name="Hydraulics" sheetId="95" r:id="rId71"/>
-    <sheet name="Economics" sheetId="99" r:id="rId72"/>
-    <sheet name="PadWaterQuality" sheetId="104" r:id="rId73"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId74"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId75"/>
+    <sheet name="Desalination Sites" sheetId="114" r:id="rId70"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId71"/>
+    <sheet name="Hydraulics" sheetId="95" r:id="rId72"/>
+    <sheet name="Economics" sheetId="99" r:id="rId73"/>
+    <sheet name="PadWaterQuality" sheetId="104" r:id="rId74"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="105" r:id="rId75"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="106" r:id="rId76"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">#REF!</definedName>
@@ -139,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3665" uniqueCount="290">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1007,6 +1008,9 @@
   <si>
     <t>Table with Indication  if the Completions Pad is Outside of the System</t>
   </si>
+  <si>
+    <t>Table with Indication if the treatment site is for desalination technologies (1) or non-desalination technologies (0)</t>
+  </si>
 </sst>
 </file>
 
@@ -1122,7 +1126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1637,6 +1641,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1644,7 +1663,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1896,6 +1915,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2447,15 +2472,15 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -2467,7 +2492,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
         <v>7</v>
@@ -2481,7 +2506,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -2493,7 +2518,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="20" t="s">
         <v>13</v>
@@ -2507,7 +2532,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="20" t="s">
         <v>11</v>
@@ -2521,7 +2546,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="20" t="s">
         <v>8</v>
@@ -2535,7 +2560,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="20" t="s">
         <v>9</v>
@@ -2549,7 +2574,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="20" t="s">
         <v>10</v>
@@ -2563,7 +2588,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="20" t="s">
         <v>49</v>
@@ -2577,7 +2602,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -2589,7 +2614,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="20" t="s">
         <v>14</v>
@@ -2603,7 +2628,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="20" t="s">
         <v>12</v>
@@ -2617,7 +2642,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -2629,7 +2654,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="20" t="s">
         <v>15</v>
@@ -2643,7 +2668,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="20" t="s">
         <v>16</v>
@@ -2657,7 +2682,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="20" t="s">
         <v>17</v>
@@ -2671,7 +2696,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="20" t="s">
         <v>18</v>
@@ -2685,7 +2710,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2697,7 +2722,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2709,7 +2734,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="22" t="s">
         <v>19</v>
@@ -2725,7 +2750,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2737,7 +2762,7 @@
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="23" t="s">
         <v>21</v>
@@ -2753,7 +2778,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="23" t="s">
         <v>22</v>
@@ -2769,7 +2794,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="23" t="s">
         <v>23</v>
@@ -2785,7 +2810,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="23" t="s">
         <v>27</v>
@@ -2801,7 +2826,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="23" t="s">
         <v>29</v>
@@ -2817,7 +2842,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="23" t="s">
         <v>31</v>
@@ -2833,7 +2858,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="23" t="s">
         <v>32</v>
@@ -2849,7 +2874,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="C30" s="23" t="s">
         <v>35</v>
@@ -2865,7 +2890,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="23" t="s">
         <v>37</v>
@@ -2884,7 +2909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="23" t="s">
         <v>40</v>
@@ -2900,7 +2925,7 @@
       <c r="J32" s="20"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="23" t="s">
         <v>39</v>
@@ -2916,7 +2941,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="18"/>
       <c r="C34" s="23" t="s">
         <v>43</v>
@@ -2932,7 +2957,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="18"/>
       <c r="C35" s="23" t="s">
         <v>45</v>
@@ -2948,7 +2973,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="18"/>
       <c r="C36" s="23" t="s">
         <v>46</v>
@@ -2964,7 +2989,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -3006,33 +3031,33 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
@@ -3055,7 +3080,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3075,7 +3100,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3095,7 +3120,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3115,7 +3140,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3135,7 +3160,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3155,7 +3180,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3193,30 +3218,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>282</v>
       </c>
@@ -3224,12 +3249,12 @@
       <c r="O3" s="92"/>
       <c r="P3" s="92"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>284</v>
       </c>
@@ -3251,30 +3276,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3295,7 +3320,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3315,7 +3340,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3335,7 +3360,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3355,7 +3380,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3375,7 +3400,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3395,7 +3420,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3432,30 +3457,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>80</v>
       </c>
@@ -3478,7 +3503,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
@@ -3501,7 +3526,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>82</v>
       </c>
@@ -3524,7 +3549,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>83</v>
       </c>
@@ -3547,7 +3572,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
@@ -3570,7 +3595,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -3593,7 +3618,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>86</v>
       </c>
@@ -3616,107 +3641,107 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>153</v>
       </c>
@@ -3739,30 +3764,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3800,25 +3825,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>89</v>
       </c>
@@ -3840,25 +3865,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
@@ -3881,7 +3906,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3902,7 +3927,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3923,7 +3948,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3960,30 +3985,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -4004,7 +4029,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4025,7 +4050,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -4062,17 +4087,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -4164,7 +4189,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -4200,7 +4225,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -4236,7 +4261,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -4272,7 +4297,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -4308,7 +4333,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -4346,7 +4371,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -4382,7 +4407,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -4418,7 +4443,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -4454,7 +4479,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -4490,7 +4515,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -4526,7 +4551,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -4562,7 +4587,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -4598,7 +4623,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -4634,7 +4659,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -4670,7 +4695,7 @@
       <c r="AC16" s="10"/>
       <c r="AD16" s="32"/>
     </row>
-    <row r="17" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>116</v>
       </c>
@@ -4724,17 +4749,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -4826,7 +4851,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -4862,7 +4887,7 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="35"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -4898,7 +4923,7 @@
       <c r="AC4" s="33"/>
       <c r="AD4" s="35"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -4934,7 +4959,7 @@
       <c r="AC5" s="33"/>
       <c r="AD5" s="35"/>
     </row>
-    <row r="6" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -4986,61 +5011,61 @@
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="41"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="42"/>
       <c r="F21" s="42"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="43"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="43"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="43"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="43"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="43"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="43"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="43"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="43"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="43"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="43"/>
     </row>
   </sheetData>
@@ -5060,17 +5085,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -5087,7 +5112,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -5096,7 +5121,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -5105,7 +5130,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -5114,7 +5139,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -5140,17 +5165,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
@@ -5242,7 +5267,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
@@ -5278,7 +5303,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>80</v>
       </c>
@@ -5318,7 +5343,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>81</v>
       </c>
@@ -5356,7 +5381,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>82</v>
       </c>
@@ -5394,7 +5419,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>83</v>
       </c>
@@ -5432,7 +5457,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>84</v>
       </c>
@@ -5470,7 +5495,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>85</v>
       </c>
@@ -5510,7 +5535,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>86</v>
       </c>
@@ -5548,7 +5573,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>133</v>
       </c>
@@ -5588,7 +5613,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>134</v>
       </c>
@@ -5626,7 +5651,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>135</v>
       </c>
@@ -5664,7 +5689,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>136</v>
       </c>
@@ -5702,7 +5727,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>137</v>
       </c>
@@ -5740,7 +5765,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>138</v>
       </c>
@@ -5780,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>139</v>
       </c>
@@ -5818,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>140</v>
       </c>
@@ -5856,7 +5881,7 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="32"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>141</v>
       </c>
@@ -5892,7 +5917,7 @@
       <c r="AC19" s="10"/>
       <c r="AD19" s="32"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>142</v>
       </c>
@@ -5928,7 +5953,7 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="32"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>143</v>
       </c>
@@ -5966,7 +5991,7 @@
       <c r="AC21" s="10"/>
       <c r="AD21" s="32"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>144</v>
       </c>
@@ -6004,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>145</v>
       </c>
@@ -6042,7 +6067,7 @@
       <c r="AC23" s="10"/>
       <c r="AD23" s="32"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>146</v>
       </c>
@@ -6080,7 +6105,7 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="32"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>147</v>
       </c>
@@ -6118,7 +6143,7 @@
       <c r="AC25" s="10"/>
       <c r="AD25" s="32"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>148</v>
       </c>
@@ -6156,7 +6181,7 @@
       <c r="AC26" s="10"/>
       <c r="AD26" s="32"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>149</v>
       </c>
@@ -6194,7 +6219,7 @@
       <c r="AC27" s="10"/>
       <c r="AD27" s="32"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>150</v>
       </c>
@@ -6234,7 +6259,7 @@
       </c>
       <c r="AD28" s="32"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>151</v>
       </c>
@@ -6270,7 +6295,7 @@
       <c r="AC29" s="10"/>
       <c r="AD29" s="32"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>152</v>
       </c>
@@ -6304,7 +6329,7 @@
       <c r="AC30" s="10"/>
       <c r="AD30" s="32"/>
     </row>
-    <row r="31" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>153</v>
       </c>
@@ -6362,17 +6387,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
@@ -6389,7 +6414,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
@@ -6398,7 +6423,7 @@
       <c r="D3" s="46"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>80</v>
       </c>
@@ -6407,7 +6432,7 @@
       <c r="D4" s="46"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>81</v>
       </c>
@@ -6416,7 +6441,7 @@
       <c r="D5" s="46"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>82</v>
       </c>
@@ -6425,7 +6450,7 @@
       <c r="D6" s="46"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>83</v>
       </c>
@@ -6434,7 +6459,7 @@
       <c r="D7" s="46"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>84</v>
       </c>
@@ -6443,7 +6468,7 @@
       <c r="D8" s="46"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>85</v>
       </c>
@@ -6452,7 +6477,7 @@
       <c r="D9" s="46"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>86</v>
       </c>
@@ -6461,7 +6486,7 @@
       <c r="D10" s="46"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>133</v>
       </c>
@@ -6470,7 +6495,7 @@
       <c r="D11" s="46"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>134</v>
       </c>
@@ -6479,7 +6504,7 @@
       <c r="D12" s="46"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>135</v>
       </c>
@@ -6488,7 +6513,7 @@
       <c r="D13" s="46"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>136</v>
       </c>
@@ -6497,7 +6522,7 @@
       <c r="D14" s="46"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>137</v>
       </c>
@@ -6506,7 +6531,7 @@
       <c r="D15" s="46"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>138</v>
       </c>
@@ -6515,7 +6540,7 @@
       <c r="D16" s="46"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>139</v>
       </c>
@@ -6524,7 +6549,7 @@
       <c r="D17" s="46"/>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>140</v>
       </c>
@@ -6533,7 +6558,7 @@
       <c r="D18" s="46"/>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>141</v>
       </c>
@@ -6542,7 +6567,7 @@
       <c r="D19" s="46"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>142</v>
       </c>
@@ -6551,7 +6576,7 @@
       <c r="D20" s="46"/>
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>143</v>
       </c>
@@ -6560,7 +6585,7 @@
       <c r="D21" s="46"/>
       <c r="E21" s="32"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>144</v>
       </c>
@@ -6569,7 +6594,7 @@
       <c r="D22" s="46"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>145</v>
       </c>
@@ -6578,7 +6603,7 @@
       <c r="D23" s="46"/>
       <c r="E23" s="32"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>146</v>
       </c>
@@ -6587,7 +6612,7 @@
       <c r="D24" s="46"/>
       <c r="E24" s="32"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>147</v>
       </c>
@@ -6596,7 +6621,7 @@
       <c r="D25" s="46"/>
       <c r="E25" s="32"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>148</v>
       </c>
@@ -6605,7 +6630,7 @@
       <c r="D26" s="46"/>
       <c r="E26" s="32"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>149</v>
       </c>
@@ -6614,7 +6639,7 @@
       <c r="D27" s="46"/>
       <c r="E27" s="32"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>150</v>
       </c>
@@ -6623,7 +6648,7 @@
       <c r="D28" s="46"/>
       <c r="E28" s="32"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>151</v>
       </c>
@@ -6632,7 +6657,7 @@
       <c r="D29" s="46"/>
       <c r="E29" s="32"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>152</v>
       </c>
@@ -6641,7 +6666,7 @@
       <c r="D30" s="46"/>
       <c r="E30" s="32"/>
     </row>
-    <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>153</v>
       </c>
@@ -6667,17 +6692,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
@@ -6697,7 +6722,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
@@ -6707,7 +6732,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>80</v>
       </c>
@@ -6717,7 +6742,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>81</v>
       </c>
@@ -6727,7 +6752,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>82</v>
       </c>
@@ -6739,7 +6764,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="32"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>83</v>
       </c>
@@ -6749,7 +6774,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="32"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>84</v>
       </c>
@@ -6759,7 +6784,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="32"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>85</v>
       </c>
@@ -6769,7 +6794,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="32"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>86</v>
       </c>
@@ -6779,7 +6804,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="32"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>133</v>
       </c>
@@ -6789,7 +6814,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="32"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>134</v>
       </c>
@@ -6799,7 +6824,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>135</v>
       </c>
@@ -6809,7 +6834,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>136</v>
       </c>
@@ -6819,7 +6844,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="32"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>137</v>
       </c>
@@ -6829,7 +6854,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="32"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>138</v>
       </c>
@@ -6839,7 +6864,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="32"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>139</v>
       </c>
@@ -6849,7 +6874,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>140</v>
       </c>
@@ -6859,7 +6884,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>141</v>
       </c>
@@ -6871,7 +6896,7 @@
       </c>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>142</v>
       </c>
@@ -6883,7 +6908,7 @@
       </c>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>143</v>
       </c>
@@ -6893,7 +6918,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>144</v>
       </c>
@@ -6903,7 +6928,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>145</v>
       </c>
@@ -6913,7 +6938,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="32"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>146</v>
       </c>
@@ -6923,7 +6948,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="32"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>147</v>
       </c>
@@ -6933,7 +6958,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="32"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>148</v>
       </c>
@@ -6943,7 +6968,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="32"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>149</v>
       </c>
@@ -6953,7 +6978,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="32"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>150</v>
       </c>
@@ -6963,7 +6988,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="32"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>151</v>
       </c>
@@ -6973,7 +6998,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="32"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>152</v>
       </c>
@@ -6983,7 +7008,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="32"/>
     </row>
-    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>153</v>
       </c>
@@ -7011,17 +7036,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
@@ -7032,56 +7057,56 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="32"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="32"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="32"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="32"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="32"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="32"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>86</v>
       </c>
@@ -7090,84 +7115,84 @@
       </c>
       <c r="C10" s="32"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="32"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>135</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="32"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="32"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>137</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="32"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="32"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>139</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="32"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>140</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="32"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="32"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>142</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="32"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>143</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="32"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>144</v>
       </c>
@@ -7176,63 +7201,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>145</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="32"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>146</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="32"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>147</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="32"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="32"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>149</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="32"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>150</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="32"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>151</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="32"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>152</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="32"/>
     </row>
-    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>153</v>
       </c>
@@ -7257,17 +7282,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
@@ -7275,7 +7300,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>136</v>
       </c>
@@ -7300,17 +7325,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>218</v>
       </c>
@@ -7318,7 +7343,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
@@ -7343,17 +7368,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>217</v>
       </c>
@@ -7370,7 +7395,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
@@ -7379,7 +7404,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
@@ -7388,7 +7413,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>124</v>
       </c>
@@ -7397,7 +7422,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>125</v>
       </c>
@@ -7406,7 +7431,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
@@ -7415,7 +7440,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
@@ -7424,7 +7449,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>128</v>
       </c>
@@ -7433,7 +7458,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>129</v>
       </c>
@@ -7460,17 +7485,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -7487,7 +7512,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
@@ -7500,7 +7525,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>130</v>
       </c>
@@ -7530,15 +7555,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -7546,7 +7571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
@@ -7554,7 +7579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>130</v>
       </c>
@@ -7578,33 +7603,33 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.33203125" style="1"/>
-    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.28515625" style="1"/>
+    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>226</v>
       </c>
@@ -7624,7 +7649,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="75"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>240</v>
       </c>
@@ -7654,7 +7679,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>243</v>
       </c>
@@ -7678,7 +7703,7 @@
       <c r="J4" s="78"/>
       <c r="K4" s="80"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>247</v>
       </c>
@@ -7696,7 +7721,7 @@
       <c r="J5" s="82"/>
       <c r="K5" s="84"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>249</v>
       </c>
@@ -7720,7 +7745,7 @@
       <c r="J6" s="82"/>
       <c r="K6" s="84"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>252</v>
       </c>
@@ -7744,7 +7769,7 @@
       <c r="J7" s="82"/>
       <c r="K7" s="84"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>256</v>
       </c>
@@ -7783,7 +7808,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>259</v>
       </c>
@@ -7834,7 +7859,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AT10" s="1" t="s">
         <v>273</v>
       </c>
@@ -7857,7 +7882,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AU11" s="1" t="s">
         <v>268</v>
       </c>
@@ -7865,7 +7890,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AU12" s="1" t="s">
         <v>245</v>
       </c>
@@ -7913,14 +7938,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>218</v>
       </c>
@@ -7937,7 +7962,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
@@ -7954,7 +7979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
     </row>
   </sheetData>
@@ -7973,17 +7998,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -7994,14 +8019,14 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>130</v>
       </c>
@@ -8025,17 +8050,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -8052,7 +8077,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -8061,7 +8086,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -8070,7 +8095,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -8079,7 +8104,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -8088,7 +8113,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -8097,7 +8122,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -8106,7 +8131,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -8115,7 +8140,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -8124,7 +8149,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -8133,7 +8158,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -8142,7 +8167,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -8151,7 +8176,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -8160,7 +8185,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -8169,7 +8194,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -8178,7 +8203,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>116</v>
       </c>
@@ -8205,17 +8230,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>217</v>
       </c>
@@ -8232,7 +8257,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
@@ -8243,7 +8268,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
@@ -8254,7 +8279,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>124</v>
       </c>
@@ -8265,7 +8290,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>125</v>
       </c>
@@ -8276,7 +8301,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
@@ -8287,7 +8312,7 @@
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
@@ -8298,7 +8323,7 @@
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>128</v>
       </c>
@@ -8309,7 +8334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>129</v>
       </c>
@@ -8337,17 +8362,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -8367,7 +8392,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -8387,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -8407,7 +8432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -8427,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -8447,7 +8472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -8467,7 +8492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -8487,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -8507,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -8527,7 +8552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -8547,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -8567,7 +8592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -8587,7 +8612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -8607,7 +8632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -8627,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -8647,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>116</v>
       </c>
@@ -8684,17 +8709,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -8714,7 +8739,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -8734,7 +8759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -8754,7 +8779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -8774,7 +8799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -8811,17 +8836,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -8838,7 +8863,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -8847,7 +8872,7 @@
       <c r="D3" s="33"/>
       <c r="E3" s="35"/>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -8856,7 +8881,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="35"/>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -8865,7 +8890,7 @@
       <c r="D5" s="33"/>
       <c r="E5" s="35"/>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -8891,17 +8916,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -8909,7 +8934,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -8932,18 +8957,18 @@
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -9104,7 +9129,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -9181,7 +9206,7 @@
       <c r="AZ3" s="44"/>
       <c r="BA3" s="38"/>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -9266,7 +9291,7 @@
       <c r="AZ4" s="44"/>
       <c r="BA4" s="38"/>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -9339,7 +9364,7 @@
       <c r="AZ5" s="44"/>
       <c r="BA5" s="38"/>
     </row>
-    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -9430,47 +9455,47 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -9493,22 +9518,22 @@
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="9"/>
-    <col min="2" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="9"/>
+    <col min="2" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Production Rate Forecasts by Pads [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -9669,7 +9694,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -9882,7 +9907,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -10095,7 +10120,7 @@
         <v>22826.547097429568</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -10308,7 +10333,7 @@
         <v>20853.895411663008</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -10521,7 +10546,7 @@
         <v>12936.237157458605</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -10734,7 +10759,7 @@
         <v>10093.208985005042</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -10947,7 +10972,7 @@
         <v>25030.845039782169</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -11160,7 +11185,7 @@
         <v>21394.248548185435</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -11373,7 +11398,7 @@
         <v>19620.846059435706</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -11586,7 +11611,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -11799,7 +11824,7 @@
         <v>19056.740567787925</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -12012,7 +12037,7 @@
         <v>10459.139487125793</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -12225,7 +12250,7 @@
         <v>11226.398478579069</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -12438,7 +12463,7 @@
         <v>9948.0491512241751</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -12651,7 +12676,7 @@
         <v>13401.937357783543</v>
       </c>
     </row>
-    <row r="17" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>116</v>
       </c>
@@ -12864,12 +12889,12 @@
         <v>8411.007487504201</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -12892,24 +12917,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>112</v>
       </c>
@@ -12930,7 +12955,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -12951,67 +12976,67 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>116</v>
       </c>
@@ -13034,22 +13059,22 @@
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="9"/>
-    <col min="2" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="9"/>
+    <col min="2" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Flowback Rate Forecasts by Pads [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -13210,7 +13235,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -13387,7 +13412,7 @@
         <v>38495.240630664819</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -13492,7 +13517,7 @@
         <v>63660.095793436725</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -13642,7 +13667,7 @@
         <v>56817.904350212186</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -13699,42 +13724,42 @@
       <c r="AZ6" s="39"/>
       <c r="BA6" s="40"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -13753,16 +13778,16 @@
   </sheetPr>
   <dimension ref="A1:AM53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites  [bbl/week]</v>
@@ -13806,7 +13831,7 @@
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
@@ -13925,7 +13950,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -13972,7 +13997,7 @@
       </c>
       <c r="AM3" s="38"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -14019,7 +14044,7 @@
       <c r="AL4" s="37"/>
       <c r="AM4" s="38"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -14066,7 +14091,7 @@
       <c r="AL5" s="37"/>
       <c r="AM5" s="38"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>79</v>
       </c>
@@ -14115,7 +14140,7 @@
       <c r="AL6" s="37"/>
       <c r="AM6" s="38"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>130</v>
       </c>
@@ -14162,7 +14187,7 @@
       <c r="AL7" s="37"/>
       <c r="AM7" s="38"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>132</v>
       </c>
@@ -14207,7 +14232,7 @@
       <c r="AL8" s="37"/>
       <c r="AM8" s="38"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>80</v>
       </c>
@@ -14256,7 +14281,7 @@
       <c r="AL9" s="37"/>
       <c r="AM9" s="38"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>81</v>
       </c>
@@ -14305,7 +14330,7 @@
       <c r="AL10" s="37"/>
       <c r="AM10" s="38"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>82</v>
       </c>
@@ -14354,7 +14379,7 @@
       <c r="AL11" s="37"/>
       <c r="AM11" s="38"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>83</v>
       </c>
@@ -14401,7 +14426,7 @@
       <c r="AL12" s="37"/>
       <c r="AM12" s="38"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>84</v>
       </c>
@@ -14448,7 +14473,7 @@
       <c r="AL13" s="37"/>
       <c r="AM13" s="38"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>85</v>
       </c>
@@ -14497,7 +14522,7 @@
       <c r="AL14" s="37"/>
       <c r="AM14" s="38"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>86</v>
       </c>
@@ -14546,7 +14571,7 @@
       <c r="AL15" s="37"/>
       <c r="AM15" s="38"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -14595,7 +14620,7 @@
       <c r="AL16" s="37"/>
       <c r="AM16" s="38"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>134</v>
       </c>
@@ -14642,7 +14667,7 @@
       <c r="AL17" s="37"/>
       <c r="AM17" s="38"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>135</v>
       </c>
@@ -14689,7 +14714,7 @@
       <c r="AL18" s="37"/>
       <c r="AM18" s="38"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>136</v>
       </c>
@@ -14738,7 +14763,7 @@
       <c r="AL19" s="37"/>
       <c r="AM19" s="38"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>137</v>
       </c>
@@ -14785,7 +14810,7 @@
       <c r="AL20" s="37"/>
       <c r="AM20" s="38"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>138</v>
       </c>
@@ -14834,7 +14859,7 @@
       <c r="AL21" s="37"/>
       <c r="AM21" s="38"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>139</v>
       </c>
@@ -14881,7 +14906,7 @@
       <c r="AL22" s="44"/>
       <c r="AM22" s="38"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>140</v>
       </c>
@@ -14928,7 +14953,7 @@
       <c r="AL23" s="44"/>
       <c r="AM23" s="38"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>141</v>
       </c>
@@ -14975,7 +15000,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>142</v>
       </c>
@@ -15022,7 +15047,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>143</v>
       </c>
@@ -15069,7 +15094,7 @@
       <c r="AL26" s="44"/>
       <c r="AM26" s="38"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>144</v>
       </c>
@@ -15118,7 +15143,7 @@
       <c r="AL27" s="44"/>
       <c r="AM27" s="38"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>145</v>
       </c>
@@ -15165,7 +15190,7 @@
       <c r="AL28" s="44"/>
       <c r="AM28" s="38"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>146</v>
       </c>
@@ -15212,7 +15237,7 @@
       <c r="AL29" s="44"/>
       <c r="AM29" s="38"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>147</v>
       </c>
@@ -15259,7 +15284,7 @@
       <c r="AL30" s="44"/>
       <c r="AM30" s="38"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>148</v>
       </c>
@@ -15306,7 +15331,7 @@
       <c r="AL31" s="44"/>
       <c r="AM31" s="38"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>149</v>
       </c>
@@ -15353,7 +15378,7 @@
       <c r="AL32" s="44"/>
       <c r="AM32" s="38"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>150</v>
       </c>
@@ -15400,7 +15425,7 @@
       <c r="AL33" s="44"/>
       <c r="AM33" s="38"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>151</v>
       </c>
@@ -15445,7 +15470,7 @@
       <c r="AL34" s="44"/>
       <c r="AM34" s="38"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>153</v>
       </c>
@@ -15494,7 +15519,7 @@
       <c r="AL35" s="44"/>
       <c r="AM35" s="38"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>112</v>
       </c>
@@ -15539,7 +15564,7 @@
       <c r="AL36" s="37"/>
       <c r="AM36" s="38"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>3</v>
       </c>
@@ -15584,7 +15609,7 @@
       <c r="AL37" s="37"/>
       <c r="AM37" s="38"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>4</v>
       </c>
@@ -15629,7 +15654,7 @@
       <c r="AL38" s="37"/>
       <c r="AM38" s="38"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>104</v>
       </c>
@@ -15674,7 +15699,7 @@
       <c r="AL39" s="37"/>
       <c r="AM39" s="38"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>105</v>
       </c>
@@ -15721,7 +15746,7 @@
       <c r="AL40" s="37"/>
       <c r="AM40" s="38"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>106</v>
       </c>
@@ -15766,7 +15791,7 @@
       <c r="AL41" s="44"/>
       <c r="AM41" s="38"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>107</v>
       </c>
@@ -15811,7 +15836,7 @@
       <c r="AL42" s="44"/>
       <c r="AM42" s="38"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>108</v>
       </c>
@@ -15856,7 +15881,7 @@
       <c r="AL43" s="44"/>
       <c r="AM43" s="38"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>109</v>
       </c>
@@ -15901,7 +15926,7 @@
       <c r="AL44" s="44"/>
       <c r="AM44" s="38"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>110</v>
       </c>
@@ -15946,7 +15971,7 @@
       <c r="AL45" s="44"/>
       <c r="AM45" s="38"/>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>111</v>
       </c>
@@ -15991,7 +16016,7 @@
       <c r="AL46" s="44"/>
       <c r="AM46" s="38"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>113</v>
       </c>
@@ -16036,7 +16061,7 @@
       <c r="AL47" s="44"/>
       <c r="AM47" s="38"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>114</v>
       </c>
@@ -16081,7 +16106,7 @@
       <c r="AL48" s="44"/>
       <c r="AM48" s="38"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>115</v>
       </c>
@@ -16126,7 +16151,7 @@
       <c r="AL49" s="44"/>
       <c r="AM49" s="38"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>116</v>
       </c>
@@ -16171,7 +16196,7 @@
       <c r="AL50" s="44"/>
       <c r="AM50" s="38"/>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>78</v>
       </c>
@@ -16222,7 +16247,7 @@
       <c r="AL51" s="44"/>
       <c r="AM51" s="38"/>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>123</v>
       </c>
@@ -16267,7 +16292,7 @@
       <c r="AL52" s="44"/>
       <c r="AM52" s="38"/>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>121</v>
       </c>
@@ -16328,18 +16353,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Disposal Capacity  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -16347,7 +16372,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>123</v>
       </c>
@@ -16355,7 +16380,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -16363,7 +16388,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>120</v>
       </c>
@@ -16371,7 +16396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>121</v>
       </c>
@@ -16379,7 +16404,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>122</v>
       </c>
@@ -16402,20 +16427,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
-    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>218</v>
       </c>
@@ -16423,7 +16448,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>78</v>
       </c>
@@ -16446,18 +16471,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -16474,7 +16499,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
@@ -16491,7 +16516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>130</v>
       </c>
@@ -16523,18 +16548,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Sourcing Availability [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>217</v>
       </c>
@@ -16695,7 +16720,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>66</v>
       </c>
@@ -16856,7 +16881,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>67</v>
       </c>
@@ -17017,7 +17042,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>124</v>
       </c>
@@ -17178,7 +17203,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>125</v>
       </c>
@@ -17339,7 +17364,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>126</v>
       </c>
@@ -17500,7 +17525,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>127</v>
       </c>
@@ -17661,7 +17686,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>128</v>
       </c>
@@ -17822,7 +17847,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>129</v>
       </c>
@@ -17983,47 +18008,47 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -18044,20 +18069,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Pad Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -18065,7 +18090,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -18073,7 +18098,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -18081,7 +18106,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -18089,7 +18114,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -18112,18 +18137,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pad Offloading Capacity  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -18131,7 +18156,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -18154,20 +18179,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
         <v>Table of Node Capacity Capacity [bbl/week] *absence of node or empty cell signifies no max capacity</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
@@ -18175,7 +18200,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
@@ -18183,13 +18208,13 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="38"/>
     </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>153</v>
       </c>
@@ -18210,21 +18235,21 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site  [%]")</f>
         <v>Operating Capacity of Disposal Site  [%]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
         <v>216</v>
       </c>
@@ -18385,7 +18410,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="99" t="s">
         <v>123</v>
       </c>
@@ -18546,7 +18571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
         <v>51</v>
       </c>
@@ -18707,7 +18732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
         <v>120</v>
       </c>
@@ -18868,7 +18893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
         <v>121</v>
       </c>
@@ -19030,7 +19055,7 @@
       </c>
       <c r="BD6" s="100"/>
     </row>
-    <row r="7" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="101" t="s">
         <v>122</v>
       </c>
@@ -19193,10 +19218,10 @@
       <c r="BB7" s="9"/>
       <c r="BD7" s="103"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B11" s="104"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>285</v>
       </c>
@@ -19216,24 +19241,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
@@ -19254,7 +19279,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -19275,7 +19300,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -19296,7 +19321,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -19317,7 +19342,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -19338,47 +19363,47 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>65</v>
       </c>
@@ -19399,18 +19424,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -19418,7 +19443,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>123</v>
       </c>
@@ -19426,7 +19451,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -19434,7 +19459,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>120</v>
       </c>
@@ -19442,7 +19467,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>121</v>
       </c>
@@ -19450,7 +19475,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>122</v>
       </c>
@@ -19474,18 +19499,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -19496,7 +19521,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
@@ -19507,7 +19532,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -19518,7 +19543,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>79</v>
       </c>
@@ -19529,7 +19554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>130</v>
       </c>
@@ -19540,7 +19565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>79</v>
       </c>
@@ -19551,7 +19576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>130</v>
       </c>
@@ -19562,7 +19587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>79</v>
       </c>
@@ -19573,7 +19598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>130</v>
       </c>
@@ -19599,18 +19624,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -19618,7 +19643,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -19626,7 +19651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -19634,7 +19659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -19642,7 +19667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -19665,20 +19690,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
@@ -19701,7 +19726,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -19714,7 +19739,7 @@
       <c r="F3" s="47"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>117</v>
       </c>
@@ -19727,7 +19752,7 @@
       <c r="F4" s="47"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
@@ -19740,7 +19765,7 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>119</v>
       </c>
@@ -19753,7 +19778,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -19764,7 +19789,7 @@
       <c r="F7" s="46"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -19775,7 +19800,7 @@
       <c r="F8" s="46"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
@@ -19786,7 +19811,7 @@
       <c r="F9" s="46"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
@@ -19813,18 +19838,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>217</v>
       </c>
@@ -19832,7 +19857,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>66</v>
       </c>
@@ -19840,7 +19865,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>67</v>
       </c>
@@ -19848,7 +19873,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>124</v>
       </c>
@@ -19856,7 +19881,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>125</v>
       </c>
@@ -19864,7 +19889,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>126</v>
       </c>
@@ -19872,7 +19897,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>127</v>
       </c>
@@ -19880,7 +19905,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>128</v>
       </c>
@@ -19888,7 +19913,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>129</v>
       </c>
@@ -19911,18 +19936,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
         <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
@@ -19930,7 +19955,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -19938,7 +19963,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -19946,7 +19971,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -19954,7 +19979,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -19962,7 +19987,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -19970,7 +19995,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -19978,7 +20003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -19986,7 +20011,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -19994,7 +20019,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -20002,7 +20027,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -20010,7 +20035,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -20018,7 +20043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -20026,7 +20051,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -20034,7 +20059,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -20042,7 +20067,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>116</v>
       </c>
@@ -20050,7 +20075,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -20058,7 +20083,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>117</v>
       </c>
@@ -20066,7 +20091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>118</v>
       </c>
@@ -20074,7 +20099,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>119</v>
       </c>
@@ -20082,7 +20107,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>66</v>
       </c>
@@ -20090,7 +20115,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>67</v>
       </c>
@@ -20114,17 +20139,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
@@ -20144,7 +20169,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>112</v>
       </c>
@@ -20164,7 +20189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -20184,7 +20209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -20204,7 +20229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -20224,7 +20249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>117</v>
       </c>
@@ -20244,7 +20269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>118</v>
       </c>
@@ -20264,7 +20289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>119</v>
       </c>
@@ -20284,34 +20309,34 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
   </sheetData>
@@ -20329,18 +20354,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/week)]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -20348,7 +20373,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>123</v>
       </c>
@@ -20356,7 +20381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -20364,7 +20389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>120</v>
       </c>
@@ -20372,7 +20397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>121</v>
       </c>
@@ -20380,7 +20405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>122</v>
       </c>
@@ -20404,18 +20429,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>223</v>
       </c>
@@ -20423,7 +20448,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>92</v>
       </c>
@@ -20446,18 +20471,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>218</v>
       </c>
@@ -20465,7 +20490,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>78</v>
       </c>
@@ -20490,30 +20515,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>117</v>
       </c>
@@ -20536,7 +20561,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>118</v>
       </c>
@@ -20559,7 +20584,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>119</v>
       </c>
@@ -20582,7 +20607,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -20602,7 +20627,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -20622,7 +20647,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -20642,7 +20667,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -20678,18 +20703,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>222</v>
       </c>
@@ -20697,7 +20722,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -20722,18 +20747,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/week)]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -20744,7 +20769,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
@@ -20755,7 +20780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -20766,7 +20791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>79</v>
       </c>
@@ -20777,7 +20802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>130</v>
       </c>
@@ -20788,7 +20813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>79</v>
       </c>
@@ -20799,7 +20824,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>130</v>
       </c>
@@ -20810,7 +20835,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>79</v>
       </c>
@@ -20821,7 +20846,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>130</v>
       </c>
@@ -20832,19 +20857,19 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
@@ -20862,18 +20887,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>224</v>
       </c>
@@ -20881,7 +20906,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>281</v>
       </c>
@@ -20889,7 +20914,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>282</v>
       </c>
@@ -20897,7 +20922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>283</v>
       </c>
@@ -20905,7 +20930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>284</v>
       </c>
@@ -20928,9 +20953,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
@@ -20938,7 +20963,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>226</v>
       </c>
@@ -20946,7 +20971,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>230</v>
       </c>
@@ -20968,9 +20993,9 @@
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
@@ -20978,7 +21003,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
@@ -21106,7 +21131,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -21234,7 +21259,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -21362,7 +21387,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -21490,7 +21515,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -21618,7 +21643,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -21746,7 +21771,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -21874,7 +21899,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -22002,7 +22027,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -22130,7 +22155,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -22258,7 +22283,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -22386,7 +22411,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -22514,7 +22539,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -22642,7 +22667,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -22770,7 +22795,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -22898,7 +22923,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>116</v>
       </c>
@@ -23026,7 +23051,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -23154,7 +23179,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>117</v>
       </c>
@@ -23282,7 +23307,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>118</v>
       </c>
@@ -23410,7 +23435,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>119</v>
       </c>
@@ -23538,7 +23563,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>132</v>
       </c>
@@ -23666,7 +23691,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>80</v>
       </c>
@@ -23794,7 +23819,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>81</v>
       </c>
@@ -23922,7 +23947,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>82</v>
       </c>
@@ -24050,7 +24075,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>83</v>
       </c>
@@ -24178,7 +24203,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>84</v>
       </c>
@@ -24306,7 +24331,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>85</v>
       </c>
@@ -24434,7 +24459,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>86</v>
       </c>
@@ -24562,7 +24587,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>133</v>
       </c>
@@ -24690,7 +24715,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>134</v>
       </c>
@@ -24818,7 +24843,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>135</v>
       </c>
@@ -24946,7 +24971,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>136</v>
       </c>
@@ -25074,7 +25099,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>137</v>
       </c>
@@ -25202,7 +25227,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>138</v>
       </c>
@@ -25330,7 +25355,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>139</v>
       </c>
@@ -25458,7 +25483,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>140</v>
       </c>
@@ -25586,7 +25611,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>141</v>
       </c>
@@ -25714,7 +25739,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>142</v>
       </c>
@@ -25842,7 +25867,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>143</v>
       </c>
@@ -25970,7 +25995,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>144</v>
       </c>
@@ -26098,7 +26123,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>145</v>
       </c>
@@ -26226,7 +26251,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>146</v>
       </c>
@@ -26354,7 +26379,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>147</v>
       </c>
@@ -26482,7 +26507,7 @@
         <v>22.094999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>148</v>
       </c>
@@ -26610,7 +26635,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="46" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>149</v>
       </c>
@@ -26738,7 +26763,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>150</v>
       </c>
@@ -26866,7 +26891,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>151</v>
       </c>
@@ -26994,7 +27019,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>152</v>
       </c>
@@ -27122,7 +27147,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
         <v>153</v>
       </c>
@@ -27250,7 +27275,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
         <v>78</v>
       </c>
@@ -27378,7 +27403,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>66</v>
       </c>
@@ -27506,7 +27531,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>67</v>
       </c>
@@ -27634,7 +27659,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>124</v>
       </c>
@@ -27762,7 +27787,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>125</v>
       </c>
@@ -27890,7 +27915,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>126</v>
       </c>
@@ -28018,7 +28043,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>127</v>
       </c>
@@ -28146,7 +28171,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>128</v>
       </c>
@@ -28274,7 +28299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="s">
         <v>129</v>
       </c>
@@ -28402,7 +28427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>79</v>
       </c>
@@ -28530,7 +28555,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="30" t="s">
         <v>130</v>
       </c>
@@ -28671,9 +28696,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/week)]</v>
@@ -28682,7 +28707,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>212</v>
       </c>
@@ -28698,7 +28723,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>134</v>
       </c>
@@ -28714,7 +28739,7 @@
       <c r="G3" s="52"/>
       <c r="H3" s="61"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>136</v>
       </c>
@@ -28730,7 +28755,7 @@
       <c r="G4" s="52"/>
       <c r="H4" s="61"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>133</v>
       </c>
@@ -28746,7 +28771,7 @@
       <c r="G5" s="52"/>
       <c r="H5" s="61"/>
     </row>
-    <row r="6" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
         <v>135</v>
       </c>
@@ -28776,18 +28801,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Capacity Expansion Increments [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>221</v>
       </c>
@@ -28795,7 +28820,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>87</v>
       </c>
@@ -28803,23 +28828,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" s="38"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="38"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="38"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
       <c r="B7" s="38"/>
     </row>
-    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="40"/>
     </row>
@@ -28838,18 +28863,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>221</v>
       </c>
@@ -28857,7 +28882,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>87</v>
       </c>
@@ -28865,7 +28890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
       <c r="B4" s="58"/>
     </row>
@@ -28884,17 +28909,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -28905,7 +28930,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
@@ -28916,7 +28941,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -28927,7 +28952,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>79</v>
       </c>
@@ -28938,7 +28963,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>130</v>
       </c>
@@ -28949,7 +28974,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>79</v>
       </c>
@@ -28960,7 +28985,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>130</v>
       </c>
@@ -28971,7 +28996,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>79</v>
       </c>
@@ -28982,7 +29007,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>130</v>
       </c>
@@ -29010,14 +29035,14 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
         <v>286</v>
       </c>
@@ -29025,7 +29050,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="107" t="s">
         <v>281</v>
       </c>
@@ -29033,7 +29058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="107" t="s">
         <v>282</v>
       </c>
@@ -29041,7 +29066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="107" t="s">
         <v>283</v>
       </c>
@@ -29049,7 +29074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>284</v>
       </c>
@@ -29073,23 +29098,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.33203125" style="1"/>
-    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.28515625" style="1"/>
+    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>123</v>
       </c>
@@ -29110,7 +29135,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -29131,7 +29156,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>120</v>
       </c>
@@ -29152,7 +29177,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>121</v>
       </c>
@@ -29173,7 +29198,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>122</v>
       </c>
@@ -29202,6 +29227,72 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805001D5-70DF-464C-8122-7D31EBC77774}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="110"/>
+      <c r="B6" s="110"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="110"/>
+      <c r="B7" s="110"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="110"/>
+      <c r="B8" s="110"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D5E840-A652-4014-8BA7-131503FECE29}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -29212,14 +29303,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
         <v>215</v>
       </c>
@@ -29227,7 +29318,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -29235,7 +29326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -29243,7 +29334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>118</v>
       </c>
@@ -29251,7 +29342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>119</v>
       </c>
@@ -29264,7 +29355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A568C-E2FB-4ADF-84D0-ABF3E0446F9A}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -29273,17 +29364,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>226</v>
       </c>
@@ -29291,7 +29382,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>228</v>
       </c>
@@ -29299,7 +29390,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>229</v>
       </c>
@@ -29312,7 +29403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB07E06-ED03-4572-9B3E-05DAA3F2CF42}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -29321,17 +29412,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>226</v>
       </c>
@@ -29339,7 +29430,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>234</v>
       </c>
@@ -29347,7 +29438,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>235</v>
       </c>
@@ -29360,7 +29451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23C97C0-70AD-4A71-BE9C-0931EDC97CA5}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -29369,18 +29460,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -29388,7 +29479,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
         <v>112</v>
       </c>
@@ -29396,7 +29487,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -29404,7 +29495,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -29412,7 +29503,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -29420,7 +29511,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -29428,7 +29519,7 @@
         <v>241833.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -29436,7 +29527,7 @@
         <v>188503.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -29444,7 +29535,7 @@
         <v>146716</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -29452,7 +29543,7 @@
         <v>216563</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -29460,7 +29551,7 @@
         <v>150626</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -29468,7 +29559,7 @@
         <v>247061</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -29476,7 +29567,7 @@
         <v>180968</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -29484,7 +29575,7 @@
         <v>195584</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -29492,7 +29583,7 @@
         <v>148655</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -29500,7 +29591,7 @@
         <v>185369</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>116</v>
       </c>
@@ -29508,7 +29599,7 @@
         <v>222724</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -29516,7 +29607,7 @@
         <v>165376</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>117</v>
       </c>
@@ -29524,7 +29615,7 @@
         <v>240977</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>118</v>
       </c>
@@ -29532,7 +29623,7 @@
         <v>192794</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>119</v>
       </c>
@@ -29546,7 +29637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485401B3-8B00-41A4-BDC3-322B62874F13}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -29555,18 +29646,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -29574,7 +29665,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
         <v>78</v>
       </c>
@@ -29587,7 +29678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C5F8D1-3580-447F-A30D-0D2BFC2160E3}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -29596,18 +29687,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -29615,7 +29706,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -29623,7 +29714,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -29631,7 +29722,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -29639,7 +29730,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -29663,30 +29754,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>67</v>
       </c>
@@ -29709,7 +29800,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>124</v>
       </c>
@@ -29732,7 +29823,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>125</v>
       </c>
@@ -29755,7 +29846,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>126</v>
       </c>
@@ -29778,7 +29869,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>127</v>
       </c>
@@ -29801,7 +29892,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>128</v>
       </c>
@@ -29824,7 +29915,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>129</v>
       </c>
@@ -29865,30 +29956,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -29909,7 +30000,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -29929,7 +30020,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -29949,7 +30040,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -29969,7 +30060,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -29989,7 +30080,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -30009,7 +30100,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teera\work\repos\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94230B90-7360-41A7-A1D8-6086378E7F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336F3665-26FD-47DB-8A8C-19E639B999AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="62" activeTab="69" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-13650" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="63" activeTab="69" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <sheet name="PipelineDiameterValues" sheetId="93" r:id="rId67"/>
     <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId68"/>
     <sheet name="DesalinationTechnologies" sheetId="112" r:id="rId69"/>
-    <sheet name="Desalination Sites" sheetId="114" r:id="rId70"/>
+    <sheet name="DesalinationSites" sheetId="114" r:id="rId70"/>
     <sheet name="CompletionsPadOutsideSystem" sheetId="113" r:id="rId71"/>
     <sheet name="Hydraulics" sheetId="95" r:id="rId72"/>
     <sheet name="Economics" sheetId="99" r:id="rId73"/>
@@ -2472,15 +2472,15 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -2492,7 +2492,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
         <v>7</v>
@@ -2506,7 +2506,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -2518,7 +2518,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="18"/>
       <c r="C5" s="20" t="s">
         <v>13</v>
@@ -2532,7 +2532,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="20" t="s">
         <v>11</v>
@@ -2546,7 +2546,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="20" t="s">
         <v>8</v>
@@ -2560,7 +2560,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="18"/>
       <c r="C8" s="20" t="s">
         <v>9</v>
@@ -2574,7 +2574,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="18"/>
       <c r="C9" s="20" t="s">
         <v>10</v>
@@ -2588,7 +2588,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
       <c r="C10" s="20" t="s">
         <v>49</v>
@@ -2602,7 +2602,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="18"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -2614,7 +2614,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
       <c r="C12" s="20" t="s">
         <v>14</v>
@@ -2628,7 +2628,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
       <c r="C13" s="20" t="s">
         <v>12</v>
@@ -2642,7 +2642,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="18"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -2654,7 +2654,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="18"/>
       <c r="C15" s="20" t="s">
         <v>15</v>
@@ -2668,7 +2668,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="18"/>
       <c r="C16" s="20" t="s">
         <v>16</v>
@@ -2682,7 +2682,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="18"/>
       <c r="C17" s="20" t="s">
         <v>17</v>
@@ -2696,7 +2696,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="18"/>
       <c r="C18" s="20" t="s">
         <v>18</v>
@@ -2710,7 +2710,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="18"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2722,7 +2722,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2734,7 +2734,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
       <c r="C21" s="22" t="s">
         <v>19</v>
@@ -2750,7 +2750,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2762,7 +2762,7 @@
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="23" t="s">
         <v>21</v>
@@ -2778,7 +2778,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
       <c r="C24" s="23" t="s">
         <v>22</v>
@@ -2794,7 +2794,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="18"/>
       <c r="C25" s="23" t="s">
         <v>23</v>
@@ -2810,7 +2810,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
       <c r="C26" s="23" t="s">
         <v>27</v>
@@ -2826,7 +2826,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="23" t="s">
         <v>29</v>
@@ -2842,7 +2842,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
       <c r="C28" s="23" t="s">
         <v>31</v>
@@ -2858,7 +2858,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
       <c r="C29" s="23" t="s">
         <v>32</v>
@@ -2874,7 +2874,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
       <c r="C30" s="23" t="s">
         <v>35</v>
@@ -2890,7 +2890,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
       <c r="C31" s="23" t="s">
         <v>37</v>
@@ -2909,7 +2909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="C32" s="23" t="s">
         <v>40</v>
@@ -2925,7 +2925,7 @@
       <c r="J32" s="20"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="C33" s="23" t="s">
         <v>39</v>
@@ -2941,7 +2941,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
       <c r="C34" s="23" t="s">
         <v>43</v>
@@ -2957,7 +2957,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="23" t="s">
         <v>45</v>
@@ -2973,7 +2973,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="C36" s="23" t="s">
         <v>46</v>
@@ -2989,7 +2989,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -3034,30 +3034,30 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3100,7 +3100,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3120,7 +3120,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3140,7 +3140,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3160,7 +3160,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3180,7 +3180,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3218,30 +3218,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>282</v>
       </c>
@@ -3249,12 +3249,12 @@
       <c r="O3" s="92"/>
       <c r="P3" s="92"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>284</v>
       </c>
@@ -3276,30 +3276,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3320,7 +3320,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3340,7 +3340,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3360,7 +3360,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3380,7 +3380,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3400,7 +3400,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3420,7 +3420,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3457,30 +3457,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>80</v>
       </c>
@@ -3503,7 +3503,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>82</v>
       </c>
@@ -3549,7 +3549,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>83</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
@@ -3595,7 +3595,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -3618,7 +3618,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>86</v>
       </c>
@@ -3641,107 +3641,107 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>153</v>
       </c>
@@ -3764,30 +3764,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3825,25 +3825,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>89</v>
       </c>
@@ -3865,25 +3865,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3927,7 +3927,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3948,7 +3948,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3985,30 +3985,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -4029,7 +4029,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4050,7 +4050,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -4087,17 +4087,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -4225,7 +4225,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -4261,7 +4261,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -4333,7 +4333,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -4407,7 +4407,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -4443,7 +4443,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -4479,7 +4479,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -4551,7 +4551,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -4587,7 +4587,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -4623,7 +4623,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -4659,7 +4659,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -4695,7 +4695,7 @@
       <c r="AC16" s="10"/>
       <c r="AD16" s="32"/>
     </row>
-    <row r="17" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>116</v>
       </c>
@@ -4749,17 +4749,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -4887,7 +4887,7 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="35"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -4923,7 +4923,7 @@
       <c r="AC4" s="33"/>
       <c r="AD4" s="35"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -4959,7 +4959,7 @@
       <c r="AC5" s="33"/>
       <c r="AD5" s="35"/>
     </row>
-    <row r="6" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -5011,61 +5011,61 @@
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" s="41"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="42"/>
       <c r="F21" s="42"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="43"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="43"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="43"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="43"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="43"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="43"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="43"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="43"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="43"/>
     </row>
   </sheetData>
@@ -5085,17 +5085,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -5121,7 +5121,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -5130,7 +5130,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -5139,7 +5139,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -5165,17 +5165,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
@@ -5303,7 +5303,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>80</v>
       </c>
@@ -5343,7 +5343,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>81</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>82</v>
       </c>
@@ -5419,7 +5419,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>83</v>
       </c>
@@ -5457,7 +5457,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>84</v>
       </c>
@@ -5495,7 +5495,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>85</v>
       </c>
@@ -5535,7 +5535,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>86</v>
       </c>
@@ -5573,7 +5573,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>133</v>
       </c>
@@ -5613,7 +5613,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>134</v>
       </c>
@@ -5651,7 +5651,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>135</v>
       </c>
@@ -5689,7 +5689,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>136</v>
       </c>
@@ -5727,7 +5727,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>137</v>
       </c>
@@ -5765,7 +5765,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>138</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>139</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>140</v>
       </c>
@@ -5881,7 +5881,7 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="32"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>141</v>
       </c>
@@ -5917,7 +5917,7 @@
       <c r="AC19" s="10"/>
       <c r="AD19" s="32"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>142</v>
       </c>
@@ -5953,7 +5953,7 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="32"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>143</v>
       </c>
@@ -5991,7 +5991,7 @@
       <c r="AC21" s="10"/>
       <c r="AD21" s="32"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>144</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>145</v>
       </c>
@@ -6067,7 +6067,7 @@
       <c r="AC23" s="10"/>
       <c r="AD23" s="32"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>146</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="32"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>147</v>
       </c>
@@ -6143,7 +6143,7 @@
       <c r="AC25" s="10"/>
       <c r="AD25" s="32"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>148</v>
       </c>
@@ -6181,7 +6181,7 @@
       <c r="AC26" s="10"/>
       <c r="AD26" s="32"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>149</v>
       </c>
@@ -6219,7 +6219,7 @@
       <c r="AC27" s="10"/>
       <c r="AD27" s="32"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>150</v>
       </c>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="AD28" s="32"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>151</v>
       </c>
@@ -6295,7 +6295,7 @@
       <c r="AC29" s="10"/>
       <c r="AD29" s="32"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>152</v>
       </c>
@@ -6329,7 +6329,7 @@
       <c r="AC30" s="10"/>
       <c r="AD30" s="32"/>
     </row>
-    <row r="31" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>153</v>
       </c>
@@ -6387,17 +6387,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
@@ -6423,7 +6423,7 @@
       <c r="D3" s="46"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>80</v>
       </c>
@@ -6432,7 +6432,7 @@
       <c r="D4" s="46"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>81</v>
       </c>
@@ -6441,7 +6441,7 @@
       <c r="D5" s="46"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>82</v>
       </c>
@@ -6450,7 +6450,7 @@
       <c r="D6" s="46"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>83</v>
       </c>
@@ -6459,7 +6459,7 @@
       <c r="D7" s="46"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>84</v>
       </c>
@@ -6468,7 +6468,7 @@
       <c r="D8" s="46"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>85</v>
       </c>
@@ -6477,7 +6477,7 @@
       <c r="D9" s="46"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>86</v>
       </c>
@@ -6486,7 +6486,7 @@
       <c r="D10" s="46"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>133</v>
       </c>
@@ -6495,7 +6495,7 @@
       <c r="D11" s="46"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>134</v>
       </c>
@@ -6504,7 +6504,7 @@
       <c r="D12" s="46"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>135</v>
       </c>
@@ -6513,7 +6513,7 @@
       <c r="D13" s="46"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>136</v>
       </c>
@@ -6522,7 +6522,7 @@
       <c r="D14" s="46"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>137</v>
       </c>
@@ -6531,7 +6531,7 @@
       <c r="D15" s="46"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>138</v>
       </c>
@@ -6540,7 +6540,7 @@
       <c r="D16" s="46"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>139</v>
       </c>
@@ -6549,7 +6549,7 @@
       <c r="D17" s="46"/>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>140</v>
       </c>
@@ -6558,7 +6558,7 @@
       <c r="D18" s="46"/>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>141</v>
       </c>
@@ -6567,7 +6567,7 @@
       <c r="D19" s="46"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>142</v>
       </c>
@@ -6576,7 +6576,7 @@
       <c r="D20" s="46"/>
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>143</v>
       </c>
@@ -6585,7 +6585,7 @@
       <c r="D21" s="46"/>
       <c r="E21" s="32"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>144</v>
       </c>
@@ -6594,7 +6594,7 @@
       <c r="D22" s="46"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>145</v>
       </c>
@@ -6603,7 +6603,7 @@
       <c r="D23" s="46"/>
       <c r="E23" s="32"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>146</v>
       </c>
@@ -6612,7 +6612,7 @@
       <c r="D24" s="46"/>
       <c r="E24" s="32"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>147</v>
       </c>
@@ -6621,7 +6621,7 @@
       <c r="D25" s="46"/>
       <c r="E25" s="32"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>148</v>
       </c>
@@ -6630,7 +6630,7 @@
       <c r="D26" s="46"/>
       <c r="E26" s="32"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>149</v>
       </c>
@@ -6639,7 +6639,7 @@
       <c r="D27" s="46"/>
       <c r="E27" s="32"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>150</v>
       </c>
@@ -6648,7 +6648,7 @@
       <c r="D28" s="46"/>
       <c r="E28" s="32"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>151</v>
       </c>
@@ -6657,7 +6657,7 @@
       <c r="D29" s="46"/>
       <c r="E29" s="32"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>152</v>
       </c>
@@ -6666,7 +6666,7 @@
       <c r="D30" s="46"/>
       <c r="E30" s="32"/>
     </row>
-    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>153</v>
       </c>
@@ -6692,17 +6692,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
@@ -6732,7 +6732,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>80</v>
       </c>
@@ -6742,7 +6742,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>81</v>
       </c>
@@ -6752,7 +6752,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>82</v>
       </c>
@@ -6764,7 +6764,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="32"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>83</v>
       </c>
@@ -6774,7 +6774,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="32"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>84</v>
       </c>
@@ -6784,7 +6784,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="32"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>85</v>
       </c>
@@ -6794,7 +6794,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="32"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>86</v>
       </c>
@@ -6804,7 +6804,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="32"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>133</v>
       </c>
@@ -6814,7 +6814,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="32"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>134</v>
       </c>
@@ -6824,7 +6824,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>135</v>
       </c>
@@ -6834,7 +6834,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>136</v>
       </c>
@@ -6844,7 +6844,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="32"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>137</v>
       </c>
@@ -6854,7 +6854,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="32"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>138</v>
       </c>
@@ -6864,7 +6864,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="32"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>139</v>
       </c>
@@ -6874,7 +6874,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>140</v>
       </c>
@@ -6884,7 +6884,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>141</v>
       </c>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>142</v>
       </c>
@@ -6908,7 +6908,7 @@
       </c>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>143</v>
       </c>
@@ -6918,7 +6918,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>144</v>
       </c>
@@ -6928,7 +6928,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>145</v>
       </c>
@@ -6938,7 +6938,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="32"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>146</v>
       </c>
@@ -6948,7 +6948,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="32"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>147</v>
       </c>
@@ -6958,7 +6958,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="32"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>148</v>
       </c>
@@ -6968,7 +6968,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="32"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>149</v>
       </c>
@@ -6978,7 +6978,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="32"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>150</v>
       </c>
@@ -6988,7 +6988,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="32"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>151</v>
       </c>
@@ -6998,7 +6998,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="32"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>152</v>
       </c>
@@ -7008,7 +7008,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="32"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>153</v>
       </c>
@@ -7036,17 +7036,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
@@ -7057,56 +7057,56 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="32"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="32"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="32"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="32"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="32"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="32"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>86</v>
       </c>
@@ -7115,84 +7115,84 @@
       </c>
       <c r="C10" s="32"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="32"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>135</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="32"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="32"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>137</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="32"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="32"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>139</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="32"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>140</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="32"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="32"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>142</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="32"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>143</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="32"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>144</v>
       </c>
@@ -7201,63 +7201,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>145</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="32"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>146</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="32"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>147</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="32"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="32"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>149</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="32"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>150</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="32"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>151</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="32"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>152</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="32"/>
     </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>153</v>
       </c>
@@ -7282,17 +7282,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>136</v>
       </c>
@@ -7325,17 +7325,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>218</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
@@ -7368,17 +7368,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>217</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
@@ -7404,7 +7404,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
@@ -7413,7 +7413,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>124</v>
       </c>
@@ -7422,7 +7422,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>125</v>
       </c>
@@ -7431,7 +7431,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
@@ -7440,7 +7440,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
@@ -7449,7 +7449,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>128</v>
       </c>
@@ -7458,7 +7458,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>129</v>
       </c>
@@ -7485,17 +7485,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
@@ -7525,7 +7525,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>130</v>
       </c>
@@ -7555,15 +7555,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>130</v>
       </c>
@@ -7603,33 +7603,33 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.28515625" style="1"/>
-    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.33203125" style="1"/>
+    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>226</v>
       </c>
@@ -7649,7 +7649,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="75"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>240</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>243</v>
       </c>
@@ -7703,7 +7703,7 @@
       <c r="J4" s="78"/>
       <c r="K4" s="80"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>247</v>
       </c>
@@ -7721,7 +7721,7 @@
       <c r="J5" s="82"/>
       <c r="K5" s="84"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>249</v>
       </c>
@@ -7745,7 +7745,7 @@
       <c r="J6" s="82"/>
       <c r="K6" s="84"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>252</v>
       </c>
@@ -7769,7 +7769,7 @@
       <c r="J7" s="82"/>
       <c r="K7" s="84"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>256</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
         <v>259</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AT10" s="1" t="s">
         <v>273</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AU11" s="1" t="s">
         <v>268</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AU12" s="1" t="s">
         <v>245</v>
       </c>
@@ -7938,14 +7938,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>218</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
     </row>
   </sheetData>
@@ -7998,17 +7998,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -8019,14 +8019,14 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>130</v>
       </c>
@@ -8050,17 +8050,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -8086,7 +8086,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -8095,7 +8095,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -8104,7 +8104,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -8113,7 +8113,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -8122,7 +8122,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -8131,7 +8131,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -8140,7 +8140,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -8149,7 +8149,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -8158,7 +8158,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -8167,7 +8167,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -8176,7 +8176,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -8185,7 +8185,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -8194,7 +8194,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -8203,7 +8203,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>116</v>
       </c>
@@ -8230,17 +8230,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>217</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
@@ -8268,7 +8268,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
@@ -8279,7 +8279,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>124</v>
       </c>
@@ -8290,7 +8290,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>125</v>
       </c>
@@ -8301,7 +8301,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
@@ -8312,7 +8312,7 @@
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>128</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>129</v>
       </c>
@@ -8362,17 +8362,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>116</v>
       </c>
@@ -8709,17 +8709,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -8836,17 +8836,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -8872,7 +8872,7 @@
       <c r="D3" s="33"/>
       <c r="E3" s="35"/>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -8881,7 +8881,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="35"/>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -8890,7 +8890,7 @@
       <c r="D5" s="33"/>
       <c r="E5" s="35"/>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -8916,17 +8916,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -8957,18 +8957,18 @@
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -9206,7 +9206,7 @@
       <c r="AZ3" s="44"/>
       <c r="BA3" s="38"/>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -9291,7 +9291,7 @@
       <c r="AZ4" s="44"/>
       <c r="BA4" s="38"/>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -9364,7 +9364,7 @@
       <c r="AZ5" s="44"/>
       <c r="BA5" s="38"/>
     </row>
-    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -9455,47 +9455,47 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -9518,22 +9518,22 @@
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="9"/>
-    <col min="2" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="9"/>
+    <col min="2" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Production Rate Forecasts by Pads [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>22826.547097429568</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>20853.895411663008</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>12936.237157458605</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>10093.208985005042</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>25030.845039782169</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>21394.248548185435</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>19620.846059435706</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>19056.740567787925</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>10459.139487125793</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>11226.398478579069</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>9948.0491512241751</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>13401.937357783543</v>
       </c>
     </row>
-    <row r="17" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>116</v>
       </c>
@@ -12889,12 +12889,12 @@
         <v>8411.007487504201</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -12917,24 +12917,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>112</v>
       </c>
@@ -12955,7 +12955,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -12976,67 +12976,67 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>116</v>
       </c>
@@ -13059,22 +13059,22 @@
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="9"/>
-    <col min="2" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="9"/>
+    <col min="2" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Flowback Rate Forecasts by Pads [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>38495.240630664819</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>63660.095793436725</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -13667,7 +13667,7 @@
         <v>56817.904350212186</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -13724,42 +13724,42 @@
       <c r="AZ6" s="39"/>
       <c r="BA6" s="40"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -13782,12 +13782,12 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites  [bbl/week]</v>
@@ -13831,7 +13831,7 @@
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -13997,7 +13997,7 @@
       </c>
       <c r="AM3" s="38"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -14044,7 +14044,7 @@
       <c r="AL4" s="37"/>
       <c r="AM4" s="38"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -14091,7 +14091,7 @@
       <c r="AL5" s="37"/>
       <c r="AM5" s="38"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>79</v>
       </c>
@@ -14140,7 +14140,7 @@
       <c r="AL6" s="37"/>
       <c r="AM6" s="38"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>130</v>
       </c>
@@ -14187,7 +14187,7 @@
       <c r="AL7" s="37"/>
       <c r="AM7" s="38"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>132</v>
       </c>
@@ -14232,7 +14232,7 @@
       <c r="AL8" s="37"/>
       <c r="AM8" s="38"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>80</v>
       </c>
@@ -14281,7 +14281,7 @@
       <c r="AL9" s="37"/>
       <c r="AM9" s="38"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>81</v>
       </c>
@@ -14330,7 +14330,7 @@
       <c r="AL10" s="37"/>
       <c r="AM10" s="38"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>82</v>
       </c>
@@ -14379,7 +14379,7 @@
       <c r="AL11" s="37"/>
       <c r="AM11" s="38"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>83</v>
       </c>
@@ -14426,7 +14426,7 @@
       <c r="AL12" s="37"/>
       <c r="AM12" s="38"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>84</v>
       </c>
@@ -14473,7 +14473,7 @@
       <c r="AL13" s="37"/>
       <c r="AM13" s="38"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>85</v>
       </c>
@@ -14522,7 +14522,7 @@
       <c r="AL14" s="37"/>
       <c r="AM14" s="38"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>86</v>
       </c>
@@ -14571,7 +14571,7 @@
       <c r="AL15" s="37"/>
       <c r="AM15" s="38"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -14620,7 +14620,7 @@
       <c r="AL16" s="37"/>
       <c r="AM16" s="38"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>134</v>
       </c>
@@ -14667,7 +14667,7 @@
       <c r="AL17" s="37"/>
       <c r="AM17" s="38"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>135</v>
       </c>
@@ -14714,7 +14714,7 @@
       <c r="AL18" s="37"/>
       <c r="AM18" s="38"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>136</v>
       </c>
@@ -14763,7 +14763,7 @@
       <c r="AL19" s="37"/>
       <c r="AM19" s="38"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>137</v>
       </c>
@@ -14810,7 +14810,7 @@
       <c r="AL20" s="37"/>
       <c r="AM20" s="38"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>138</v>
       </c>
@@ -14859,7 +14859,7 @@
       <c r="AL21" s="37"/>
       <c r="AM21" s="38"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>139</v>
       </c>
@@ -14906,7 +14906,7 @@
       <c r="AL22" s="44"/>
       <c r="AM22" s="38"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>140</v>
       </c>
@@ -14953,7 +14953,7 @@
       <c r="AL23" s="44"/>
       <c r="AM23" s="38"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>141</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>142</v>
       </c>
@@ -15047,7 +15047,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>143</v>
       </c>
@@ -15094,7 +15094,7 @@
       <c r="AL26" s="44"/>
       <c r="AM26" s="38"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>144</v>
       </c>
@@ -15143,7 +15143,7 @@
       <c r="AL27" s="44"/>
       <c r="AM27" s="38"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>145</v>
       </c>
@@ -15190,7 +15190,7 @@
       <c r="AL28" s="44"/>
       <c r="AM28" s="38"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>146</v>
       </c>
@@ -15237,7 +15237,7 @@
       <c r="AL29" s="44"/>
       <c r="AM29" s="38"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>147</v>
       </c>
@@ -15284,7 +15284,7 @@
       <c r="AL30" s="44"/>
       <c r="AM30" s="38"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>148</v>
       </c>
@@ -15331,7 +15331,7 @@
       <c r="AL31" s="44"/>
       <c r="AM31" s="38"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>149</v>
       </c>
@@ -15378,7 +15378,7 @@
       <c r="AL32" s="44"/>
       <c r="AM32" s="38"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>150</v>
       </c>
@@ -15425,7 +15425,7 @@
       <c r="AL33" s="44"/>
       <c r="AM33" s="38"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>151</v>
       </c>
@@ -15470,7 +15470,7 @@
       <c r="AL34" s="44"/>
       <c r="AM34" s="38"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>153</v>
       </c>
@@ -15519,7 +15519,7 @@
       <c r="AL35" s="44"/>
       <c r="AM35" s="38"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>112</v>
       </c>
@@ -15564,7 +15564,7 @@
       <c r="AL36" s="37"/>
       <c r="AM36" s="38"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>3</v>
       </c>
@@ -15609,7 +15609,7 @@
       <c r="AL37" s="37"/>
       <c r="AM37" s="38"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
         <v>4</v>
       </c>
@@ -15654,7 +15654,7 @@
       <c r="AL38" s="37"/>
       <c r="AM38" s="38"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
         <v>104</v>
       </c>
@@ -15699,7 +15699,7 @@
       <c r="AL39" s="37"/>
       <c r="AM39" s="38"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
         <v>105</v>
       </c>
@@ -15746,7 +15746,7 @@
       <c r="AL40" s="37"/>
       <c r="AM40" s="38"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
         <v>106</v>
       </c>
@@ -15791,7 +15791,7 @@
       <c r="AL41" s="44"/>
       <c r="AM41" s="38"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
         <v>107</v>
       </c>
@@ -15836,7 +15836,7 @@
       <c r="AL42" s="44"/>
       <c r="AM42" s="38"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
         <v>108</v>
       </c>
@@ -15881,7 +15881,7 @@
       <c r="AL43" s="44"/>
       <c r="AM43" s="38"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>109</v>
       </c>
@@ -15926,7 +15926,7 @@
       <c r="AL44" s="44"/>
       <c r="AM44" s="38"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>110</v>
       </c>
@@ -15971,7 +15971,7 @@
       <c r="AL45" s="44"/>
       <c r="AM45" s="38"/>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
         <v>111</v>
       </c>
@@ -16016,7 +16016,7 @@
       <c r="AL46" s="44"/>
       <c r="AM46" s="38"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
         <v>113</v>
       </c>
@@ -16061,7 +16061,7 @@
       <c r="AL47" s="44"/>
       <c r="AM47" s="38"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>114</v>
       </c>
@@ -16106,7 +16106,7 @@
       <c r="AL48" s="44"/>
       <c r="AM48" s="38"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>115</v>
       </c>
@@ -16151,7 +16151,7 @@
       <c r="AL49" s="44"/>
       <c r="AM49" s="38"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>116</v>
       </c>
@@ -16196,7 +16196,7 @@
       <c r="AL50" s="44"/>
       <c r="AM50" s="38"/>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>78</v>
       </c>
@@ -16247,7 +16247,7 @@
       <c r="AL51" s="44"/>
       <c r="AM51" s="38"/>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>123</v>
       </c>
@@ -16292,7 +16292,7 @@
       <c r="AL52" s="44"/>
       <c r="AM52" s="38"/>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
         <v>121</v>
       </c>
@@ -16353,18 +16353,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Disposal Capacity  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>123</v>
       </c>
@@ -16380,7 +16380,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -16388,7 +16388,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>120</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>121</v>
       </c>
@@ -16404,7 +16404,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>122</v>
       </c>
@@ -16427,20 +16427,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>218</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>78</v>
       </c>
@@ -16471,18 +16471,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>130</v>
       </c>
@@ -16548,18 +16548,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Sourcing Availability [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>217</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>66</v>
       </c>
@@ -16881,7 +16881,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>67</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>124</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>125</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>126</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>127</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>128</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>129</v>
       </c>
@@ -18008,47 +18008,47 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -18069,20 +18069,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Pad Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -18090,7 +18090,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -18098,7 +18098,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -18137,18 +18137,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pad Offloading Capacity  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -18156,7 +18156,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -18179,20 +18179,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
         <v>Table of Node Capacity Capacity [bbl/week] *absence of node or empty cell signifies no max capacity</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
@@ -18200,7 +18200,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
@@ -18208,13 +18208,13 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="38"/>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>153</v>
       </c>
@@ -18235,21 +18235,21 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site  [%]")</f>
         <v>Operating Capacity of Disposal Site  [%]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
         <v>216</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="99" t="s">
         <v>123</v>
       </c>
@@ -18571,7 +18571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="99" t="s">
         <v>51</v>
       </c>
@@ -18732,7 +18732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="99" t="s">
         <v>120</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="99" t="s">
         <v>121</v>
       </c>
@@ -19055,7 +19055,7 @@
       </c>
       <c r="BD6" s="100"/>
     </row>
-    <row r="7" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="101" t="s">
         <v>122</v>
       </c>
@@ -19218,10 +19218,10 @@
       <c r="BB7" s="9"/>
       <c r="BD7" s="103"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B11" s="104"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D12" s="1" t="s">
         <v>285</v>
       </c>
@@ -19241,24 +19241,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
@@ -19279,7 +19279,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -19300,7 +19300,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -19321,7 +19321,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -19342,7 +19342,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -19363,47 +19363,47 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>65</v>
       </c>
@@ -19424,18 +19424,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>123</v>
       </c>
@@ -19451,7 +19451,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -19459,7 +19459,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>120</v>
       </c>
@@ -19467,7 +19467,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>121</v>
       </c>
@@ -19475,7 +19475,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>122</v>
       </c>
@@ -19499,18 +19499,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -19521,7 +19521,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
@@ -19532,7 +19532,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>79</v>
       </c>
@@ -19554,7 +19554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>130</v>
       </c>
@@ -19565,7 +19565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>79</v>
       </c>
@@ -19576,7 +19576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>130</v>
       </c>
@@ -19587,7 +19587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>79</v>
       </c>
@@ -19598,7 +19598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>130</v>
       </c>
@@ -19624,18 +19624,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -19667,7 +19667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -19690,20 +19690,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
@@ -19726,7 +19726,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -19739,7 +19739,7 @@
       <c r="F3" s="47"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>117</v>
       </c>
@@ -19752,7 +19752,7 @@
       <c r="F4" s="47"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
@@ -19765,7 +19765,7 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>119</v>
       </c>
@@ -19778,7 +19778,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -19789,7 +19789,7 @@
       <c r="F7" s="46"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -19800,7 +19800,7 @@
       <c r="F8" s="46"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
@@ -19811,7 +19811,7 @@
       <c r="F9" s="46"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
@@ -19838,18 +19838,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>217</v>
       </c>
@@ -19857,7 +19857,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>66</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>67</v>
       </c>
@@ -19873,7 +19873,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>124</v>
       </c>
@@ -19881,7 +19881,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>125</v>
       </c>
@@ -19889,7 +19889,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>126</v>
       </c>
@@ -19897,7 +19897,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>127</v>
       </c>
@@ -19905,7 +19905,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>128</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>129</v>
       </c>
@@ -19936,18 +19936,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
         <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
@@ -19955,7 +19955,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -19971,7 +19971,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -19979,7 +19979,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -19987,7 +19987,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -19995,7 +19995,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -20011,7 +20011,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -20019,7 +20019,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -20027,7 +20027,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -20043,7 +20043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -20051,7 +20051,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -20059,7 +20059,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -20067,7 +20067,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>116</v>
       </c>
@@ -20075,7 +20075,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>117</v>
       </c>
@@ -20091,7 +20091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>118</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>119</v>
       </c>
@@ -20107,7 +20107,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>66</v>
       </c>
@@ -20115,7 +20115,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">
         <v>67</v>
       </c>
@@ -20139,17 +20139,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
@@ -20169,7 +20169,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>112</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -20209,7 +20209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -20229,7 +20229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -20249,7 +20249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>117</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>118</v>
       </c>
@@ -20289,7 +20289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>119</v>
       </c>
@@ -20309,34 +20309,34 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
     </row>
   </sheetData>
@@ -20354,18 +20354,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/week)]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -20373,7 +20373,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>123</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -20389,7 +20389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>120</v>
       </c>
@@ -20397,7 +20397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>121</v>
       </c>
@@ -20405,7 +20405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>122</v>
       </c>
@@ -20429,18 +20429,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>223</v>
       </c>
@@ -20448,7 +20448,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>92</v>
       </c>
@@ -20471,18 +20471,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>218</v>
       </c>
@@ -20490,7 +20490,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>78</v>
       </c>
@@ -20515,30 +20515,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>117</v>
       </c>
@@ -20561,7 +20561,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>118</v>
       </c>
@@ -20584,7 +20584,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>119</v>
       </c>
@@ -20607,7 +20607,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -20627,7 +20627,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -20647,7 +20647,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -20667,7 +20667,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -20703,18 +20703,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>222</v>
       </c>
@@ -20722,7 +20722,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -20747,18 +20747,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/week)]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -20769,7 +20769,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
@@ -20780,7 +20780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -20791,7 +20791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>79</v>
       </c>
@@ -20802,7 +20802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>130</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>79</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>130</v>
       </c>
@@ -20835,7 +20835,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>79</v>
       </c>
@@ -20846,7 +20846,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>130</v>
       </c>
@@ -20857,19 +20857,19 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
@@ -20887,18 +20887,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>224</v>
       </c>
@@ -20906,7 +20906,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>281</v>
       </c>
@@ -20914,7 +20914,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>282</v>
       </c>
@@ -20922,7 +20922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>283</v>
       </c>
@@ -20930,7 +20930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>284</v>
       </c>
@@ -20953,9 +20953,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
@@ -20963,7 +20963,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>226</v>
       </c>
@@ -20971,7 +20971,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>230</v>
       </c>
@@ -20993,9 +20993,9 @@
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
@@ -21003,7 +21003,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
@@ -21131,7 +21131,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -21259,7 +21259,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -21387,7 +21387,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -21515,7 +21515,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -21771,7 +21771,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -21899,7 +21899,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -22027,7 +22027,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -22155,7 +22155,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -22283,7 +22283,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -22411,7 +22411,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -22539,7 +22539,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -22667,7 +22667,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -22795,7 +22795,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -22923,7 +22923,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>116</v>
       </c>
@@ -23051,7 +23051,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>117</v>
       </c>
@@ -23307,7 +23307,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>118</v>
       </c>
@@ -23435,7 +23435,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
         <v>119</v>
       </c>
@@ -23563,7 +23563,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>132</v>
       </c>
@@ -23691,7 +23691,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>80</v>
       </c>
@@ -23819,7 +23819,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>81</v>
       </c>
@@ -23947,7 +23947,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>82</v>
       </c>
@@ -24075,7 +24075,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>83</v>
       </c>
@@ -24203,7 +24203,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>84</v>
       </c>
@@ -24331,7 +24331,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>85</v>
       </c>
@@ -24459,7 +24459,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>86</v>
       </c>
@@ -24587,7 +24587,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>133</v>
       </c>
@@ -24715,7 +24715,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>134</v>
       </c>
@@ -24843,7 +24843,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>135</v>
       </c>
@@ -24971,7 +24971,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>136</v>
       </c>
@@ -25099,7 +25099,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>137</v>
       </c>
@@ -25227,7 +25227,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>138</v>
       </c>
@@ -25355,7 +25355,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>139</v>
       </c>
@@ -25483,7 +25483,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>140</v>
       </c>
@@ -25611,7 +25611,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
         <v>141</v>
       </c>
@@ -25739,7 +25739,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
         <v>142</v>
       </c>
@@ -25867,7 +25867,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
         <v>143</v>
       </c>
@@ -25995,7 +25995,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
         <v>144</v>
       </c>
@@ -26123,7 +26123,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
         <v>145</v>
       </c>
@@ -26251,7 +26251,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
         <v>146</v>
       </c>
@@ -26379,7 +26379,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>147</v>
       </c>
@@ -26507,7 +26507,7 @@
         <v>22.094999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>148</v>
       </c>
@@ -26635,7 +26635,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="46" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
         <v>149</v>
       </c>
@@ -26763,7 +26763,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
         <v>150</v>
       </c>
@@ -26891,7 +26891,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>151</v>
       </c>
@@ -27019,7 +27019,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>152</v>
       </c>
@@ -27147,7 +27147,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="30" t="s">
         <v>153</v>
       </c>
@@ -27275,7 +27275,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="30" t="s">
         <v>78</v>
       </c>
@@ -27403,7 +27403,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>66</v>
       </c>
@@ -27531,7 +27531,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
         <v>67</v>
       </c>
@@ -27659,7 +27659,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
         <v>124</v>
       </c>
@@ -27787,7 +27787,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
         <v>125</v>
       </c>
@@ -27915,7 +27915,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>126</v>
       </c>
@@ -28043,7 +28043,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
         <v>127</v>
       </c>
@@ -28171,7 +28171,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
         <v>128</v>
       </c>
@@ -28299,7 +28299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="30" t="s">
         <v>129</v>
       </c>
@@ -28427,7 +28427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="29" t="s">
         <v>79</v>
       </c>
@@ -28555,7 +28555,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="30" t="s">
         <v>130</v>
       </c>
@@ -28696,9 +28696,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/week)]</v>
@@ -28707,7 +28707,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>212</v>
       </c>
@@ -28723,7 +28723,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>134</v>
       </c>
@@ -28739,7 +28739,7 @@
       <c r="G3" s="52"/>
       <c r="H3" s="61"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>136</v>
       </c>
@@ -28755,7 +28755,7 @@
       <c r="G4" s="52"/>
       <c r="H4" s="61"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>133</v>
       </c>
@@ -28771,7 +28771,7 @@
       <c r="G5" s="52"/>
       <c r="H5" s="61"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="62" t="s">
         <v>135</v>
       </c>
@@ -28801,18 +28801,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Capacity Expansion Increments [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>221</v>
       </c>
@@ -28820,7 +28820,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>87</v>
       </c>
@@ -28828,23 +28828,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
       <c r="B4" s="38"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="38"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
       <c r="B6" s="38"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
       <c r="B7" s="38"/>
     </row>
-    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30"/>
       <c r="B8" s="40"/>
     </row>
@@ -28863,18 +28863,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>221</v>
       </c>
@@ -28882,7 +28882,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>87</v>
       </c>
@@ -28890,7 +28890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="57"/>
       <c r="B4" s="58"/>
     </row>
@@ -28909,17 +28909,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -28930,7 +28930,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
@@ -28941,7 +28941,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -28952,7 +28952,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>79</v>
       </c>
@@ -28963,7 +28963,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>130</v>
       </c>
@@ -28974,7 +28974,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>79</v>
       </c>
@@ -28985,7 +28985,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>130</v>
       </c>
@@ -28996,7 +28996,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>79</v>
       </c>
@@ -29007,7 +29007,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>130</v>
       </c>
@@ -29035,14 +29035,14 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
         <v>286</v>
       </c>
@@ -29050,7 +29050,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="107" t="s">
         <v>281</v>
       </c>
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="107" t="s">
         <v>282</v>
       </c>
@@ -29066,7 +29066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="107" t="s">
         <v>283</v>
       </c>
@@ -29074,7 +29074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
         <v>284</v>
       </c>
@@ -29098,23 +29098,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.28515625" style="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.33203125" style="1"/>
+    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>123</v>
       </c>
@@ -29135,7 +29135,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -29156,7 +29156,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>120</v>
       </c>
@@ -29177,7 +29177,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>121</v>
       </c>
@@ -29198,7 +29198,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>122</v>
       </c>
@@ -29237,17 +29237,17 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
@@ -29263,7 +29263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>130</v>
       </c>
@@ -29271,19 +29271,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="110"/>
       <c r="B5" s="110"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="110"/>
       <c r="B6" s="110"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="110"/>
       <c r="B7" s="110"/>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="110"/>
       <c r="B8" s="110"/>
     </row>
@@ -29303,14 +29303,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
         <v>215</v>
       </c>
@@ -29318,7 +29318,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
         <v>118</v>
       </c>
@@ -29342,7 +29342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>119</v>
       </c>
@@ -29364,17 +29364,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>226</v>
       </c>
@@ -29382,7 +29382,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>228</v>
       </c>
@@ -29390,7 +29390,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>229</v>
       </c>
@@ -29412,17 +29412,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>226</v>
       </c>
@@ -29430,7 +29430,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>234</v>
       </c>
@@ -29438,7 +29438,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>235</v>
       </c>
@@ -29460,18 +29460,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -29479,7 +29479,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="67" t="s">
         <v>112</v>
       </c>
@@ -29487,7 +29487,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -29495,7 +29495,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -29503,7 +29503,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -29511,7 +29511,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -29519,7 +29519,7 @@
         <v>241833.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -29527,7 +29527,7 @@
         <v>188503.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -29535,7 +29535,7 @@
         <v>146716</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -29543,7 +29543,7 @@
         <v>216563</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -29551,7 +29551,7 @@
         <v>150626</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -29559,7 +29559,7 @@
         <v>247061</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -29567,7 +29567,7 @@
         <v>180968</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -29575,7 +29575,7 @@
         <v>195584</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -29583,7 +29583,7 @@
         <v>148655</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -29591,7 +29591,7 @@
         <v>185369</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>116</v>
       </c>
@@ -29599,7 +29599,7 @@
         <v>222724</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -29607,7 +29607,7 @@
         <v>165376</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>117</v>
       </c>
@@ -29615,7 +29615,7 @@
         <v>240977</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>118</v>
       </c>
@@ -29623,7 +29623,7 @@
         <v>192794</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
         <v>119</v>
       </c>
@@ -29646,18 +29646,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -29665,7 +29665,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="71" t="s">
         <v>78</v>
       </c>
@@ -29687,18 +29687,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -29706,7 +29706,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -29714,7 +29714,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -29722,7 +29722,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -29730,7 +29730,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -29754,30 +29754,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>67</v>
       </c>
@@ -29800,7 +29800,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>124</v>
       </c>
@@ -29823,7 +29823,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>125</v>
       </c>
@@ -29846,7 +29846,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>126</v>
       </c>
@@ -29869,7 +29869,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>127</v>
       </c>
@@ -29892,7 +29892,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>128</v>
       </c>
@@ -29915,7 +29915,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>129</v>
       </c>
@@ -29956,30 +29956,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -30000,7 +30000,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -30020,7 +30020,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -30040,7 +30040,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -30060,7 +30060,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -30080,7 +30080,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -30100,7 +30100,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336F3665-26FD-47DB-8A8C-19E639B999AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE72104-0A69-4A98-99EF-AE949F6AE0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13650" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="63" activeTab="69" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -2468,19 +2468,17 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -2492,7 +2490,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
         <v>7</v>
@@ -2506,7 +2504,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -2518,7 +2516,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="20" t="s">
         <v>13</v>
@@ -2532,7 +2530,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="20" t="s">
         <v>11</v>
@@ -2546,7 +2544,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="20" t="s">
         <v>8</v>
@@ -2560,7 +2558,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="20" t="s">
         <v>9</v>
@@ -2574,7 +2572,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="20" t="s">
         <v>10</v>
@@ -2588,7 +2586,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="20" t="s">
         <v>49</v>
@@ -2602,7 +2600,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -2614,7 +2612,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="20" t="s">
         <v>14</v>
@@ -2628,7 +2626,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="20" t="s">
         <v>12</v>
@@ -2642,7 +2640,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -2654,7 +2652,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="20" t="s">
         <v>15</v>
@@ -2668,7 +2666,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="20" t="s">
         <v>16</v>
@@ -2682,7 +2680,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="20" t="s">
         <v>17</v>
@@ -2696,7 +2694,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="20" t="s">
         <v>18</v>
@@ -2710,7 +2708,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2722,7 +2720,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2734,7 +2732,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="22" t="s">
         <v>19</v>
@@ -2750,7 +2748,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2762,7 +2760,7 @@
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="23" t="s">
         <v>21</v>
@@ -2778,7 +2776,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="23" t="s">
         <v>22</v>
@@ -2794,7 +2792,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="23" t="s">
         <v>23</v>
@@ -2810,7 +2808,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="23" t="s">
         <v>27</v>
@@ -2826,7 +2824,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="23" t="s">
         <v>29</v>
@@ -2842,7 +2840,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="23" t="s">
         <v>31</v>
@@ -2858,7 +2856,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="23" t="s">
         <v>32</v>
@@ -2874,7 +2872,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="C30" s="23" t="s">
         <v>35</v>
@@ -2890,7 +2888,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="23" t="s">
         <v>37</v>
@@ -2909,7 +2907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="23" t="s">
         <v>40</v>
@@ -2925,7 +2923,7 @@
       <c r="J32" s="20"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="23" t="s">
         <v>39</v>
@@ -2941,7 +2939,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="18"/>
       <c r="C34" s="23" t="s">
         <v>43</v>
@@ -2957,7 +2955,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="18"/>
       <c r="C35" s="23" t="s">
         <v>45</v>
@@ -2973,7 +2971,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="18"/>
       <c r="C36" s="23" t="s">
         <v>46</v>
@@ -2989,7 +2987,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -3006,17 +3004,17 @@
     <hyperlink ref="C23" location="ProductionPads!A1" display="Production Pads" xr:uid="{9F210CF9-07D8-4A5E-93FA-C36DB3D0C25C}"/>
     <hyperlink ref="C24" location="CompletionsPads!A1" display="Completion Pads" xr:uid="{FCB2B4B8-DE9A-4CA5-90EE-5ABB7DC62CE8}"/>
     <hyperlink ref="C25" location="SWDSites!A1" display="SWD Sites" xr:uid="{578FF2CF-9534-4CAF-BB8F-4D4AA1E825D5}"/>
-    <hyperlink ref="C26" location="DriveTimes!A1" display="Drive Times" xr:uid="{5F5D0203-D880-4C5E-BE1C-955F74100BBC}"/>
+    <hyperlink ref="C26" location="TruckingTime!A1" display="Drive Times" xr:uid="{5F5D0203-D880-4C5E-BE1C-955F74100BBC}"/>
     <hyperlink ref="C27" location="CompletionsDemand!A1" display="Completions Demand" xr:uid="{A43BADFA-E10F-491D-84C5-C8FC31AD4621}"/>
     <hyperlink ref="C28" location="FlowbackRates!A1" display="Flowback Rates" xr:uid="{7AB55603-1A43-41A6-9693-1B89B6DCD5C2}"/>
-    <hyperlink ref="C29" location="ProductionRates!A1" display="Production Rates" xr:uid="{60EE3CB2-6945-4EF9-994B-D4937DBB327B}"/>
-    <hyperlink ref="C30" location="DisposalCapacity!A1" display="Disposal Capacity" xr:uid="{CAE3DFDA-8B08-4283-9205-309B32142AC6}"/>
-    <hyperlink ref="C31" location="FreshwaterCost!A1" display="Freshwater Costs" xr:uid="{88138AE4-1159-418A-A895-39D1A4152B0C}"/>
-    <hyperlink ref="C32" location="ReuseCost!A1" display="Reuse Costs" xr:uid="{146BA03C-3C08-4957-9F2D-51584E8F9494}"/>
-    <hyperlink ref="C33" location="DisposalCost!A1" display="Disposal Costs" xr:uid="{906CEF7C-3D67-4EB0-9995-1E45CB542C7C}"/>
-    <hyperlink ref="C34" location="HaulingRates!A1" display="Hauling Rates" xr:uid="{E573813D-C46B-4CBC-BD31-9C5E10AF7D7A}"/>
-    <hyperlink ref="C35" location="TransferLines!A1" display="Transfer Lines" xr:uid="{DE4838A7-5816-4652-8F68-37E66B00E2ED}"/>
-    <hyperlink ref="C36" location="PipingExpansionCost!A1" display="Pipeline Expansion" xr:uid="{71654592-CF02-4564-8F69-88D94B3F411B}"/>
+    <hyperlink ref="C29" location="PadRates!A1" display="Production Rates" xr:uid="{60EE3CB2-6945-4EF9-994B-D4937DBB327B}"/>
+    <hyperlink ref="C30" location="DisposalOperatingCapacity!A1" display="Disposal Capacity" xr:uid="{CAE3DFDA-8B08-4283-9205-309B32142AC6}"/>
+    <hyperlink ref="C31" location="FreshSourcingCost!A1" display="Freshwater Costs" xr:uid="{88138AE4-1159-418A-A895-39D1A4152B0C}"/>
+    <hyperlink ref="C32" location="ReuseOperationalCost!A1" display="Reuse Costs" xr:uid="{146BA03C-3C08-4957-9F2D-51584E8F9494}"/>
+    <hyperlink ref="C33" location="DisposalOperationalCost!A1" display="Disposal Costs" xr:uid="{906CEF7C-3D67-4EB0-9995-1E45CB542C7C}"/>
+    <hyperlink ref="C34" location="TruckingHourlyCost!A1" display="Hauling Rates" xr:uid="{E573813D-C46B-4CBC-BD31-9C5E10AF7D7A}"/>
+    <hyperlink ref="C35" location="InitialPipelineCapacity!A1" display="Transfer Lines" xr:uid="{DE4838A7-5816-4652-8F68-37E66B00E2ED}"/>
+    <hyperlink ref="C36" location="PipelineCapexDistanceBased!A1" display="Pipeline Expansion" xr:uid="{71654592-CF02-4564-8F69-88D94B3F411B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3034,30 +3032,30 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
@@ -3080,7 +3078,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3100,7 +3098,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3120,7 +3118,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3140,7 +3138,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3160,7 +3158,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3180,7 +3178,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3218,30 +3216,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>282</v>
       </c>
@@ -3249,12 +3247,12 @@
       <c r="O3" s="92"/>
       <c r="P3" s="92"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>284</v>
       </c>
@@ -3276,30 +3274,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3320,7 +3318,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3340,7 +3338,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3360,7 +3358,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3380,7 +3378,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3400,7 +3398,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3420,7 +3418,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3457,30 +3455,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>80</v>
       </c>
@@ -3503,7 +3501,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
@@ -3526,7 +3524,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>82</v>
       </c>
@@ -3549,7 +3547,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>83</v>
       </c>
@@ -3572,7 +3570,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
@@ -3595,7 +3593,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -3618,7 +3616,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>86</v>
       </c>
@@ -3641,107 +3639,107 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>153</v>
       </c>
@@ -3764,30 +3762,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3825,25 +3823,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>89</v>
       </c>
@@ -3865,25 +3863,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
@@ -3906,7 +3904,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3927,7 +3925,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3948,7 +3946,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3985,30 +3983,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -4029,7 +4027,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4050,7 +4048,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -4087,17 +4085,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -4189,7 +4187,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -4225,7 +4223,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -4261,7 +4259,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -4297,7 +4295,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -4333,7 +4331,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -4371,7 +4369,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -4407,7 +4405,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -4443,7 +4441,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -4479,7 +4477,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -4515,7 +4513,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -4551,7 +4549,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -4587,7 +4585,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -4623,7 +4621,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -4659,7 +4657,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -4695,7 +4693,7 @@
       <c r="AC16" s="10"/>
       <c r="AD16" s="32"/>
     </row>
-    <row r="17" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>116</v>
       </c>
@@ -4749,17 +4747,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -4851,7 +4849,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -4887,7 +4885,7 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="35"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -4923,7 +4921,7 @@
       <c r="AC4" s="33"/>
       <c r="AD4" s="35"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -4959,7 +4957,7 @@
       <c r="AC5" s="33"/>
       <c r="AD5" s="35"/>
     </row>
-    <row r="6" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -5011,61 +5009,61 @@
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="41"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="42"/>
       <c r="F21" s="42"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="43"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="43"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="43"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="43"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="43"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="43"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="43"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="43"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="43"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="43"/>
     </row>
   </sheetData>
@@ -5085,17 +5083,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -5112,7 +5110,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -5121,7 +5119,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -5130,7 +5128,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -5139,7 +5137,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -5165,17 +5163,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
@@ -5267,7 +5265,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
@@ -5303,7 +5301,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>80</v>
       </c>
@@ -5343,7 +5341,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>81</v>
       </c>
@@ -5381,7 +5379,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>82</v>
       </c>
@@ -5419,7 +5417,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>83</v>
       </c>
@@ -5457,7 +5455,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>84</v>
       </c>
@@ -5495,7 +5493,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>85</v>
       </c>
@@ -5535,7 +5533,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>86</v>
       </c>
@@ -5573,7 +5571,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>133</v>
       </c>
@@ -5613,7 +5611,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>134</v>
       </c>
@@ -5651,7 +5649,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>135</v>
       </c>
@@ -5689,7 +5687,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>136</v>
       </c>
@@ -5727,7 +5725,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>137</v>
       </c>
@@ -5765,7 +5763,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>138</v>
       </c>
@@ -5805,7 +5803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>139</v>
       </c>
@@ -5843,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>140</v>
       </c>
@@ -5881,7 +5879,7 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="32"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>141</v>
       </c>
@@ -5917,7 +5915,7 @@
       <c r="AC19" s="10"/>
       <c r="AD19" s="32"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>142</v>
       </c>
@@ -5953,7 +5951,7 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="32"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>143</v>
       </c>
@@ -5991,7 +5989,7 @@
       <c r="AC21" s="10"/>
       <c r="AD21" s="32"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>144</v>
       </c>
@@ -6029,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>145</v>
       </c>
@@ -6067,7 +6065,7 @@
       <c r="AC23" s="10"/>
       <c r="AD23" s="32"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>146</v>
       </c>
@@ -6105,7 +6103,7 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="32"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>147</v>
       </c>
@@ -6143,7 +6141,7 @@
       <c r="AC25" s="10"/>
       <c r="AD25" s="32"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>148</v>
       </c>
@@ -6181,7 +6179,7 @@
       <c r="AC26" s="10"/>
       <c r="AD26" s="32"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>149</v>
       </c>
@@ -6219,7 +6217,7 @@
       <c r="AC27" s="10"/>
       <c r="AD27" s="32"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>150</v>
       </c>
@@ -6259,7 +6257,7 @@
       </c>
       <c r="AD28" s="32"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>151</v>
       </c>
@@ -6295,7 +6293,7 @@
       <c r="AC29" s="10"/>
       <c r="AD29" s="32"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>152</v>
       </c>
@@ -6329,7 +6327,7 @@
       <c r="AC30" s="10"/>
       <c r="AD30" s="32"/>
     </row>
-    <row r="31" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>153</v>
       </c>
@@ -6387,17 +6385,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
@@ -6414,7 +6412,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
@@ -6423,7 +6421,7 @@
       <c r="D3" s="46"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>80</v>
       </c>
@@ -6432,7 +6430,7 @@
       <c r="D4" s="46"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>81</v>
       </c>
@@ -6441,7 +6439,7 @@
       <c r="D5" s="46"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>82</v>
       </c>
@@ -6450,7 +6448,7 @@
       <c r="D6" s="46"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>83</v>
       </c>
@@ -6459,7 +6457,7 @@
       <c r="D7" s="46"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>84</v>
       </c>
@@ -6468,7 +6466,7 @@
       <c r="D8" s="46"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>85</v>
       </c>
@@ -6477,7 +6475,7 @@
       <c r="D9" s="46"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>86</v>
       </c>
@@ -6486,7 +6484,7 @@
       <c r="D10" s="46"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>133</v>
       </c>
@@ -6495,7 +6493,7 @@
       <c r="D11" s="46"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>134</v>
       </c>
@@ -6504,7 +6502,7 @@
       <c r="D12" s="46"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>135</v>
       </c>
@@ -6513,7 +6511,7 @@
       <c r="D13" s="46"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>136</v>
       </c>
@@ -6522,7 +6520,7 @@
       <c r="D14" s="46"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>137</v>
       </c>
@@ -6531,7 +6529,7 @@
       <c r="D15" s="46"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>138</v>
       </c>
@@ -6540,7 +6538,7 @@
       <c r="D16" s="46"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>139</v>
       </c>
@@ -6549,7 +6547,7 @@
       <c r="D17" s="46"/>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>140</v>
       </c>
@@ -6558,7 +6556,7 @@
       <c r="D18" s="46"/>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>141</v>
       </c>
@@ -6567,7 +6565,7 @@
       <c r="D19" s="46"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>142</v>
       </c>
@@ -6576,7 +6574,7 @@
       <c r="D20" s="46"/>
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>143</v>
       </c>
@@ -6585,7 +6583,7 @@
       <c r="D21" s="46"/>
       <c r="E21" s="32"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>144</v>
       </c>
@@ -6594,7 +6592,7 @@
       <c r="D22" s="46"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>145</v>
       </c>
@@ -6603,7 +6601,7 @@
       <c r="D23" s="46"/>
       <c r="E23" s="32"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>146</v>
       </c>
@@ -6612,7 +6610,7 @@
       <c r="D24" s="46"/>
       <c r="E24" s="32"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>147</v>
       </c>
@@ -6621,7 +6619,7 @@
       <c r="D25" s="46"/>
       <c r="E25" s="32"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>148</v>
       </c>
@@ -6630,7 +6628,7 @@
       <c r="D26" s="46"/>
       <c r="E26" s="32"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>149</v>
       </c>
@@ -6639,7 +6637,7 @@
       <c r="D27" s="46"/>
       <c r="E27" s="32"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>150</v>
       </c>
@@ -6648,7 +6646,7 @@
       <c r="D28" s="46"/>
       <c r="E28" s="32"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>151</v>
       </c>
@@ -6657,7 +6655,7 @@
       <c r="D29" s="46"/>
       <c r="E29" s="32"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>152</v>
       </c>
@@ -6666,7 +6664,7 @@
       <c r="D30" s="46"/>
       <c r="E30" s="32"/>
     </row>
-    <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>153</v>
       </c>
@@ -6692,17 +6690,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
@@ -6722,7 +6720,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
@@ -6732,7 +6730,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>80</v>
       </c>
@@ -6742,7 +6740,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>81</v>
       </c>
@@ -6752,7 +6750,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>82</v>
       </c>
@@ -6764,7 +6762,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="32"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>83</v>
       </c>
@@ -6774,7 +6772,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="32"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>84</v>
       </c>
@@ -6784,7 +6782,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="32"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>85</v>
       </c>
@@ -6794,7 +6792,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="32"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>86</v>
       </c>
@@ -6804,7 +6802,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="32"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>133</v>
       </c>
@@ -6814,7 +6812,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="32"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>134</v>
       </c>
@@ -6824,7 +6822,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>135</v>
       </c>
@@ -6834,7 +6832,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>136</v>
       </c>
@@ -6844,7 +6842,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="32"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>137</v>
       </c>
@@ -6854,7 +6852,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="32"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>138</v>
       </c>
@@ -6864,7 +6862,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="32"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>139</v>
       </c>
@@ -6874,7 +6872,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>140</v>
       </c>
@@ -6884,7 +6882,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>141</v>
       </c>
@@ -6896,7 +6894,7 @@
       </c>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>142</v>
       </c>
@@ -6908,7 +6906,7 @@
       </c>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>143</v>
       </c>
@@ -6918,7 +6916,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>144</v>
       </c>
@@ -6928,7 +6926,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>145</v>
       </c>
@@ -6938,7 +6936,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="32"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>146</v>
       </c>
@@ -6948,7 +6946,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="32"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>147</v>
       </c>
@@ -6958,7 +6956,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="32"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>148</v>
       </c>
@@ -6968,7 +6966,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="32"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>149</v>
       </c>
@@ -6978,7 +6976,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="32"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>150</v>
       </c>
@@ -6988,7 +6986,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="32"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>151</v>
       </c>
@@ -6998,7 +6996,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="32"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>152</v>
       </c>
@@ -7008,7 +7006,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="32"/>
     </row>
-    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>153</v>
       </c>
@@ -7036,17 +7034,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
@@ -7057,56 +7055,56 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="32"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="32"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="32"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="32"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="32"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="32"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>86</v>
       </c>
@@ -7115,84 +7113,84 @@
       </c>
       <c r="C10" s="32"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="32"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>135</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="32"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="32"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>137</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="32"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="32"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>139</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="32"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>140</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="32"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="32"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>142</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="32"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>143</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="32"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>144</v>
       </c>
@@ -7201,63 +7199,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>145</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="32"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>146</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="32"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>147</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="32"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="32"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>149</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="32"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>150</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="32"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>151</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="32"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>152</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="32"/>
     </row>
-    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>153</v>
       </c>
@@ -7282,17 +7280,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
@@ -7300,7 +7298,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>136</v>
       </c>
@@ -7325,17 +7323,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>218</v>
       </c>
@@ -7343,7 +7341,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
@@ -7368,17 +7366,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>217</v>
       </c>
@@ -7395,7 +7393,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
@@ -7404,7 +7402,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
@@ -7413,7 +7411,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>124</v>
       </c>
@@ -7422,7 +7420,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>125</v>
       </c>
@@ -7431,7 +7429,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
@@ -7440,7 +7438,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
@@ -7449,7 +7447,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>128</v>
       </c>
@@ -7458,7 +7456,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>129</v>
       </c>
@@ -7485,17 +7483,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -7512,7 +7510,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
@@ -7525,7 +7523,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>130</v>
       </c>
@@ -7555,15 +7553,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -7571,7 +7569,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
@@ -7579,7 +7577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>130</v>
       </c>
@@ -7603,33 +7601,33 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.33203125" style="1"/>
-    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.28515625" style="1"/>
+    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>226</v>
       </c>
@@ -7649,7 +7647,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="75"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>240</v>
       </c>
@@ -7679,7 +7677,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>243</v>
       </c>
@@ -7703,7 +7701,7 @@
       <c r="J4" s="78"/>
       <c r="K4" s="80"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>247</v>
       </c>
@@ -7721,7 +7719,7 @@
       <c r="J5" s="82"/>
       <c r="K5" s="84"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>249</v>
       </c>
@@ -7745,7 +7743,7 @@
       <c r="J6" s="82"/>
       <c r="K6" s="84"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>252</v>
       </c>
@@ -7769,7 +7767,7 @@
       <c r="J7" s="82"/>
       <c r="K7" s="84"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>256</v>
       </c>
@@ -7808,7 +7806,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>259</v>
       </c>
@@ -7859,7 +7857,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AT10" s="1" t="s">
         <v>273</v>
       </c>
@@ -7882,7 +7880,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AU11" s="1" t="s">
         <v>268</v>
       </c>
@@ -7890,7 +7888,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AU12" s="1" t="s">
         <v>245</v>
       </c>
@@ -7938,14 +7936,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>218</v>
       </c>
@@ -7962,7 +7960,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
@@ -7979,7 +7977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
     </row>
   </sheetData>
@@ -7998,17 +7996,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -8019,14 +8017,14 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>130</v>
       </c>
@@ -8050,17 +8048,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -8077,7 +8075,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -8086,7 +8084,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -8095,7 +8093,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -8104,7 +8102,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -8113,7 +8111,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -8122,7 +8120,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -8131,7 +8129,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -8140,7 +8138,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -8149,7 +8147,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -8158,7 +8156,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -8167,7 +8165,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -8176,7 +8174,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -8185,7 +8183,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -8194,7 +8192,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -8203,7 +8201,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>116</v>
       </c>
@@ -8230,17 +8228,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>217</v>
       </c>
@@ -8257,7 +8255,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
@@ -8268,7 +8266,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
@@ -8279,7 +8277,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>124</v>
       </c>
@@ -8290,7 +8288,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>125</v>
       </c>
@@ -8301,7 +8299,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
@@ -8312,7 +8310,7 @@
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
@@ -8323,7 +8321,7 @@
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>128</v>
       </c>
@@ -8334,7 +8332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>129</v>
       </c>
@@ -8362,17 +8360,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -8392,7 +8390,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -8412,7 +8410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -8432,7 +8430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -8452,7 +8450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -8472,7 +8470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -8492,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -8512,7 +8510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -8532,7 +8530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -8552,7 +8550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -8572,7 +8570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -8592,7 +8590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -8612,7 +8610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -8632,7 +8630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -8652,7 +8650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -8672,7 +8670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>116</v>
       </c>
@@ -8709,17 +8707,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -8739,7 +8737,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -8759,7 +8757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -8779,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -8799,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -8836,17 +8834,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -8863,7 +8861,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -8872,7 +8870,7 @@
       <c r="D3" s="33"/>
       <c r="E3" s="35"/>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -8881,7 +8879,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="35"/>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -8890,7 +8888,7 @@
       <c r="D5" s="33"/>
       <c r="E5" s="35"/>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -8916,17 +8914,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -8934,7 +8932,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -8953,22 +8951,20 @@
   </sheetPr>
   <dimension ref="A1:BA17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -9129,7 +9125,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -9206,7 +9202,7 @@
       <c r="AZ3" s="44"/>
       <c r="BA3" s="38"/>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -9291,7 +9287,7 @@
       <c r="AZ4" s="44"/>
       <c r="BA4" s="38"/>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -9364,7 +9360,7 @@
       <c r="AZ5" s="44"/>
       <c r="BA5" s="38"/>
     </row>
-    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -9455,47 +9451,47 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -9514,26 +9510,24 @@
   </sheetPr>
   <dimension ref="A1:BA19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="9"/>
-    <col min="2" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="9"/>
+    <col min="2" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Production Rate Forecasts by Pads [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -9694,7 +9688,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -9907,7 +9901,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -10120,7 +10114,7 @@
         <v>22826.547097429568</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -10333,7 +10327,7 @@
         <v>20853.895411663008</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -10546,7 +10540,7 @@
         <v>12936.237157458605</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -10759,7 +10753,7 @@
         <v>10093.208985005042</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -10972,7 +10966,7 @@
         <v>25030.845039782169</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -11185,7 +11179,7 @@
         <v>21394.248548185435</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -11398,7 +11392,7 @@
         <v>19620.846059435706</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -11611,7 +11605,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -11824,7 +11818,7 @@
         <v>19056.740567787925</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -12037,7 +12031,7 @@
         <v>10459.139487125793</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -12250,7 +12244,7 @@
         <v>11226.398478579069</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -12463,7 +12457,7 @@
         <v>9948.0491512241751</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -12676,7 +12670,7 @@
         <v>13401.937357783543</v>
       </c>
     </row>
-    <row r="17" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>116</v>
       </c>
@@ -12889,12 +12883,12 @@
         <v>8411.007487504201</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -12913,28 +12907,26 @@
   </sheetPr>
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>112</v>
       </c>
@@ -12955,7 +12947,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -12976,67 +12968,67 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>116</v>
       </c>
@@ -13055,26 +13047,24 @@
   </sheetPr>
   <dimension ref="A1:BA14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="9"/>
-    <col min="2" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="9"/>
+    <col min="2" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Flowback Rate Forecasts by Pads [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -13235,7 +13225,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -13412,7 +13402,7 @@
         <v>38495.240630664819</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -13517,7 +13507,7 @@
         <v>63660.095793436725</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -13667,7 +13657,7 @@
         <v>56817.904350212186</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -13724,42 +13714,42 @@
       <c r="AZ6" s="39"/>
       <c r="BA6" s="40"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -13778,16 +13768,14 @@
   </sheetPr>
   <dimension ref="A1:AM53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites  [bbl/week]</v>
@@ -13831,7 +13819,7 @@
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
@@ -13950,7 +13938,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -13997,7 +13985,7 @@
       </c>
       <c r="AM3" s="38"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -14044,7 +14032,7 @@
       <c r="AL4" s="37"/>
       <c r="AM4" s="38"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -14091,7 +14079,7 @@
       <c r="AL5" s="37"/>
       <c r="AM5" s="38"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>79</v>
       </c>
@@ -14140,7 +14128,7 @@
       <c r="AL6" s="37"/>
       <c r="AM6" s="38"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>130</v>
       </c>
@@ -14187,7 +14175,7 @@
       <c r="AL7" s="37"/>
       <c r="AM7" s="38"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>132</v>
       </c>
@@ -14232,7 +14220,7 @@
       <c r="AL8" s="37"/>
       <c r="AM8" s="38"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>80</v>
       </c>
@@ -14281,7 +14269,7 @@
       <c r="AL9" s="37"/>
       <c r="AM9" s="38"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>81</v>
       </c>
@@ -14330,7 +14318,7 @@
       <c r="AL10" s="37"/>
       <c r="AM10" s="38"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>82</v>
       </c>
@@ -14379,7 +14367,7 @@
       <c r="AL11" s="37"/>
       <c r="AM11" s="38"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>83</v>
       </c>
@@ -14426,7 +14414,7 @@
       <c r="AL12" s="37"/>
       <c r="AM12" s="38"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>84</v>
       </c>
@@ -14473,7 +14461,7 @@
       <c r="AL13" s="37"/>
       <c r="AM13" s="38"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>85</v>
       </c>
@@ -14522,7 +14510,7 @@
       <c r="AL14" s="37"/>
       <c r="AM14" s="38"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>86</v>
       </c>
@@ -14571,7 +14559,7 @@
       <c r="AL15" s="37"/>
       <c r="AM15" s="38"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -14620,7 +14608,7 @@
       <c r="AL16" s="37"/>
       <c r="AM16" s="38"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>134</v>
       </c>
@@ -14667,7 +14655,7 @@
       <c r="AL17" s="37"/>
       <c r="AM17" s="38"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>135</v>
       </c>
@@ -14714,7 +14702,7 @@
       <c r="AL18" s="37"/>
       <c r="AM18" s="38"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>136</v>
       </c>
@@ -14763,7 +14751,7 @@
       <c r="AL19" s="37"/>
       <c r="AM19" s="38"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>137</v>
       </c>
@@ -14810,7 +14798,7 @@
       <c r="AL20" s="37"/>
       <c r="AM20" s="38"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>138</v>
       </c>
@@ -14859,7 +14847,7 @@
       <c r="AL21" s="37"/>
       <c r="AM21" s="38"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>139</v>
       </c>
@@ -14906,7 +14894,7 @@
       <c r="AL22" s="44"/>
       <c r="AM22" s="38"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>140</v>
       </c>
@@ -14953,7 +14941,7 @@
       <c r="AL23" s="44"/>
       <c r="AM23" s="38"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>141</v>
       </c>
@@ -15000,7 +14988,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>142</v>
       </c>
@@ -15047,7 +15035,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>143</v>
       </c>
@@ -15094,7 +15082,7 @@
       <c r="AL26" s="44"/>
       <c r="AM26" s="38"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>144</v>
       </c>
@@ -15143,7 +15131,7 @@
       <c r="AL27" s="44"/>
       <c r="AM27" s="38"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>145</v>
       </c>
@@ -15190,7 +15178,7 @@
       <c r="AL28" s="44"/>
       <c r="AM28" s="38"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>146</v>
       </c>
@@ -15237,7 +15225,7 @@
       <c r="AL29" s="44"/>
       <c r="AM29" s="38"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>147</v>
       </c>
@@ -15284,7 +15272,7 @@
       <c r="AL30" s="44"/>
       <c r="AM30" s="38"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>148</v>
       </c>
@@ -15331,7 +15319,7 @@
       <c r="AL31" s="44"/>
       <c r="AM31" s="38"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>149</v>
       </c>
@@ -15378,7 +15366,7 @@
       <c r="AL32" s="44"/>
       <c r="AM32" s="38"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>150</v>
       </c>
@@ -15425,7 +15413,7 @@
       <c r="AL33" s="44"/>
       <c r="AM33" s="38"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>151</v>
       </c>
@@ -15470,7 +15458,7 @@
       <c r="AL34" s="44"/>
       <c r="AM34" s="38"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>153</v>
       </c>
@@ -15519,7 +15507,7 @@
       <c r="AL35" s="44"/>
       <c r="AM35" s="38"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>112</v>
       </c>
@@ -15564,7 +15552,7 @@
       <c r="AL36" s="37"/>
       <c r="AM36" s="38"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>3</v>
       </c>
@@ -15609,7 +15597,7 @@
       <c r="AL37" s="37"/>
       <c r="AM37" s="38"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>4</v>
       </c>
@@ -15654,7 +15642,7 @@
       <c r="AL38" s="37"/>
       <c r="AM38" s="38"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>104</v>
       </c>
@@ -15699,7 +15687,7 @@
       <c r="AL39" s="37"/>
       <c r="AM39" s="38"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>105</v>
       </c>
@@ -15746,7 +15734,7 @@
       <c r="AL40" s="37"/>
       <c r="AM40" s="38"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>106</v>
       </c>
@@ -15791,7 +15779,7 @@
       <c r="AL41" s="44"/>
       <c r="AM41" s="38"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>107</v>
       </c>
@@ -15836,7 +15824,7 @@
       <c r="AL42" s="44"/>
       <c r="AM42" s="38"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>108</v>
       </c>
@@ -15881,7 +15869,7 @@
       <c r="AL43" s="44"/>
       <c r="AM43" s="38"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>109</v>
       </c>
@@ -15926,7 +15914,7 @@
       <c r="AL44" s="44"/>
       <c r="AM44" s="38"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>110</v>
       </c>
@@ -15971,7 +15959,7 @@
       <c r="AL45" s="44"/>
       <c r="AM45" s="38"/>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>111</v>
       </c>
@@ -16016,7 +16004,7 @@
       <c r="AL46" s="44"/>
       <c r="AM46" s="38"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>113</v>
       </c>
@@ -16061,7 +16049,7 @@
       <c r="AL47" s="44"/>
       <c r="AM47" s="38"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>114</v>
       </c>
@@ -16106,7 +16094,7 @@
       <c r="AL48" s="44"/>
       <c r="AM48" s="38"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>115</v>
       </c>
@@ -16151,7 +16139,7 @@
       <c r="AL49" s="44"/>
       <c r="AM49" s="38"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>116</v>
       </c>
@@ -16196,7 +16184,7 @@
       <c r="AL50" s="44"/>
       <c r="AM50" s="38"/>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>78</v>
       </c>
@@ -16247,7 +16235,7 @@
       <c r="AL51" s="44"/>
       <c r="AM51" s="38"/>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>123</v>
       </c>
@@ -16292,7 +16280,7 @@
       <c r="AL52" s="44"/>
       <c r="AM52" s="38"/>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>121</v>
       </c>
@@ -16353,18 +16341,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Disposal Capacity  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -16372,7 +16360,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>123</v>
       </c>
@@ -16380,7 +16368,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -16388,7 +16376,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>120</v>
       </c>
@@ -16396,7 +16384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>121</v>
       </c>
@@ -16404,7 +16392,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>122</v>
       </c>
@@ -16427,20 +16415,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
-    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>218</v>
       </c>
@@ -16448,7 +16436,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>78</v>
       </c>
@@ -16471,18 +16459,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -16499,7 +16487,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
@@ -16516,7 +16504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>130</v>
       </c>
@@ -16548,18 +16536,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Sourcing Availability [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>217</v>
       </c>
@@ -16720,7 +16708,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>66</v>
       </c>
@@ -16881,7 +16869,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>67</v>
       </c>
@@ -17042,7 +17030,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>124</v>
       </c>
@@ -17203,7 +17191,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>125</v>
       </c>
@@ -17364,7 +17352,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>126</v>
       </c>
@@ -17525,7 +17513,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>127</v>
       </c>
@@ -17686,7 +17674,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>128</v>
       </c>
@@ -17847,7 +17835,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>129</v>
       </c>
@@ -18008,47 +17996,47 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -18069,20 +18057,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Pad Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -18090,7 +18078,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -18098,7 +18086,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -18106,7 +18094,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -18114,7 +18102,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -18137,18 +18125,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pad Offloading Capacity  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -18156,7 +18144,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -18179,20 +18167,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
         <v>Table of Node Capacity Capacity [bbl/week] *absence of node or empty cell signifies no max capacity</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
@@ -18200,7 +18188,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
@@ -18208,13 +18196,13 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="38"/>
     </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>153</v>
       </c>
@@ -18235,21 +18223,21 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site  [%]")</f>
         <v>Operating Capacity of Disposal Site  [%]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
         <v>216</v>
       </c>
@@ -18410,7 +18398,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="99" t="s">
         <v>123</v>
       </c>
@@ -18571,7 +18559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
         <v>51</v>
       </c>
@@ -18732,7 +18720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
         <v>120</v>
       </c>
@@ -18893,7 +18881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
         <v>121</v>
       </c>
@@ -19055,7 +19043,7 @@
       </c>
       <c r="BD6" s="100"/>
     </row>
-    <row r="7" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="101" t="s">
         <v>122</v>
       </c>
@@ -19218,10 +19206,10 @@
       <c r="BB7" s="9"/>
       <c r="BD7" s="103"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B11" s="104"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>285</v>
       </c>
@@ -19241,24 +19229,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
@@ -19279,7 +19267,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -19300,7 +19288,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -19321,7 +19309,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -19342,7 +19330,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -19363,47 +19351,47 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>65</v>
       </c>
@@ -19424,18 +19412,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -19443,7 +19431,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>123</v>
       </c>
@@ -19451,7 +19439,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -19459,7 +19447,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>120</v>
       </c>
@@ -19467,7 +19455,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>121</v>
       </c>
@@ -19475,7 +19463,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>122</v>
       </c>
@@ -19499,18 +19487,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -19521,7 +19509,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
@@ -19532,7 +19520,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -19543,7 +19531,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>79</v>
       </c>
@@ -19554,7 +19542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>130</v>
       </c>
@@ -19565,7 +19553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>79</v>
       </c>
@@ -19576,7 +19564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>130</v>
       </c>
@@ -19587,7 +19575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>79</v>
       </c>
@@ -19598,7 +19586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>130</v>
       </c>
@@ -19624,18 +19612,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -19643,7 +19631,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -19651,7 +19639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -19659,7 +19647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -19667,7 +19655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -19690,20 +19678,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
@@ -19726,7 +19714,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -19739,7 +19727,7 @@
       <c r="F3" s="47"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>117</v>
       </c>
@@ -19752,7 +19740,7 @@
       <c r="F4" s="47"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
@@ -19765,7 +19753,7 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>119</v>
       </c>
@@ -19778,7 +19766,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -19789,7 +19777,7 @@
       <c r="F7" s="46"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -19800,7 +19788,7 @@
       <c r="F8" s="46"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
@@ -19811,7 +19799,7 @@
       <c r="F9" s="46"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
@@ -19838,18 +19826,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>217</v>
       </c>
@@ -19857,7 +19845,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>66</v>
       </c>
@@ -19865,7 +19853,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>67</v>
       </c>
@@ -19873,7 +19861,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>124</v>
       </c>
@@ -19881,7 +19869,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>125</v>
       </c>
@@ -19889,7 +19877,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>126</v>
       </c>
@@ -19897,7 +19885,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>127</v>
       </c>
@@ -19905,7 +19893,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>128</v>
       </c>
@@ -19913,7 +19901,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>129</v>
       </c>
@@ -19936,18 +19924,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
         <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
@@ -19955,7 +19943,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -19963,7 +19951,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -19971,7 +19959,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -19979,7 +19967,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -19987,7 +19975,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -19995,7 +19983,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -20003,7 +19991,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -20011,7 +19999,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -20019,7 +20007,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -20027,7 +20015,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -20035,7 +20023,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -20043,7 +20031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -20051,7 +20039,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -20059,7 +20047,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -20067,7 +20055,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>116</v>
       </c>
@@ -20075,7 +20063,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -20083,7 +20071,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>117</v>
       </c>
@@ -20091,7 +20079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>118</v>
       </c>
@@ -20099,7 +20087,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>119</v>
       </c>
@@ -20107,7 +20095,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>66</v>
       </c>
@@ -20115,7 +20103,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>67</v>
       </c>
@@ -20139,17 +20127,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
@@ -20169,7 +20157,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>112</v>
       </c>
@@ -20189,7 +20177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -20209,7 +20197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -20229,7 +20217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -20249,7 +20237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>117</v>
       </c>
@@ -20269,7 +20257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>118</v>
       </c>
@@ -20289,7 +20277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>119</v>
       </c>
@@ -20309,34 +20297,34 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
   </sheetData>
@@ -20354,18 +20342,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/week)]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -20373,7 +20361,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>123</v>
       </c>
@@ -20381,7 +20369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -20389,7 +20377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>120</v>
       </c>
@@ -20397,7 +20385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>121</v>
       </c>
@@ -20405,7 +20393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>122</v>
       </c>
@@ -20429,18 +20417,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>223</v>
       </c>
@@ -20448,7 +20436,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>92</v>
       </c>
@@ -20471,18 +20459,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>218</v>
       </c>
@@ -20490,7 +20478,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>78</v>
       </c>
@@ -20511,34 +20499,32 @@
   </sheetPr>
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>117</v>
       </c>
@@ -20561,7 +20547,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>118</v>
       </c>
@@ -20584,7 +20570,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>119</v>
       </c>
@@ -20607,7 +20593,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -20627,7 +20613,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -20647,7 +20633,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -20667,7 +20653,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -20703,18 +20689,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>222</v>
       </c>
@@ -20722,7 +20708,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -20747,18 +20733,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/week)]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -20769,7 +20755,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
@@ -20780,7 +20766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -20791,7 +20777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>79</v>
       </c>
@@ -20802,7 +20788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>130</v>
       </c>
@@ -20813,7 +20799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>79</v>
       </c>
@@ -20824,7 +20810,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>130</v>
       </c>
@@ -20835,7 +20821,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>79</v>
       </c>
@@ -20846,7 +20832,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>130</v>
       </c>
@@ -20857,19 +20843,19 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
@@ -20887,18 +20873,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments  [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>224</v>
       </c>
@@ -20906,7 +20892,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>281</v>
       </c>
@@ -20914,7 +20900,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>282</v>
       </c>
@@ -20922,7 +20908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>283</v>
       </c>
@@ -20930,7 +20916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>284</v>
       </c>
@@ -20953,9 +20939,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
@@ -20963,7 +20949,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>226</v>
       </c>
@@ -20971,7 +20957,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>230</v>
       </c>
@@ -20993,9 +20979,9 @@
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
@@ -21003,7 +20989,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
@@ -21131,7 +21117,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
@@ -21259,7 +21245,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -21387,7 +21373,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -21515,7 +21501,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -21643,7 +21629,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -21771,7 +21757,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -21899,7 +21885,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -22027,7 +22013,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -22155,7 +22141,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -22283,7 +22269,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -22411,7 +22397,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -22539,7 +22525,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -22667,7 +22653,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -22795,7 +22781,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -22923,7 +22909,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>116</v>
       </c>
@@ -23051,7 +23037,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -23179,7 +23165,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>117</v>
       </c>
@@ -23307,7 +23293,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>118</v>
       </c>
@@ -23435,7 +23421,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>119</v>
       </c>
@@ -23563,7 +23549,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>132</v>
       </c>
@@ -23691,7 +23677,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>80</v>
       </c>
@@ -23819,7 +23805,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>81</v>
       </c>
@@ -23947,7 +23933,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>82</v>
       </c>
@@ -24075,7 +24061,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>83</v>
       </c>
@@ -24203,7 +24189,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>84</v>
       </c>
@@ -24331,7 +24317,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>85</v>
       </c>
@@ -24459,7 +24445,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>86</v>
       </c>
@@ -24587,7 +24573,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>133</v>
       </c>
@@ -24715,7 +24701,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>134</v>
       </c>
@@ -24843,7 +24829,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>135</v>
       </c>
@@ -24971,7 +24957,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>136</v>
       </c>
@@ -25099,7 +25085,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>137</v>
       </c>
@@ -25227,7 +25213,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>138</v>
       </c>
@@ -25355,7 +25341,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>139</v>
       </c>
@@ -25483,7 +25469,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>140</v>
       </c>
@@ -25611,7 +25597,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>141</v>
       </c>
@@ -25739,7 +25725,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>142</v>
       </c>
@@ -25867,7 +25853,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>143</v>
       </c>
@@ -25995,7 +25981,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>144</v>
       </c>
@@ -26123,7 +26109,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>145</v>
       </c>
@@ -26251,7 +26237,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>146</v>
       </c>
@@ -26379,7 +26365,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>147</v>
       </c>
@@ -26507,7 +26493,7 @@
         <v>22.094999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>148</v>
       </c>
@@ -26635,7 +26621,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="46" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>149</v>
       </c>
@@ -26763,7 +26749,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>150</v>
       </c>
@@ -26891,7 +26877,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>151</v>
       </c>
@@ -27019,7 +27005,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>152</v>
       </c>
@@ -27147,7 +27133,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
         <v>153</v>
       </c>
@@ -27275,7 +27261,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
         <v>78</v>
       </c>
@@ -27403,7 +27389,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>66</v>
       </c>
@@ -27531,7 +27517,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>67</v>
       </c>
@@ -27659,7 +27645,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>124</v>
       </c>
@@ -27787,7 +27773,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>125</v>
       </c>
@@ -27915,7 +27901,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>126</v>
       </c>
@@ -28043,7 +28029,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>127</v>
       </c>
@@ -28171,7 +28157,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>128</v>
       </c>
@@ -28299,7 +28285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="s">
         <v>129</v>
       </c>
@@ -28427,7 +28413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>79</v>
       </c>
@@ -28555,7 +28541,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="30" t="s">
         <v>130</v>
       </c>
@@ -28696,9 +28682,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/week)]</v>
@@ -28707,7 +28693,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>212</v>
       </c>
@@ -28723,7 +28709,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>134</v>
       </c>
@@ -28739,7 +28725,7 @@
       <c r="G3" s="52"/>
       <c r="H3" s="61"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>136</v>
       </c>
@@ -28755,7 +28741,7 @@
       <c r="G4" s="52"/>
       <c r="H4" s="61"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>133</v>
       </c>
@@ -28771,7 +28757,7 @@
       <c r="G5" s="52"/>
       <c r="H5" s="61"/>
     </row>
-    <row r="6" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
         <v>135</v>
       </c>
@@ -28801,18 +28787,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Capacity Expansion Increments [bbl/week]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>221</v>
       </c>
@@ -28820,7 +28806,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>87</v>
       </c>
@@ -28828,23 +28814,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" s="38"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="38"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="38"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
       <c r="B7" s="38"/>
     </row>
-    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="40"/>
     </row>
@@ -28863,18 +28849,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>221</v>
       </c>
@@ -28882,7 +28868,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>87</v>
       </c>
@@ -28890,7 +28876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
       <c r="B4" s="58"/>
     </row>
@@ -28909,17 +28895,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -28930,7 +28916,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
@@ -28941,7 +28927,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -28952,7 +28938,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>79</v>
       </c>
@@ -28963,7 +28949,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>130</v>
       </c>
@@ -28974,7 +28960,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>79</v>
       </c>
@@ -28985,7 +28971,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>130</v>
       </c>
@@ -28996,7 +28982,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>79</v>
       </c>
@@ -29007,7 +28993,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>130</v>
       </c>
@@ -29035,14 +29021,14 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
         <v>286</v>
       </c>
@@ -29050,7 +29036,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="107" t="s">
         <v>281</v>
       </c>
@@ -29058,7 +29044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="107" t="s">
         <v>282</v>
       </c>
@@ -29066,7 +29052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="107" t="s">
         <v>283</v>
       </c>
@@ -29074,7 +29060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>284</v>
       </c>
@@ -29094,27 +29080,25 @@
   </sheetPr>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.33203125" style="1"/>
-    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.28515625" style="1"/>
+    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>123</v>
       </c>
@@ -29135,7 +29119,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -29156,7 +29140,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>120</v>
       </c>
@@ -29177,7 +29161,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>121</v>
       </c>
@@ -29198,7 +29182,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>122</v>
       </c>
@@ -29233,21 +29217,21 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -29255,7 +29239,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
@@ -29263,7 +29247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>130</v>
       </c>
@@ -29271,19 +29255,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="110"/>
       <c r="B5" s="110"/>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
       <c r="B6" s="110"/>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="110"/>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
       <c r="B8" s="110"/>
     </row>
@@ -29303,14 +29287,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
         <v>215</v>
       </c>
@@ -29318,7 +29302,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -29326,7 +29310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -29334,7 +29318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>118</v>
       </c>
@@ -29342,7 +29326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>119</v>
       </c>
@@ -29364,17 +29348,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>226</v>
       </c>
@@ -29382,7 +29366,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>228</v>
       </c>
@@ -29390,7 +29374,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>229</v>
       </c>
@@ -29412,17 +29396,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>226</v>
       </c>
@@ -29430,7 +29414,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>234</v>
       </c>
@@ -29438,7 +29422,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>235</v>
       </c>
@@ -29460,18 +29444,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -29479,7 +29463,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
         <v>112</v>
       </c>
@@ -29487,7 +29471,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -29495,7 +29479,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -29503,7 +29487,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>104</v>
       </c>
@@ -29511,7 +29495,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>105</v>
       </c>
@@ -29519,7 +29503,7 @@
         <v>241833.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
@@ -29527,7 +29511,7 @@
         <v>188503.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>107</v>
       </c>
@@ -29535,7 +29519,7 @@
         <v>146716</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>108</v>
       </c>
@@ -29543,7 +29527,7 @@
         <v>216563</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -29551,7 +29535,7 @@
         <v>150626</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>110</v>
       </c>
@@ -29559,7 +29543,7 @@
         <v>247061</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>111</v>
       </c>
@@ -29567,7 +29551,7 @@
         <v>180968</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -29575,7 +29559,7 @@
         <v>195584</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>114</v>
       </c>
@@ -29583,7 +29567,7 @@
         <v>148655</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
@@ -29591,7 +29575,7 @@
         <v>185369</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>116</v>
       </c>
@@ -29599,7 +29583,7 @@
         <v>222724</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -29607,7 +29591,7 @@
         <v>165376</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>117</v>
       </c>
@@ -29615,7 +29599,7 @@
         <v>240977</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>118</v>
       </c>
@@ -29623,7 +29607,7 @@
         <v>192794</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>119</v>
       </c>
@@ -29646,18 +29630,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
@@ -29665,7 +29649,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
         <v>78</v>
       </c>
@@ -29687,18 +29671,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
@@ -29706,7 +29690,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -29714,7 +29698,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
@@ -29722,7 +29706,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -29730,7 +29714,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
@@ -29754,30 +29738,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>67</v>
       </c>
@@ -29800,7 +29784,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>124</v>
       </c>
@@ -29823,7 +29807,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>125</v>
       </c>
@@ -29846,7 +29830,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>126</v>
       </c>
@@ -29869,7 +29853,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>127</v>
       </c>
@@ -29892,7 +29876,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>128</v>
       </c>
@@ -29915,7 +29899,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>129</v>
       </c>
@@ -29956,30 +29940,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -30000,7 +29984,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -30020,7 +30004,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -30040,7 +30024,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -30060,7 +30044,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -30080,7 +30064,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -30100,7 +30084,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE72104-0A69-4A98-99EF-AE949F6AE0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2707000D-9AB0-477B-8E5A-0F574D927476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="8" activeTab="20" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -2468,7 +2468,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5159,9 +5159,7 @@
   </sheetPr>
   <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6087,7 +6085,9 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
+      <c r="T24" s="10">
+        <v>1</v>
+      </c>
       <c r="U24" s="10"/>
       <c r="V24" s="10">
         <v>1</v>
@@ -6322,7 +6322,9 @@
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
       <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
+      <c r="AA30" s="10">
+        <v>1</v>
+      </c>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
       <c r="AD30" s="32"/>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2707000D-9AB0-477B-8E5A-0F574D927476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734613A2-0011-4555-9E95-0B32D3E9127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="8" activeTab="20" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="16" activeTab="20" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -1663,7 +1663,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1923,6 +1923,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3270,9 +3271,7 @@
   </sheetPr>
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3298,7 +3297,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="111"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -5626,9 +5625,7 @@
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="10">
-        <v>1</v>
-      </c>
+      <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -5698,9 +5695,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="10">
-        <v>1</v>
-      </c>
+      <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BAEE5C-8228-4576-89B4-8B319E07EDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DEBDCE-817C-4E3C-96AD-C3157DEE3DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="19" activeTab="40" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="19" activeTab="22" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -6744,7 +6744,7 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6775,7 +6775,9 @@
       <c r="A3" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
       <c r="C3" s="10"/>
       <c r="D3" s="32"/>
     </row>
@@ -13633,7 +13635,7 @@
   </sheetPr>
   <dimension ref="A1:AM53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DEBDCE-817C-4E3C-96AD-C3157DEE3DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0B8F28-951B-42EB-A806-6B6752D80256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="19" activeTab="22" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="38" activeTab="46" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -95,6 +95,7 @@
     <definedName name="_xlnm.Extract" localSheetId="63">PipelineExpansionDistance!$O$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="287">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -6744,7 +6745,7 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17958,19 +17959,20 @@
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Pad Offloading Capacity  [bbl/week]</v>
+        <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Pad Offloading Capacity [bbl/week]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -17981,15 +17983,40 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="38">
         <v>210000</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="38">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="38">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="40">
+        <v>210000</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0B8F28-951B-42EB-A806-6B6752D80256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4FDF1C-8E37-4813-9E8A-49AAD76766BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="38" activeTab="46" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="45" activeTab="52" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="287">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -17961,7 +17961,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19178,141 +19178,36 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="46">
-        <v>1E-4</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46">
-        <v>1E-4</v>
-      </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="46">
-        <v>1E-4</v>
-      </c>
-      <c r="G5" s="35"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="32">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="B2" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4FDF1C-8E37-4813-9E8A-49AAD76766BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A56EDF-590B-44F0-8507-C95010ABB214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="45" activeTab="52" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="47" activeTab="54" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498" uniqueCount="287">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1701,7 +1701,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1990,6 +1990,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -19180,7 +19183,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19319,9 +19322,9 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19455,10 +19458,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="122">
         <v>98</v>
       </c>
     </row>
@@ -19487,10 +19490,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="122">
         <v>95</v>
       </c>
     </row>
@@ -19502,11 +19505,59 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="32">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="32">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="32">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="32">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="32">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="32">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="12">
         <v>110</v>
       </c>
     </row>
@@ -19524,7 +19575,9 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19679,6 +19732,7 @@
       <c r="B20" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A56EDF-590B-44F0-8507-C95010ABB214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86199824-DD3B-4511-ADAF-1A2CACB611D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="47" activeTab="54" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="47" activeTab="55" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3510" uniqueCount="287">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1701,7 +1701,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1993,6 +1993,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -19324,7 +19327,7 @@
   </sheetPr>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19573,11 +19576,9 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19647,13 +19648,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
-        <v>3</v>
-      </c>
       <c r="C6" s="10">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="32">
         <v>6</v>
@@ -19661,13 +19662,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B7" s="10">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="C7" s="10">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="D7" s="32">
         <v>5</v>
@@ -19675,61 +19676,199 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="10">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="C9" s="10">
+        <v>9</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="10">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="10">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="C12" s="10">
+        <v>12</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="10">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="D13" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="C14" s="10">
+        <v>13</v>
+      </c>
+      <c r="D14" s="32">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="C15" s="10">
+        <v>13</v>
+      </c>
+      <c r="D15" s="32">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="C16" s="10">
+        <v>13</v>
+      </c>
+      <c r="D16" s="32">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="123">
+        <v>11.5</v>
+      </c>
+      <c r="C17" s="123">
+        <v>12</v>
+      </c>
+      <c r="D17" s="122">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="10">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D18" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B20" s="10">
         <v>8</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C20" s="10">
         <v>6</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D20" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B21" s="11">
         <v>8</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C21" s="11">
         <v>9</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D21" s="12">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86199824-DD3B-4511-ADAF-1A2CACB611D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33A5A5F-8899-4B92-B522-465EB45F8AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="47" activeTab="55" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="10" activeTab="25" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -95,7 +95,6 @@
     <definedName name="_xlnm.Extract" localSheetId="63">PipelineExpansionDistance!$O$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1701,7 +1700,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1998,6 +1997,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -7278,13 +7278,13 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7301,12 +7301,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
+      <c r="A3" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="124"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7321,13 +7319,12 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7340,16 +7337,14 @@
         <v>215</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
+      <c r="B3" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19578,7 +19573,9 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9548E8CA-F441-4866-BECC-39B7A2204363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D43CC38-0AF5-4A0F-B571-74B129849EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="14" activeTab="27" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="66" activeTab="74" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3515" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3518" uniqueCount="288">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -1108,7 +1108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1376,36 +1376,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1697,7 +1667,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1796,9 +1766,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1845,10 +1812,10 @@
     <xf numFmtId="43" fontId="1" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,85 +1824,79 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1944,16 +1905,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1962,7 +1923,7 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1971,10 +1932,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1986,11 +1947,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3309,15 +3276,15 @@
       <c r="A3" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
+      <c r="A4" s="96"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
+      <c r="A5" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3358,7 +3325,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
+      <c r="A3" s="96"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3988,7 +3955,7 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
+      <c r="A4" s="96"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -4067,7 +4034,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
+      <c r="A3" s="96"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -4088,7 +4055,7 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
+      <c r="A4" s="96"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -7270,7 +7237,9 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7300,7 +7269,7 @@
         <v>130</v>
       </c>
       <c r="B3" s="33"/>
-      <c r="C3" s="121"/>
+      <c r="C3" s="118"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7479,7 +7448,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -7649,46 +7618,46 @@
       <c r="B2" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="71"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="74" t="s">
+      <c r="H3" s="72"/>
+      <c r="I3" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="J3" s="73" t="s">
+      <c r="J3" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="73" t="s">
         <v>271</v>
       </c>
     </row>
@@ -7696,109 +7665,109 @@
       <c r="A4" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="76" t="s">
         <v>272</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="G4" s="74" t="s">
+      <c r="G4" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="76"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="80"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="76" t="s">
         <v>274</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="71" t="s">
         <v>248</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="80"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="80"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="80"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="77"/>
       <c r="AT8" s="46" t="s">
         <v>237</v>
       </c>
@@ -7828,26 +7797,26 @@
       <c r="B9" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="79" t="s">
         <v>238</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="G9" s="80" t="s">
         <v>259</v>
       </c>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85" t="s">
+      <c r="H9" s="81"/>
+      <c r="I9" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="J9" s="79" t="s">
         <v>238</v>
       </c>
-      <c r="K9" s="83" t="s">
+      <c r="K9" s="80" t="s">
         <v>261</v>
       </c>
       <c r="AT9" s="1" t="s">
@@ -7947,7 +7916,9 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8011,76 +7982,76 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="122"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8875,7 +8846,9 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13736,7 +13709,9 @@
   </sheetPr>
   <dimension ref="A1:AM53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16364,13 +16339,15 @@
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
@@ -16389,12 +16366,20 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="39">
-        <v>0</v>
+      <c r="B3" s="37">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="39">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -16430,7 +16415,7 @@
       <c r="A2" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="86" t="s">
         <v>278</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -16441,10 +16426,10 @@
       <c r="A3" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="100">
+      <c r="B3" s="97">
         <v>75000</v>
       </c>
-      <c r="C3" s="90">
+      <c r="C3" s="87">
         <v>0</v>
       </c>
     </row>
@@ -16452,7 +16437,7 @@
       <c r="A4" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="101">
+      <c r="B4" s="98">
         <v>50000</v>
       </c>
       <c r="C4" s="39">
@@ -18201,324 +18186,324 @@
       </c>
     </row>
     <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="110" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="113" t="s">
+      <c r="E2" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="110" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="I2" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="113" t="s">
+      <c r="K2" s="110" t="s">
         <v>154</v>
       </c>
-      <c r="L2" s="113" t="s">
+      <c r="L2" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="M2" s="113" t="s">
+      <c r="M2" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="N2" s="113" t="s">
+      <c r="N2" s="110" t="s">
         <v>157</v>
       </c>
-      <c r="O2" s="113" t="s">
+      <c r="O2" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="P2" s="113" t="s">
+      <c r="P2" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="Q2" s="113" t="s">
+      <c r="Q2" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="R2" s="113" t="s">
+      <c r="R2" s="110" t="s">
         <v>161</v>
       </c>
-      <c r="S2" s="113" t="s">
+      <c r="S2" s="110" t="s">
         <v>162</v>
       </c>
-      <c r="T2" s="113" t="s">
+      <c r="T2" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="U2" s="113" t="s">
+      <c r="U2" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="V2" s="113" t="s">
+      <c r="V2" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="W2" s="113" t="s">
+      <c r="W2" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="X2" s="113" t="s">
+      <c r="X2" s="110" t="s">
         <v>178</v>
       </c>
-      <c r="Y2" s="113" t="s">
+      <c r="Y2" s="110" t="s">
         <v>179</v>
       </c>
-      <c r="Z2" s="113" t="s">
+      <c r="Z2" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="AA2" s="113" t="s">
+      <c r="AA2" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="AB2" s="113" t="s">
+      <c r="AB2" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="AC2" s="113" t="s">
+      <c r="AC2" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="AD2" s="113" t="s">
+      <c r="AD2" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="AE2" s="113" t="s">
+      <c r="AE2" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="AF2" s="113" t="s">
+      <c r="AF2" s="110" t="s">
         <v>186</v>
       </c>
-      <c r="AG2" s="113" t="s">
+      <c r="AG2" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="AH2" s="113" t="s">
+      <c r="AH2" s="110" t="s">
         <v>188</v>
       </c>
-      <c r="AI2" s="113" t="s">
+      <c r="AI2" s="110" t="s">
         <v>189</v>
       </c>
-      <c r="AJ2" s="113" t="s">
+      <c r="AJ2" s="110" t="s">
         <v>190</v>
       </c>
-      <c r="AK2" s="113" t="s">
+      <c r="AK2" s="110" t="s">
         <v>191</v>
       </c>
-      <c r="AL2" s="113" t="s">
+      <c r="AL2" s="110" t="s">
         <v>192</v>
       </c>
-      <c r="AM2" s="113" t="s">
+      <c r="AM2" s="110" t="s">
         <v>193</v>
       </c>
-      <c r="AN2" s="113" t="s">
+      <c r="AN2" s="110" t="s">
         <v>194</v>
       </c>
-      <c r="AO2" s="113" t="s">
+      <c r="AO2" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="AP2" s="113" t="s">
+      <c r="AP2" s="110" t="s">
         <v>196</v>
       </c>
-      <c r="AQ2" s="113" t="s">
+      <c r="AQ2" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="AR2" s="113" t="s">
+      <c r="AR2" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="AS2" s="113" t="s">
+      <c r="AS2" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="AT2" s="113" t="s">
+      <c r="AT2" s="110" t="s">
         <v>200</v>
       </c>
-      <c r="AU2" s="113" t="s">
+      <c r="AU2" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="AV2" s="113" t="s">
+      <c r="AV2" s="110" t="s">
         <v>202</v>
       </c>
-      <c r="AW2" s="113" t="s">
+      <c r="AW2" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="AX2" s="113" t="s">
+      <c r="AX2" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="AY2" s="113" t="s">
+      <c r="AY2" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="AZ2" s="113" t="s">
+      <c r="AZ2" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="BA2" s="114" t="s">
+      <c r="BA2" s="111" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="115">
-        <v>1</v>
-      </c>
-      <c r="C3" s="115">
-        <v>1</v>
-      </c>
-      <c r="D3" s="115">
-        <v>1</v>
-      </c>
-      <c r="E3" s="115">
-        <v>1</v>
-      </c>
-      <c r="F3" s="115">
-        <v>1</v>
-      </c>
-      <c r="G3" s="115">
-        <v>1</v>
-      </c>
-      <c r="H3" s="115">
-        <v>1</v>
-      </c>
-      <c r="I3" s="115">
-        <v>1</v>
-      </c>
-      <c r="J3" s="115">
-        <v>1</v>
-      </c>
-      <c r="K3" s="115">
-        <v>1</v>
-      </c>
-      <c r="L3" s="115">
-        <v>1</v>
-      </c>
-      <c r="M3" s="115">
-        <v>1</v>
-      </c>
-      <c r="N3" s="115">
-        <v>1</v>
-      </c>
-      <c r="O3" s="115">
-        <v>1</v>
-      </c>
-      <c r="P3" s="115">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="115">
-        <v>1</v>
-      </c>
-      <c r="R3" s="115">
-        <v>1</v>
-      </c>
-      <c r="S3" s="115">
-        <v>1</v>
-      </c>
-      <c r="T3" s="115">
-        <v>1</v>
-      </c>
-      <c r="U3" s="115">
-        <v>1</v>
-      </c>
-      <c r="V3" s="115">
-        <v>1</v>
-      </c>
-      <c r="W3" s="115">
-        <v>1</v>
-      </c>
-      <c r="X3" s="115">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="115">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="115">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="115">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="116">
+      <c r="B3" s="112">
+        <v>1</v>
+      </c>
+      <c r="C3" s="112">
+        <v>1</v>
+      </c>
+      <c r="D3" s="112">
+        <v>1</v>
+      </c>
+      <c r="E3" s="112">
+        <v>1</v>
+      </c>
+      <c r="F3" s="112">
+        <v>1</v>
+      </c>
+      <c r="G3" s="112">
+        <v>1</v>
+      </c>
+      <c r="H3" s="112">
+        <v>1</v>
+      </c>
+      <c r="I3" s="112">
+        <v>1</v>
+      </c>
+      <c r="J3" s="112">
+        <v>1</v>
+      </c>
+      <c r="K3" s="112">
+        <v>1</v>
+      </c>
+      <c r="L3" s="112">
+        <v>1</v>
+      </c>
+      <c r="M3" s="112">
+        <v>1</v>
+      </c>
+      <c r="N3" s="112">
+        <v>1</v>
+      </c>
+      <c r="O3" s="112">
+        <v>1</v>
+      </c>
+      <c r="P3" s="112">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="112">
+        <v>1</v>
+      </c>
+      <c r="R3" s="112">
+        <v>1</v>
+      </c>
+      <c r="S3" s="112">
+        <v>1</v>
+      </c>
+      <c r="T3" s="112">
+        <v>1</v>
+      </c>
+      <c r="U3" s="112">
+        <v>1</v>
+      </c>
+      <c r="V3" s="112">
+        <v>1</v>
+      </c>
+      <c r="W3" s="112">
+        <v>1</v>
+      </c>
+      <c r="X3" s="112">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="112">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="112">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="112">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="113">
         <v>1</v>
       </c>
     </row>
@@ -18843,16 +18828,16 @@
       <c r="BA5" s="11">
         <v>1</v>
       </c>
-      <c r="BD5" s="93"/>
+      <c r="BD5" s="90"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B9" s="95"/>
+      <c r="B9" s="92"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F10" s="96"/>
+      <c r="F10" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19130,7 +19115,7 @@
       <c r="A2" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="103" t="s">
         <v>281</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -19141,7 +19126,7 @@
       <c r="A3" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="104" t="s">
         <v>278</v>
       </c>
       <c r="C3" s="34">
@@ -19152,7 +19137,7 @@
       <c r="A4" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="104" t="s">
         <v>278</v>
       </c>
       <c r="C4" s="34">
@@ -19163,7 +19148,7 @@
       <c r="A5" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="104" t="s">
         <v>279</v>
       </c>
       <c r="C5" s="34">
@@ -19174,32 +19159,32 @@
       <c r="A6" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="105" t="s">
         <v>279</v>
       </c>
       <c r="C6" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-    </row>
-    <row r="8" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-    </row>
-    <row r="9" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-    </row>
-    <row r="10" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
+    <row r="7" spans="1:3" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+    </row>
+    <row r="8" spans="1:3" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+    </row>
+    <row r="9" spans="1:3" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+    </row>
+    <row r="10" spans="1:3" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19555,10 +19540,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="119">
+      <c r="B17" s="116">
         <v>98</v>
       </c>
     </row>
@@ -19587,10 +19572,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="119">
+      <c r="B21" s="116">
         <v>95</v>
       </c>
     </row>
@@ -19897,16 +19882,16 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="120">
+      <c r="B17" s="117">
         <v>11.5</v>
       </c>
-      <c r="C17" s="120">
+      <c r="C17" s="117">
         <v>12</v>
       </c>
-      <c r="D17" s="119">
+      <c r="D17" s="116">
         <v>2.5</v>
       </c>
     </row>
@@ -20083,13 +20068,16 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -20102,15 +20090,23 @@
       <c r="A2" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="120">
         <v>2</v>
       </c>
     </row>
@@ -20379,7 +20375,7 @@
       <c r="A2" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="100" t="s">
         <v>281</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -20393,10 +20389,10 @@
       <c r="A3" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="101" t="s">
         <v>278</v>
       </c>
-      <c r="C3" s="100">
+      <c r="C3" s="97">
         <v>10</v>
       </c>
       <c r="D3" s="37">
@@ -20407,10 +20403,10 @@
       <c r="A4" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="101" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="112">
+      <c r="C4" s="109">
         <v>10</v>
       </c>
       <c r="D4" s="37">
@@ -20421,10 +20417,10 @@
       <c r="A5" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="101" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="112">
+      <c r="C5" s="109">
         <v>12</v>
       </c>
       <c r="D5" s="37">
@@ -20435,10 +20431,10 @@
       <c r="A6" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="102" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="101">
+      <c r="C6" s="98">
         <v>12</v>
       </c>
       <c r="D6" s="39">
@@ -20581,7 +20577,9 @@
   </sheetPr>
   <dimension ref="A1:AN61"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -20690,7 +20688,7 @@
       <c r="AF2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" s="103" t="s">
+      <c r="AG2" s="100" t="s">
         <v>120</v>
       </c>
       <c r="AH2" s="7" t="s">
@@ -20812,7 +20810,7 @@
       <c r="AF3" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG3" s="117" t="s">
+      <c r="AG3" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH3" s="45" t="s">
@@ -20934,7 +20932,7 @@
       <c r="AF4" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG4" s="117" t="s">
+      <c r="AG4" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH4" s="45" t="s">
@@ -21056,7 +21054,7 @@
       <c r="AF5" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG5" s="117" t="s">
+      <c r="AG5" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH5" s="45" t="s">
@@ -21178,7 +21176,7 @@
       <c r="AF6" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG6" s="117" t="s">
+      <c r="AG6" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH6" s="45" t="s">
@@ -21300,7 +21298,7 @@
       <c r="AF7" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG7" s="117" t="s">
+      <c r="AG7" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH7" s="45" t="s">
@@ -21422,7 +21420,7 @@
       <c r="AF8" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG8" s="117" t="s">
+      <c r="AG8" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH8" s="45" t="s">
@@ -21544,7 +21542,7 @@
       <c r="AF9" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG9" s="117" t="s">
+      <c r="AG9" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH9" s="45" t="s">
@@ -21666,7 +21664,7 @@
       <c r="AF10" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG10" s="117" t="s">
+      <c r="AG10" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH10" s="45" t="s">
@@ -21788,7 +21786,7 @@
       <c r="AF11" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG11" s="117" t="s">
+      <c r="AG11" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH11" s="45" t="s">
@@ -21910,7 +21908,7 @@
       <c r="AF12" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG12" s="117" t="s">
+      <c r="AG12" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH12" s="45" t="s">
@@ -22032,7 +22030,7 @@
       <c r="AF13" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG13" s="117" t="s">
+      <c r="AG13" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH13" s="45" t="s">
@@ -22154,7 +22152,7 @@
       <c r="AF14" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG14" s="117" t="s">
+      <c r="AG14" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH14" s="45" t="s">
@@ -22276,7 +22274,7 @@
       <c r="AF15" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG15" s="117" t="s">
+      <c r="AG15" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH15" s="45" t="s">
@@ -22398,7 +22396,7 @@
       <c r="AF16" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG16" s="117" t="s">
+      <c r="AG16" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH16" s="45" t="s">
@@ -22520,7 +22518,7 @@
       <c r="AF17" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="AG17" s="118" t="s">
+      <c r="AG17" s="115" t="s">
         <v>235</v>
       </c>
       <c r="AH17" s="10" t="s">
@@ -22642,7 +22640,7 @@
       <c r="AF18" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="AG18" s="104" t="s">
+      <c r="AG18" s="101" t="s">
         <v>235</v>
       </c>
       <c r="AH18" s="45">
@@ -22764,7 +22762,7 @@
       <c r="AF19" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="AG19" s="104" t="s">
+      <c r="AG19" s="101" t="s">
         <v>235</v>
       </c>
       <c r="AH19" s="45">
@@ -22886,7 +22884,7 @@
       <c r="AF20" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="AG20" s="104" t="s">
+      <c r="AG20" s="101" t="s">
         <v>235</v>
       </c>
       <c r="AH20" s="45" t="s">
@@ -23008,7 +23006,7 @@
       <c r="AF21" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="AG21" s="105" t="s">
+      <c r="AG21" s="102" t="s">
         <v>235</v>
       </c>
       <c r="AH21" s="10" t="s">
@@ -23037,10 +23035,10 @@
       <c r="A22" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="C22" s="52">
+      <c r="B22" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="51">
         <v>40.752409775985356</v>
       </c>
       <c r="D22" s="45" t="s">
@@ -23124,13 +23122,13 @@
       <c r="AD22" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="AE22" s="52">
+      <c r="AE22" s="51">
         <v>41.716999999999999</v>
       </c>
       <c r="AF22" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG22" s="117" t="s">
+      <c r="AG22" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH22" s="45" t="s">
@@ -23159,10 +23157,10 @@
       <c r="A23" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="51">
         <v>40.752409775985356</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="51" t="s">
         <v>235</v>
       </c>
       <c r="D23" s="45">
@@ -23252,7 +23250,7 @@
       <c r="AF23" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG23" s="117" t="s">
+      <c r="AG23" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH23" s="45" t="s">
@@ -23374,7 +23372,7 @@
       <c r="AF24" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG24" s="117" t="s">
+      <c r="AG24" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH24" s="45" t="s">
@@ -23496,7 +23494,7 @@
       <c r="AF25" s="45">
         <v>13.163</v>
       </c>
-      <c r="AG25" s="117" t="s">
+      <c r="AG25" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH25" s="45" t="s">
@@ -23528,7 +23526,7 @@
       <c r="B26" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="51">
         <v>18.141999999999999</v>
       </c>
       <c r="D26" s="45" t="s">
@@ -23618,7 +23616,7 @@
       <c r="AF26" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG26" s="117" t="s">
+      <c r="AG26" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH26" s="45" t="s">
@@ -23740,7 +23738,7 @@
       <c r="AF27" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG27" s="117" t="s">
+      <c r="AG27" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH27" s="45" t="s">
@@ -23862,7 +23860,7 @@
       <c r="AF28" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG28" s="117" t="s">
+      <c r="AG28" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH28" s="45" t="s">
@@ -23984,7 +23982,7 @@
       <c r="AF29" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG29" s="117" t="s">
+      <c r="AG29" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH29" s="45">
@@ -24106,7 +24104,7 @@
       <c r="AF30" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG30" s="117" t="s">
+      <c r="AG30" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH30" s="45" t="s">
@@ -24228,7 +24226,7 @@
       <c r="AF31" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG31" s="117" t="s">
+      <c r="AG31" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH31" s="45" t="s">
@@ -24350,7 +24348,7 @@
       <c r="AF32" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG32" s="117" t="s">
+      <c r="AG32" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH32" s="45" t="s">
@@ -24472,7 +24470,7 @@
       <c r="AF33" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG33" s="117" t="s">
+      <c r="AG33" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH33" s="45" t="s">
@@ -24594,7 +24592,7 @@
       <c r="AF34" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG34" s="117" t="s">
+      <c r="AG34" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH34" s="45" t="s">
@@ -24716,7 +24714,7 @@
       <c r="AF35" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG35" s="117" t="s">
+      <c r="AG35" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH35" s="45" t="s">
@@ -24838,7 +24836,7 @@
       <c r="AF36" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG36" s="117" t="s">
+      <c r="AG36" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH36" s="45" t="s">
@@ -24960,7 +24958,7 @@
       <c r="AF37" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG37" s="117" t="s">
+      <c r="AG37" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH37" s="45" t="s">
@@ -25082,7 +25080,7 @@
       <c r="AF38" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG38" s="117">
+      <c r="AG38" s="114">
         <v>64.859913942891041</v>
       </c>
       <c r="AH38" s="45" t="s">
@@ -25204,7 +25202,7 @@
       <c r="AF39" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG39" s="117">
+      <c r="AG39" s="114">
         <v>34.19</v>
       </c>
       <c r="AH39" s="45" t="s">
@@ -25326,7 +25324,7 @@
       <c r="AF40" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG40" s="117" t="s">
+      <c r="AG40" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH40" s="45" t="s">
@@ -25448,7 +25446,7 @@
       <c r="AF41" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG41" s="117" t="s">
+      <c r="AG41" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH41" s="45" t="s">
@@ -25570,7 +25568,7 @@
       <c r="AF42" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG42" s="117" t="s">
+      <c r="AG42" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH42" s="45" t="s">
@@ -25692,7 +25690,7 @@
       <c r="AF43" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG43" s="117" t="s">
+      <c r="AG43" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH43" s="45" t="s">
@@ -25814,7 +25812,7 @@
       <c r="AF44" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG44" s="117" t="s">
+      <c r="AG44" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH44" s="45" t="s">
@@ -25936,7 +25934,7 @@
       <c r="AF45" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG45" s="117" t="s">
+      <c r="AG45" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH45" s="45" t="s">
@@ -26058,7 +26056,7 @@
       <c r="AF46" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG46" s="117" t="s">
+      <c r="AG46" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH46" s="45" t="s">
@@ -26180,7 +26178,7 @@
       <c r="AF47" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG47" s="117" t="s">
+      <c r="AG47" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH47" s="45" t="s">
@@ -26302,7 +26300,7 @@
       <c r="AF48" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG48" s="117" t="s">
+      <c r="AG48" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH48" s="45" t="s">
@@ -26424,7 +26422,7 @@
       <c r="AF49" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG49" s="117" t="s">
+      <c r="AG49" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH49" s="45" t="s">
@@ -26546,7 +26544,7 @@
       <c r="AF50" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="AG50" s="118" t="s">
+      <c r="AG50" s="115" t="s">
         <v>235</v>
       </c>
       <c r="AH50" s="10" t="s">
@@ -26668,7 +26666,7 @@
       <c r="AF51" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="AG51" s="118" t="s">
+      <c r="AG51" s="115" t="s">
         <v>235</v>
       </c>
       <c r="AH51" s="10" t="s">
@@ -26790,7 +26788,7 @@
       <c r="AF52" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG52" s="117" t="s">
+      <c r="AG52" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH52" s="45" t="s">
@@ -26912,7 +26910,7 @@
       <c r="AF53" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG53" s="117" t="s">
+      <c r="AG53" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH53" s="45" t="s">
@@ -27034,7 +27032,7 @@
       <c r="AF54" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG54" s="117" t="s">
+      <c r="AG54" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH54" s="45" t="s">
@@ -27156,7 +27154,7 @@
       <c r="AF55" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG55" s="117" t="s">
+      <c r="AG55" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH55" s="45" t="s">
@@ -27278,7 +27276,7 @@
       <c r="AF56" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG56" s="117" t="s">
+      <c r="AG56" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH56" s="45" t="s">
@@ -27400,7 +27398,7 @@
       <c r="AF57" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG57" s="117" t="s">
+      <c r="AG57" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH57" s="45" t="s">
@@ -27522,7 +27520,7 @@
       <c r="AF58" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG58" s="117" t="s">
+      <c r="AG58" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH58" s="45" t="s">
@@ -27644,7 +27642,7 @@
       <c r="AF59" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="AG59" s="118" t="s">
+      <c r="AG59" s="115" t="s">
         <v>235</v>
       </c>
       <c r="AH59" s="10" t="s">
@@ -27766,7 +27764,7 @@
       <c r="AF60" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="AG60" s="117" t="s">
+      <c r="AG60" s="114" t="s">
         <v>235</v>
       </c>
       <c r="AH60" s="45" t="s">
@@ -27886,7 +27884,7 @@
       <c r="AF61" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="AG61" s="118" t="s">
+      <c r="AG61" s="115" t="s">
         <v>235</v>
       </c>
       <c r="AH61" s="10" t="s">
@@ -27938,10 +27936,10 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>209</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -27957,65 +27955,65 @@
       <c r="A3" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="49">
         <v>30</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="57"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="49">
         <v>30</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="57"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="49">
         <v>30</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="57"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="59">
         <v>30</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28121,8 +28119,8 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28157,7 +28155,7 @@
       <c r="A2" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="103" t="s">
         <v>281</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -28168,7 +28166,7 @@
       <c r="A3" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="104" t="s">
         <v>278</v>
       </c>
       <c r="C3" s="34">
@@ -28179,7 +28177,7 @@
       <c r="A4" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="104" t="s">
         <v>278</v>
       </c>
       <c r="C4" s="34">
@@ -28190,7 +28188,7 @@
       <c r="A5" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="104" t="s">
         <v>279</v>
       </c>
       <c r="C5" s="34">
@@ -28201,7 +28199,7 @@
       <c r="A6" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="105" t="s">
         <v>279</v>
       </c>
       <c r="C6" s="35">
@@ -28209,24 +28207,24 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28256,7 +28254,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="106" t="s">
         <v>281</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -28264,7 +28262,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="107" t="s">
         <v>278</v>
       </c>
       <c r="B3" s="37">
@@ -28272,7 +28270,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="108" t="s">
         <v>279</v>
       </c>
       <c r="B4" s="39">
@@ -28406,7 +28404,7 @@
       <c r="A2" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="94" t="s">
         <v>211</v>
       </c>
     </row>
@@ -28414,7 +28412,7 @@
       <c r="A3" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="92">
+      <c r="B3" s="89">
         <v>0</v>
       </c>
     </row>
@@ -28422,25 +28420,25 @@
       <c r="A4" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="94">
+      <c r="B4" s="91">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28466,7 +28464,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="88" t="s">
         <v>212</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -28490,10 +28488,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="53">
         <v>0</v>
       </c>
     </row>
@@ -28549,7 +28547,7 @@
       <c r="A4" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="50">
         <v>0.03</v>
       </c>
     </row>
@@ -28589,7 +28587,7 @@
       <c r="A3" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="55">
+      <c r="B3" s="54">
         <v>0.08</v>
       </c>
     </row>
@@ -28630,15 +28628,15 @@
       <c r="A2" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="63">
         <v>142277</v>
       </c>
     </row>
@@ -28646,7 +28644,7 @@
       <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="64">
         <v>140998</v>
       </c>
     </row>
@@ -28654,7 +28652,7 @@
       <c r="A5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="64">
         <v>172490.2</v>
       </c>
     </row>
@@ -28662,7 +28660,7 @@
       <c r="A6" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="64">
         <v>257547</v>
       </c>
     </row>
@@ -28670,7 +28668,7 @@
       <c r="A7" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="64">
         <v>241833.8</v>
       </c>
     </row>
@@ -28678,7 +28676,7 @@
       <c r="A8" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <v>188503.7</v>
       </c>
     </row>
@@ -28686,7 +28684,7 @@
       <c r="A9" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="64">
         <v>146716</v>
       </c>
     </row>
@@ -28694,7 +28692,7 @@
       <c r="A10" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="64">
         <v>216563</v>
       </c>
     </row>
@@ -28702,7 +28700,7 @@
       <c r="A11" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="64">
         <v>150626</v>
       </c>
     </row>
@@ -28710,7 +28708,7 @@
       <c r="A12" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="64">
         <v>247061</v>
       </c>
     </row>
@@ -28718,7 +28716,7 @@
       <c r="A13" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="65">
+      <c r="B13" s="64">
         <v>180968</v>
       </c>
     </row>
@@ -28726,7 +28724,7 @@
       <c r="A14" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="65">
+      <c r="B14" s="64">
         <v>195584</v>
       </c>
     </row>
@@ -28734,7 +28732,7 @@
       <c r="A15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="64">
         <v>148655</v>
       </c>
     </row>
@@ -28742,7 +28740,7 @@
       <c r="A16" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="65">
+      <c r="B16" s="64">
         <v>185369</v>
       </c>
     </row>
@@ -28750,7 +28748,7 @@
       <c r="A17" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="65">
+      <c r="B17" s="64">
         <v>222724</v>
       </c>
     </row>
@@ -28758,7 +28756,7 @@
       <c r="A18" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="64">
         <v>165376</v>
       </c>
     </row>
@@ -28766,7 +28764,7 @@
       <c r="A19" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="65">
+      <c r="B19" s="64">
         <v>240977</v>
       </c>
     </row>
@@ -28774,7 +28772,7 @@
       <c r="A20" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="65">
+      <c r="B20" s="64">
         <v>192794</v>
       </c>
     </row>
@@ -28782,7 +28780,7 @@
       <c r="A21" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="66">
+      <c r="B21" s="65">
         <v>216769</v>
       </c>
     </row>
@@ -28797,9 +28795,11 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28816,15 +28816,23 @@
       <c r="A2" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="68">
+      <c r="B3" s="63">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="65">
         <v>150000</v>
       </c>
     </row>
@@ -28857,7 +28865,7 @@
       <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>234</v>
       </c>
     </row>
@@ -28865,7 +28873,7 @@
       <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="64">
         <v>150000</v>
       </c>
     </row>
@@ -28873,7 +28881,7 @@
       <c r="A4" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="64">
         <v>150000</v>
       </c>
     </row>
@@ -28881,7 +28889,7 @@
       <c r="A5" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="64">
         <v>150000</v>
       </c>
     </row>
@@ -28889,7 +28897,7 @@
       <c r="A6" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="65">
         <v>150000</v>
       </c>
     </row>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D43CC38-0AF5-4A0F-B571-74B129849EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E837EB5-79F2-4868-A217-1F0ECF4F19A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="66" activeTab="74" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="16" activeTab="28" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -7519,8 +7519,8 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7553,17 +7553,13 @@
       <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="31">
-        <v>1</v>
-      </c>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
+      <c r="B4" s="10"/>
       <c r="C4" s="11">
         <v>1</v>
       </c>
@@ -7917,7 +7913,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8847,7 +8843,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28797,7 +28793,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/pareto/case_studies/small_strategic_case_study.xlsx
+++ b/pareto/case_studies/small_strategic_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E837EB5-79F2-4868-A217-1F0ECF4F19A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206C3D79-16B5-46C6-B1FA-2C40CAD599B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="16" activeTab="28" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="57" activeTab="63" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -127,7 +127,7 @@
     Distances between completion pads and treatment facilities (layflat lines) are calculated as a straight distance times 1.3 (tortuosity factor)</t>
       </text>
     </comment>
-    <comment ref="AK52" authorId="1" shapeId="0" xr:uid="{73C42E42-FD7C-4D27-B4AB-C60DCE16A4F0}">
+    <comment ref="AL53" authorId="1" shapeId="0" xr:uid="{73C42E42-FD7C-4D27-B4AB-C60DCE16A4F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3518" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="288">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -2490,7 +2490,7 @@
   <threadedComment ref="AH18" dT="2021-10-28T19:21:23.79" personId="{A27FE360-11C9-41C0-8DD1-3D48792D63D9}" id="{8BBED3CB-32CA-4E76-99CF-953408376B07}">
     <text>Distances between completion pads and treatment facilities (layflat lines) are calculated as a straight distance times 1.3 (tortuosity factor)</text>
   </threadedComment>
-  <threadedComment ref="AK52" dT="2021-10-28T19:18:35.38" personId="{A27FE360-11C9-41C0-8DD1-3D48792D63D9}" id="{73C42E42-FD7C-4D27-B4AB-C60DCE16A4F0}">
+  <threadedComment ref="AL53" dT="2021-10-28T19:18:35.38" personId="{A27FE360-11C9-41C0-8DD1-3D48792D63D9}" id="{73C42E42-FD7C-4D27-B4AB-C60DCE16A4F0}">
     <text>Distances between fresh water sources and completion pads are assumed, not measured from the diagram</text>
   </threadedComment>
 </ThreadedComments>
@@ -7519,7 +7519,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -7913,7 +7913,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13703,10 +13703,10 @@
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
   </sheetPr>
-  <dimension ref="A1:AM53"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13714,7 +13714,7 @@
     <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites  [bbl/week]</v>
@@ -13757,31 +13757,33 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>209</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="G2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>82</v>
@@ -13802,34 +13804,34 @@
         <v>131</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y2" s="7" t="s">
         <v>142</v>
@@ -13856,10 +13858,10 @@
         <v>149</v>
       </c>
       <c r="AG2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH2" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="AI2" s="7" t="s">
         <v>79</v>
@@ -13871,25 +13873,31 @@
         <v>78</v>
       </c>
       <c r="AL2" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AM2" s="27" t="s">
+      <c r="AN2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO2" s="27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="36">
-        <v>300000</v>
-      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="H3" s="36">
+        <v>300000</v>
+      </c>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
       <c r="K3" s="36"/>
@@ -13919,20 +13927,22 @@
       <c r="AI3" s="36"/>
       <c r="AJ3" s="36"/>
       <c r="AK3" s="36"/>
-      <c r="AL3" s="36">
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36">
         <v>100000</v>
       </c>
-      <c r="AM3" s="37"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="37"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
@@ -13941,10 +13951,10 @@
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="43">
+      <c r="O4" s="43">
         <v>100000</v>
       </c>
+      <c r="P4" s="36"/>
       <c r="Q4" s="36"/>
       <c r="R4" s="36"/>
       <c r="S4" s="36"/>
@@ -13969,17 +13979,19 @@
         <v>150000</v>
       </c>
       <c r="AL4" s="36"/>
-      <c r="AM4" s="37"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="37"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
@@ -13995,10 +14007,10 @@
       <c r="S5" s="36"/>
       <c r="T5" s="36"/>
       <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="43">
+      <c r="V5" s="43">
         <v>150000</v>
       </c>
+      <c r="W5" s="36"/>
       <c r="X5" s="36"/>
       <c r="Y5" s="36"/>
       <c r="Z5" s="36"/>
@@ -14016,21 +14028,19 @@
         <v>150000</v>
       </c>
       <c r="AL5" s="36"/>
-      <c r="AM5" s="37"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="37"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="B6" s="36"/>
       <c r="C6" s="36"/>
-      <c r="D6" s="36">
-        <v>350000</v>
-      </c>
-      <c r="E6" s="36">
-        <v>300000</v>
-      </c>
-      <c r="F6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
@@ -14046,8 +14056,8 @@
       <c r="S6" s="36"/>
       <c r="T6" s="36"/>
       <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="36"/>
       <c r="X6" s="36"/>
       <c r="Y6" s="36"/>
       <c r="Z6" s="36"/>
@@ -14061,26 +14071,26 @@
       <c r="AH6" s="36"/>
       <c r="AI6" s="36"/>
       <c r="AJ6" s="36"/>
-      <c r="AK6" s="36">
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="37"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="36">
+        <v>350000</v>
+      </c>
+      <c r="C7" s="36">
         <v>300000</v>
       </c>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="37"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="36"/>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="36">
-        <v>250000</v>
-      </c>
-      <c r="G7" s="36">
-        <v>300000</v>
-      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
@@ -14095,8 +14105,8 @@
       <c r="S7" s="36"/>
       <c r="T7" s="36"/>
       <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="36"/>
       <c r="X7" s="36"/>
       <c r="Y7" s="36"/>
       <c r="Z7" s="36"/>
@@ -14110,23 +14120,29 @@
       <c r="AH7" s="36"/>
       <c r="AI7" s="36"/>
       <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
+      <c r="AK7" s="36">
+        <v>300000</v>
+      </c>
       <c r="AL7" s="36"/>
-      <c r="AM7" s="37"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="37"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="B8" s="36"/>
       <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="36">
+        <v>250000</v>
+      </c>
+      <c r="E8" s="36">
+        <v>300000</v>
+      </c>
+      <c r="F8" s="9"/>
       <c r="G8" s="36"/>
-      <c r="H8" s="36">
-        <v>50000</v>
-      </c>
+      <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
@@ -14140,8 +14156,8 @@
       <c r="S8" s="36"/>
       <c r="T8" s="36"/>
       <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="36"/>
       <c r="X8" s="36"/>
       <c r="Y8" s="36"/>
       <c r="Z8" s="36"/>
@@ -14157,27 +14173,25 @@
       <c r="AJ8" s="36"/>
       <c r="AK8" s="36"/>
       <c r="AL8" s="36"/>
-      <c r="AM8" s="37"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="37"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="9">
-        <v>50000</v>
-      </c>
-      <c r="C9" s="36">
-        <v>300000</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="36">
+        <v>50000</v>
+      </c>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
-      <c r="J9" s="36">
-        <v>300000</v>
-      </c>
+      <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
       <c r="M9" s="36"/>
@@ -14189,7 +14203,7 @@
       <c r="S9" s="36"/>
       <c r="T9" s="36"/>
       <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
+      <c r="V9" s="43"/>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
       <c r="Y9" s="36"/>
@@ -14206,27 +14220,29 @@
       <c r="AJ9" s="36"/>
       <c r="AK9" s="36"/>
       <c r="AL9" s="36"/>
-      <c r="AM9" s="37"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="37"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="B10" s="36"/>
       <c r="C10" s="36"/>
-      <c r="D10" s="36">
-        <v>300000</v>
-      </c>
+      <c r="D10" s="36"/>
       <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="F10" s="9">
+        <v>50000</v>
+      </c>
       <c r="G10" s="36"/>
       <c r="H10" s="36">
         <v>300000</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="36"/>
+      <c r="J10" s="36">
         <v>300000</v>
       </c>
-      <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
@@ -14255,32 +14271,34 @@
       <c r="AJ10" s="36"/>
       <c r="AK10" s="36"/>
       <c r="AL10" s="36"/>
-      <c r="AM10" s="37"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="37"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="36">
+        <v>81</v>
+      </c>
+      <c r="B11" s="36">
         <v>300000</v>
       </c>
+      <c r="C11" s="36"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="36">
+        <v>300000</v>
+      </c>
       <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="I11" s="36">
+        <v>300000</v>
+      </c>
       <c r="J11" s="36"/>
-      <c r="K11" s="36">
-        <v>300000</v>
-      </c>
+      <c r="K11" s="36"/>
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
-      <c r="O11" s="36">
-        <v>300000</v>
-      </c>
+      <c r="O11" s="36"/>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
       <c r="R11" s="36"/>
@@ -14304,28 +14322,30 @@
       <c r="AJ11" s="36"/>
       <c r="AK11" s="36"/>
       <c r="AL11" s="36"/>
-      <c r="AM11" s="37"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="37"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="B12" s="36"/>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36">
         <v>300000</v>
       </c>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
+      <c r="K12" s="36">
+        <v>300000</v>
+      </c>
       <c r="L12" s="36"/>
-      <c r="M12" s="36">
-        <v>300000</v>
-      </c>
+      <c r="M12" s="36"/>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
       <c r="P12" s="36"/>
@@ -14351,28 +14371,32 @@
       <c r="AJ12" s="36"/>
       <c r="AK12" s="36"/>
       <c r="AL12" s="36"/>
-      <c r="AM12" s="37"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36">
+        <v>300000</v>
+      </c>
+      <c r="AO12" s="37"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="36">
+        <v>300000</v>
+      </c>
       <c r="H13" s="36"/>
-      <c r="I13" s="36">
-        <v>300000</v>
-      </c>
+      <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
-      <c r="L13" s="36">
+      <c r="L13" s="36"/>
+      <c r="M13" s="36">
         <v>300000</v>
       </c>
-      <c r="M13" s="36"/>
       <c r="N13" s="36"/>
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
@@ -14398,31 +14422,31 @@
       <c r="AJ13" s="36"/>
       <c r="AK13" s="36"/>
       <c r="AL13" s="36"/>
-      <c r="AM13" s="37"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="37"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="I14" s="36">
+        <v>300000</v>
+      </c>
       <c r="J14" s="36"/>
-      <c r="K14" s="36">
+      <c r="K14" s="36"/>
+      <c r="L14" s="36">
         <v>300000</v>
       </c>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36">
-        <v>300000</v>
-      </c>
-      <c r="N14" s="36">
-        <v>250000</v>
-      </c>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="36"/>
@@ -14447,29 +14471,33 @@
       <c r="AJ14" s="36"/>
       <c r="AK14" s="36"/>
       <c r="AL14" s="36"/>
-      <c r="AM14" s="37"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="37"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="36">
+      <c r="J15" s="36"/>
+      <c r="K15" s="36">
         <v>300000</v>
       </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36">
+      <c r="L15" s="36"/>
+      <c r="M15" s="36">
         <v>300000</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
+      <c r="N15" s="36">
+        <v>250000</v>
+      </c>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="36"/>
@@ -14490,40 +14518,38 @@
       <c r="AF15" s="36"/>
       <c r="AG15" s="36"/>
       <c r="AH15" s="36"/>
-      <c r="AI15" s="36">
-        <v>500000</v>
-      </c>
+      <c r="AI15" s="36"/>
       <c r="AJ15" s="36"/>
       <c r="AK15" s="36"/>
       <c r="AL15" s="36"/>
-      <c r="AM15" s="37"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="37"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
+      <c r="J16" s="36">
+        <v>300000</v>
+      </c>
       <c r="K16" s="36"/>
       <c r="L16" s="36">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
       <c r="O16" s="36"/>
-      <c r="P16" s="36">
-        <v>200000</v>
-      </c>
-      <c r="Q16" s="36">
-        <v>50000</v>
-      </c>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
       <c r="T16" s="36"/>
@@ -14541,37 +14567,43 @@
       <c r="AF16" s="36"/>
       <c r="AG16" s="36"/>
       <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
+      <c r="AI16" s="36">
+        <v>500000</v>
+      </c>
       <c r="AJ16" s="36"/>
       <c r="AK16" s="36"/>
       <c r="AL16" s="36"/>
-      <c r="AM16" s="37"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="37"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="9"/>
+        <v>131</v>
+      </c>
+      <c r="B17" s="36"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
+      <c r="L17" s="36">
+        <v>250000</v>
+      </c>
       <c r="M17" s="36"/>
-      <c r="N17" s="36">
+      <c r="N17" s="36"/>
+      <c r="O17" s="36">
         <v>200000</v>
       </c>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
+      <c r="P17" s="36">
+        <v>50000</v>
+      </c>
       <c r="Q17" s="36"/>
-      <c r="R17" s="36">
-        <v>150000</v>
-      </c>
+      <c r="R17" s="36"/>
       <c r="S17" s="36"/>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
@@ -14592,17 +14624,19 @@
       <c r="AJ17" s="36"/>
       <c r="AK17" s="36"/>
       <c r="AL17" s="36"/>
-      <c r="AM17" s="37"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="37"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="9"/>
+        <v>132</v>
+      </c>
+      <c r="B18" s="36"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
@@ -14611,15 +14645,15 @@
       <c r="L18" s="36"/>
       <c r="M18" s="36"/>
       <c r="N18" s="36">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
+      <c r="Q18" s="36">
+        <v>150000</v>
+      </c>
       <c r="R18" s="36"/>
-      <c r="S18" s="36">
-        <v>50000</v>
-      </c>
+      <c r="S18" s="36"/>
       <c r="T18" s="36"/>
       <c r="U18" s="36"/>
       <c r="V18" s="36"/>
@@ -14639,17 +14673,19 @@
       <c r="AJ18" s="36"/>
       <c r="AK18" s="36"/>
       <c r="AL18" s="36"/>
-      <c r="AM18" s="37"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="37"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="9"/>
+        <v>133</v>
+      </c>
+      <c r="B19" s="36"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
@@ -14657,17 +14693,17 @@
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
+      <c r="N19" s="36">
+        <v>50000</v>
+      </c>
       <c r="O19" s="36"/>
-      <c r="P19" s="36">
-        <v>150000</v>
-      </c>
+      <c r="P19" s="36"/>
       <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="R19" s="36">
+        <v>50000</v>
+      </c>
       <c r="S19" s="36"/>
-      <c r="T19" s="36">
-        <v>150000</v>
-      </c>
+      <c r="T19" s="36"/>
       <c r="U19" s="36"/>
       <c r="V19" s="36"/>
       <c r="W19" s="36"/>
@@ -14684,21 +14720,21 @@
       <c r="AH19" s="36"/>
       <c r="AI19" s="36"/>
       <c r="AJ19" s="36"/>
-      <c r="AK19" s="36">
-        <v>50000</v>
-      </c>
+      <c r="AK19" s="36"/>
       <c r="AL19" s="36"/>
-      <c r="AM19" s="37"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="37"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="B20" s="36"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -14707,16 +14743,16 @@
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
+      <c r="O20" s="36">
+        <v>150000</v>
+      </c>
       <c r="P20" s="36"/>
-      <c r="Q20" s="36">
-        <v>50000</v>
-      </c>
+      <c r="Q20" s="36"/>
       <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36">
-        <v>50000</v>
-      </c>
+      <c r="S20" s="36">
+        <v>150000</v>
+      </c>
+      <c r="T20" s="36"/>
       <c r="U20" s="36"/>
       <c r="V20" s="36"/>
       <c r="W20" s="36"/>
@@ -14733,19 +14769,23 @@
       <c r="AH20" s="36"/>
       <c r="AI20" s="36"/>
       <c r="AJ20" s="36"/>
-      <c r="AK20" s="36"/>
+      <c r="AK20" s="36">
+        <v>50000</v>
+      </c>
       <c r="AL20" s="36"/>
-      <c r="AM20" s="37"/>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="37"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="9"/>
+        <v>135</v>
+      </c>
+      <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
@@ -14755,11 +14795,11 @@
       <c r="M21" s="36"/>
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
+      <c r="P21" s="36">
+        <v>50000</v>
+      </c>
       <c r="Q21" s="36"/>
-      <c r="R21" s="36">
-        <v>150000</v>
-      </c>
+      <c r="R21" s="36"/>
       <c r="S21" s="36">
         <v>50000</v>
       </c>
@@ -14776,72 +14816,76 @@
       <c r="AD21" s="36"/>
       <c r="AE21" s="36"/>
       <c r="AF21" s="36"/>
-      <c r="AG21" s="36">
-        <v>200000</v>
-      </c>
+      <c r="AG21" s="36"/>
       <c r="AH21" s="36"/>
       <c r="AI21" s="36"/>
       <c r="AJ21" s="36"/>
       <c r="AK21" s="36"/>
       <c r="AL21" s="36"/>
-      <c r="AM21" s="37"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="37"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36">
+        <v>150000</v>
+      </c>
+      <c r="R22" s="36">
+        <v>50000</v>
+      </c>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36">
+        <v>200000</v>
+      </c>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="36"/>
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="36"/>
+      <c r="AN22" s="36"/>
+      <c r="AO22" s="37"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43">
-        <v>300000</v>
-      </c>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="43"/>
-      <c r="AF22" s="43"/>
-      <c r="AG22" s="43">
-        <v>300000</v>
-      </c>
-      <c r="AH22" s="43"/>
-      <c r="AI22" s="43"/>
-      <c r="AJ22" s="43"/>
-      <c r="AK22" s="43"/>
-      <c r="AL22" s="43"/>
-      <c r="AM22" s="37"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
@@ -14860,9 +14904,7 @@
         <v>300000</v>
       </c>
       <c r="V23" s="43"/>
-      <c r="W23" s="43">
-        <v>50000</v>
-      </c>
+      <c r="W23" s="43"/>
       <c r="X23" s="43"/>
       <c r="Y23" s="43"/>
       <c r="Z23" s="43"/>
@@ -14873,22 +14915,26 @@
       <c r="AE23" s="43"/>
       <c r="AF23" s="43"/>
       <c r="AG23" s="43"/>
-      <c r="AH23" s="43"/>
+      <c r="AH23" s="43">
+        <v>300000</v>
+      </c>
       <c r="AI23" s="43"/>
       <c r="AJ23" s="43"/>
       <c r="AK23" s="43"/>
       <c r="AL23" s="43"/>
-      <c r="AM23" s="37"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="37"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="9"/>
+        <v>138</v>
+      </c>
+      <c r="B24" s="43"/>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
       <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
       <c r="I24" s="43"/>
@@ -14902,7 +14948,9 @@
       <c r="Q24" s="43"/>
       <c r="R24" s="43"/>
       <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
+      <c r="T24" s="43">
+        <v>300000</v>
+      </c>
       <c r="U24" s="43"/>
       <c r="V24" s="43">
         <v>50000</v>
@@ -14923,19 +14971,19 @@
       <c r="AJ24" s="43"/>
       <c r="AK24" s="43"/>
       <c r="AL24" s="43"/>
-      <c r="AM24" s="37">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM24" s="43"/>
+      <c r="AN24" s="43"/>
+      <c r="AO24" s="37"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="B25" s="43"/>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
       <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
       <c r="I25" s="43"/>
@@ -14950,7 +14998,9 @@
       <c r="R25" s="43"/>
       <c r="S25" s="43"/>
       <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
+      <c r="U25" s="43">
+        <v>50000</v>
+      </c>
       <c r="V25" s="43"/>
       <c r="W25" s="43"/>
       <c r="X25" s="43"/>
@@ -14963,26 +15013,26 @@
       <c r="AE25" s="43"/>
       <c r="AF25" s="43"/>
       <c r="AG25" s="43"/>
-      <c r="AH25" s="43">
-        <v>300000</v>
-      </c>
+      <c r="AH25" s="43"/>
       <c r="AI25" s="43"/>
       <c r="AJ25" s="43"/>
       <c r="AK25" s="43"/>
       <c r="AL25" s="43"/>
-      <c r="AM25" s="37">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM25" s="43"/>
+      <c r="AN25" s="43"/>
+      <c r="AO25" s="37">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
       <c r="I26" s="43"/>
@@ -15005,9 +15055,7 @@
       </c>
       <c r="Y26" s="43"/>
       <c r="Z26" s="43"/>
-      <c r="AA26" s="43">
-        <v>300000</v>
-      </c>
+      <c r="AA26" s="43"/>
       <c r="AB26" s="43"/>
       <c r="AC26" s="43"/>
       <c r="AD26" s="43"/>
@@ -15019,17 +15067,21 @@
       <c r="AJ26" s="43"/>
       <c r="AK26" s="43"/>
       <c r="AL26" s="43"/>
-      <c r="AM26" s="37"/>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM26" s="43"/>
+      <c r="AN26" s="43"/>
+      <c r="AO26" s="37">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="9"/>
+        <v>141</v>
+      </c>
+      <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
       <c r="I27" s="43"/>
@@ -15046,39 +15098,39 @@
       <c r="T27" s="43"/>
       <c r="U27" s="43"/>
       <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
+      <c r="W27" s="43">
+        <v>300000</v>
+      </c>
       <c r="X27" s="43"/>
       <c r="Y27" s="43"/>
-      <c r="Z27" s="43">
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43">
         <v>300000</v>
       </c>
-      <c r="AA27" s="43"/>
       <c r="AB27" s="43"/>
       <c r="AC27" s="43"/>
       <c r="AD27" s="43"/>
       <c r="AE27" s="43"/>
       <c r="AF27" s="43"/>
-      <c r="AG27" s="43">
-        <v>300000</v>
-      </c>
+      <c r="AG27" s="43"/>
       <c r="AH27" s="43"/>
       <c r="AI27" s="43"/>
-      <c r="AJ27" s="43">
-        <v>500000</v>
-      </c>
+      <c r="AJ27" s="43"/>
       <c r="AK27" s="43"/>
       <c r="AL27" s="43"/>
-      <c r="AM27" s="37"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM27" s="43"/>
+      <c r="AN27" s="43"/>
+      <c r="AO27" s="37"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="9"/>
+        <v>142</v>
+      </c>
+      <c r="B28" s="43"/>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
       <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="43"/>
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
@@ -15097,35 +15149,39 @@
       <c r="V28" s="43"/>
       <c r="W28" s="43"/>
       <c r="X28" s="43"/>
-      <c r="Y28" s="43">
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43">
         <v>300000</v>
       </c>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="43">
-        <v>300000</v>
-      </c>
+      <c r="AA28" s="43"/>
       <c r="AB28" s="43"/>
       <c r="AC28" s="43"/>
       <c r="AD28" s="43"/>
       <c r="AE28" s="43"/>
       <c r="AF28" s="43"/>
       <c r="AG28" s="43"/>
-      <c r="AH28" s="43"/>
+      <c r="AH28" s="43">
+        <v>300000</v>
+      </c>
       <c r="AI28" s="43"/>
-      <c r="AJ28" s="43"/>
+      <c r="AJ28" s="43">
+        <v>500000</v>
+      </c>
       <c r="AK28" s="43"/>
       <c r="AL28" s="43"/>
-      <c r="AM28" s="37"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM28" s="43"/>
+      <c r="AN28" s="43"/>
+      <c r="AO28" s="37"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="9"/>
+        <v>143</v>
+      </c>
+      <c r="B29" s="43"/>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
       <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="43"/>
       <c r="H29" s="43"/>
       <c r="I29" s="43"/>
@@ -15144,14 +15200,14 @@
       <c r="V29" s="43"/>
       <c r="W29" s="43"/>
       <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43">
+      <c r="Y29" s="43">
         <v>300000</v>
       </c>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="43">
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43">
         <v>300000</v>
       </c>
+      <c r="AB29" s="43"/>
       <c r="AC29" s="43"/>
       <c r="AD29" s="43"/>
       <c r="AE29" s="43"/>
@@ -15162,17 +15218,19 @@
       <c r="AJ29" s="43"/>
       <c r="AK29" s="43"/>
       <c r="AL29" s="43"/>
-      <c r="AM29" s="37"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="43"/>
+      <c r="AO29" s="37"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" s="9"/>
+        <v>144</v>
+      </c>
+      <c r="B30" s="43"/>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="43"/>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
@@ -15192,14 +15250,14 @@
       <c r="W30" s="43"/>
       <c r="X30" s="43"/>
       <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43">
-        <v>100000</v>
-      </c>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="43">
-        <v>100000</v>
-      </c>
+      <c r="Z30" s="43">
+        <v>300000</v>
+      </c>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43">
+        <v>300000</v>
+      </c>
+      <c r="AC30" s="43"/>
       <c r="AD30" s="43"/>
       <c r="AE30" s="43"/>
       <c r="AF30" s="43"/>
@@ -15209,17 +15267,19 @@
       <c r="AJ30" s="43"/>
       <c r="AK30" s="43"/>
       <c r="AL30" s="43"/>
-      <c r="AM30" s="37"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM30" s="43"/>
+      <c r="AN30" s="43"/>
+      <c r="AO30" s="37"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="9"/>
+        <v>145</v>
+      </c>
+      <c r="B31" s="43"/>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
       <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
       <c r="I31" s="43"/>
@@ -15240,14 +15300,14 @@
       <c r="X31" s="43"/>
       <c r="Y31" s="43"/>
       <c r="Z31" s="43"/>
-      <c r="AA31" s="43"/>
-      <c r="AB31" s="43">
+      <c r="AA31" s="43">
         <v>100000</v>
       </c>
-      <c r="AC31" s="43"/>
-      <c r="AD31" s="43">
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="43">
         <v>100000</v>
       </c>
+      <c r="AD31" s="43"/>
       <c r="AE31" s="43"/>
       <c r="AF31" s="43"/>
       <c r="AG31" s="43"/>
@@ -15256,17 +15316,19 @@
       <c r="AJ31" s="43"/>
       <c r="AK31" s="43"/>
       <c r="AL31" s="43"/>
-      <c r="AM31" s="37"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM31" s="43"/>
+      <c r="AN31" s="43"/>
+      <c r="AO31" s="37"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32" s="9"/>
+        <v>146</v>
+      </c>
+      <c r="B32" s="43"/>
       <c r="C32" s="43"/>
       <c r="D32" s="43"/>
       <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
       <c r="I32" s="43"/>
@@ -15288,14 +15350,14 @@
       <c r="Y32" s="43"/>
       <c r="Z32" s="43"/>
       <c r="AA32" s="43"/>
-      <c r="AB32" s="43"/>
-      <c r="AC32" s="43">
+      <c r="AB32" s="43">
         <v>100000</v>
       </c>
-      <c r="AD32" s="43"/>
-      <c r="AE32" s="43">
-        <v>50000</v>
-      </c>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="43">
+        <v>100000</v>
+      </c>
+      <c r="AE32" s="43"/>
       <c r="AF32" s="43"/>
       <c r="AG32" s="43"/>
       <c r="AH32" s="43"/>
@@ -15303,17 +15365,19 @@
       <c r="AJ32" s="43"/>
       <c r="AK32" s="43"/>
       <c r="AL32" s="43"/>
-      <c r="AM32" s="37"/>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM32" s="43"/>
+      <c r="AN32" s="43"/>
+      <c r="AO32" s="37"/>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="9"/>
+        <v>147</v>
+      </c>
+      <c r="B33" s="43"/>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="43"/>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
@@ -15336,31 +15400,33 @@
       <c r="Z33" s="43"/>
       <c r="AA33" s="43"/>
       <c r="AB33" s="43"/>
-      <c r="AC33" s="43"/>
-      <c r="AD33" s="43">
+      <c r="AC33" s="43">
+        <v>100000</v>
+      </c>
+      <c r="AD33" s="43"/>
+      <c r="AE33" s="43">
         <v>50000</v>
       </c>
-      <c r="AE33" s="43"/>
-      <c r="AF33" s="43">
-        <v>50000</v>
-      </c>
+      <c r="AF33" s="43"/>
       <c r="AG33" s="43"/>
       <c r="AH33" s="43"/>
       <c r="AI33" s="43"/>
       <c r="AJ33" s="43"/>
       <c r="AK33" s="43"/>
       <c r="AL33" s="43"/>
-      <c r="AM33" s="37"/>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM33" s="43"/>
+      <c r="AN33" s="43"/>
+      <c r="AO33" s="37"/>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="9"/>
+        <v>148</v>
+      </c>
+      <c r="B34" s="43"/>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
@@ -15384,28 +15450,32 @@
       <c r="AA34" s="43"/>
       <c r="AB34" s="43"/>
       <c r="AC34" s="43"/>
-      <c r="AD34" s="43"/>
-      <c r="AE34" s="43">
+      <c r="AD34" s="43">
         <v>50000</v>
       </c>
-      <c r="AF34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43">
+        <v>50000</v>
+      </c>
       <c r="AG34" s="43"/>
       <c r="AH34" s="43"/>
       <c r="AI34" s="43"/>
       <c r="AJ34" s="43"/>
       <c r="AK34" s="43"/>
       <c r="AL34" s="43"/>
-      <c r="AM34" s="37"/>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM34" s="43"/>
+      <c r="AN34" s="43"/>
+      <c r="AO34" s="37"/>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="B35" s="43"/>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
       <c r="I35" s="43"/>
@@ -15419,24 +15489,20 @@
       <c r="Q35" s="43"/>
       <c r="R35" s="43"/>
       <c r="S35" s="43"/>
-      <c r="T35" s="43">
-        <v>200000</v>
-      </c>
-      <c r="U35" s="43">
-        <v>300000</v>
-      </c>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
       <c r="V35" s="43"/>
       <c r="W35" s="43"/>
       <c r="X35" s="43"/>
-      <c r="Y35" s="43">
-        <v>300000</v>
-      </c>
+      <c r="Y35" s="43"/>
       <c r="Z35" s="43"/>
       <c r="AA35" s="43"/>
       <c r="AB35" s="43"/>
       <c r="AC35" s="43"/>
       <c r="AD35" s="43"/>
-      <c r="AE35" s="43"/>
+      <c r="AE35" s="43">
+        <v>50000</v>
+      </c>
       <c r="AF35" s="43"/>
       <c r="AG35" s="43"/>
       <c r="AH35" s="43"/>
@@ -15444,114 +15510,122 @@
       <c r="AJ35" s="43"/>
       <c r="AK35" s="43"/>
       <c r="AL35" s="43"/>
-      <c r="AM35" s="37"/>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM35" s="43"/>
+      <c r="AN35" s="43"/>
+      <c r="AO35" s="37"/>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="43"/>
+      <c r="AC36" s="43"/>
+      <c r="AD36" s="43"/>
+      <c r="AE36" s="43"/>
+      <c r="AF36" s="43"/>
+      <c r="AG36" s="43"/>
+      <c r="AH36" s="43"/>
+      <c r="AI36" s="43"/>
+      <c r="AJ36" s="43"/>
+      <c r="AK36" s="43"/>
+      <c r="AL36" s="43"/>
+      <c r="AM36" s="43"/>
+      <c r="AN36" s="43"/>
+      <c r="AO36" s="37"/>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43">
+        <v>200000</v>
+      </c>
+      <c r="T37" s="43">
+        <v>300000</v>
+      </c>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43">
+        <v>300000</v>
+      </c>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="43"/>
+      <c r="AE37" s="43"/>
+      <c r="AF37" s="43"/>
+      <c r="AG37" s="43"/>
+      <c r="AH37" s="43"/>
+      <c r="AI37" s="43"/>
+      <c r="AJ37" s="43"/>
+      <c r="AK37" s="43"/>
+      <c r="AL37" s="43"/>
+      <c r="AM37" s="43"/>
+      <c r="AN37" s="43"/>
+      <c r="AO37" s="37"/>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="9">
-        <v>50000</v>
-      </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="36"/>
-      <c r="AI36" s="36"/>
-      <c r="AJ36" s="36"/>
-      <c r="AK36" s="36"/>
-      <c r="AL36" s="36"/>
-      <c r="AM36" s="37"/>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36">
-        <v>100000</v>
-      </c>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="36"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="36"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="36"/>
-      <c r="AI37" s="36"/>
-      <c r="AJ37" s="36"/>
-      <c r="AK37" s="36"/>
-      <c r="AL37" s="36"/>
-      <c r="AM37" s="37"/>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
       <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
+      <c r="F38" s="9">
+        <v>50000</v>
+      </c>
       <c r="G38" s="36"/>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
-      <c r="K38" s="36">
-        <v>75000</v>
-      </c>
+      <c r="K38" s="36"/>
       <c r="L38" s="36"/>
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
@@ -15579,30 +15653,32 @@
       <c r="AJ38" s="36"/>
       <c r="AK38" s="36"/>
       <c r="AL38" s="36"/>
-      <c r="AM38" s="37"/>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM38" s="36"/>
+      <c r="AN38" s="36"/>
+      <c r="AO38" s="37"/>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B39" s="36"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
       <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="36"/>
       <c r="H39" s="36"/>
       <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
+      <c r="J39" s="36">
+        <v>100000</v>
+      </c>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
       <c r="M39" s="36"/>
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
-      <c r="Q39" s="36">
-        <v>50000</v>
-      </c>
+      <c r="Q39" s="36"/>
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
       <c r="T39" s="36"/>
@@ -15624,33 +15700,33 @@
       <c r="AJ39" s="36"/>
       <c r="AK39" s="36"/>
       <c r="AL39" s="36"/>
-      <c r="AM39" s="37"/>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM39" s="36"/>
+      <c r="AN39" s="36"/>
+      <c r="AO39" s="37"/>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B40" s="36"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
       <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
+      <c r="K40" s="36">
+        <v>75000</v>
+      </c>
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
-      <c r="P40" s="36">
-        <v>50000</v>
-      </c>
+      <c r="P40" s="36"/>
       <c r="Q40" s="36"/>
-      <c r="R40" s="36">
-        <v>50000</v>
-      </c>
+      <c r="R40" s="36"/>
       <c r="S40" s="36"/>
       <c r="T40" s="36"/>
       <c r="U40" s="36"/>
@@ -15671,107 +15747,115 @@
       <c r="AJ40" s="36"/>
       <c r="AK40" s="36"/>
       <c r="AL40" s="36"/>
-      <c r="AM40" s="37"/>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM40" s="36"/>
+      <c r="AN40" s="36"/>
+      <c r="AO40" s="37"/>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36">
+        <v>50000</v>
+      </c>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="36"/>
+      <c r="AH41" s="36"/>
+      <c r="AI41" s="36"/>
+      <c r="AJ41" s="36"/>
+      <c r="AK41" s="36"/>
+      <c r="AL41" s="36"/>
+      <c r="AM41" s="36"/>
+      <c r="AN41" s="36"/>
+      <c r="AO41" s="37"/>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36">
+        <v>50000</v>
+      </c>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36">
+        <v>50000</v>
+      </c>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="36"/>
+      <c r="AH42" s="36"/>
+      <c r="AI42" s="36"/>
+      <c r="AJ42" s="36"/>
+      <c r="AK42" s="36"/>
+      <c r="AL42" s="36"/>
+      <c r="AM42" s="36"/>
+      <c r="AN42" s="36"/>
+      <c r="AO42" s="37"/>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43">
-        <v>100000</v>
-      </c>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="43"/>
-      <c r="Z41" s="43"/>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="43"/>
-      <c r="AC41" s="43"/>
-      <c r="AD41" s="43"/>
-      <c r="AE41" s="43"/>
-      <c r="AF41" s="43"/>
-      <c r="AG41" s="43"/>
-      <c r="AH41" s="43"/>
-      <c r="AI41" s="43"/>
-      <c r="AJ41" s="43"/>
-      <c r="AK41" s="43"/>
-      <c r="AL41" s="43"/>
-      <c r="AM41" s="37"/>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43">
-        <v>100000</v>
-      </c>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="43"/>
-      <c r="Z42" s="43"/>
-      <c r="AA42" s="43"/>
-      <c r="AB42" s="43"/>
-      <c r="AC42" s="43"/>
-      <c r="AD42" s="43"/>
-      <c r="AE42" s="43"/>
-      <c r="AF42" s="43"/>
-      <c r="AG42" s="43"/>
-      <c r="AH42" s="43"/>
-      <c r="AI42" s="43"/>
-      <c r="AJ42" s="43"/>
-      <c r="AK42" s="43"/>
-      <c r="AL42" s="43"/>
-      <c r="AM42" s="37"/>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="43"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="43"/>
       <c r="H43" s="43"/>
       <c r="I43" s="43"/>
@@ -15786,12 +15870,12 @@
       <c r="R43" s="43"/>
       <c r="S43" s="43"/>
       <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
+      <c r="U43" s="43">
+        <v>100000</v>
+      </c>
       <c r="V43" s="43"/>
       <c r="W43" s="43"/>
-      <c r="X43" s="43">
-        <v>100000</v>
-      </c>
+      <c r="X43" s="43"/>
       <c r="Y43" s="43"/>
       <c r="Z43" s="43"/>
       <c r="AA43" s="43"/>
@@ -15806,17 +15890,19 @@
       <c r="AJ43" s="43"/>
       <c r="AK43" s="43"/>
       <c r="AL43" s="43"/>
-      <c r="AM43" s="37"/>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM43" s="43"/>
+      <c r="AN43" s="43"/>
+      <c r="AO43" s="37"/>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="B44" s="43"/>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
+      <c r="F44" s="9"/>
       <c r="G44" s="43"/>
       <c r="H44" s="43"/>
       <c r="I44" s="43"/>
@@ -15830,15 +15916,15 @@
       <c r="Q44" s="43"/>
       <c r="R44" s="43"/>
       <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
+      <c r="T44" s="43">
+        <v>100000</v>
+      </c>
       <c r="U44" s="43"/>
       <c r="V44" s="43"/>
       <c r="W44" s="43"/>
       <c r="X44" s="43"/>
       <c r="Y44" s="43"/>
-      <c r="Z44" s="43">
-        <v>100000</v>
-      </c>
+      <c r="Z44" s="43"/>
       <c r="AA44" s="43"/>
       <c r="AB44" s="43"/>
       <c r="AC44" s="43"/>
@@ -15851,17 +15937,19 @@
       <c r="AJ44" s="43"/>
       <c r="AK44" s="43"/>
       <c r="AL44" s="43"/>
-      <c r="AM44" s="37"/>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM44" s="43"/>
+      <c r="AN44" s="43"/>
+      <c r="AO44" s="37"/>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="9"/>
+        <v>108</v>
+      </c>
+      <c r="B45" s="43"/>
       <c r="C45" s="43"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="43"/>
       <c r="H45" s="43"/>
       <c r="I45" s="43"/>
@@ -15878,7 +15966,9 @@
       <c r="T45" s="43"/>
       <c r="U45" s="43"/>
       <c r="V45" s="43"/>
-      <c r="W45" s="43"/>
+      <c r="W45" s="43">
+        <v>100000</v>
+      </c>
       <c r="X45" s="43"/>
       <c r="Y45" s="43"/>
       <c r="Z45" s="43"/>
@@ -15889,24 +15979,24 @@
       <c r="AE45" s="43"/>
       <c r="AF45" s="43"/>
       <c r="AG45" s="43"/>
-      <c r="AH45" s="43">
-        <v>100000</v>
-      </c>
+      <c r="AH45" s="43"/>
       <c r="AI45" s="43"/>
       <c r="AJ45" s="43"/>
       <c r="AK45" s="43"/>
       <c r="AL45" s="43"/>
-      <c r="AM45" s="37"/>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM45" s="43"/>
+      <c r="AN45" s="43"/>
+      <c r="AO45" s="37"/>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="9"/>
+        <v>109</v>
+      </c>
+      <c r="B46" s="43"/>
       <c r="C46" s="43"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="43"/>
       <c r="H46" s="43"/>
       <c r="I46" s="43"/>
@@ -15926,13 +16016,13 @@
       <c r="W46" s="43"/>
       <c r="X46" s="43"/>
       <c r="Y46" s="43"/>
-      <c r="Z46" s="43"/>
+      <c r="Z46" s="43">
+        <v>100000</v>
+      </c>
       <c r="AA46" s="43"/>
       <c r="AB46" s="43"/>
       <c r="AC46" s="43"/>
-      <c r="AD46" s="43">
-        <v>50000</v>
-      </c>
+      <c r="AD46" s="43"/>
       <c r="AE46" s="43"/>
       <c r="AF46" s="43"/>
       <c r="AG46" s="43"/>
@@ -15941,17 +16031,19 @@
       <c r="AJ46" s="43"/>
       <c r="AK46" s="43"/>
       <c r="AL46" s="43"/>
-      <c r="AM46" s="37"/>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM46" s="43"/>
+      <c r="AN46" s="43"/>
+      <c r="AO46" s="37"/>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="B47" s="43"/>
       <c r="C47" s="43"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
+      <c r="F47" s="9"/>
       <c r="G47" s="43"/>
       <c r="H47" s="43"/>
       <c r="I47" s="43"/>
@@ -15969,7 +16061,9 @@
       <c r="U47" s="43"/>
       <c r="V47" s="43"/>
       <c r="W47" s="43"/>
-      <c r="X47" s="43"/>
+      <c r="X47" s="43">
+        <v>100000</v>
+      </c>
       <c r="Y47" s="43"/>
       <c r="Z47" s="43"/>
       <c r="AA47" s="43"/>
@@ -15977,26 +16071,26 @@
       <c r="AC47" s="43"/>
       <c r="AD47" s="43"/>
       <c r="AE47" s="43"/>
-      <c r="AF47" s="43">
-        <v>50000</v>
-      </c>
+      <c r="AF47" s="43"/>
       <c r="AG47" s="43"/>
       <c r="AH47" s="43"/>
       <c r="AI47" s="43"/>
       <c r="AJ47" s="43"/>
       <c r="AK47" s="43"/>
       <c r="AL47" s="43"/>
-      <c r="AM47" s="37"/>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM47" s="43"/>
+      <c r="AN47" s="43"/>
+      <c r="AO47" s="37"/>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="B48" s="43"/>
       <c r="C48" s="43"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
+      <c r="F48" s="9"/>
       <c r="G48" s="43"/>
       <c r="H48" s="43"/>
       <c r="I48" s="43"/>
@@ -16020,28 +16114,30 @@
       <c r="AA48" s="43"/>
       <c r="AB48" s="43"/>
       <c r="AC48" s="43"/>
-      <c r="AD48" s="43"/>
+      <c r="AD48" s="43">
+        <v>50000</v>
+      </c>
       <c r="AE48" s="43"/>
-      <c r="AF48" s="43">
-        <v>50000</v>
-      </c>
+      <c r="AF48" s="43"/>
       <c r="AG48" s="43"/>
       <c r="AH48" s="43"/>
       <c r="AI48" s="43"/>
       <c r="AJ48" s="43"/>
       <c r="AK48" s="43"/>
       <c r="AL48" s="43"/>
-      <c r="AM48" s="37"/>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM48" s="43"/>
+      <c r="AN48" s="43"/>
+      <c r="AO48" s="37"/>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="B49" s="43"/>
       <c r="C49" s="43"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
+      <c r="F49" s="9"/>
       <c r="G49" s="43"/>
       <c r="H49" s="43"/>
       <c r="I49" s="43"/>
@@ -16076,17 +16172,19 @@
       <c r="AJ49" s="43"/>
       <c r="AK49" s="43"/>
       <c r="AL49" s="43"/>
-      <c r="AM49" s="37"/>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM49" s="43"/>
+      <c r="AN49" s="43"/>
+      <c r="AO49" s="37"/>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="B50" s="43"/>
       <c r="C50" s="43"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
+      <c r="F50" s="9"/>
       <c r="G50" s="43"/>
       <c r="H50" s="43"/>
       <c r="I50" s="43"/>
@@ -16109,36 +16207,32 @@
       <c r="Z50" s="43"/>
       <c r="AA50" s="43"/>
       <c r="AB50" s="43"/>
-      <c r="AC50" s="43">
-        <v>50000</v>
-      </c>
+      <c r="AC50" s="43"/>
       <c r="